--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,18 @@
     <t>['34', '39', '73', '80']</t>
   </si>
   <si>
+    <t>['14', '19', '65', '87']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['9', '35', '71', '90+5']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -782,6 +794,15 @@
   </si>
   <si>
     <t>['57', '65']</t>
+  </si>
+  <si>
+    <t>['44', '68']</t>
+  </si>
+  <si>
+    <t>['47', '72']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1408,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1477,7 +1498,7 @@
         <v>1.86</v>
       </c>
       <c r="AT2">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1578,7 +1599,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1665,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT3">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1769,7 +1790,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2151,7 +2172,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2241,7 +2262,7 @@
         <v>1.14</v>
       </c>
       <c r="AT6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2342,7 +2363,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2533,7 +2554,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2623,7 +2644,7 @@
         <v>1.63</v>
       </c>
       <c r="AT8">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2811,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT9">
         <v>0.63</v>
@@ -3196,7 +3217,7 @@
         <v>2.29</v>
       </c>
       <c r="AT11">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3575,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT13">
         <v>1.13</v>
@@ -3870,7 +3891,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4061,7 +4082,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4148,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT16">
         <v>1.71</v>
@@ -4252,7 +4273,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4443,7 +4464,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4530,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -4825,7 +4846,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5016,7 +5037,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5103,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU21">
         <v>1.94</v>
@@ -5398,7 +5419,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5485,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT23">
         <v>0.63</v>
@@ -5679,7 +5700,7 @@
         <v>1.63</v>
       </c>
       <c r="AT24">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU24">
         <v>1.52</v>
@@ -6162,7 +6183,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6249,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT27">
         <v>1.25</v>
@@ -6353,7 +6374,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6544,7 +6565,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6634,7 +6655,7 @@
         <v>1.29</v>
       </c>
       <c r="AT29">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU29">
         <v>1.58</v>
@@ -6735,7 +6756,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7117,7 +7138,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7204,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT32">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7499,7 +7520,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7690,7 +7711,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7780,7 +7801,7 @@
         <v>0.86</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU35">
         <v>1.92</v>
@@ -7881,7 +7902,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7968,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT36">
         <v>1.86</v>
@@ -8072,7 +8093,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8263,7 +8284,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8454,7 +8475,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8645,7 +8666,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8732,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT40">
         <v>0.88</v>
@@ -8836,7 +8857,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -9027,7 +9048,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9117,7 +9138,7 @@
         <v>0.75</v>
       </c>
       <c r="AT42">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU42">
         <v>1.95</v>
@@ -9218,7 +9239,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9409,7 +9430,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9600,7 +9621,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9687,7 +9708,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT45">
         <v>1.86</v>
@@ -9791,7 +9812,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9878,7 +9899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT46">
         <v>2.57</v>
@@ -9982,7 +10003,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10260,7 +10281,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT48">
         <v>0.63</v>
@@ -10364,7 +10385,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10555,7 +10576,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10645,7 +10666,7 @@
         <v>1.86</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU50">
         <v>1.72</v>
@@ -10746,7 +10767,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11128,7 +11149,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11218,7 +11239,7 @@
         <v>1.86</v>
       </c>
       <c r="AT53">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU53">
         <v>2.17</v>
@@ -11319,7 +11340,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11409,7 +11430,7 @@
         <v>2.63</v>
       </c>
       <c r="AT54">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -11510,7 +11531,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11597,10 +11618,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT55">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU55">
         <v>1.58</v>
@@ -11979,7 +12000,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT57">
         <v>1.5</v>
@@ -12083,7 +12104,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12274,7 +12295,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12656,7 +12677,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -12743,7 +12764,7 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT61">
         <v>1.5</v>
@@ -13038,7 +13059,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13125,10 +13146,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT63">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU63">
         <v>1.89</v>
@@ -13229,7 +13250,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13319,7 +13340,7 @@
         <v>0.75</v>
       </c>
       <c r="AT64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13420,7 +13441,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13611,7 +13632,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13802,7 +13823,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13889,7 +13910,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT67">
         <v>1.86</v>
@@ -14083,7 +14104,7 @@
         <v>1.29</v>
       </c>
       <c r="AT68">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU68">
         <v>1.44</v>
@@ -14184,7 +14205,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14271,10 +14292,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT69">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU69">
         <v>1.62</v>
@@ -14375,7 +14396,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14566,7 +14587,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14656,7 +14677,7 @@
         <v>1.71</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU71">
         <v>1.89</v>
@@ -14757,7 +14778,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15521,7 +15542,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15712,7 +15733,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -15903,7 +15924,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -15990,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT78">
         <v>1.13</v>
@@ -16181,10 +16202,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT79">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU79">
         <v>2.11</v>
@@ -16375,7 +16396,7 @@
         <v>0.86</v>
       </c>
       <c r="AT80">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU80">
         <v>1.97</v>
@@ -16667,7 +16688,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16754,7 +16775,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -16858,7 +16879,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17049,7 +17070,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17136,10 +17157,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT84">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.57</v>
@@ -17240,7 +17261,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17813,7 +17834,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -17900,10 +17921,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT88">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU88">
         <v>1.73</v>
@@ -18004,7 +18025,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18195,7 +18216,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -18285,7 +18306,7 @@
         <v>0.63</v>
       </c>
       <c r="AT90">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU90">
         <v>1.38</v>
@@ -18386,7 +18407,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18476,7 +18497,7 @@
         <v>1.14</v>
       </c>
       <c r="AT91">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU91">
         <v>1.61</v>
@@ -18768,7 +18789,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -18855,7 +18876,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -18959,7 +18980,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19237,7 +19258,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT95">
         <v>0.63</v>
@@ -19341,7 +19362,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19532,7 +19553,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19723,7 +19744,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19813,7 +19834,7 @@
         <v>0.86</v>
       </c>
       <c r="AT98">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU98">
         <v>1.83</v>
@@ -19914,7 +19935,7 @@
         <v>85</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20001,7 +20022,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT99">
         <v>1.71</v>
@@ -20296,7 +20317,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20487,7 +20508,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20678,7 +20699,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20768,7 +20789,7 @@
         <v>1.71</v>
       </c>
       <c r="AT103">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU103">
         <v>1.89</v>
@@ -20869,7 +20890,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20959,7 +20980,7 @@
         <v>1.14</v>
       </c>
       <c r="AT104">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU104">
         <v>1.71</v>
@@ -21060,7 +21081,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21147,7 +21168,7 @@
         <v>2.4</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT105">
         <v>2.57</v>
@@ -21341,7 +21362,7 @@
         <v>1.86</v>
       </c>
       <c r="AT106">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU106">
         <v>1.67</v>
@@ -21633,7 +21654,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21720,7 +21741,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT108">
         <v>1.86</v>
@@ -21824,7 +21845,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21914,7 +21935,7 @@
         <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU109">
         <v>1.51</v>
@@ -22015,7 +22036,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22206,7 +22227,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22293,7 +22314,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22484,7 +22505,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT112">
         <v>1.13</v>
@@ -22675,7 +22696,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT113">
         <v>0.88</v>
@@ -22869,7 +22890,7 @@
         <v>2.29</v>
       </c>
       <c r="AT114">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU114">
         <v>1.74</v>
@@ -23543,7 +23564,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23824,7 +23845,7 @@
         <v>1.71</v>
       </c>
       <c r="AT119">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU119">
         <v>1.89</v>
@@ -23925,7 +23946,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24116,7 +24137,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24206,7 +24227,7 @@
         <v>1.63</v>
       </c>
       <c r="AT121">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU121">
         <v>1.64</v>
@@ -24498,7 +24519,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24689,7 +24710,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24880,7 +24901,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25071,7 +25092,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25349,7 +25370,7 @@
         <v>0.67</v>
       </c>
       <c r="AS127">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT127">
         <v>0.57</v>
@@ -25453,7 +25474,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25835,7 +25856,7 @@
         <v>176</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26026,7 +26047,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26167,6 +26188,961 @@
         <v>18</v>
       </c>
       <c r="BK131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2547323</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44864.39583333334</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132" t="s">
+        <v>80</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>4</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>6</v>
+      </c>
+      <c r="O132" t="s">
+        <v>178</v>
+      </c>
+      <c r="P132" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q132">
+        <v>10</v>
+      </c>
+      <c r="R132">
+        <v>4</v>
+      </c>
+      <c r="S132">
+        <v>14</v>
+      </c>
+      <c r="T132">
+        <v>1.91</v>
+      </c>
+      <c r="U132">
+        <v>2.5</v>
+      </c>
+      <c r="V132">
+        <v>6.5</v>
+      </c>
+      <c r="W132">
+        <v>1.3</v>
+      </c>
+      <c r="X132">
+        <v>3.4</v>
+      </c>
+      <c r="Y132">
+        <v>2.5</v>
+      </c>
+      <c r="Z132">
+        <v>1.5</v>
+      </c>
+      <c r="AA132">
+        <v>6</v>
+      </c>
+      <c r="AB132">
+        <v>1.13</v>
+      </c>
+      <c r="AC132">
+        <v>1.42</v>
+      </c>
+      <c r="AD132">
+        <v>4.8</v>
+      </c>
+      <c r="AE132">
+        <v>7</v>
+      </c>
+      <c r="AF132">
+        <v>1.02</v>
+      </c>
+      <c r="AG132">
+        <v>15</v>
+      </c>
+      <c r="AH132">
+        <v>1.2</v>
+      </c>
+      <c r="AI132">
+        <v>4.33</v>
+      </c>
+      <c r="AJ132">
+        <v>1.6</v>
+      </c>
+      <c r="AK132">
+        <v>2.35</v>
+      </c>
+      <c r="AL132">
+        <v>1.91</v>
+      </c>
+      <c r="AM132">
+        <v>1.91</v>
+      </c>
+      <c r="AN132">
+        <v>1.11</v>
+      </c>
+      <c r="AO132">
+        <v>1.19</v>
+      </c>
+      <c r="AP132">
+        <v>2.65</v>
+      </c>
+      <c r="AQ132">
+        <v>1.43</v>
+      </c>
+      <c r="AR132">
+        <v>0.86</v>
+      </c>
+      <c r="AS132">
+        <v>1.63</v>
+      </c>
+      <c r="AT132">
+        <v>0.75</v>
+      </c>
+      <c r="AU132">
+        <v>1.79</v>
+      </c>
+      <c r="AV132">
+        <v>1.23</v>
+      </c>
+      <c r="AW132">
+        <v>3.02</v>
+      </c>
+      <c r="AX132">
+        <v>1.3</v>
+      </c>
+      <c r="AY132">
+        <v>8.5</v>
+      </c>
+      <c r="AZ132">
+        <v>4.3</v>
+      </c>
+      <c r="BA132">
+        <v>1.2</v>
+      </c>
+      <c r="BB132">
+        <v>1.42</v>
+      </c>
+      <c r="BC132">
+        <v>1.76</v>
+      </c>
+      <c r="BD132">
+        <v>2.22</v>
+      </c>
+      <c r="BE132">
+        <v>2.93</v>
+      </c>
+      <c r="BF132">
+        <v>6</v>
+      </c>
+      <c r="BG132">
+        <v>5</v>
+      </c>
+      <c r="BH132">
+        <v>13</v>
+      </c>
+      <c r="BI132">
+        <v>10</v>
+      </c>
+      <c r="BJ132">
+        <v>19</v>
+      </c>
+      <c r="BK132">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2547327</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44864.5</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>81</v>
+      </c>
+      <c r="H133" t="s">
+        <v>74</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>92</v>
+      </c>
+      <c r="P133" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q133">
+        <v>6</v>
+      </c>
+      <c r="R133">
+        <v>7</v>
+      </c>
+      <c r="S133">
+        <v>13</v>
+      </c>
+      <c r="T133">
+        <v>5.5</v>
+      </c>
+      <c r="U133">
+        <v>2.3</v>
+      </c>
+      <c r="V133">
+        <v>2.1</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>3.25</v>
+      </c>
+      <c r="Y133">
+        <v>2.63</v>
+      </c>
+      <c r="Z133">
+        <v>1.44</v>
+      </c>
+      <c r="AA133">
+        <v>6.5</v>
+      </c>
+      <c r="AB133">
+        <v>1.11</v>
+      </c>
+      <c r="AC133">
+        <v>5.5</v>
+      </c>
+      <c r="AD133">
+        <v>4.2</v>
+      </c>
+      <c r="AE133">
+        <v>1.58</v>
+      </c>
+      <c r="AF133">
+        <v>1.03</v>
+      </c>
+      <c r="AG133">
+        <v>14</v>
+      </c>
+      <c r="AH133">
+        <v>1.25</v>
+      </c>
+      <c r="AI133">
+        <v>3.85</v>
+      </c>
+      <c r="AJ133">
+        <v>1.77</v>
+      </c>
+      <c r="AK133">
+        <v>2.06</v>
+      </c>
+      <c r="AL133">
+        <v>1.8</v>
+      </c>
+      <c r="AM133">
+        <v>1.95</v>
+      </c>
+      <c r="AN133">
+        <v>2.37</v>
+      </c>
+      <c r="AO133">
+        <v>1.22</v>
+      </c>
+      <c r="AP133">
+        <v>1.14</v>
+      </c>
+      <c r="AQ133">
+        <v>0.17</v>
+      </c>
+      <c r="AR133">
+        <v>1.86</v>
+      </c>
+      <c r="AS133">
+        <v>0.14</v>
+      </c>
+      <c r="AT133">
+        <v>2</v>
+      </c>
+      <c r="AU133">
+        <v>1.23</v>
+      </c>
+      <c r="AV133">
+        <v>1.47</v>
+      </c>
+      <c r="AW133">
+        <v>2.7</v>
+      </c>
+      <c r="AX133">
+        <v>3.1</v>
+      </c>
+      <c r="AY133">
+        <v>8.5</v>
+      </c>
+      <c r="AZ133">
+        <v>1.44</v>
+      </c>
+      <c r="BA133">
+        <v>1.26</v>
+      </c>
+      <c r="BB133">
+        <v>1.5</v>
+      </c>
+      <c r="BC133">
+        <v>1.9</v>
+      </c>
+      <c r="BD133">
+        <v>2.45</v>
+      </c>
+      <c r="BE133">
+        <v>3.34</v>
+      </c>
+      <c r="BF133">
+        <v>4</v>
+      </c>
+      <c r="BG133">
+        <v>5</v>
+      </c>
+      <c r="BH133">
+        <v>9</v>
+      </c>
+      <c r="BI133">
+        <v>11</v>
+      </c>
+      <c r="BJ133">
+        <v>13</v>
+      </c>
+      <c r="BK133">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2547325</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44864.60416666666</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>76</v>
+      </c>
+      <c r="H134" t="s">
+        <v>78</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>179</v>
+      </c>
+      <c r="P134" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134">
+        <v>7</v>
+      </c>
+      <c r="T134">
+        <v>4</v>
+      </c>
+      <c r="U134">
+        <v>2.3</v>
+      </c>
+      <c r="V134">
+        <v>2.5</v>
+      </c>
+      <c r="W134">
+        <v>1.33</v>
+      </c>
+      <c r="X134">
+        <v>3.25</v>
+      </c>
+      <c r="Y134">
+        <v>2.5</v>
+      </c>
+      <c r="Z134">
+        <v>1.5</v>
+      </c>
+      <c r="AA134">
+        <v>6.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.11</v>
+      </c>
+      <c r="AC134">
+        <v>3.65</v>
+      </c>
+      <c r="AD134">
+        <v>3.7</v>
+      </c>
+      <c r="AE134">
+        <v>1.87</v>
+      </c>
+      <c r="AF134">
+        <v>1.03</v>
+      </c>
+      <c r="AG134">
+        <v>13</v>
+      </c>
+      <c r="AH134">
+        <v>1.22</v>
+      </c>
+      <c r="AI134">
+        <v>4.2</v>
+      </c>
+      <c r="AJ134">
+        <v>1.71</v>
+      </c>
+      <c r="AK134">
+        <v>2.06</v>
+      </c>
+      <c r="AL134">
+        <v>1.62</v>
+      </c>
+      <c r="AM134">
+        <v>2.2</v>
+      </c>
+      <c r="AN134">
+        <v>1.85</v>
+      </c>
+      <c r="AO134">
+        <v>1.26</v>
+      </c>
+      <c r="AP134">
+        <v>1.26</v>
+      </c>
+      <c r="AQ134">
+        <v>1.5</v>
+      </c>
+      <c r="AR134">
+        <v>1.43</v>
+      </c>
+      <c r="AS134">
+        <v>1.43</v>
+      </c>
+      <c r="AT134">
+        <v>1.38</v>
+      </c>
+      <c r="AU134">
+        <v>1.61</v>
+      </c>
+      <c r="AV134">
+        <v>1.46</v>
+      </c>
+      <c r="AW134">
+        <v>3.07</v>
+      </c>
+      <c r="AX134">
+        <v>2.4</v>
+      </c>
+      <c r="AY134">
+        <v>7.5</v>
+      </c>
+      <c r="AZ134">
+        <v>1.78</v>
+      </c>
+      <c r="BA134">
+        <v>1.18</v>
+      </c>
+      <c r="BB134">
+        <v>1.32</v>
+      </c>
+      <c r="BC134">
+        <v>1.6</v>
+      </c>
+      <c r="BD134">
+        <v>2.02</v>
+      </c>
+      <c r="BE134">
+        <v>2.62</v>
+      </c>
+      <c r="BF134">
+        <v>6</v>
+      </c>
+      <c r="BG134">
+        <v>6</v>
+      </c>
+      <c r="BH134">
+        <v>6</v>
+      </c>
+      <c r="BI134">
+        <v>5</v>
+      </c>
+      <c r="BJ134">
+        <v>12</v>
+      </c>
+      <c r="BK134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2547330</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44864.70833333334</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>66</v>
+      </c>
+      <c r="H135" t="s">
+        <v>82</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>180</v>
+      </c>
+      <c r="P135" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>8</v>
+      </c>
+      <c r="S135">
+        <v>12</v>
+      </c>
+      <c r="T135">
+        <v>3.75</v>
+      </c>
+      <c r="U135">
+        <v>2.3</v>
+      </c>
+      <c r="V135">
+        <v>2.63</v>
+      </c>
+      <c r="W135">
+        <v>1.33</v>
+      </c>
+      <c r="X135">
+        <v>3.25</v>
+      </c>
+      <c r="Y135">
+        <v>2.5</v>
+      </c>
+      <c r="Z135">
+        <v>1.5</v>
+      </c>
+      <c r="AA135">
+        <v>6.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.11</v>
+      </c>
+      <c r="AC135">
+        <v>3.25</v>
+      </c>
+      <c r="AD135">
+        <v>3.6</v>
+      </c>
+      <c r="AE135">
+        <v>2.02</v>
+      </c>
+      <c r="AF135">
+        <v>1.03</v>
+      </c>
+      <c r="AG135">
+        <v>15</v>
+      </c>
+      <c r="AH135">
+        <v>1.22</v>
+      </c>
+      <c r="AI135">
+        <v>4.2</v>
+      </c>
+      <c r="AJ135">
+        <v>1.69</v>
+      </c>
+      <c r="AK135">
+        <v>2.09</v>
+      </c>
+      <c r="AL135">
+        <v>1.62</v>
+      </c>
+      <c r="AM135">
+        <v>2.2</v>
+      </c>
+      <c r="AN135">
+        <v>1.73</v>
+      </c>
+      <c r="AO135">
+        <v>1.27</v>
+      </c>
+      <c r="AP135">
+        <v>1.32</v>
+      </c>
+      <c r="AQ135">
+        <v>1</v>
+      </c>
+      <c r="AR135">
+        <v>2</v>
+      </c>
+      <c r="AS135">
+        <v>1.25</v>
+      </c>
+      <c r="AT135">
+        <v>1.71</v>
+      </c>
+      <c r="AU135">
+        <v>1.62</v>
+      </c>
+      <c r="AV135">
+        <v>1.44</v>
+      </c>
+      <c r="AW135">
+        <v>3.06</v>
+      </c>
+      <c r="AX135">
+        <v>2.4</v>
+      </c>
+      <c r="AY135">
+        <v>7</v>
+      </c>
+      <c r="AZ135">
+        <v>1.79</v>
+      </c>
+      <c r="BA135">
+        <v>1.22</v>
+      </c>
+      <c r="BB135">
+        <v>1.44</v>
+      </c>
+      <c r="BC135">
+        <v>1.8</v>
+      </c>
+      <c r="BD135">
+        <v>2.28</v>
+      </c>
+      <c r="BE135">
+        <v>3.04</v>
+      </c>
+      <c r="BF135">
+        <v>4</v>
+      </c>
+      <c r="BG135">
+        <v>7</v>
+      </c>
+      <c r="BH135">
+        <v>5</v>
+      </c>
+      <c r="BI135">
+        <v>8</v>
+      </c>
+      <c r="BJ135">
+        <v>9</v>
+      </c>
+      <c r="BK135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2547331</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44869.69791666666</v>
+      </c>
+      <c r="F136">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>79</v>
+      </c>
+      <c r="H136" t="s">
+        <v>66</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136" t="s">
+        <v>181</v>
+      </c>
+      <c r="P136" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q136">
+        <v>5</v>
+      </c>
+      <c r="R136">
+        <v>4</v>
+      </c>
+      <c r="S136">
+        <v>9</v>
+      </c>
+      <c r="T136">
+        <v>1.88</v>
+      </c>
+      <c r="U136">
+        <v>2.5</v>
+      </c>
+      <c r="V136">
+        <v>5.25</v>
+      </c>
+      <c r="W136">
+        <v>1.26</v>
+      </c>
+      <c r="X136">
+        <v>3.5</v>
+      </c>
+      <c r="Y136">
+        <v>2.2</v>
+      </c>
+      <c r="Z136">
+        <v>1.6</v>
+      </c>
+      <c r="AA136">
+        <v>4.8</v>
+      </c>
+      <c r="AB136">
+        <v>1.15</v>
+      </c>
+      <c r="AC136">
+        <v>1.4</v>
+      </c>
+      <c r="AD136">
+        <v>4.75</v>
+      </c>
+      <c r="AE136">
+        <v>6.5</v>
+      </c>
+      <c r="AF136">
+        <v>1.02</v>
+      </c>
+      <c r="AG136">
+        <v>12</v>
+      </c>
+      <c r="AH136">
+        <v>1.15</v>
+      </c>
+      <c r="AI136">
+        <v>5.5</v>
+      </c>
+      <c r="AJ136">
+        <v>1.5</v>
+      </c>
+      <c r="AK136">
+        <v>2.4</v>
+      </c>
+      <c r="AL136">
+        <v>1.66</v>
+      </c>
+      <c r="AM136">
+        <v>2.05</v>
+      </c>
+      <c r="AN136">
+        <v>1.12</v>
+      </c>
+      <c r="AO136">
+        <v>1.17</v>
+      </c>
+      <c r="AP136">
+        <v>2.7</v>
+      </c>
+      <c r="AQ136">
+        <v>2.75</v>
+      </c>
+      <c r="AR136">
+        <v>1.29</v>
+      </c>
+      <c r="AS136">
+        <v>2.78</v>
+      </c>
+      <c r="AT136">
+        <v>1.13</v>
+      </c>
+      <c r="AU136">
+        <v>2.22</v>
+      </c>
+      <c r="AV136">
+        <v>1.29</v>
+      </c>
+      <c r="AW136">
+        <v>3.51</v>
+      </c>
+      <c r="AX136">
+        <v>1.27</v>
+      </c>
+      <c r="AY136">
+        <v>8.5</v>
+      </c>
+      <c r="AZ136">
+        <v>4.6</v>
+      </c>
+      <c r="BA136">
+        <v>1.23</v>
+      </c>
+      <c r="BB136">
+        <v>1.47</v>
+      </c>
+      <c r="BC136">
+        <v>1.83</v>
+      </c>
+      <c r="BD136">
+        <v>2.38</v>
+      </c>
+      <c r="BE136">
+        <v>3.2</v>
+      </c>
+      <c r="BF136">
+        <v>9</v>
+      </c>
+      <c r="BG136">
+        <v>2</v>
+      </c>
+      <c r="BH136">
+        <v>5</v>
+      </c>
+      <c r="BI136">
+        <v>5</v>
+      </c>
+      <c r="BJ136">
+        <v>14</v>
+      </c>
+      <c r="BK136">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,42 @@
     <t>['9', '35', '71', '90+5']</t>
   </si>
   <si>
+    <t>['16', '41']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['36', '90+1']</t>
+  </si>
+  <si>
+    <t>['78', '90+1']</t>
+  </si>
+  <si>
+    <t>['9', '29']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['8', '54', '90+6']</t>
+  </si>
+  <si>
+    <t>['23', '29', '42', '45+2', '89']</t>
+  </si>
+  <si>
+    <t>['16', '28', '40', '49', '53', '81']</t>
+  </si>
+  <si>
+    <t>['39', '45+3', '83', '84', '88']</t>
+  </si>
+  <si>
+    <t>['34', '62']</t>
+  </si>
+  <si>
+    <t>['53', '90+6']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -736,9 +772,6 @@
     <t>['24', '59', '75', '89']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['51', '58', '65', '77', '90+1']</t>
   </si>
   <si>
@@ -749,9 +782,6 @@
   </si>
   <si>
     <t>['26', '40', '50', '64']</t>
-  </si>
-  <si>
-    <t>['45+2']</t>
   </si>
   <si>
     <t>['12', '48']</t>
@@ -803,6 +833,36 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['54', '62']</t>
+  </si>
+  <si>
+    <t>['77', '79']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['9', '20', '41', '56', '90+4']</t>
+  </si>
+  <si>
+    <t>['75', '78']</t>
+  </si>
+  <si>
+    <t>['23', '65', '87']</t>
+  </si>
+  <si>
+    <t>['19', '53']</t>
+  </si>
+  <si>
+    <t>['33', '40', '69', '71']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1468,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1495,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT2">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1599,7 +1659,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1689,7 +1749,7 @@
         <v>1.25</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1790,7 +1850,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1877,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2068,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT5">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2172,7 +2232,7 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2259,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2363,7 +2423,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2450,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT7">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2554,7 +2614,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2641,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
+        <v>1.56</v>
+      </c>
+      <c r="AT8">
         <v>1.63</v>
-      </c>
-      <c r="AT8">
-        <v>1.71</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2832,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT9">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3023,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT10">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3214,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT11">
         <v>1.13</v>
@@ -3405,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3596,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT13">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3787,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>0.57</v>
@@ -3891,7 +3951,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3978,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4082,7 +4142,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4172,7 +4232,7 @@
         <v>2.78</v>
       </c>
       <c r="AT16">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4273,7 +4333,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4360,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT17">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4464,7 +4524,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4551,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4742,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT19">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4846,7 +4906,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4933,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT20">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU20">
         <v>1.92</v>
@@ -5037,7 +5097,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5127,7 +5187,7 @@
         <v>2.78</v>
       </c>
       <c r="AT21">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU21">
         <v>1.94</v>
@@ -5315,10 +5375,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU22">
         <v>1.47</v>
@@ -5419,7 +5479,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5509,7 +5569,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU23">
         <v>1.49</v>
@@ -5697,10 +5757,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU24">
         <v>1.52</v>
@@ -5888,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT25">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU25">
         <v>1.02</v>
@@ -6079,10 +6139,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU26">
         <v>1.56</v>
@@ -6183,7 +6243,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6270,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU27">
         <v>1.46</v>
@@ -6374,7 +6434,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6461,10 +6521,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>1.96</v>
@@ -6565,7 +6625,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6652,10 +6712,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT29">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU29">
         <v>1.58</v>
@@ -6756,7 +6816,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6843,10 +6903,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU30">
         <v>2.43</v>
@@ -7034,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT31">
         <v>0.57</v>
@@ -7138,7 +7198,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7225,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT32">
         <v>1.13</v>
@@ -7416,10 +7476,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU33">
         <v>2.11</v>
@@ -7520,7 +7580,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7607,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7711,7 +7771,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7798,10 +7858,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU35">
         <v>1.92</v>
@@ -7902,7 +7962,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7989,10 +8049,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU36">
         <v>1.75</v>
@@ -8093,7 +8153,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8180,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT37">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU37">
         <v>2.29</v>
@@ -8284,7 +8344,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8371,10 +8431,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU38">
         <v>1.9</v>
@@ -8475,7 +8535,7 @@
         <v>85</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8562,10 +8622,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU39">
         <v>1.41</v>
@@ -8666,7 +8726,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8756,7 +8816,7 @@
         <v>2.78</v>
       </c>
       <c r="AT40">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU40">
         <v>2.52</v>
@@ -8857,7 +8917,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -8944,10 +9004,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU41">
         <v>2.06</v>
@@ -9048,7 +9108,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9135,7 +9195,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT42">
         <v>1.13</v>
@@ -9239,7 +9299,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9326,10 +9386,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>1.31</v>
@@ -9430,7 +9490,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9517,10 +9577,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT44">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU44">
         <v>1.38</v>
@@ -9621,7 +9681,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9711,7 +9771,7 @@
         <v>1.25</v>
       </c>
       <c r="AT45">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU45">
         <v>1.68</v>
@@ -9812,7 +9872,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9899,10 +9959,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT46">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU46">
         <v>1.6</v>
@@ -10003,7 +10063,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10090,10 +10150,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT47">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU47">
         <v>1.7</v>
@@ -10281,10 +10341,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT48">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU48">
         <v>1.63</v>
@@ -10385,7 +10445,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10472,7 +10532,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT49">
         <v>0.57</v>
@@ -10576,7 +10636,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10663,10 +10723,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT50">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU50">
         <v>1.72</v>
@@ -10767,7 +10827,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10854,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT51">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -11045,7 +11105,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT52">
         <v>1</v>
@@ -11149,7 +11209,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11236,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU53">
         <v>2.17</v>
@@ -11340,7 +11400,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11427,10 +11487,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT54">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -11531,7 +11591,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11618,10 +11678,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT55">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU55">
         <v>1.58</v>
@@ -11809,10 +11869,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT56">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU56">
         <v>2.27</v>
@@ -12003,7 +12063,7 @@
         <v>2.78</v>
       </c>
       <c r="AT57">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU57">
         <v>2.23</v>
@@ -12104,7 +12164,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12191,10 +12251,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU58">
         <v>1.88</v>
@@ -12295,7 +12355,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12382,10 +12442,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT59">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU59">
         <v>1.54</v>
@@ -12573,10 +12633,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT60">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU60">
         <v>1.75</v>
@@ -12677,7 +12737,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -12764,10 +12824,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT61">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -12955,10 +13015,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT62">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU62">
         <v>1.87</v>
@@ -13059,7 +13119,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13149,7 +13209,7 @@
         <v>1.25</v>
       </c>
       <c r="AT63">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU63">
         <v>1.89</v>
@@ -13250,7 +13310,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13337,10 +13397,10 @@
         <v>0.33</v>
       </c>
       <c r="AS64">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13441,7 +13501,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13528,10 +13588,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU65">
         <v>1.42</v>
@@ -13632,7 +13692,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13719,7 +13779,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT66">
         <v>0.57</v>
@@ -13823,7 +13883,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13910,10 +13970,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT67">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU67">
         <v>1.41</v>
@@ -14101,10 +14161,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU68">
         <v>1.44</v>
@@ -14205,7 +14265,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14292,7 +14352,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT69">
         <v>1.13</v>
@@ -14396,7 +14456,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14483,7 +14543,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -14587,7 +14647,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14674,10 +14734,10 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT71">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU71">
         <v>1.89</v>
@@ -14778,7 +14838,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14865,10 +14925,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT72">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU72">
         <v>1.9</v>
@@ -15056,10 +15116,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT73">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -15247,10 +15307,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT74">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU74">
         <v>1.73</v>
@@ -15438,10 +15498,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT75">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU75">
         <v>1.56</v>
@@ -15542,7 +15602,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15629,10 +15689,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU76">
         <v>1.85</v>
@@ -15733,7 +15793,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -15820,10 +15880,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT77">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -15924,7 +15984,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16014,7 +16074,7 @@
         <v>1.25</v>
       </c>
       <c r="AT78">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU78">
         <v>1.89</v>
@@ -16205,7 +16265,7 @@
         <v>2.78</v>
       </c>
       <c r="AT79">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU79">
         <v>2.11</v>
@@ -16393,10 +16453,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT80">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU80">
         <v>1.97</v>
@@ -16584,10 +16644,10 @@
         <v>2.25</v>
       </c>
       <c r="AS81">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT81">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU81">
         <v>1.72</v>
@@ -16688,7 +16748,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16775,10 +16835,10 @@
         <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU82">
         <v>1.79</v>
@@ -16879,7 +16939,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -16966,10 +17026,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT83">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU83">
         <v>1.66</v>
@@ -17070,7 +17130,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17157,10 +17217,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT84">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU84">
         <v>1.57</v>
@@ -17261,7 +17321,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17348,10 +17408,10 @@
         <v>2.25</v>
       </c>
       <c r="AS85">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT85">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17539,10 +17599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT86">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU86">
         <v>1.84</v>
@@ -17730,7 +17790,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT87">
         <v>0.57</v>
@@ -17834,7 +17894,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -17921,7 +17981,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT88">
         <v>1.13</v>
@@ -18025,7 +18085,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18112,10 +18172,10 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT89">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU89">
         <v>1.81</v>
@@ -18216,7 +18276,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -18303,10 +18363,10 @@
         <v>3</v>
       </c>
       <c r="AS90">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT90">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU90">
         <v>1.38</v>
@@ -18407,7 +18467,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18494,10 +18554,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT91">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU91">
         <v>1.61</v>
@@ -18685,10 +18745,10 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU92">
         <v>1.72</v>
@@ -18789,7 +18849,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -18879,7 +18939,7 @@
         <v>2.78</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU93">
         <v>2.06</v>
@@ -18980,7 +19040,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19067,10 +19127,10 @@
         <v>1.6</v>
       </c>
       <c r="AS94">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT94">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU94">
         <v>1.41</v>
@@ -19258,10 +19318,10 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT95">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU95">
         <v>1.22</v>
@@ -19362,7 +19422,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19449,10 +19509,10 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT96">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU96">
         <v>2.23</v>
@@ -19553,7 +19613,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19640,7 +19700,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT97">
         <v>1</v>
@@ -19744,7 +19804,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19831,10 +19891,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT98">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU98">
         <v>1.83</v>
@@ -19935,7 +19995,7 @@
         <v>85</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20025,7 +20085,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU99">
         <v>1.74</v>
@@ -20213,10 +20273,10 @@
         <v>0.6</v>
       </c>
       <c r="AS100">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT100">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU100">
         <v>1.79</v>
@@ -20317,7 +20377,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20404,10 +20464,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU101">
         <v>1.71</v>
@@ -20508,7 +20568,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20595,10 +20655,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT102">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20699,7 +20759,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20786,10 +20846,10 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT103">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU103">
         <v>1.89</v>
@@ -20890,7 +20950,7 @@
         <v>156</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20977,7 +21037,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT104">
         <v>1.13</v>
@@ -21081,7 +21141,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21168,10 +21228,10 @@
         <v>2.4</v>
       </c>
       <c r="AS105">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT105">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU105">
         <v>1.47</v>
@@ -21359,10 +21419,10 @@
         <v>2.4</v>
       </c>
       <c r="AS106">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT106">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU106">
         <v>1.67</v>
@@ -21550,7 +21610,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT107">
         <v>0.57</v>
@@ -21654,7 +21714,7 @@
         <v>85</v>
       </c>
       <c r="P108" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21741,10 +21801,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
+        <v>1.44</v>
+      </c>
+      <c r="AT108">
         <v>1.63</v>
-      </c>
-      <c r="AT108">
-        <v>1.86</v>
       </c>
       <c r="AU108">
         <v>1.82</v>
@@ -21845,7 +21905,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21932,10 +21992,10 @@
         <v>1.67</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU109">
         <v>1.51</v>
@@ -22036,7 +22096,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22123,10 +22183,10 @@
         <v>1.83</v>
       </c>
       <c r="AS110">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT110">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU110">
         <v>1.72</v>
@@ -22227,7 +22287,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22317,7 +22377,7 @@
         <v>1.25</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU111">
         <v>1.64</v>
@@ -22508,7 +22568,7 @@
         <v>2.78</v>
       </c>
       <c r="AT112">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU112">
         <v>2.2</v>
@@ -22696,10 +22756,10 @@
         <v>0.5</v>
       </c>
       <c r="AS113">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT113">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU113">
         <v>1.28</v>
@@ -22887,10 +22947,10 @@
         <v>1.67</v>
       </c>
       <c r="AS114">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT114">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU114">
         <v>1.74</v>
@@ -23078,10 +23138,10 @@
         <v>1.8</v>
       </c>
       <c r="AS115">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT115">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU115">
         <v>1.61</v>
@@ -23269,10 +23329,10 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT116">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU116">
         <v>2.28</v>
@@ -23460,10 +23520,10 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AT117">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU117">
         <v>1.67</v>
@@ -23564,7 +23624,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23651,7 +23711,7 @@
         <v>1.2</v>
       </c>
       <c r="AS118">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -23842,7 +23902,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT119">
         <v>1.13</v>
@@ -23946,7 +24006,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24033,10 +24093,10 @@
         <v>0.86</v>
       </c>
       <c r="AS120">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT120">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU120">
         <v>1.4</v>
@@ -24137,7 +24197,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24224,10 +24284,10 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT121">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU121">
         <v>1.64</v>
@@ -24415,10 +24475,10 @@
         <v>1.57</v>
       </c>
       <c r="AS122">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT122">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU122">
         <v>1.64</v>
@@ -24519,7 +24579,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24606,10 +24666,10 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT123">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU123">
         <v>1.75</v>
@@ -24710,7 +24770,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24797,10 +24857,10 @@
         <v>2.5</v>
       </c>
       <c r="AS124">
+        <v>2.44</v>
+      </c>
+      <c r="AT124">
         <v>2.63</v>
-      </c>
-      <c r="AT124">
-        <v>2.57</v>
       </c>
       <c r="AU124">
         <v>1.71</v>
@@ -24901,7 +24961,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -24988,10 +25048,10 @@
         <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT125">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU125">
         <v>1.82</v>
@@ -25092,7 +25152,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25179,10 +25239,10 @@
         <v>0.83</v>
       </c>
       <c r="AS126">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT126">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU126">
         <v>1.51</v>
@@ -25474,7 +25534,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25561,10 +25621,10 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT128">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU128">
         <v>1.37</v>
@@ -25752,10 +25812,10 @@
         <v>0.86</v>
       </c>
       <c r="AS129">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT129">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU129">
         <v>1.33</v>
@@ -25856,7 +25916,7 @@
         <v>176</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -25943,10 +26003,10 @@
         <v>1.29</v>
       </c>
       <c r="AS130">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT130">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU130">
         <v>1.68</v>
@@ -26047,7 +26107,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26134,10 +26194,10 @@
         <v>0.71</v>
       </c>
       <c r="AS131">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT131">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU131">
         <v>2.19</v>
@@ -26238,7 +26298,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26325,10 +26385,10 @@
         <v>0.86</v>
       </c>
       <c r="AS132">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT132">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU132">
         <v>1.79</v>
@@ -26429,7 +26489,7 @@
         <v>92</v>
       </c>
       <c r="P133" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26516,10 +26576,10 @@
         <v>1.86</v>
       </c>
       <c r="AS133">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT133">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU133">
         <v>1.23</v>
@@ -26707,10 +26767,10 @@
         <v>1.43</v>
       </c>
       <c r="AS134">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT134">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU134">
         <v>1.61</v>
@@ -26901,7 +26961,7 @@
         <v>1.25</v>
       </c>
       <c r="AT135">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU135">
         <v>1.62</v>
@@ -27002,7 +27062,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27144,6 +27204,3062 @@
       </c>
       <c r="BK136">
         <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2547337</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" t="s">
+        <v>68</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137" t="s">
+        <v>182</v>
+      </c>
+      <c r="P137" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q137">
+        <v>11</v>
+      </c>
+      <c r="R137">
+        <v>5</v>
+      </c>
+      <c r="S137">
+        <v>16</v>
+      </c>
+      <c r="T137">
+        <v>2.35</v>
+      </c>
+      <c r="U137">
+        <v>2.4</v>
+      </c>
+      <c r="V137">
+        <v>4.2</v>
+      </c>
+      <c r="W137">
+        <v>1.26</v>
+      </c>
+      <c r="X137">
+        <v>3.5</v>
+      </c>
+      <c r="Y137">
+        <v>2.32</v>
+      </c>
+      <c r="Z137">
+        <v>1.55</v>
+      </c>
+      <c r="AA137">
+        <v>4.95</v>
+      </c>
+      <c r="AB137">
+        <v>1.14</v>
+      </c>
+      <c r="AC137">
+        <v>1.7</v>
+      </c>
+      <c r="AD137">
+        <v>3.75</v>
+      </c>
+      <c r="AE137">
+        <v>4.1</v>
+      </c>
+      <c r="AF137">
+        <v>1.02</v>
+      </c>
+      <c r="AG137">
+        <v>17</v>
+      </c>
+      <c r="AH137">
+        <v>1.18</v>
+      </c>
+      <c r="AI137">
+        <v>4.75</v>
+      </c>
+      <c r="AJ137">
+        <v>1.6</v>
+      </c>
+      <c r="AK137">
+        <v>2.2</v>
+      </c>
+      <c r="AL137">
+        <v>1.57</v>
+      </c>
+      <c r="AM137">
+        <v>2.25</v>
+      </c>
+      <c r="AN137">
+        <v>1.25</v>
+      </c>
+      <c r="AO137">
+        <v>1.2</v>
+      </c>
+      <c r="AP137">
+        <v>2</v>
+      </c>
+      <c r="AQ137">
+        <v>1.63</v>
+      </c>
+      <c r="AR137">
+        <v>0.71</v>
+      </c>
+      <c r="AS137">
+        <v>1.56</v>
+      </c>
+      <c r="AT137">
+        <v>0.75</v>
+      </c>
+      <c r="AU137">
+        <v>1.71</v>
+      </c>
+      <c r="AV137">
+        <v>1.36</v>
+      </c>
+      <c r="AW137">
+        <v>3.07</v>
+      </c>
+      <c r="AX137">
+        <v>1.45</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>3.3</v>
+      </c>
+      <c r="BA137">
+        <v>1.15</v>
+      </c>
+      <c r="BB137">
+        <v>1.26</v>
+      </c>
+      <c r="BC137">
+        <v>1.5</v>
+      </c>
+      <c r="BD137">
+        <v>1.9</v>
+      </c>
+      <c r="BE137">
+        <v>2.43</v>
+      </c>
+      <c r="BF137">
+        <v>9</v>
+      </c>
+      <c r="BG137">
+        <v>8</v>
+      </c>
+      <c r="BH137">
+        <v>16</v>
+      </c>
+      <c r="BI137">
+        <v>10</v>
+      </c>
+      <c r="BJ137">
+        <v>25</v>
+      </c>
+      <c r="BK137">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2547334</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44870.59375</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" t="s">
+        <v>69</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>183</v>
+      </c>
+      <c r="P138" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q138">
+        <v>5</v>
+      </c>
+      <c r="R138">
+        <v>7</v>
+      </c>
+      <c r="S138">
+        <v>12</v>
+      </c>
+      <c r="T138">
+        <v>4.33</v>
+      </c>
+      <c r="U138">
+        <v>2.1</v>
+      </c>
+      <c r="V138">
+        <v>2.75</v>
+      </c>
+      <c r="W138">
+        <v>1.44</v>
+      </c>
+      <c r="X138">
+        <v>2.63</v>
+      </c>
+      <c r="Y138">
+        <v>3.25</v>
+      </c>
+      <c r="Z138">
+        <v>1.33</v>
+      </c>
+      <c r="AA138">
+        <v>9</v>
+      </c>
+      <c r="AB138">
+        <v>1.07</v>
+      </c>
+      <c r="AC138">
+        <v>3.4</v>
+      </c>
+      <c r="AD138">
+        <v>3.25</v>
+      </c>
+      <c r="AE138">
+        <v>1.99</v>
+      </c>
+      <c r="AF138">
+        <v>1.07</v>
+      </c>
+      <c r="AG138">
+        <v>9</v>
+      </c>
+      <c r="AH138">
+        <v>1.36</v>
+      </c>
+      <c r="AI138">
+        <v>3.1</v>
+      </c>
+      <c r="AJ138">
+        <v>2.03</v>
+      </c>
+      <c r="AK138">
+        <v>1.83</v>
+      </c>
+      <c r="AL138">
+        <v>1.91</v>
+      </c>
+      <c r="AM138">
+        <v>1.91</v>
+      </c>
+      <c r="AN138">
+        <v>1.72</v>
+      </c>
+      <c r="AO138">
+        <v>1.32</v>
+      </c>
+      <c r="AP138">
+        <v>1.28</v>
+      </c>
+      <c r="AQ138">
+        <v>0.14</v>
+      </c>
+      <c r="AR138">
+        <v>1.5</v>
+      </c>
+      <c r="AS138">
+        <v>0.13</v>
+      </c>
+      <c r="AT138">
+        <v>1.67</v>
+      </c>
+      <c r="AU138">
+        <v>1.24</v>
+      </c>
+      <c r="AV138">
+        <v>1.31</v>
+      </c>
+      <c r="AW138">
+        <v>2.55</v>
+      </c>
+      <c r="AX138">
+        <v>2.4</v>
+      </c>
+      <c r="AY138">
+        <v>7.5</v>
+      </c>
+      <c r="AZ138">
+        <v>1.73</v>
+      </c>
+      <c r="BA138">
+        <v>1.33</v>
+      </c>
+      <c r="BB138">
+        <v>1.63</v>
+      </c>
+      <c r="BC138">
+        <v>2.1</v>
+      </c>
+      <c r="BD138">
+        <v>2.81</v>
+      </c>
+      <c r="BE138">
+        <v>3.9</v>
+      </c>
+      <c r="BF138">
+        <v>2</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>5</v>
+      </c>
+      <c r="BI138">
+        <v>13</v>
+      </c>
+      <c r="BJ138">
+        <v>7</v>
+      </c>
+      <c r="BK138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2547335</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44870.59375</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s">
+        <v>76</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>184</v>
+      </c>
+      <c r="P139" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q139">
+        <v>6</v>
+      </c>
+      <c r="R139">
+        <v>6</v>
+      </c>
+      <c r="S139">
+        <v>12</v>
+      </c>
+      <c r="T139">
+        <v>2.3</v>
+      </c>
+      <c r="U139">
+        <v>2.25</v>
+      </c>
+      <c r="V139">
+        <v>4</v>
+      </c>
+      <c r="W139">
+        <v>1.29</v>
+      </c>
+      <c r="X139">
+        <v>3.25</v>
+      </c>
+      <c r="Y139">
+        <v>2.3</v>
+      </c>
+      <c r="Z139">
+        <v>1.53</v>
+      </c>
+      <c r="AA139">
+        <v>5.25</v>
+      </c>
+      <c r="AB139">
+        <v>1.13</v>
+      </c>
+      <c r="AC139">
+        <v>1.94</v>
+      </c>
+      <c r="AD139">
+        <v>3.6</v>
+      </c>
+      <c r="AE139">
+        <v>3.25</v>
+      </c>
+      <c r="AF139">
+        <v>1.03</v>
+      </c>
+      <c r="AG139">
+        <v>12.5</v>
+      </c>
+      <c r="AH139">
+        <v>1.18</v>
+      </c>
+      <c r="AI139">
+        <v>4.4</v>
+      </c>
+      <c r="AJ139">
+        <v>1.55</v>
+      </c>
+      <c r="AK139">
+        <v>2.3</v>
+      </c>
+      <c r="AL139">
+        <v>1.55</v>
+      </c>
+      <c r="AM139">
+        <v>2.25</v>
+      </c>
+      <c r="AN139">
+        <v>1.24</v>
+      </c>
+      <c r="AO139">
+        <v>1.25</v>
+      </c>
+      <c r="AP139">
+        <v>1.93</v>
+      </c>
+      <c r="AQ139">
+        <v>1.71</v>
+      </c>
+      <c r="AR139">
+        <v>1.5</v>
+      </c>
+      <c r="AS139">
+        <v>1.88</v>
+      </c>
+      <c r="AT139">
+        <v>1.33</v>
+      </c>
+      <c r="AU139">
+        <v>1.92</v>
+      </c>
+      <c r="AV139">
+        <v>1.44</v>
+      </c>
+      <c r="AW139">
+        <v>3.36</v>
+      </c>
+      <c r="AX139">
+        <v>1.63</v>
+      </c>
+      <c r="AY139">
+        <v>7.5</v>
+      </c>
+      <c r="AZ139">
+        <v>2.7</v>
+      </c>
+      <c r="BA139">
+        <v>1.18</v>
+      </c>
+      <c r="BB139">
+        <v>1.31</v>
+      </c>
+      <c r="BC139">
+        <v>1.61</v>
+      </c>
+      <c r="BD139">
+        <v>2.02</v>
+      </c>
+      <c r="BE139">
+        <v>2.7</v>
+      </c>
+      <c r="BF139">
+        <v>4</v>
+      </c>
+      <c r="BG139">
+        <v>6</v>
+      </c>
+      <c r="BH139">
+        <v>6</v>
+      </c>
+      <c r="BI139">
+        <v>5</v>
+      </c>
+      <c r="BJ139">
+        <v>10</v>
+      </c>
+      <c r="BK139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2547338</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44870.69791666666</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>80</v>
+      </c>
+      <c r="H140" t="s">
+        <v>65</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>185</v>
+      </c>
+      <c r="P140" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q140">
+        <v>7</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>9</v>
+      </c>
+      <c r="T140">
+        <v>3.5</v>
+      </c>
+      <c r="U140">
+        <v>2.25</v>
+      </c>
+      <c r="V140">
+        <v>2.85</v>
+      </c>
+      <c r="W140">
+        <v>1.32</v>
+      </c>
+      <c r="X140">
+        <v>3.15</v>
+      </c>
+      <c r="Y140">
+        <v>2.5</v>
+      </c>
+      <c r="Z140">
+        <v>1.47</v>
+      </c>
+      <c r="AA140">
+        <v>5.95</v>
+      </c>
+      <c r="AB140">
+        <v>1.1</v>
+      </c>
+      <c r="AC140">
+        <v>2.86</v>
+      </c>
+      <c r="AD140">
+        <v>3.66</v>
+      </c>
+      <c r="AE140">
+        <v>2.33</v>
+      </c>
+      <c r="AF140">
+        <v>1.03</v>
+      </c>
+      <c r="AG140">
+        <v>13</v>
+      </c>
+      <c r="AH140">
+        <v>1.22</v>
+      </c>
+      <c r="AI140">
+        <v>4.2</v>
+      </c>
+      <c r="AJ140">
+        <v>1.61</v>
+      </c>
+      <c r="AK140">
+        <v>2.33</v>
+      </c>
+      <c r="AL140">
+        <v>1.6</v>
+      </c>
+      <c r="AM140">
+        <v>2.3</v>
+      </c>
+      <c r="AN140">
+        <v>1.65</v>
+      </c>
+      <c r="AO140">
+        <v>1.25</v>
+      </c>
+      <c r="AP140">
+        <v>1.38</v>
+      </c>
+      <c r="AQ140">
+        <v>0.86</v>
+      </c>
+      <c r="AR140">
+        <v>1.71</v>
+      </c>
+      <c r="AS140">
+        <v>1.13</v>
+      </c>
+      <c r="AT140">
+        <v>1.5</v>
+      </c>
+      <c r="AU140">
+        <v>1.86</v>
+      </c>
+      <c r="AV140">
+        <v>1.47</v>
+      </c>
+      <c r="AW140">
+        <v>3.33</v>
+      </c>
+      <c r="AX140">
+        <v>2.4</v>
+      </c>
+      <c r="AY140">
+        <v>7</v>
+      </c>
+      <c r="AZ140">
+        <v>1.79</v>
+      </c>
+      <c r="BA140">
+        <v>1.2</v>
+      </c>
+      <c r="BB140">
+        <v>1.42</v>
+      </c>
+      <c r="BC140">
+        <v>1.74</v>
+      </c>
+      <c r="BD140">
+        <v>2.23</v>
+      </c>
+      <c r="BE140">
+        <v>2.95</v>
+      </c>
+      <c r="BF140">
+        <v>5</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>9</v>
+      </c>
+      <c r="BI140">
+        <v>9</v>
+      </c>
+      <c r="BJ140">
+        <v>14</v>
+      </c>
+      <c r="BK140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2547332</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44871.39583333334</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s">
+        <v>70</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>186</v>
+      </c>
+      <c r="P141" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+      <c r="R141">
+        <v>3</v>
+      </c>
+      <c r="S141">
+        <v>7</v>
+      </c>
+      <c r="T141">
+        <v>3.25</v>
+      </c>
+      <c r="U141">
+        <v>2.2</v>
+      </c>
+      <c r="V141">
+        <v>3.1</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>3</v>
+      </c>
+      <c r="Y141">
+        <v>2.75</v>
+      </c>
+      <c r="Z141">
+        <v>1.4</v>
+      </c>
+      <c r="AA141">
+        <v>7</v>
+      </c>
+      <c r="AB141">
+        <v>1.1</v>
+      </c>
+      <c r="AC141">
+        <v>2.54</v>
+      </c>
+      <c r="AD141">
+        <v>3.48</v>
+      </c>
+      <c r="AE141">
+        <v>2.3</v>
+      </c>
+      <c r="AF141">
+        <v>1.04</v>
+      </c>
+      <c r="AG141">
+        <v>9.5</v>
+      </c>
+      <c r="AH141">
+        <v>1.22</v>
+      </c>
+      <c r="AI141">
+        <v>4</v>
+      </c>
+      <c r="AJ141">
+        <v>1.7</v>
+      </c>
+      <c r="AK141">
+        <v>2</v>
+      </c>
+      <c r="AL141">
+        <v>1.67</v>
+      </c>
+      <c r="AM141">
+        <v>2.1</v>
+      </c>
+      <c r="AN141">
+        <v>1.51</v>
+      </c>
+      <c r="AO141">
+        <v>1.3</v>
+      </c>
+      <c r="AP141">
+        <v>1.44</v>
+      </c>
+      <c r="AQ141">
+        <v>1.86</v>
+      </c>
+      <c r="AR141">
+        <v>1.86</v>
+      </c>
+      <c r="AS141">
+        <v>2</v>
+      </c>
+      <c r="AT141">
+        <v>1.63</v>
+      </c>
+      <c r="AU141">
+        <v>1.84</v>
+      </c>
+      <c r="AV141">
+        <v>1.48</v>
+      </c>
+      <c r="AW141">
+        <v>3.32</v>
+      </c>
+      <c r="AX141">
+        <v>2.05</v>
+      </c>
+      <c r="AY141">
+        <v>7</v>
+      </c>
+      <c r="AZ141">
+        <v>2.05</v>
+      </c>
+      <c r="BA141">
+        <v>1.18</v>
+      </c>
+      <c r="BB141">
+        <v>1.31</v>
+      </c>
+      <c r="BC141">
+        <v>1.61</v>
+      </c>
+      <c r="BD141">
+        <v>2.02</v>
+      </c>
+      <c r="BE141">
+        <v>2.7</v>
+      </c>
+      <c r="BF141">
+        <v>5</v>
+      </c>
+      <c r="BG141">
+        <v>4</v>
+      </c>
+      <c r="BH141">
+        <v>8</v>
+      </c>
+      <c r="BI141">
+        <v>5</v>
+      </c>
+      <c r="BJ141">
+        <v>13</v>
+      </c>
+      <c r="BK141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2547336</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44871.5</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" t="s">
+        <v>73</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>187</v>
+      </c>
+      <c r="P142" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q142">
+        <v>10</v>
+      </c>
+      <c r="R142">
+        <v>4</v>
+      </c>
+      <c r="S142">
+        <v>14</v>
+      </c>
+      <c r="T142">
+        <v>2.1</v>
+      </c>
+      <c r="U142">
+        <v>2.38</v>
+      </c>
+      <c r="V142">
+        <v>5</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>3.25</v>
+      </c>
+      <c r="Y142">
+        <v>2.5</v>
+      </c>
+      <c r="Z142">
+        <v>1.5</v>
+      </c>
+      <c r="AA142">
+        <v>6.5</v>
+      </c>
+      <c r="AB142">
+        <v>1.11</v>
+      </c>
+      <c r="AC142">
+        <v>1.68</v>
+      </c>
+      <c r="AD142">
+        <v>3.85</v>
+      </c>
+      <c r="AE142">
+        <v>3.85</v>
+      </c>
+      <c r="AF142">
+        <v>1.02</v>
+      </c>
+      <c r="AG142">
+        <v>12</v>
+      </c>
+      <c r="AH142">
+        <v>1.2</v>
+      </c>
+      <c r="AI142">
+        <v>4.3</v>
+      </c>
+      <c r="AJ142">
+        <v>1.7</v>
+      </c>
+      <c r="AK142">
+        <v>2</v>
+      </c>
+      <c r="AL142">
+        <v>1.75</v>
+      </c>
+      <c r="AM142">
+        <v>2</v>
+      </c>
+      <c r="AN142">
+        <v>1.16</v>
+      </c>
+      <c r="AO142">
+        <v>1.23</v>
+      </c>
+      <c r="AP142">
+        <v>2.25</v>
+      </c>
+      <c r="AQ142">
+        <v>2.29</v>
+      </c>
+      <c r="AR142">
+        <v>1.13</v>
+      </c>
+      <c r="AS142">
+        <v>2.13</v>
+      </c>
+      <c r="AT142">
+        <v>1.11</v>
+      </c>
+      <c r="AU142">
+        <v>1.66</v>
+      </c>
+      <c r="AV142">
+        <v>1.28</v>
+      </c>
+      <c r="AW142">
+        <v>2.94</v>
+      </c>
+      <c r="AX142">
+        <v>1.37</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>3.75</v>
+      </c>
+      <c r="BA142">
+        <v>1.19</v>
+      </c>
+      <c r="BB142">
+        <v>1.38</v>
+      </c>
+      <c r="BC142">
+        <v>1.67</v>
+      </c>
+      <c r="BD142">
+        <v>2.12</v>
+      </c>
+      <c r="BE142">
+        <v>2.85</v>
+      </c>
+      <c r="BF142">
+        <v>2</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>27</v>
+      </c>
+      <c r="BI142">
+        <v>9</v>
+      </c>
+      <c r="BJ142">
+        <v>29</v>
+      </c>
+      <c r="BK142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2547333</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44871.60416666666</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>82</v>
+      </c>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143" t="s">
+        <v>85</v>
+      </c>
+      <c r="P143" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q143">
+        <v>4</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143">
+        <v>5</v>
+      </c>
+      <c r="T143">
+        <v>2.88</v>
+      </c>
+      <c r="U143">
+        <v>2.2</v>
+      </c>
+      <c r="V143">
+        <v>3.6</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>3</v>
+      </c>
+      <c r="Y143">
+        <v>2.75</v>
+      </c>
+      <c r="Z143">
+        <v>1.4</v>
+      </c>
+      <c r="AA143">
+        <v>7</v>
+      </c>
+      <c r="AB143">
+        <v>1.1</v>
+      </c>
+      <c r="AC143">
+        <v>2.17</v>
+      </c>
+      <c r="AD143">
+        <v>3.45</v>
+      </c>
+      <c r="AE143">
+        <v>3.05</v>
+      </c>
+      <c r="AF143">
+        <v>1.04</v>
+      </c>
+      <c r="AG143">
+        <v>9.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.25</v>
+      </c>
+      <c r="AI143">
+        <v>3.8</v>
+      </c>
+      <c r="AJ143">
+        <v>1.85</v>
+      </c>
+      <c r="AK143">
+        <v>2.05</v>
+      </c>
+      <c r="AL143">
+        <v>1.67</v>
+      </c>
+      <c r="AM143">
+        <v>2.1</v>
+      </c>
+      <c r="AN143">
+        <v>1.36</v>
+      </c>
+      <c r="AO143">
+        <v>1.3</v>
+      </c>
+      <c r="AP143">
+        <v>1.62</v>
+      </c>
+      <c r="AQ143">
+        <v>2.63</v>
+      </c>
+      <c r="AR143">
+        <v>1</v>
+      </c>
+      <c r="AS143">
+        <v>2.44</v>
+      </c>
+      <c r="AT143">
+        <v>1</v>
+      </c>
+      <c r="AU143">
+        <v>1.72</v>
+      </c>
+      <c r="AV143">
+        <v>1.39</v>
+      </c>
+      <c r="AW143">
+        <v>3.11</v>
+      </c>
+      <c r="AX143">
+        <v>1.79</v>
+      </c>
+      <c r="AY143">
+        <v>7</v>
+      </c>
+      <c r="AZ143">
+        <v>2.4</v>
+      </c>
+      <c r="BA143">
+        <v>1.22</v>
+      </c>
+      <c r="BB143">
+        <v>1.43</v>
+      </c>
+      <c r="BC143">
+        <v>1.79</v>
+      </c>
+      <c r="BD143">
+        <v>2.26</v>
+      </c>
+      <c r="BE143">
+        <v>3.04</v>
+      </c>
+      <c r="BF143">
+        <v>3</v>
+      </c>
+      <c r="BG143">
+        <v>2</v>
+      </c>
+      <c r="BH143">
+        <v>13</v>
+      </c>
+      <c r="BI143">
+        <v>3</v>
+      </c>
+      <c r="BJ143">
+        <v>16</v>
+      </c>
+      <c r="BK143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2547339</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44871.70833333334</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>77</v>
+      </c>
+      <c r="H144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>188</v>
+      </c>
+      <c r="P144" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q144">
+        <v>8</v>
+      </c>
+      <c r="R144">
+        <v>6</v>
+      </c>
+      <c r="S144">
+        <v>14</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>2.3</v>
+      </c>
+      <c r="V144">
+        <v>3.6</v>
+      </c>
+      <c r="W144">
+        <v>1.33</v>
+      </c>
+      <c r="X144">
+        <v>3.25</v>
+      </c>
+      <c r="Y144">
+        <v>2.5</v>
+      </c>
+      <c r="Z144">
+        <v>1.5</v>
+      </c>
+      <c r="AA144">
+        <v>6.5</v>
+      </c>
+      <c r="AB144">
+        <v>1.11</v>
+      </c>
+      <c r="AC144">
+        <v>2.21</v>
+      </c>
+      <c r="AD144">
+        <v>3.75</v>
+      </c>
+      <c r="AE144">
+        <v>2.78</v>
+      </c>
+      <c r="AF144">
+        <v>1.02</v>
+      </c>
+      <c r="AG144">
+        <v>12</v>
+      </c>
+      <c r="AH144">
+        <v>1.2</v>
+      </c>
+      <c r="AI144">
+        <v>4.3</v>
+      </c>
+      <c r="AJ144">
+        <v>1.65</v>
+      </c>
+      <c r="AK144">
+        <v>2.2</v>
+      </c>
+      <c r="AL144">
+        <v>1.57</v>
+      </c>
+      <c r="AM144">
+        <v>2.25</v>
+      </c>
+      <c r="AN144">
+        <v>1.34</v>
+      </c>
+      <c r="AO144">
+        <v>1.28</v>
+      </c>
+      <c r="AP144">
+        <v>1.68</v>
+      </c>
+      <c r="AQ144">
+        <v>1.29</v>
+      </c>
+      <c r="AR144">
+        <v>1</v>
+      </c>
+      <c r="AS144">
+        <v>1.5</v>
+      </c>
+      <c r="AT144">
+        <v>0.88</v>
+      </c>
+      <c r="AU144">
+        <v>1.48</v>
+      </c>
+      <c r="AV144">
+        <v>1.15</v>
+      </c>
+      <c r="AW144">
+        <v>2.63</v>
+      </c>
+      <c r="AX144">
+        <v>1.36</v>
+      </c>
+      <c r="AY144">
+        <v>8.5</v>
+      </c>
+      <c r="AZ144">
+        <v>3.8</v>
+      </c>
+      <c r="BA144">
+        <v>1.25</v>
+      </c>
+      <c r="BB144">
+        <v>1.3</v>
+      </c>
+      <c r="BC144">
+        <v>1.58</v>
+      </c>
+      <c r="BD144">
+        <v>1.98</v>
+      </c>
+      <c r="BE144">
+        <v>2.56</v>
+      </c>
+      <c r="BF144">
+        <v>11</v>
+      </c>
+      <c r="BG144">
+        <v>5</v>
+      </c>
+      <c r="BH144">
+        <v>10</v>
+      </c>
+      <c r="BI144">
+        <v>4</v>
+      </c>
+      <c r="BJ144">
+        <v>21</v>
+      </c>
+      <c r="BK144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2547343</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44876.69791666666</v>
+      </c>
+      <c r="F145">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145" t="s">
+        <v>81</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>4</v>
+      </c>
+      <c r="L145">
+        <v>5</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>189</v>
+      </c>
+      <c r="P145" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q145">
+        <v>14</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+      <c r="S145">
+        <v>17</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>2.38</v>
+      </c>
+      <c r="V145">
+        <v>4.75</v>
+      </c>
+      <c r="W145">
+        <v>1.3</v>
+      </c>
+      <c r="X145">
+        <v>3.4</v>
+      </c>
+      <c r="Y145">
+        <v>2.5</v>
+      </c>
+      <c r="Z145">
+        <v>1.5</v>
+      </c>
+      <c r="AA145">
+        <v>6</v>
+      </c>
+      <c r="AB145">
+        <v>1.13</v>
+      </c>
+      <c r="AC145">
+        <v>1.55</v>
+      </c>
+      <c r="AD145">
+        <v>4.3</v>
+      </c>
+      <c r="AE145">
+        <v>4.7</v>
+      </c>
+      <c r="AF145">
+        <v>1.01</v>
+      </c>
+      <c r="AG145">
+        <v>9.43</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>1.62</v>
+      </c>
+      <c r="AK145">
+        <v>2.16</v>
+      </c>
+      <c r="AL145">
+        <v>1.67</v>
+      </c>
+      <c r="AM145">
+        <v>2.1</v>
+      </c>
+      <c r="AN145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
+      <c r="AP145">
+        <v>0</v>
+      </c>
+      <c r="AQ145">
+        <v>1.43</v>
+      </c>
+      <c r="AR145">
+        <v>1.25</v>
+      </c>
+      <c r="AS145">
+        <v>1.63</v>
+      </c>
+      <c r="AT145">
+        <v>1.11</v>
+      </c>
+      <c r="AU145">
+        <v>1.61</v>
+      </c>
+      <c r="AV145">
+        <v>0.95</v>
+      </c>
+      <c r="AW145">
+        <v>2.56</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>0</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>15</v>
+      </c>
+      <c r="BG145">
+        <v>2</v>
+      </c>
+      <c r="BH145">
+        <v>12</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>27</v>
+      </c>
+      <c r="BK145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2547347</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>73</v>
+      </c>
+      <c r="H146" t="s">
+        <v>77</v>
+      </c>
+      <c r="I146">
+        <v>3</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>6</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>6</v>
+      </c>
+      <c r="O146" t="s">
+        <v>190</v>
+      </c>
+      <c r="P146" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>3</v>
+      </c>
+      <c r="S146">
+        <v>8</v>
+      </c>
+      <c r="T146">
+        <v>2.38</v>
+      </c>
+      <c r="U146">
+        <v>2.38</v>
+      </c>
+      <c r="V146">
+        <v>4.33</v>
+      </c>
+      <c r="W146">
+        <v>1.3</v>
+      </c>
+      <c r="X146">
+        <v>3.4</v>
+      </c>
+      <c r="Y146">
+        <v>2.5</v>
+      </c>
+      <c r="Z146">
+        <v>1.5</v>
+      </c>
+      <c r="AA146">
+        <v>6</v>
+      </c>
+      <c r="AB146">
+        <v>1.13</v>
+      </c>
+      <c r="AC146">
+        <v>1.87</v>
+      </c>
+      <c r="AD146">
+        <v>3.8</v>
+      </c>
+      <c r="AE146">
+        <v>3.92</v>
+      </c>
+      <c r="AF146">
+        <v>1.03</v>
+      </c>
+      <c r="AG146">
+        <v>15</v>
+      </c>
+      <c r="AH146">
+        <v>1.22</v>
+      </c>
+      <c r="AI146">
+        <v>4.2</v>
+      </c>
+      <c r="AJ146">
+        <v>1.76</v>
+      </c>
+      <c r="AK146">
+        <v>2.07</v>
+      </c>
+      <c r="AL146">
+        <v>1.62</v>
+      </c>
+      <c r="AM146">
+        <v>2.2</v>
+      </c>
+      <c r="AN146">
+        <v>1.22</v>
+      </c>
+      <c r="AO146">
+        <v>1.2</v>
+      </c>
+      <c r="AP146">
+        <v>2.05</v>
+      </c>
+      <c r="AQ146">
+        <v>1.86</v>
+      </c>
+      <c r="AR146">
+        <v>0.63</v>
+      </c>
+      <c r="AS146">
+        <v>2</v>
+      </c>
+      <c r="AT146">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU146">
+        <v>1.7</v>
+      </c>
+      <c r="AV146">
+        <v>1.42</v>
+      </c>
+      <c r="AW146">
+        <v>3.12</v>
+      </c>
+      <c r="AX146">
+        <v>1.78</v>
+      </c>
+      <c r="AY146">
+        <v>7.4</v>
+      </c>
+      <c r="AZ146">
+        <v>2.56</v>
+      </c>
+      <c r="BA146">
+        <v>1.17</v>
+      </c>
+      <c r="BB146">
+        <v>1.31</v>
+      </c>
+      <c r="BC146">
+        <v>1.58</v>
+      </c>
+      <c r="BD146">
+        <v>1.98</v>
+      </c>
+      <c r="BE146">
+        <v>2.56</v>
+      </c>
+      <c r="BF146">
+        <v>9</v>
+      </c>
+      <c r="BG146">
+        <v>2</v>
+      </c>
+      <c r="BH146">
+        <v>7</v>
+      </c>
+      <c r="BI146">
+        <v>7</v>
+      </c>
+      <c r="BJ146">
+        <v>16</v>
+      </c>
+      <c r="BK146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2547346</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44877.59375</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>69</v>
+      </c>
+      <c r="H147" t="s">
+        <v>75</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>85</v>
+      </c>
+      <c r="P147" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q147">
+        <v>10</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>12</v>
+      </c>
+      <c r="T147">
+        <v>3.1</v>
+      </c>
+      <c r="U147">
+        <v>2.1</v>
+      </c>
+      <c r="V147">
+        <v>3.5</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>2.75</v>
+      </c>
+      <c r="Y147">
+        <v>3</v>
+      </c>
+      <c r="Z147">
+        <v>1.36</v>
+      </c>
+      <c r="AA147">
+        <v>8</v>
+      </c>
+      <c r="AB147">
+        <v>1.08</v>
+      </c>
+      <c r="AC147">
+        <v>2.45</v>
+      </c>
+      <c r="AD147">
+        <v>3.25</v>
+      </c>
+      <c r="AE147">
+        <v>2.8</v>
+      </c>
+      <c r="AF147">
+        <v>1.05</v>
+      </c>
+      <c r="AG147">
+        <v>8</v>
+      </c>
+      <c r="AH147">
+        <v>1.3</v>
+      </c>
+      <c r="AI147">
+        <v>3.2</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>1.78</v>
+      </c>
+      <c r="AL147">
+        <v>1.8</v>
+      </c>
+      <c r="AM147">
+        <v>1.95</v>
+      </c>
+      <c r="AN147">
+        <v>1.42</v>
+      </c>
+      <c r="AO147">
+        <v>1.25</v>
+      </c>
+      <c r="AP147">
+        <v>1.57</v>
+      </c>
+      <c r="AQ147">
+        <v>1.14</v>
+      </c>
+      <c r="AR147">
+        <v>0.88</v>
+      </c>
+      <c r="AS147">
+        <v>1</v>
+      </c>
+      <c r="AT147">
+        <v>1.11</v>
+      </c>
+      <c r="AU147">
+        <v>1.59</v>
+      </c>
+      <c r="AV147">
+        <v>1.4</v>
+      </c>
+      <c r="AW147">
+        <v>2.99</v>
+      </c>
+      <c r="AX147">
+        <v>1.7</v>
+      </c>
+      <c r="AY147">
+        <v>7.4</v>
+      </c>
+      <c r="AZ147">
+        <v>2.75</v>
+      </c>
+      <c r="BA147">
+        <v>1.21</v>
+      </c>
+      <c r="BB147">
+        <v>1.42</v>
+      </c>
+      <c r="BC147">
+        <v>1.76</v>
+      </c>
+      <c r="BD147">
+        <v>2.22</v>
+      </c>
+      <c r="BE147">
+        <v>2.93</v>
+      </c>
+      <c r="BF147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>2</v>
+      </c>
+      <c r="BH147">
+        <v>13</v>
+      </c>
+      <c r="BI147">
+        <v>5</v>
+      </c>
+      <c r="BJ147">
+        <v>13</v>
+      </c>
+      <c r="BK147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2547345</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44877.59375</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>68</v>
+      </c>
+      <c r="H148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+      <c r="K148">
+        <v>5</v>
+      </c>
+      <c r="L148">
+        <v>5</v>
+      </c>
+      <c r="M148">
+        <v>5</v>
+      </c>
+      <c r="N148">
+        <v>10</v>
+      </c>
+      <c r="O148" t="s">
+        <v>191</v>
+      </c>
+      <c r="P148" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q148">
+        <v>11</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>13</v>
+      </c>
+      <c r="T148">
+        <v>2.88</v>
+      </c>
+      <c r="U148">
+        <v>2.3</v>
+      </c>
+      <c r="V148">
+        <v>3.4</v>
+      </c>
+      <c r="W148">
+        <v>1.33</v>
+      </c>
+      <c r="X148">
+        <v>3.25</v>
+      </c>
+      <c r="Y148">
+        <v>2.5</v>
+      </c>
+      <c r="Z148">
+        <v>1.5</v>
+      </c>
+      <c r="AA148">
+        <v>6.5</v>
+      </c>
+      <c r="AB148">
+        <v>1.11</v>
+      </c>
+      <c r="AC148">
+        <v>2.25</v>
+      </c>
+      <c r="AD148">
+        <v>3.6</v>
+      </c>
+      <c r="AE148">
+        <v>2.9</v>
+      </c>
+      <c r="AF148">
+        <v>1.02</v>
+      </c>
+      <c r="AG148">
+        <v>15</v>
+      </c>
+      <c r="AH148">
+        <v>1.22</v>
+      </c>
+      <c r="AI148">
+        <v>4.2</v>
+      </c>
+      <c r="AJ148">
+        <v>1.65</v>
+      </c>
+      <c r="AK148">
+        <v>2.2</v>
+      </c>
+      <c r="AL148">
+        <v>1.62</v>
+      </c>
+      <c r="AM148">
+        <v>2.2</v>
+      </c>
+      <c r="AN148">
+        <v>1.42</v>
+      </c>
+      <c r="AO148">
+        <v>1.28</v>
+      </c>
+      <c r="AP148">
+        <v>1.58</v>
+      </c>
+      <c r="AQ148">
+        <v>0.75</v>
+      </c>
+      <c r="AR148">
+        <v>0.75</v>
+      </c>
+      <c r="AS148">
+        <v>0.78</v>
+      </c>
+      <c r="AT148">
+        <v>0.78</v>
+      </c>
+      <c r="AU148">
+        <v>1.32</v>
+      </c>
+      <c r="AV148">
+        <v>1.27</v>
+      </c>
+      <c r="AW148">
+        <v>2.59</v>
+      </c>
+      <c r="AX148">
+        <v>1.82</v>
+      </c>
+      <c r="AY148">
+        <v>7.3</v>
+      </c>
+      <c r="AZ148">
+        <v>2.5</v>
+      </c>
+      <c r="BA148">
+        <v>1.21</v>
+      </c>
+      <c r="BB148">
+        <v>1.42</v>
+      </c>
+      <c r="BC148">
+        <v>1.76</v>
+      </c>
+      <c r="BD148">
+        <v>2.22</v>
+      </c>
+      <c r="BE148">
+        <v>2.93</v>
+      </c>
+      <c r="BF148">
+        <v>10</v>
+      </c>
+      <c r="BG148">
+        <v>10</v>
+      </c>
+      <c r="BH148">
+        <v>6</v>
+      </c>
+      <c r="BI148">
+        <v>7</v>
+      </c>
+      <c r="BJ148">
+        <v>16</v>
+      </c>
+      <c r="BK148">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2547340</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44878.39583333334</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>70</v>
+      </c>
+      <c r="H149" t="s">
+        <v>82</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>192</v>
+      </c>
+      <c r="P149" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>4</v>
+      </c>
+      <c r="S149">
+        <v>7</v>
+      </c>
+      <c r="T149">
+        <v>2.4</v>
+      </c>
+      <c r="U149">
+        <v>2.3</v>
+      </c>
+      <c r="V149">
+        <v>4.33</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>3.25</v>
+      </c>
+      <c r="Y149">
+        <v>2.63</v>
+      </c>
+      <c r="Z149">
+        <v>1.44</v>
+      </c>
+      <c r="AA149">
+        <v>6.5</v>
+      </c>
+      <c r="AB149">
+        <v>1.11</v>
+      </c>
+      <c r="AC149">
+        <v>2.1</v>
+      </c>
+      <c r="AD149">
+        <v>3.6</v>
+      </c>
+      <c r="AE149">
+        <v>3.1</v>
+      </c>
+      <c r="AF149">
+        <v>1.03</v>
+      </c>
+      <c r="AG149">
+        <v>15</v>
+      </c>
+      <c r="AH149">
+        <v>1.22</v>
+      </c>
+      <c r="AI149">
+        <v>4.2</v>
+      </c>
+      <c r="AJ149">
+        <v>1.66</v>
+      </c>
+      <c r="AK149">
+        <v>2</v>
+      </c>
+      <c r="AL149">
+        <v>1.67</v>
+      </c>
+      <c r="AM149">
+        <v>2.1</v>
+      </c>
+      <c r="AN149">
+        <v>1.2</v>
+      </c>
+      <c r="AO149">
+        <v>1.25</v>
+      </c>
+      <c r="AP149">
+        <v>2</v>
+      </c>
+      <c r="AQ149">
+        <v>2.38</v>
+      </c>
+      <c r="AR149">
+        <v>1.71</v>
+      </c>
+      <c r="AS149">
+        <v>2.22</v>
+      </c>
+      <c r="AT149">
+        <v>1.63</v>
+      </c>
+      <c r="AU149">
+        <v>2.16</v>
+      </c>
+      <c r="AV149">
+        <v>1.51</v>
+      </c>
+      <c r="AW149">
+        <v>3.67</v>
+      </c>
+      <c r="AX149">
+        <v>1.64</v>
+      </c>
+      <c r="AY149">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149">
+        <v>2.78</v>
+      </c>
+      <c r="BA149">
+        <v>1.2</v>
+      </c>
+      <c r="BB149">
+        <v>1.35</v>
+      </c>
+      <c r="BC149">
+        <v>1.64</v>
+      </c>
+      <c r="BD149">
+        <v>2.07</v>
+      </c>
+      <c r="BE149">
+        <v>2.66</v>
+      </c>
+      <c r="BF149">
+        <v>6</v>
+      </c>
+      <c r="BG149">
+        <v>7</v>
+      </c>
+      <c r="BH149">
+        <v>4</v>
+      </c>
+      <c r="BI149">
+        <v>4</v>
+      </c>
+      <c r="BJ149">
+        <v>10</v>
+      </c>
+      <c r="BK149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2547342</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44878.5</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>65</v>
+      </c>
+      <c r="H150" t="s">
+        <v>74</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150" t="s">
+        <v>193</v>
+      </c>
+      <c r="P150" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q150">
+        <v>8</v>
+      </c>
+      <c r="R150">
+        <v>4</v>
+      </c>
+      <c r="S150">
+        <v>12</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>2.25</v>
+      </c>
+      <c r="V150">
+        <v>2.63</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>3.25</v>
+      </c>
+      <c r="Y150">
+        <v>2.63</v>
+      </c>
+      <c r="Z150">
+        <v>1.44</v>
+      </c>
+      <c r="AA150">
+        <v>6.5</v>
+      </c>
+      <c r="AB150">
+        <v>1.11</v>
+      </c>
+      <c r="AC150">
+        <v>2.6</v>
+      </c>
+      <c r="AD150">
+        <v>3.5</v>
+      </c>
+      <c r="AE150">
+        <v>2.5</v>
+      </c>
+      <c r="AF150">
+        <v>1.05</v>
+      </c>
+      <c r="AG150">
+        <v>9</v>
+      </c>
+      <c r="AH150">
+        <v>1.25</v>
+      </c>
+      <c r="AI150">
+        <v>3.75</v>
+      </c>
+      <c r="AJ150">
+        <v>1.66</v>
+      </c>
+      <c r="AK150">
+        <v>2</v>
+      </c>
+      <c r="AL150">
+        <v>1.67</v>
+      </c>
+      <c r="AM150">
+        <v>2.1</v>
+      </c>
+      <c r="AN150">
+        <v>1.75</v>
+      </c>
+      <c r="AO150">
+        <v>1.3</v>
+      </c>
+      <c r="AP150">
+        <v>1.32</v>
+      </c>
+      <c r="AQ150">
+        <v>1.86</v>
+      </c>
+      <c r="AR150">
+        <v>2</v>
+      </c>
+      <c r="AS150">
+        <v>1.63</v>
+      </c>
+      <c r="AT150">
+        <v>2.11</v>
+      </c>
+      <c r="AU150">
+        <v>1.57</v>
+      </c>
+      <c r="AV150">
+        <v>1.51</v>
+      </c>
+      <c r="AW150">
+        <v>3.08</v>
+      </c>
+      <c r="AX150">
+        <v>2.06</v>
+      </c>
+      <c r="AY150">
+        <v>7.1</v>
+      </c>
+      <c r="AZ150">
+        <v>2.17</v>
+      </c>
+      <c r="BA150">
+        <v>1.21</v>
+      </c>
+      <c r="BB150">
+        <v>1.42</v>
+      </c>
+      <c r="BC150">
+        <v>1.76</v>
+      </c>
+      <c r="BD150">
+        <v>2.22</v>
+      </c>
+      <c r="BE150">
+        <v>2.93</v>
+      </c>
+      <c r="BF150">
+        <v>7</v>
+      </c>
+      <c r="BG150">
+        <v>8</v>
+      </c>
+      <c r="BH150">
+        <v>5</v>
+      </c>
+      <c r="BI150">
+        <v>7</v>
+      </c>
+      <c r="BJ150">
+        <v>12</v>
+      </c>
+      <c r="BK150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2547341</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44878.61458333334</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" t="s">
+        <v>79</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>85</v>
+      </c>
+      <c r="P151" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q151">
+        <v>5</v>
+      </c>
+      <c r="R151">
+        <v>6</v>
+      </c>
+      <c r="S151">
+        <v>11</v>
+      </c>
+      <c r="T151">
+        <v>3.2</v>
+      </c>
+      <c r="U151">
+        <v>2.25</v>
+      </c>
+      <c r="V151">
+        <v>3.1</v>
+      </c>
+      <c r="W151">
+        <v>1.33</v>
+      </c>
+      <c r="X151">
+        <v>3.25</v>
+      </c>
+      <c r="Y151">
+        <v>2.63</v>
+      </c>
+      <c r="Z151">
+        <v>1.44</v>
+      </c>
+      <c r="AA151">
+        <v>6.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.11</v>
+      </c>
+      <c r="AC151">
+        <v>2.97</v>
+      </c>
+      <c r="AD151">
+        <v>3.62</v>
+      </c>
+      <c r="AE151">
+        <v>2.3</v>
+      </c>
+      <c r="AF151">
+        <v>1.04</v>
+      </c>
+      <c r="AG151">
+        <v>13</v>
+      </c>
+      <c r="AH151">
+        <v>1.22</v>
+      </c>
+      <c r="AI151">
+        <v>4</v>
+      </c>
+      <c r="AJ151">
+        <v>1.66</v>
+      </c>
+      <c r="AK151">
+        <v>2</v>
+      </c>
+      <c r="AL151">
+        <v>1.57</v>
+      </c>
+      <c r="AM151">
+        <v>2.25</v>
+      </c>
+      <c r="AN151">
+        <v>1.53</v>
+      </c>
+      <c r="AO151">
+        <v>1.25</v>
+      </c>
+      <c r="AP151">
+        <v>1.47</v>
+      </c>
+      <c r="AQ151">
+        <v>1.63</v>
+      </c>
+      <c r="AR151">
+        <v>2.57</v>
+      </c>
+      <c r="AS151">
+        <v>1.44</v>
+      </c>
+      <c r="AT151">
+        <v>2.63</v>
+      </c>
+      <c r="AU151">
+        <v>1.82</v>
+      </c>
+      <c r="AV151">
+        <v>1.61</v>
+      </c>
+      <c r="AW151">
+        <v>3.43</v>
+      </c>
+      <c r="AX151">
+        <v>2.23</v>
+      </c>
+      <c r="AY151">
+        <v>7.1</v>
+      </c>
+      <c r="AZ151">
+        <v>2.01</v>
+      </c>
+      <c r="BA151">
+        <v>1.22</v>
+      </c>
+      <c r="BB151">
+        <v>1.45</v>
+      </c>
+      <c r="BC151">
+        <v>1.81</v>
+      </c>
+      <c r="BD151">
+        <v>2.3</v>
+      </c>
+      <c r="BE151">
+        <v>3.04</v>
+      </c>
+      <c r="BF151">
+        <v>6</v>
+      </c>
+      <c r="BG151">
+        <v>5</v>
+      </c>
+      <c r="BH151">
+        <v>7</v>
+      </c>
+      <c r="BI151">
+        <v>6</v>
+      </c>
+      <c r="BJ151">
+        <v>13</v>
+      </c>
+      <c r="BK151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2547344</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44878.70833333334</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>67</v>
+      </c>
+      <c r="H152" t="s">
+        <v>78</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>2</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>85</v>
+      </c>
+      <c r="P152" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q152">
+        <v>8</v>
+      </c>
+      <c r="R152">
+        <v>6</v>
+      </c>
+      <c r="S152">
+        <v>14</v>
+      </c>
+      <c r="T152">
+        <v>4.75</v>
+      </c>
+      <c r="U152">
+        <v>2.3</v>
+      </c>
+      <c r="V152">
+        <v>2.25</v>
+      </c>
+      <c r="W152">
+        <v>1.33</v>
+      </c>
+      <c r="X152">
+        <v>3.25</v>
+      </c>
+      <c r="Y152">
+        <v>2.63</v>
+      </c>
+      <c r="Z152">
+        <v>1.44</v>
+      </c>
+      <c r="AA152">
+        <v>6.5</v>
+      </c>
+      <c r="AB152">
+        <v>1.11</v>
+      </c>
+      <c r="AC152">
+        <v>4.9</v>
+      </c>
+      <c r="AD152">
+        <v>4.14</v>
+      </c>
+      <c r="AE152">
+        <v>1.66</v>
+      </c>
+      <c r="AF152">
+        <v>1.04</v>
+      </c>
+      <c r="AG152">
+        <v>10</v>
+      </c>
+      <c r="AH152">
+        <v>1.25</v>
+      </c>
+      <c r="AI152">
+        <v>3.75</v>
+      </c>
+      <c r="AJ152">
+        <v>1.66</v>
+      </c>
+      <c r="AK152">
+        <v>2</v>
+      </c>
+      <c r="AL152">
+        <v>1.7</v>
+      </c>
+      <c r="AM152">
+        <v>2.05</v>
+      </c>
+      <c r="AN152">
+        <v>2.15</v>
+      </c>
+      <c r="AO152">
+        <v>1.25</v>
+      </c>
+      <c r="AP152">
+        <v>1.12</v>
+      </c>
+      <c r="AQ152">
+        <v>0.63</v>
+      </c>
+      <c r="AR152">
+        <v>1.38</v>
+      </c>
+      <c r="AS152">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT152">
+        <v>1.56</v>
+      </c>
+      <c r="AU152">
+        <v>1.39</v>
+      </c>
+      <c r="AV152">
+        <v>1.45</v>
+      </c>
+      <c r="AW152">
+        <v>2.84</v>
+      </c>
+      <c r="AX152">
+        <v>3.38</v>
+      </c>
+      <c r="AY152">
+        <v>8.6</v>
+      </c>
+      <c r="AZ152">
+        <v>1.48</v>
+      </c>
+      <c r="BA152">
+        <v>1.19</v>
+      </c>
+      <c r="BB152">
+        <v>1.4</v>
+      </c>
+      <c r="BC152">
+        <v>1.7</v>
+      </c>
+      <c r="BD152">
+        <v>2.13</v>
+      </c>
+      <c r="BE152">
+        <v>2.75</v>
+      </c>
+      <c r="BF152">
+        <v>4</v>
+      </c>
+      <c r="BG152">
+        <v>10</v>
+      </c>
+      <c r="BH152">
+        <v>6</v>
+      </c>
+      <c r="BI152">
+        <v>10</v>
+      </c>
+      <c r="BJ152">
+        <v>10</v>
+      </c>
+      <c r="BK152">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT2" t="n">
         <v>1.56</v>
@@ -1106,7 +1106,7 @@
         <v>1.25</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>1.63</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.88</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT15" t="n">
         <v>1.67</v>
@@ -3745,7 +3745,7 @@
         <v>2.78</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT18" t="n">
         <v>0.88</v>
@@ -4760,7 +4760,7 @@
         <v>2.78</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.94</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>2.11</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT26" t="n">
         <v>1.11</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU30" t="n">
         <v>2.43</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT32" t="n">
         <v>1.13</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU34" t="n">
         <v>1.18</v>
@@ -8617,7 +8617,7 @@
         <v>2.78</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU40" t="n">
         <v>2.52</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT43" t="n">
         <v>1.33</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT44" t="n">
         <v>1.11</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT46" t="n">
         <v>2.63</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT50" t="n">
         <v>1.63</v>
@@ -10850,7 +10850,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11053,7 +11053,7 @@
         <v>2.13</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU52" t="n">
         <v>2.24</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>2.17</v>
@@ -11865,7 +11865,7 @@
         <v>2.22</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU56" t="n">
         <v>2.27</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
         <v>1.11</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5600000000000001</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU65" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT67" t="n">
         <v>1.63</v>
@@ -14301,7 +14301,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.44</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU70" t="n">
         <v>1.9</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT73" t="n">
         <v>0.75</v>
@@ -15719,7 +15719,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT75" t="n">
         <v>1.33</v>
@@ -16937,7 +16937,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT81" t="n">
         <v>1.63</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT83" t="n">
         <v>1.11</v>
@@ -18561,10 +18561,10 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU89" t="n">
         <v>1.81</v>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.61</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT95" t="n">
         <v>0.5600000000000001</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU99" t="n">
         <v>1.74</v>
@@ -20797,7 +20797,7 @@
         <v>2.13</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -21406,7 +21406,7 @@
         <v>1.88</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.89</v>
@@ -22012,7 +22012,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT106" t="n">
         <v>1.63</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT107" t="n">
         <v>0.57</v>
@@ -23433,10 +23433,10 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.28</v>
@@ -23839,10 +23839,10 @@
         <v>1.8</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU115" t="n">
         <v>1.61</v>
@@ -24451,7 +24451,7 @@
         <v>0.78</v>
       </c>
       <c r="AT118" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -25057,10 +25057,10 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.64</v>
@@ -25869,7 +25869,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT125" t="n">
         <v>1.11</v>
@@ -25931,7 +25931,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>2547321</v>
+        <v>2547313</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -25944,189 +25944,189 @@
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44857.66666666666</v>
+        <v>44857.5625</v>
       </c>
       <c r="F126" t="n">
         <v>14</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>KV Oostende</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>['45+1', '80']</t>
+          <t>['20', '27', '56']</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>['70']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S126" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y126" t="n">
         <v>2.55</v>
       </c>
-      <c r="U126" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V126" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W126" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X126" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>2.45</v>
-      </c>
       <c r="Z126" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AA126" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="AB126" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC126" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AD126" t="n">
         <v>3.5</v>
       </c>
       <c r="AE126" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AF126" t="n">
         <v>1.04</v>
       </c>
       <c r="AG126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH126" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AI126" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AJ126" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AK126" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="AL126" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AM126" t="n">
         <v>2.15</v>
       </c>
       <c r="AN126" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO126" t="n">
         <v>1.32</v>
       </c>
-      <c r="AO126" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AP126" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AR126" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU126" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AV126" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AW126" t="n">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="AX126" t="n">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="AY126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ126" t="n">
-        <v>2.55</v>
+        <v>2.06</v>
       </c>
       <c r="BA126" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BB126" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="BC126" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="BD126" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="BE126" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BF126" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH126" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ126" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK126" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -26134,7 +26134,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>2547324</v>
+        <v>2547321</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -26147,189 +26147,189 @@
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44862.65625</v>
+        <v>44857.66666666666</v>
       </c>
       <c r="F127" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>KV Oostende</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
         <v>3</v>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="n">
-        <v>4</v>
-      </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>['9', '57', '90+1']</t>
+          <t>['45+1', '80']</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>['15']</t>
+          <t>['70']</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R127" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S127" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T127" t="n">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="U127" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="V127" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="W127" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X127" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Y127" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AA127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB127" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AC127" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AD127" t="n">
-        <v>4.65</v>
+        <v>3.5</v>
       </c>
       <c r="AE127" t="n">
-        <v>6.25</v>
+        <v>3.4</v>
       </c>
       <c r="AF127" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG127" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH127" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AI127" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="AJ127" t="n">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AK127" t="n">
-        <v>2.65</v>
+        <v>2.06</v>
       </c>
       <c r="AL127" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AM127" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AN127" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="AO127" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.95</v>
+        <v>1.72</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.71</v>
+        <v>1</v>
       </c>
       <c r="AR127" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.78</v>
+        <v>1.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AU127" t="n">
-        <v>2.27</v>
+        <v>1.51</v>
       </c>
       <c r="AV127" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AW127" t="n">
-        <v>3.52</v>
+        <v>2.87</v>
       </c>
       <c r="AX127" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AY127" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ127" t="n">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="BA127" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="BB127" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="BC127" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="BD127" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="BE127" t="n">
-        <v>2.39</v>
+        <v>2.7</v>
       </c>
       <c r="BF127" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG127" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH127" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI127" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BJ127" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BK127" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -26337,7 +26337,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>2547328</v>
+        <v>2547324</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -26350,189 +26350,189 @@
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44863.45833333334</v>
+        <v>44862.65625</v>
       </c>
       <c r="F128" t="n">
         <v>15</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9', '57', '90+1']</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>['80', '87', '90+6']</t>
+          <t>['15']</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R128" t="n">
+        <v>7</v>
+      </c>
+      <c r="S128" t="n">
+        <v>15</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V128" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI128" t="n">
         <v>10</v>
       </c>
-      <c r="S128" t="n">
-        <v>14</v>
-      </c>
-      <c r="T128" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U128" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V128" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W128" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X128" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA128" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG128" t="n">
+      <c r="BJ128" t="n">
         <v>15</v>
       </c>
-      <c r="AH128" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AM128" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN128" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO128" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP128" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AQ128" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AR128" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS128" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AT128" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU128" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AV128" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AW128" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX128" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AY128" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ128" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="BA128" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB128" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC128" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD128" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="BE128" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BF128" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG128" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH128" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI128" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ128" t="n">
-        <v>6</v>
-      </c>
       <c r="BK128" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
@@ -26540,7 +26540,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>2547326</v>
+        <v>2547328</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -26553,78 +26553,78 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44863.55208333334</v>
+        <v>44863.45833333334</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['80', '87', '90+6']</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R129" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S129" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T129" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="U129" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V129" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="W129" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X129" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y129" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Z129" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AA129" t="n">
         <v>6</v>
@@ -26636,103 +26636,103 @@
         <v>3.5</v>
       </c>
       <c r="AD129" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE129" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AF129" t="n">
         <v>1.03</v>
       </c>
       <c r="AG129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH129" t="n">
         <v>1.22</v>
       </c>
       <c r="AI129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF129" t="n">
         <v>4</v>
       </c>
-      <c r="AJ129" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK129" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL129" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM129" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN129" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AO129" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AP129" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AQ129" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AR129" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AS129" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AT129" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AU129" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AV129" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AW129" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AX129" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AY129" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ129" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="BA129" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB129" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BC129" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BD129" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BE129" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BF129" t="n">
-        <v>8</v>
-      </c>
       <c r="BG129" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH129" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BI129" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BJ129" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BK129" t="n">
         <v>18</v>
@@ -26743,7 +26743,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>2547329</v>
+        <v>2547326</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -26763,182 +26763,182 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sint-Truiden</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
         <v>3</v>
       </c>
-      <c r="N130" t="n">
-        <v>5</v>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>['54', '83']</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>['24', '45+3', '83']</t>
-        </is>
-      </c>
-      <c r="Q130" t="n">
+      <c r="R130" t="n">
+        <v>6</v>
+      </c>
+      <c r="S130" t="n">
+        <v>9</v>
+      </c>
+      <c r="T130" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI130" t="n">
         <v>4</v>
       </c>
-      <c r="R130" t="n">
-        <v>2</v>
-      </c>
-      <c r="S130" t="n">
-        <v>6</v>
-      </c>
-      <c r="T130" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U130" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V130" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W130" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X130" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH130" t="n">
+      <c r="AJ130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB130" t="n">
         <v>1.3</v>
       </c>
-      <c r="AI130" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM130" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AO130" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP130" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AQ130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR130" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS130" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT130" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AU130" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AV130" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW130" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AX130" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AY130" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ130" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BA130" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB130" t="n">
-        <v>1.41</v>
-      </c>
       <c r="BC130" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="BD130" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="BE130" t="n">
-        <v>2.93</v>
+        <v>2.56</v>
       </c>
       <c r="BF130" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG130" t="n">
         <v>4</v>
       </c>
       <c r="BH130" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI130" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BJ130" t="n">
         <v>16</v>
       </c>
       <c r="BK130" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -26946,7 +26946,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>2547322</v>
+        <v>2547329</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -26959,47 +26959,47 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44863.65625</v>
+        <v>44863.55208333334</v>
       </c>
       <c r="F131" t="n">
         <v>15</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>KV Oostende</t>
+          <t>Sint-Truiden</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K131" t="n">
         <v>2</v>
       </c>
       <c r="L131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>['34', '39', '73', '80']</t>
+          <t>['54', '83']</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>['57', '65']</t>
+          <t>['24', '45+3', '83']</t>
         </is>
       </c>
       <c r="Q131" t="n">
@@ -27012,136 +27012,136 @@
         <v>6</v>
       </c>
       <c r="T131" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="U131" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="V131" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA131" t="n">
         <v>7</v>
       </c>
-      <c r="W131" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X131" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y131" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z131" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AA131" t="n">
-        <v>4.75</v>
-      </c>
       <c r="AB131" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="AC131" t="n">
-        <v>1.23</v>
+        <v>1.85</v>
       </c>
       <c r="AD131" t="n">
-        <v>5.35</v>
+        <v>3.6</v>
       </c>
       <c r="AE131" t="n">
-        <v>9.1</v>
+        <v>4</v>
       </c>
       <c r="AF131" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AG131" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AH131" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AI131" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="AJ131" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="AK131" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="AL131" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AM131" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AN131" t="n">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AO131" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AP131" t="n">
-        <v>3.5</v>
+        <v>1.66</v>
       </c>
       <c r="AQ131" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AR131" t="n">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.67</v>
       </c>
       <c r="AU131" t="n">
-        <v>2.19</v>
+        <v>1.68</v>
       </c>
       <c r="AV131" t="n">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="AW131" t="n">
-        <v>3.68</v>
+        <v>2.99</v>
       </c>
       <c r="AX131" t="n">
-        <v>1.15</v>
+        <v>1.79</v>
       </c>
       <c r="AY131" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ131" t="n">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="BA131" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BB131" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="BC131" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="BD131" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="BE131" t="n">
-        <v>2.56</v>
+        <v>2.93</v>
       </c>
       <c r="BF131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG131" t="n">
         <v>4</v>
       </c>
       <c r="BH131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BI131" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ131" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BK131" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132">
@@ -27149,7 +27149,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>2547323</v>
+        <v>2547322</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -27162,29 +27162,29 @@
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>44864.39583333334</v>
+        <v>44863.65625</v>
       </c>
       <c r="F132" t="n">
         <v>15</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>AS Eupen</t>
+          <t>KV Oostende</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L132" t="n">
         <v>4</v>
@@ -27197,154 +27197,154 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>['14', '19', '65', '87']</t>
+          <t>['34', '39', '73', '80']</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>['44', '68']</t>
+          <t>['57', '65']</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S132" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="T132" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="U132" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="V132" t="n">
+        <v>7</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ132" t="n">
         <v>6.5</v>
       </c>
-      <c r="W132" t="n">
+      <c r="BA132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB132" t="n">
         <v>1.3</v>
       </c>
-      <c r="X132" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y132" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z132" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA132" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM132" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO132" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AP132" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AQ132" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AR132" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AS132" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AT132" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AU132" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AV132" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AW132" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AX132" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AY132" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ132" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BA132" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB132" t="n">
-        <v>1.42</v>
-      </c>
       <c r="BC132" t="n">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="BD132" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="BE132" t="n">
-        <v>2.93</v>
+        <v>2.56</v>
       </c>
       <c r="BF132" t="n">
         <v>6</v>
       </c>
       <c r="BG132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BI132" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BJ132" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BK132" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -27352,7 +27352,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>2547327</v>
+        <v>2547323</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -27365,189 +27365,189 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44864.5</v>
+        <v>44864.39583333334</v>
       </c>
       <c r="F133" t="n">
         <v>15</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Union Saint-Gilloise</t>
+          <t>AS Eupen</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M133" t="n">
         <v>2</v>
       </c>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>['75']</t>
+          <t>['14', '19', '65', '87']</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>['47', '72']</t>
+          <t>['44', '68']</t>
         </is>
       </c>
       <c r="Q133" t="n">
+        <v>10</v>
+      </c>
+      <c r="R133" t="n">
+        <v>4</v>
+      </c>
+      <c r="S133" t="n">
+        <v>14</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V133" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA133" t="n">
         <v>6</v>
       </c>
-      <c r="R133" t="n">
+      <c r="AB133" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE133" t="n">
         <v>7</v>
       </c>
-      <c r="S133" t="n">
-        <v>13</v>
-      </c>
-      <c r="T133" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U133" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V133" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W133" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X133" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z133" t="n">
+      <c r="AF133" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS133" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA133" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AF133" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH133" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM133" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AO133" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP133" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AQ133" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AR133" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AS133" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AT133" t="n">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV133" t="n">
         <v>1.23</v>
       </c>
-      <c r="AV133" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AW133" t="n">
-        <v>2.7</v>
+        <v>3.02</v>
       </c>
       <c r="AX133" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="AY133" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ133" t="n">
-        <v>1.44</v>
+        <v>4.3</v>
       </c>
       <c r="BA133" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BB133" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BC133" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="BD133" t="n">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="BE133" t="n">
-        <v>3.34</v>
+        <v>2.93</v>
       </c>
       <c r="BF133" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG133" t="n">
         <v>5</v>
       </c>
       <c r="BH133" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BI133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BJ133" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BK133" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
@@ -27555,7 +27555,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>2547325</v>
+        <v>2547327</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -27568,66 +27568,66 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44864.60416666666</v>
+        <v>44864.5</v>
       </c>
       <c r="F134" t="n">
         <v>15</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>RFC Seraing</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>['47', '72']</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S134" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T134" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="U134" t="n">
         <v>2.3</v>
       </c>
       <c r="V134" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W134" t="n">
         <v>1.33</v>
@@ -27636,10 +27636,10 @@
         <v>3.25</v>
       </c>
       <c r="Y134" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z134" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA134" t="n">
         <v>6.5</v>
@@ -27648,109 +27648,109 @@
         <v>1.11</v>
       </c>
       <c r="AC134" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="AD134" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AE134" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="AF134" t="n">
         <v>1.03</v>
       </c>
       <c r="AG134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH134" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI134" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="AJ134" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AK134" t="n">
         <v>2.06</v>
       </c>
       <c r="AL134" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AM134" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AN134" t="n">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="AO134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA134" t="n">
         <v>1.26</v>
       </c>
-      <c r="AP134" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AQ134" t="n">
+      <c r="BB134" t="n">
         <v>1.5</v>
       </c>
-      <c r="AR134" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS134" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AT134" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AU134" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AV134" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AW134" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AX134" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AY134" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ134" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="BA134" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB134" t="n">
-        <v>1.32</v>
-      </c>
       <c r="BC134" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="BD134" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="BE134" t="n">
-        <v>2.62</v>
+        <v>3.34</v>
       </c>
       <c r="BF134" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG134" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH134" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI134" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BJ134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK134" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
@@ -27758,7 +27758,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>2547330</v>
+        <v>2547325</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -27771,26 +27771,26 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44864.70833333334</v>
+        <v>44864.60416666666</v>
       </c>
       <c r="F135" t="n">
         <v>15</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Sporting Charleroi</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
         <v>1</v>
@@ -27799,38 +27799,38 @@
         <v>1</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>['35']</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="Q135" t="n">
+        <v>1</v>
+      </c>
+      <c r="R135" t="n">
+        <v>6</v>
+      </c>
+      <c r="S135" t="n">
+        <v>7</v>
+      </c>
+      <c r="T135" t="n">
         <v>4</v>
-      </c>
-      <c r="R135" t="n">
-        <v>8</v>
-      </c>
-      <c r="S135" t="n">
-        <v>12</v>
-      </c>
-      <c r="T135" t="n">
-        <v>3.75</v>
       </c>
       <c r="U135" t="n">
         <v>2.3</v>
       </c>
       <c r="V135" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W135" t="n">
         <v>1.33</v>
@@ -27851,19 +27851,19 @@
         <v>1.11</v>
       </c>
       <c r="AC135" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="AD135" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AE135" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="AF135" t="n">
         <v>1.03</v>
       </c>
       <c r="AG135" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH135" t="n">
         <v>1.22</v>
@@ -27872,10 +27872,10 @@
         <v>4.2</v>
       </c>
       <c r="AJ135" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AK135" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AL135" t="n">
         <v>1.62</v>
@@ -27884,76 +27884,76 @@
         <v>2.2</v>
       </c>
       <c r="AN135" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AO135" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR135" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU135" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AV135" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AW135" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AX135" t="n">
         <v>2.4</v>
       </c>
       <c r="AY135" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ135" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="BA135" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BB135" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="BC135" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="BD135" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="BE135" t="n">
-        <v>3.04</v>
+        <v>2.62</v>
       </c>
       <c r="BF135" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG135" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI135" t="n">
         <v>5</v>
       </c>
-      <c r="BI135" t="n">
-        <v>8</v>
-      </c>
       <c r="BJ135" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK135" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
@@ -27961,7 +27961,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>2547331</v>
+        <v>2547330</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -27974,189 +27974,189 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>44869.69791666666</v>
+        <v>44864.70833333334</v>
       </c>
       <c r="F136" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>Sporting Charleroi</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sporting Charleroi</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
         <v>4</v>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="n">
-        <v>5</v>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>['9', '35', '71', '90+5']</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>['66']</t>
-        </is>
-      </c>
-      <c r="Q136" t="n">
-        <v>5</v>
-      </c>
       <c r="R136" t="n">
+        <v>8</v>
+      </c>
+      <c r="S136" t="n">
+        <v>12</v>
+      </c>
+      <c r="T136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF136" t="n">
         <v>4</v>
       </c>
-      <c r="S136" t="n">
-        <v>9</v>
-      </c>
-      <c r="T136" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U136" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V136" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="W136" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X136" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y136" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z136" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA136" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AM136" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN136" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AO136" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AP136" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AQ136" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AR136" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS136" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AT136" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU136" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AV136" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW136" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AX136" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AY136" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ136" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BA136" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB136" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BC136" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BD136" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BE136" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF136" t="n">
-        <v>9</v>
-      </c>
       <c r="BG136" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH136" t="n">
         <v>5</v>
       </c>
       <c r="BI136" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ136" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BK136" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -28164,7 +28164,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>2547337</v>
+        <v>2547331</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -28177,19 +28177,19 @@
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>44870.5</v>
+        <v>44869.69791666666</v>
       </c>
       <c r="F137" t="n">
         <v>16</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>Sporting Charleroi</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -28202,41 +28202,41 @@
         <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N137" t="n">
+        <v>5</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['9', '35', '71', '90+5']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>5</v>
+      </c>
+      <c r="R137" t="n">
         <v>4</v>
       </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>['16', '41']</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>['54', '62']</t>
-        </is>
-      </c>
-      <c r="Q137" t="n">
-        <v>11</v>
-      </c>
-      <c r="R137" t="n">
-        <v>5</v>
-      </c>
       <c r="S137" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="T137" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="U137" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V137" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="W137" t="n">
         <v>1.26</v>
@@ -28245,121 +28245,121 @@
         <v>3.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="Z137" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AA137" t="n">
-        <v>4.95</v>
+        <v>4.8</v>
       </c>
       <c r="AB137" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AC137" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AD137" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AE137" t="n">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="AF137" t="n">
         <v>1.02</v>
       </c>
       <c r="AG137" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH137" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AI137" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AJ137" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AK137" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AL137" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AM137" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AN137" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AO137" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AP137" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.63</v>
+        <v>2.75</v>
       </c>
       <c r="AR137" t="n">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.56</v>
+        <v>2.78</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AU137" t="n">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="AV137" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AW137" t="n">
-        <v>3.07</v>
+        <v>3.51</v>
       </c>
       <c r="AX137" t="n">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AY137" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ137" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="BA137" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="BB137" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="BC137" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="BD137" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="BE137" t="n">
-        <v>2.43</v>
+        <v>3.2</v>
       </c>
       <c r="BF137" t="n">
         <v>9</v>
       </c>
       <c r="BG137" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH137" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BI137" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BJ137" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="BK137" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -28367,7 +28367,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>2547334</v>
+        <v>2547337</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -28380,189 +28380,189 @@
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>44870.59375</v>
+        <v>44870.5</v>
       </c>
       <c r="F138" t="n">
         <v>16</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sint-Truiden</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M138" t="n">
         <v>2</v>
       </c>
       <c r="N138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>['45+2']</t>
+          <t>['16', '41']</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>['77', '79']</t>
+          <t>['54', '62']</t>
         </is>
       </c>
       <c r="Q138" t="n">
+        <v>11</v>
+      </c>
+      <c r="R138" t="n">
         <v>5</v>
       </c>
-      <c r="R138" t="n">
-        <v>7</v>
-      </c>
       <c r="S138" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T138" t="n">
-        <v>4.33</v>
+        <v>2.35</v>
       </c>
       <c r="U138" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="V138" t="n">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="W138" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="X138" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="Y138" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="Z138" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AA138" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF138" t="n">
         <v>9</v>
       </c>
-      <c r="AB138" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AL138" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM138" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN138" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AO138" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP138" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ138" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AR138" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS138" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AT138" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AU138" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AV138" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW138" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AX138" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AY138" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ138" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BA138" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BB138" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BC138" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD138" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="BE138" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BF138" t="n">
-        <v>2</v>
-      </c>
       <c r="BG138" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BH138" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BI138" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BJ138" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="BK138" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -28570,7 +28570,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>2547335</v>
+        <v>2547334</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -28590,182 +28590,182 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>RFC Seraing</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Sint-Truiden</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N139" t="n">
         <v>3</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>['36', '90+1']</t>
+          <t>['45+2']</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>['41']</t>
+          <t>['77', '79']</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R139" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S139" t="n">
         <v>12</v>
       </c>
       <c r="T139" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="U139" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V139" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="W139" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y139" t="n">
         <v>3.25</v>
       </c>
-      <c r="Y139" t="n">
-        <v>2.3</v>
-      </c>
       <c r="Z139" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AA139" t="n">
-        <v>5.25</v>
+        <v>9</v>
       </c>
       <c r="AB139" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AC139" t="n">
-        <v>1.94</v>
+        <v>3.4</v>
       </c>
       <c r="AD139" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AE139" t="n">
-        <v>3.25</v>
+        <v>1.99</v>
       </c>
       <c r="AF139" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AG139" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AH139" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AI139" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="AJ139" t="n">
-        <v>1.55</v>
+        <v>2.03</v>
       </c>
       <c r="AK139" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="AL139" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="AM139" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AN139" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="AO139" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.93</v>
+        <v>1.28</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.71</v>
+        <v>0.14</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.88</v>
+        <v>0.11</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AU139" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="AV139" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AW139" t="n">
-        <v>3.36</v>
+        <v>2.55</v>
       </c>
       <c r="AX139" t="n">
-        <v>1.63</v>
+        <v>2.4</v>
       </c>
       <c r="AY139" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ139" t="n">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="BA139" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="BB139" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="BC139" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="BD139" t="n">
-        <v>2.02</v>
+        <v>2.81</v>
       </c>
       <c r="BE139" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="BF139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG139" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH139" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI139" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BJ139" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK139" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
@@ -28773,7 +28773,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>2547338</v>
+        <v>2547335</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -28786,189 +28786,189 @@
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>44870.69791666666</v>
+        <v>44870.59375</v>
       </c>
       <c r="F140" t="n">
         <v>16</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>AS Eupen</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L140" t="n">
         <v>2</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>['78', '90+1']</t>
+          <t>['36', '90+1']</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['41']</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S140" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T140" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="U140" t="n">
         <v>2.25</v>
       </c>
       <c r="V140" t="n">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="W140" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X140" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Y140" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z140" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AA140" t="n">
-        <v>5.95</v>
+        <v>5.25</v>
       </c>
       <c r="AB140" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AC140" t="n">
-        <v>2.86</v>
+        <v>1.94</v>
       </c>
       <c r="AD140" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="AE140" t="n">
-        <v>2.33</v>
+        <v>3.25</v>
       </c>
       <c r="AF140" t="n">
         <v>1.03</v>
       </c>
       <c r="AG140" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH140" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AI140" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AJ140" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AK140" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="AL140" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AM140" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AN140" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="AO140" t="n">
         <v>1.25</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.38</v>
+        <v>1.93</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.86</v>
+        <v>1.71</v>
       </c>
       <c r="AR140" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU140" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AV140" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AW140" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="AX140" t="n">
-        <v>2.4</v>
+        <v>1.63</v>
       </c>
       <c r="AY140" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ140" t="n">
-        <v>1.79</v>
+        <v>2.7</v>
       </c>
       <c r="BA140" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB140" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="BC140" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="BD140" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="BE140" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BF140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI140" t="n">
         <v>5</v>
       </c>
-      <c r="BG140" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH140" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI140" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ140" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK140" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
@@ -28976,7 +28976,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>2547332</v>
+        <v>2547338</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -28989,29 +28989,29 @@
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>44871.39583333334</v>
+        <v>44870.69791666666</v>
       </c>
       <c r="F141" t="n">
         <v>16</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>AS Eupen</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>2</v>
@@ -29024,7 +29024,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>['9', '29']</t>
+          <t>['78', '90+1']</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -29033,142 +29033,142 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S141" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T141" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U141" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V141" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="W141" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X141" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Y141" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z141" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AA141" t="n">
-        <v>7</v>
+        <v>5.95</v>
       </c>
       <c r="AB141" t="n">
         <v>1.1</v>
       </c>
       <c r="AC141" t="n">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="AD141" t="n">
-        <v>3.48</v>
+        <v>3.66</v>
       </c>
       <c r="AE141" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AF141" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG141" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH141" t="n">
         <v>1.22</v>
       </c>
       <c r="AI141" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AJ141" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AK141" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AL141" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AM141" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AN141" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="AO141" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AP141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT141" t="n">
         <v>1.44</v>
       </c>
-      <c r="AQ141" t="n">
+      <c r="AU141" t="n">
         <v>1.86</v>
       </c>
-      <c r="AR141" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AS141" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT141" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AU141" t="n">
-        <v>1.84</v>
-      </c>
       <c r="AV141" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AW141" t="n">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
       <c r="AX141" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AY141" t="n">
         <v>7</v>
       </c>
       <c r="AZ141" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="BA141" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB141" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="BC141" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="BD141" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="BE141" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BF141" t="n">
         <v>5</v>
       </c>
       <c r="BG141" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH141" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI141" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ141" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK141" t="n">
         <v>9</v>
@@ -29179,7 +29179,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>2547336</v>
+        <v>2547332</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -29192,105 +29192,105 @@
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>44871.5</v>
+        <v>44871.39583333334</v>
       </c>
       <c r="F142" t="n">
         <v>16</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Union Saint-Gilloise</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142" t="n">
         <v>2</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>['9', '29']</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R142" t="n">
+        <v>3</v>
+      </c>
+      <c r="S142" t="n">
+        <v>7</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI142" t="n">
         <v>4</v>
-      </c>
-      <c r="S142" t="n">
-        <v>14</v>
-      </c>
-      <c r="T142" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U142" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V142" t="n">
-        <v>5</v>
-      </c>
-      <c r="W142" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X142" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y142" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z142" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA142" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB142" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC142" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AE142" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AF142" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG142" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH142" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI142" t="n">
-        <v>4.3</v>
       </c>
       <c r="AJ142" t="n">
         <v>1.7</v>
@@ -29299,82 +29299,82 @@
         <v>2</v>
       </c>
       <c r="AL142" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AM142" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AN142" t="n">
-        <v>1.16</v>
+        <v>1.51</v>
       </c>
       <c r="AO142" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142" t="n">
-        <v>2.29</v>
+        <v>1.86</v>
       </c>
       <c r="AR142" t="n">
-        <v>1.13</v>
+        <v>1.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AU142" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="AV142" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AW142" t="n">
-        <v>2.94</v>
+        <v>3.32</v>
       </c>
       <c r="AX142" t="n">
-        <v>1.37</v>
+        <v>2.05</v>
       </c>
       <c r="AY142" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH142" t="n">
         <v>8</v>
       </c>
-      <c r="AZ142" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BA142" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB142" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC142" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BD142" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="BE142" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="BF142" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG142" t="n">
+      <c r="BI142" t="n">
         <v>5</v>
       </c>
-      <c r="BH142" t="n">
-        <v>27</v>
-      </c>
-      <c r="BI142" t="n">
+      <c r="BJ142" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK142" t="n">
         <v>9</v>
-      </c>
-      <c r="BJ142" t="n">
-        <v>29</v>
-      </c>
-      <c r="BK142" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="143">
@@ -29382,7 +29382,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>2547333</v>
+        <v>2547336</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -29395,189 +29395,189 @@
         </is>
       </c>
       <c r="E143" s="2" t="n">
-        <v>44871.60416666666</v>
+        <v>44871.5</v>
       </c>
       <c r="F143" t="n">
         <v>16</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+2']</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45']</t>
         </is>
       </c>
       <c r="Q143" t="n">
+        <v>10</v>
+      </c>
+      <c r="R143" t="n">
         <v>4</v>
       </c>
-      <c r="R143" t="n">
-        <v>1</v>
-      </c>
       <c r="S143" t="n">
+        <v>14</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V143" t="n">
         <v>5</v>
       </c>
-      <c r="T143" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U143" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V143" t="n">
-        <v>3.6</v>
-      </c>
       <c r="W143" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X143" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y143" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA143" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB143" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC143" t="n">
-        <v>2.17</v>
+        <v>1.68</v>
       </c>
       <c r="AD143" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="AE143" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="AF143" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG143" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH143" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AI143" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AJ143" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AK143" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AL143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC143" t="n">
         <v>1.67</v>
       </c>
-      <c r="AM143" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO143" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP143" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AQ143" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AR143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS143" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AT143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU143" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AV143" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AW143" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AX143" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AY143" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ143" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BA143" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB143" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC143" t="n">
-        <v>1.79</v>
-      </c>
       <c r="BD143" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="BE143" t="n">
-        <v>3.04</v>
+        <v>2.85</v>
       </c>
       <c r="BF143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG143" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH143" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="BI143" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ143" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="BK143" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -29585,7 +29585,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>2547339</v>
+        <v>2547333</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -29598,189 +29598,189 @@
         </is>
       </c>
       <c r="E144" s="2" t="n">
-        <v>44871.70833333334</v>
+        <v>44871.60416666666</v>
       </c>
       <c r="F144" t="n">
         <v>16</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>KV Oostende</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
         <v>4</v>
       </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>['8', '54', '90+6']</t>
-        </is>
-      </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>['19']</t>
-        </is>
-      </c>
-      <c r="Q144" t="n">
-        <v>8</v>
-      </c>
       <c r="R144" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S144" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="T144" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="U144" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V144" t="n">
         <v>3.6</v>
       </c>
       <c r="W144" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X144" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y144" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z144" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA144" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB144" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC144" t="n">
-        <v>2.21</v>
+        <v>2.17</v>
       </c>
       <c r="AD144" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="AE144" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="AF144" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG144" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AI144" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AJ144" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AK144" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AL144" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AM144" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AN144" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AO144" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.29</v>
+        <v>2.63</v>
       </c>
       <c r="AR144" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.5</v>
+        <v>2.44</v>
       </c>
       <c r="AT144" t="n">
         <v>0.88</v>
       </c>
       <c r="AU144" t="n">
-        <v>1.48</v>
+        <v>1.72</v>
       </c>
       <c r="AV144" t="n">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="AW144" t="n">
-        <v>2.63</v>
+        <v>3.11</v>
       </c>
       <c r="AX144" t="n">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
       <c r="AY144" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AZ144" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="BA144" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BB144" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="BC144" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="BD144" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="BE144" t="n">
-        <v>2.56</v>
+        <v>3.04</v>
       </c>
       <c r="BF144" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BG144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK144" t="n">
         <v>5</v>
-      </c>
-      <c r="BH144" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI144" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ144" t="n">
-        <v>21</v>
-      </c>
-      <c r="BK144" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="145">
@@ -29788,7 +29788,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>2547343</v>
+        <v>2547339</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -29801,72 +29801,72 @@
         </is>
       </c>
       <c r="E145" s="2" t="n">
-        <v>44876.69791666666</v>
+        <v>44871.70833333334</v>
       </c>
       <c r="F145" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>KV Oostende</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
       <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>3</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
         <v>4</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4</v>
-      </c>
-      <c r="L145" t="n">
-        <v>5</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0</v>
-      </c>
-      <c r="N145" t="n">
-        <v>5</v>
-      </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>['23', '29', '42', '45+2', '89']</t>
+          <t>['8', '54', '90+6']</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19']</t>
         </is>
       </c>
       <c r="Q145" t="n">
+        <v>8</v>
+      </c>
+      <c r="R145" t="n">
+        <v>6</v>
+      </c>
+      <c r="S145" t="n">
         <v>14</v>
       </c>
-      <c r="R145" t="n">
-        <v>3</v>
-      </c>
-      <c r="S145" t="n">
-        <v>17</v>
-      </c>
       <c r="T145" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V145" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="W145" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X145" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y145" t="n">
         <v>2.5</v>
@@ -29875,115 +29875,115 @@
         <v>1.5</v>
       </c>
       <c r="AA145" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB145" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC145" t="n">
-        <v>1.55</v>
+        <v>2.21</v>
       </c>
       <c r="AD145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI145" t="n">
         <v>4.3</v>
       </c>
-      <c r="AE145" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AF145" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="AH145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI145" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ145" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AK145" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AL145" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AM145" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AN145" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AO145" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP145" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA145" t="n">
         <v>1.25</v>
       </c>
-      <c r="AS145" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AT145" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AU145" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AV145" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AW145" t="n">
+      <c r="BB145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE145" t="n">
         <v>2.56</v>
       </c>
-      <c r="AX145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ145" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA145" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB145" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC145" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD145" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE145" t="n">
-        <v>0</v>
-      </c>
       <c r="BF145" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BG145" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH145" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BI145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ145" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BK145" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
@@ -29991,7 +29991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>2547347</v>
+        <v>2547343</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -30004,42 +30004,42 @@
         </is>
       </c>
       <c r="E146" s="2" t="n">
-        <v>44877.5</v>
+        <v>44876.69791666666</v>
       </c>
       <c r="F146" t="n">
         <v>17</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>KV Oostende</t>
+          <t>RFC Seraing</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L146" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['16', '28', '40', '49', '53', '81']</t>
+          <t>['23', '29', '42', '45+2', '89']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -30048,22 +30048,22 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="R146" t="n">
         <v>3</v>
       </c>
       <c r="S146" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="T146" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U146" t="n">
         <v>2.38</v>
       </c>
       <c r="V146" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="W146" t="n">
         <v>1.3</v>
@@ -30084,109 +30084,109 @@
         <v>1.13</v>
       </c>
       <c r="AC146" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AD146" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AE146" t="n">
-        <v>3.92</v>
+        <v>4.7</v>
       </c>
       <c r="AF146" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG146" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
         <v>15</v>
       </c>
-      <c r="AH146" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM146" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN146" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO146" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP146" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ146" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AR146" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AS146" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT146" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AU146" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AV146" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AW146" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AX146" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AY146" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AZ146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BA146" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BB146" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BC146" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BD146" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BE146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BF146" t="n">
-        <v>9</v>
-      </c>
       <c r="BG146" t="n">
         <v>2</v>
       </c>
       <c r="BH146" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK146" t="n">
         <v>7</v>
-      </c>
-      <c r="BI146" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ146" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK146" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="147">
@@ -30194,7 +30194,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>2547346</v>
+        <v>2547347</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -30207,189 +30207,189 @@
         </is>
       </c>
       <c r="E147" s="2" t="n">
-        <v>44877.59375</v>
+        <v>44877.5</v>
       </c>
       <c r="F147" t="n">
         <v>17</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Sint-Truiden</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>KV Oostende</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
+          <t>['16', '28', '40', '49', '53', '81']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>['69']</t>
-        </is>
-      </c>
       <c r="Q147" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S147" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T147" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="U147" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V147" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="W147" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X147" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Y147" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AA147" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB147" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AC147" t="n">
-        <v>2.45</v>
+        <v>1.87</v>
       </c>
       <c r="AD147" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AE147" t="n">
-        <v>2.8</v>
+        <v>3.92</v>
       </c>
       <c r="AF147" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG147" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AH147" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AI147" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="AJ147" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AK147" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX147" t="n">
         <v>1.78</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AO147" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP147" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ147" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AR147" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AS147" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT147" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AU147" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AV147" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AW147" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AX147" t="n">
-        <v>1.7</v>
       </c>
       <c r="AY147" t="n">
         <v>7.4</v>
       </c>
       <c r="AZ147" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="BA147" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="BB147" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="BC147" t="n">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="BD147" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="BE147" t="n">
-        <v>2.93</v>
+        <v>2.56</v>
       </c>
       <c r="BF147" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BG147" t="n">
         <v>2</v>
       </c>
       <c r="BH147" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BI147" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ147" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK147" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
@@ -30397,7 +30397,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>2547345</v>
+        <v>2547346</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -30417,149 +30417,149 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>Sint-Truiden</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>AS Eupen</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>10</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2</v>
+      </c>
+      <c r="S148" t="n">
+        <v>12</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y148" t="n">
         <v>3</v>
       </c>
-      <c r="K148" t="n">
-        <v>5</v>
-      </c>
-      <c r="L148" t="n">
-        <v>5</v>
-      </c>
-      <c r="M148" t="n">
-        <v>5</v>
-      </c>
-      <c r="N148" t="n">
-        <v>10</v>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>['39', '45+3', '83', '84', '88']</t>
-        </is>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>['9', '20', '41', '56', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q148" t="n">
-        <v>11</v>
-      </c>
-      <c r="R148" t="n">
-        <v>2</v>
-      </c>
-      <c r="S148" t="n">
-        <v>13</v>
-      </c>
-      <c r="T148" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U148" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V148" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W148" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X148" t="n">
+      <c r="Z148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD148" t="n">
         <v>3.25</v>
       </c>
-      <c r="Y148" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z148" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA148" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB148" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC148" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD148" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AE148" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AF148" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AG148" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AH148" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AI148" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="AJ148" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AK148" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="AL148" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AM148" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AN148" t="n">
         <v>1.42</v>
       </c>
       <c r="AO148" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.75</v>
+        <v>1.14</v>
       </c>
       <c r="AR148" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.78</v>
+        <v>1.1</v>
       </c>
       <c r="AU148" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="AV148" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AW148" t="n">
-        <v>2.59</v>
+        <v>2.99</v>
       </c>
       <c r="AX148" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AY148" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AZ148" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="BA148" t="n">
         <v>1.21</v>
@@ -30577,22 +30577,22 @@
         <v>2.93</v>
       </c>
       <c r="BF148" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG148" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BH148" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BI148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK148" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ148" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK148" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="149">
@@ -30600,7 +30600,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>2547340</v>
+        <v>2547345</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -30613,66 +30613,66 @@
         </is>
       </c>
       <c r="E149" s="2" t="n">
-        <v>44878.39583333334</v>
+        <v>44877.59375</v>
       </c>
       <c r="F149" t="n">
         <v>17</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>AS Eupen</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K149" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L149" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M149" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N149" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>['34', '62']</t>
+          <t>['39', '45+3', '83', '84', '88']</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>['75', '78']</t>
+          <t>['9', '20', '41', '56', '90+4']</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S149" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T149" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="U149" t="n">
         <v>2.3</v>
       </c>
       <c r="V149" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W149" t="n">
         <v>1.33</v>
@@ -30681,10 +30681,10 @@
         <v>3.25</v>
       </c>
       <c r="Y149" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z149" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA149" t="n">
         <v>6.5</v>
@@ -30693,16 +30693,16 @@
         <v>1.11</v>
       </c>
       <c r="AC149" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AD149" t="n">
         <v>3.6</v>
       </c>
       <c r="AE149" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AF149" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG149" t="n">
         <v>15</v>
@@ -30714,88 +30714,88 @@
         <v>4.2</v>
       </c>
       <c r="AJ149" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AK149" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AL149" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AM149" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AN149" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="AO149" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP149" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2.38</v>
+        <v>0.75</v>
       </c>
       <c r="AR149" t="n">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="AS149" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD149" t="n">
         <v>2.22</v>
       </c>
-      <c r="AT149" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AU149" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AV149" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AW149" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="AX149" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AY149" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ149" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BA149" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB149" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BC149" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="BD149" t="n">
-        <v>2.07</v>
-      </c>
       <c r="BE149" t="n">
-        <v>2.66</v>
+        <v>2.93</v>
       </c>
       <c r="BF149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH149" t="n">
         <v>6</v>
       </c>
-      <c r="BG149" t="n">
+      <c r="BI149" t="n">
         <v>7</v>
       </c>
-      <c r="BH149" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI149" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ149" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BK149" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150">
@@ -30803,7 +30803,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>2547342</v>
+        <v>2547340</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -30816,26 +30816,26 @@
         </is>
       </c>
       <c r="E150" s="2" t="n">
-        <v>44878.5</v>
+        <v>44878.39583333334</v>
       </c>
       <c r="F150" t="n">
         <v>17</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Union Saint-Gilloise</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
         <v>1</v>
@@ -30844,38 +30844,38 @@
         <v>2</v>
       </c>
       <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['34', '62']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['75', '78']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
         <v>3</v>
-      </c>
-      <c r="N150" t="n">
-        <v>5</v>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>['53', '90+6']</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>['23', '65', '87']</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
-        <v>8</v>
       </c>
       <c r="R150" t="n">
         <v>4</v>
       </c>
       <c r="S150" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T150" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="U150" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V150" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="W150" t="n">
         <v>1.33</v>
@@ -30896,25 +30896,25 @@
         <v>1.11</v>
       </c>
       <c r="AC150" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AD150" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AE150" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AF150" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG150" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH150" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI150" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AJ150" t="n">
         <v>1.66</v>
@@ -30929,76 +30929,76 @@
         <v>2.1</v>
       </c>
       <c r="AN150" t="n">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO150" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="AR150" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AS150" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT150" t="n">
         <v>1.63</v>
       </c>
-      <c r="AT150" t="n">
-        <v>2.11</v>
-      </c>
       <c r="AU150" t="n">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="AV150" t="n">
         <v>1.51</v>
       </c>
       <c r="AW150" t="n">
-        <v>3.08</v>
+        <v>3.67</v>
       </c>
       <c r="AX150" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="AY150" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AZ150" t="n">
-        <v>2.17</v>
+        <v>2.78</v>
       </c>
       <c r="BA150" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BB150" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="BC150" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="BD150" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="BE150" t="n">
-        <v>2.93</v>
+        <v>2.66</v>
       </c>
       <c r="BF150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG150" t="n">
         <v>7</v>
       </c>
-      <c r="BG150" t="n">
-        <v>8</v>
-      </c>
       <c r="BH150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI150" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ150" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK150" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
@@ -31006,7 +31006,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>2547341</v>
+        <v>2547342</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -31019,19 +31019,19 @@
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>44878.61458333334</v>
+        <v>44878.5</v>
       </c>
       <c r="F151" t="n">
         <v>17</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -31044,41 +31044,41 @@
         <v>1</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N151" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['53', '90+6']</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>['19', '53']</t>
+          <t>['23', '65', '87']</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R151" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S151" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T151" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="U151" t="n">
         <v>2.25</v>
       </c>
       <c r="V151" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="W151" t="n">
         <v>1.33</v>
@@ -31099,25 +31099,25 @@
         <v>1.11</v>
       </c>
       <c r="AC151" t="n">
-        <v>2.97</v>
+        <v>2.6</v>
       </c>
       <c r="AD151" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="AE151" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AF151" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG151" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH151" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI151" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ151" t="n">
         <v>1.66</v>
@@ -31126,82 +31126,82 @@
         <v>2</v>
       </c>
       <c r="AL151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU151" t="n">
         <v>1.57</v>
       </c>
-      <c r="AM151" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN151" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AO151" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP151" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ151" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AR151" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AS151" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AT151" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU151" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AV151" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="AW151" t="n">
-        <v>3.43</v>
+        <v>3.08</v>
       </c>
       <c r="AX151" t="n">
-        <v>2.23</v>
+        <v>2.06</v>
       </c>
       <c r="AY151" t="n">
         <v>7.1</v>
       </c>
       <c r="AZ151" t="n">
-        <v>2.01</v>
+        <v>2.17</v>
       </c>
       <c r="BA151" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BB151" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="BC151" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="BD151" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="BE151" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="BF151" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH151" t="n">
         <v>5</v>
       </c>
-      <c r="BH151" t="n">
+      <c r="BI151" t="n">
         <v>7</v>
       </c>
-      <c r="BI151" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK151" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
@@ -31209,7 +31209,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>2547344</v>
+        <v>2547341</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -31222,38 +31222,38 @@
         </is>
       </c>
       <c r="E152" s="2" t="n">
-        <v>44878.70833333334</v>
+        <v>44878.61458333334</v>
       </c>
       <c r="F152" t="n">
         <v>17</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -31262,26 +31262,26 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>['33', '40', '69', '71']</t>
+          <t>['19', '53']</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R152" t="n">
         <v>6</v>
       </c>
       <c r="S152" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T152" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="U152" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V152" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="W152" t="n">
         <v>1.33</v>
@@ -31302,25 +31302,25 @@
         <v>1.11</v>
       </c>
       <c r="AC152" t="n">
-        <v>4.9</v>
+        <v>2.97</v>
       </c>
       <c r="AD152" t="n">
-        <v>4.14</v>
+        <v>3.62</v>
       </c>
       <c r="AE152" t="n">
-        <v>1.66</v>
+        <v>2.3</v>
       </c>
       <c r="AF152" t="n">
         <v>1.04</v>
       </c>
       <c r="AG152" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH152" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI152" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AJ152" t="n">
         <v>1.66</v>
@@ -31329,82 +31329,894 @@
         <v>2</v>
       </c>
       <c r="AL152" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AM152" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AN152" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="AO152" t="n">
         <v>1.25</v>
       </c>
       <c r="AP152" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2547344</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44878.70833333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>4</v>
+      </c>
+      <c r="N153" t="n">
+        <v>4</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['33', '40', '69', '71']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>8</v>
+      </c>
+      <c r="R153" t="n">
+        <v>6</v>
+      </c>
+      <c r="S153" t="n">
+        <v>14</v>
+      </c>
+      <c r="T153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP153" t="n">
         <v>1.12</v>
       </c>
-      <c r="AQ152" t="n">
+      <c r="AQ153" t="n">
         <v>0.63</v>
       </c>
-      <c r="AR152" t="n">
+      <c r="AR153" t="n">
         <v>1.38</v>
       </c>
-      <c r="AS152" t="n">
+      <c r="AS153" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AT152" t="n">
+      <c r="AT153" t="n">
         <v>1.56</v>
       </c>
-      <c r="AU152" t="n">
+      <c r="AU153" t="n">
         <v>1.39</v>
       </c>
-      <c r="AV152" t="n">
+      <c r="AV153" t="n">
         <v>1.45</v>
       </c>
-      <c r="AW152" t="n">
+      <c r="AW153" t="n">
         <v>2.84</v>
       </c>
-      <c r="AX152" t="n">
+      <c r="AX153" t="n">
         <v>3.38</v>
       </c>
-      <c r="AY152" t="n">
+      <c r="AY153" t="n">
         <v>8.6</v>
       </c>
-      <c r="AZ152" t="n">
+      <c r="AZ153" t="n">
         <v>1.48</v>
       </c>
-      <c r="BA152" t="n">
+      <c r="BA153" t="n">
         <v>1.19</v>
       </c>
-      <c r="BB152" t="n">
+      <c r="BB153" t="n">
         <v>1.4</v>
       </c>
-      <c r="BC152" t="n">
+      <c r="BC153" t="n">
         <v>1.7</v>
       </c>
-      <c r="BD152" t="n">
+      <c r="BD153" t="n">
         <v>2.13</v>
       </c>
-      <c r="BE152" t="n">
+      <c r="BE153" t="n">
         <v>2.75</v>
       </c>
-      <c r="BF152" t="n">
+      <c r="BF153" t="n">
         <v>4</v>
       </c>
-      <c r="BG152" t="n">
+      <c r="BG153" t="n">
         <v>10</v>
       </c>
-      <c r="BH152" t="n">
+      <c r="BH153" t="n">
         <v>6</v>
       </c>
-      <c r="BI152" t="n">
+      <c r="BI153" t="n">
         <v>10</v>
       </c>
-      <c r="BJ152" t="n">
+      <c r="BJ153" t="n">
         <v>10</v>
       </c>
-      <c r="BK152" t="n">
+      <c r="BK153" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2547352</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44918.60416666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>AS Eupen</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>4</v>
+      </c>
+      <c r="R154" t="n">
+        <v>9</v>
+      </c>
+      <c r="S154" t="n">
+        <v>13</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2547350</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44918.6875</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>13</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1</v>
+      </c>
+      <c r="S155" t="n">
+        <v>14</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V155" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2547354</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44918.6875</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>9</v>
+      </c>
+      <c r="R156" t="n">
+        <v>8</v>
+      </c>
+      <c r="S156" t="n">
+        <v>17</v>
+      </c>
+      <c r="T156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK156"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.44</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT11" t="n">
         <v>1.13</v>
@@ -2933,7 +2933,7 @@
         <v>1.88</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT20" t="n">
         <v>0.75</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT22" t="n">
         <v>1.67</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.49</v>
@@ -6181,7 +6181,7 @@
         <v>2.44</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU28" t="n">
         <v>1.96</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT33" t="n">
         <v>0.88</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU34" t="n">
         <v>1.18</v>
@@ -8008,7 +8008,7 @@
         <v>0.78</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU37" t="n">
         <v>2.29</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT41" t="n">
         <v>0.88</v>
@@ -9226,7 +9226,7 @@
         <v>1.78</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU43" t="n">
         <v>1.31</v>
@@ -9629,7 +9629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT45" t="n">
         <v>1.63</v>
@@ -9835,7 +9835,7 @@
         <v>0.11</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU46" t="n">
         <v>1.6</v>
@@ -10241,7 +10241,7 @@
         <v>1.63</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT51" t="n">
         <v>1.44</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU52" t="n">
         <v>2.24</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT56" t="n">
         <v>1.1</v>
@@ -12677,7 +12677,7 @@
         <v>1.78</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -12880,7 +12880,7 @@
         <v>1.44</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT63" t="n">
         <v>1.56</v>
@@ -13892,7 +13892,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT66" t="n">
         <v>0.57</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU70" t="n">
         <v>1.9</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU75" t="n">
         <v>1.56</v>
@@ -15925,7 +15925,7 @@
         <v>1.88</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.85</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT78" t="n">
         <v>1.11</v>
@@ -17752,7 +17752,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT87" t="n">
         <v>0.57</v>
@@ -18764,7 +18764,7 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT90" t="n">
         <v>1.63</v>
@@ -19579,7 +19579,7 @@
         <v>0.78</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19782,7 +19782,7 @@
         <v>0.11</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.22</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT96" t="n">
         <v>1.11</v>
@@ -20188,7 +20188,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT99" t="n">
         <v>1.44</v>
@@ -20794,7 +20794,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT100" t="n">
         <v>1.1</v>
@@ -21200,7 +21200,7 @@
         <v>0.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT102" t="n">
         <v>0.75</v>
@@ -21812,7 +21812,7 @@
         <v>1.63</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU105" t="n">
         <v>1.47</v>
@@ -22827,7 +22827,7 @@
         <v>1.13</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT111" t="n">
         <v>0.88</v>
@@ -23636,7 +23636,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT114" t="n">
         <v>1.56</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT116" t="n">
         <v>1.67</v>
@@ -24248,7 +24248,7 @@
         <v>2.44</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.67</v>
@@ -24451,7 +24451,7 @@
         <v>0.78</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -24854,7 +24854,7 @@
         <v>0.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT120" t="n">
         <v>1.11</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT123" t="n">
         <v>1.63</v>
@@ -25669,7 +25669,7 @@
         <v>2.44</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU124" t="n">
         <v>1.71</v>
@@ -26075,7 +26075,7 @@
         <v>1.78</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26884,7 +26884,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT130" t="n">
         <v>1.1</v>
@@ -27290,10 +27290,10 @@
         <v>0.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU132" t="n">
         <v>2.19</v>
@@ -28102,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT136" t="n">
         <v>1.63</v>
@@ -28917,7 +28917,7 @@
         <v>1.88</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU140" t="n">
         <v>1.92</v>
@@ -29523,7 +29523,7 @@
         <v>1.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT143" t="n">
         <v>1.11</v>
@@ -29729,7 +29729,7 @@
         <v>2.44</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU144" t="n">
         <v>1.72</v>
@@ -30338,7 +30338,7 @@
         <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.7</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT150" t="n">
         <v>1.63</v>
@@ -31353,7 +31353,7 @@
         <v>1.44</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU152" t="n">
         <v>1.82</v>
@@ -31553,7 +31553,7 @@
         <v>1.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT153" t="n">
         <v>1.56</v>
@@ -32217,6 +32217,818 @@
       </c>
       <c r="BK156" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2547349</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44921.39583333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>3</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>6</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V157" t="n">
+        <v>6</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2547353</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['51', '63', '90+5']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>10</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2</v>
+      </c>
+      <c r="S158" t="n">
+        <v>12</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2547351</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44921.59375</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>5</v>
+      </c>
+      <c r="R159" t="n">
+        <v>6</v>
+      </c>
+      <c r="S159" t="n">
+        <v>11</v>
+      </c>
+      <c r="T159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2547357</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44921.69791666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>3</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
+      <c r="S160" t="n">
+        <v>3</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT6" t="n">
         <v>2.11</v>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT10" t="n">
         <v>1.1</v>
@@ -4354,7 +4354,7 @@
         <v>2.44</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.1</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU20" t="n">
         <v>1.92</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT30" t="n">
         <v>1.44</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT34" t="n">
         <v>1.11</v>
@@ -7602,7 +7602,7 @@
         <v>1.13</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU35" t="n">
         <v>1.92</v>
@@ -10038,7 +10038,7 @@
         <v>1.88</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU47" t="n">
         <v>1.7</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT49" t="n">
         <v>0.57</v>
@@ -10647,7 +10647,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT65" t="n">
         <v>1.44</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT70" t="n">
         <v>1.11</v>
@@ -14910,7 +14910,7 @@
         <v>1.88</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15316,7 +15316,7 @@
         <v>1.89</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -17952,10 +17952,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -18767,7 +18767,7 @@
         <v>0.8</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU90" t="n">
         <v>1.38</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT101" t="n">
         <v>1.11</v>
@@ -21203,7 +21203,7 @@
         <v>0.8</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT104" t="n">
         <v>1.13</v>
@@ -22015,7 +22015,7 @@
         <v>1.78</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU106" t="n">
         <v>1.67</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT122" t="n">
         <v>1.3</v>
@@ -26278,7 +26278,7 @@
         <v>1.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -27087,7 +27087,7 @@
         <v>1.29</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT131" t="n">
         <v>1.67</v>
@@ -28105,7 +28105,7 @@
         <v>1.11</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU136" t="n">
         <v>1.62</v>
@@ -28511,7 +28511,7 @@
         <v>1.5</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU138" t="n">
         <v>1.71</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT147" t="n">
         <v>0.5</v>
@@ -30538,7 +30538,7 @@
         <v>0.88</v>
       </c>
       <c r="AS148" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT148" t="n">
         <v>1.1</v>
@@ -30947,7 +30947,7 @@
         <v>2.1</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU150" t="n">
         <v>2.16</v>
@@ -33029,6 +33029,412 @@
       </c>
       <c r="BK160" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2547355</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44922.66666666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>2</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['28', '70']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>6</v>
+      </c>
+      <c r="R161" t="n">
+        <v>3</v>
+      </c>
+      <c r="S161" t="n">
+        <v>9</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V161" t="n">
+        <v>5</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2547356</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44922.66666666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3</v>
+      </c>
+      <c r="M162" t="n">
+        <v>3</v>
+      </c>
+      <c r="N162" t="n">
+        <v>6</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['44', '47', '65']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['51', '86', '88']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>3</v>
+      </c>
+      <c r="R162" t="n">
+        <v>6</v>
+      </c>
+      <c r="S162" t="n">
+        <v>9</v>
+      </c>
+      <c r="T162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT2" t="n">
         <v>1.56</v>
@@ -3542,7 +3542,7 @@
         <v>1.89</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0.8</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU22" t="n">
         <v>1.47</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT25" t="n">
         <v>1.1</v>
@@ -8414,7 +8414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT43" t="n">
         <v>1.3</v>
@@ -12068,7 +12068,7 @@
         <v>2.78</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU57" t="n">
         <v>2.23</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5</v>
@@ -16128,7 +16128,7 @@
         <v>0.78</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16937,7 +16937,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT81" t="n">
         <v>1.63</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT83" t="n">
         <v>1.11</v>
@@ -19173,7 +19173,7 @@
         <v>2.44</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -22012,7 +22012,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT106" t="n">
         <v>1.56</v>
@@ -24045,7 +24045,7 @@
         <v>2.1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU116" t="n">
         <v>2.28</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT126" t="n">
         <v>1.11</v>
@@ -27090,7 +27090,7 @@
         <v>1.89</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU131" t="n">
         <v>1.68</v>
@@ -28714,7 +28714,7 @@
         <v>0.11</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU139" t="n">
         <v>1.24</v>
@@ -31147,7 +31147,7 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT151" t="n">
         <v>2.11</v>
@@ -33435,6 +33435,209 @@
       </c>
       <c r="BK162" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2547359</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44932.69791666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>9</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2</v>
+      </c>
+      <c r="S163" t="n">
+        <v>11</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.7</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.78</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.22</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT12" t="n">
         <v>1.11</v>
@@ -3136,7 +3136,7 @@
         <v>1.63</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT14" t="n">
         <v>0.57</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.63</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT19" t="n">
         <v>0.67</v>
@@ -5775,7 +5775,7 @@
         <v>1.89</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU26" t="n">
         <v>1.56</v>
@@ -5978,7 +5978,7 @@
         <v>1.44</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU27" t="n">
         <v>1.46</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
         <v>1.3</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.58</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>0.57</v>
@@ -6993,7 +6993,7 @@
         <v>0.11</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
         <v>1.56</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU38" t="n">
         <v>1.9</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT39" t="n">
         <v>1.6</v>
@@ -9023,7 +9023,7 @@
         <v>0.78</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU42" t="n">
         <v>1.95</v>
@@ -9429,7 +9429,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU44" t="n">
         <v>1.38</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
         <v>0.67</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT54" t="n">
         <v>2.11</v>
@@ -11662,7 +11662,7 @@
         <v>1.44</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU55" t="n">
         <v>1.58</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>0.88</v>
@@ -12474,7 +12474,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU62" t="n">
         <v>1.87</v>
@@ -13286,7 +13286,7 @@
         <v>1.11</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU63" t="n">
         <v>1.89</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>1.63</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU69" t="n">
         <v>1.62</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
         <v>1.56</v>
@@ -15516,10 +15516,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16331,7 +16331,7 @@
         <v>1.11</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU78" t="n">
         <v>1.89</v>
@@ -16534,7 +16534,7 @@
         <v>2.78</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU79" t="n">
         <v>2.11</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
         <v>2.11</v>
@@ -17346,7 +17346,7 @@
         <v>1.7</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU83" t="n">
         <v>1.66</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
         <v>2.33</v>
@@ -18361,7 +18361,7 @@
         <v>1.44</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -19170,7 +19170,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT92" t="n">
         <v>1.6</v>
@@ -19985,7 +19985,7 @@
         <v>2.1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU96" t="n">
         <v>2.23</v>
@@ -20388,10 +20388,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -21000,7 +21000,7 @@
         <v>1.89</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU101" t="n">
         <v>1.71</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -21609,7 +21609,7 @@
         <v>1.22</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU104" t="n">
         <v>1.71</v>
@@ -22621,7 +22621,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT109" t="n">
         <v>2.11</v>
@@ -22824,7 +22824,7 @@
         <v>1.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT110" t="n">
         <v>1.3</v>
@@ -23233,7 +23233,7 @@
         <v>2.78</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -23639,7 +23639,7 @@
         <v>2.22</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU114" t="n">
         <v>1.74</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24651,10 +24651,10 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU119" t="n">
         <v>1.89</v>
@@ -24857,7 +24857,7 @@
         <v>0.8</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU120" t="n">
         <v>1.4</v>
@@ -25666,7 +25666,7 @@
         <v>2.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT124" t="n">
         <v>2.33</v>
@@ -25872,7 +25872,7 @@
         <v>1.89</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU125" t="n">
         <v>1.82</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT127" t="n">
         <v>0.67</v>
@@ -27902,7 +27902,7 @@
         <v>1.63</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU135" t="n">
         <v>1.61</v>
@@ -28308,7 +28308,7 @@
         <v>2.78</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU137" t="n">
         <v>2.22</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT140" t="n">
         <v>1.3</v>
@@ -29117,7 +29117,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT141" t="n">
         <v>1.44</v>
@@ -29526,7 +29526,7 @@
         <v>2.22</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU143" t="n">
         <v>1.66</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT144" t="n">
         <v>1.11</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT145" t="n">
         <v>0.88</v>
@@ -30135,7 +30135,7 @@
         <v>1.63</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU146" t="n">
         <v>1.61</v>
@@ -31556,7 +31556,7 @@
         <v>0.8</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU153" t="n">
         <v>1.39</v>
@@ -33638,6 +33638,818 @@
       </c>
       <c r="BK163" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2547365</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>AS Eupen</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['55', '88']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>7</v>
+      </c>
+      <c r="S164" t="n">
+        <v>12</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2547366</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44933.59375</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['44', '75']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>5</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2</v>
+      </c>
+      <c r="S165" t="n">
+        <v>7</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2547363</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44933.59375</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>6</v>
+      </c>
+      <c r="R166" t="n">
+        <v>4</v>
+      </c>
+      <c r="S166" t="n">
+        <v>10</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2547361</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44933.69791666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['10', '64']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>6</v>
+      </c>
+      <c r="S167" t="n">
+        <v>9</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>1.3</v>
@@ -1715,7 +1715,7 @@
         <v>1.22</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT13" t="n">
         <v>1.3</v>
@@ -3339,7 +3339,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT16" t="n">
         <v>1.44</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.11</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.52</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT27" t="n">
         <v>1.3</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.73</v>
@@ -7196,7 +7196,7 @@
         <v>2.22</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU33" t="n">
         <v>2.11</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU36" t="n">
         <v>1.75</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>2.33</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT40" t="n">
         <v>1.1</v>
@@ -8820,7 +8820,7 @@
         <v>2.1</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU41" t="n">
         <v>2.06</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
         <v>1.33</v>
@@ -9632,7 +9632,7 @@
         <v>1.11</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU45" t="n">
         <v>1.68</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT48" t="n">
         <v>0.5</v>
@@ -10444,7 +10444,7 @@
         <v>1.22</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.49</v>
@@ -11459,7 +11459,7 @@
         <v>2.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU54" t="n">
         <v>2</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT55" t="n">
         <v>1.4</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT57" t="n">
         <v>1.6</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU58" t="n">
         <v>1.88</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT61" t="n">
         <v>1.3</v>
@@ -13486,10 +13486,10 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.71</v>
@@ -13895,7 +13895,7 @@
         <v>0.8</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.29</v>
@@ -14098,7 +14098,7 @@
         <v>0.11</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT69" t="n">
         <v>1.33</v>
@@ -16125,7 +16125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT77" t="n">
         <v>1.6</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT79" t="n">
         <v>1.4</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU80" t="n">
         <v>1.97</v>
@@ -16940,7 +16940,7 @@
         <v>1.7</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU81" t="n">
         <v>1.72</v>
@@ -17140,10 +17140,10 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU82" t="n">
         <v>1.79</v>
@@ -17546,10 +17546,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -18158,7 +18158,7 @@
         <v>2.1</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU87" t="n">
         <v>2.1</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT88" t="n">
         <v>1.33</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU93" t="n">
         <v>2.06</v>
@@ -19576,7 +19576,7 @@
         <v>1.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT94" t="n">
         <v>1.3</v>
@@ -21809,7 +21809,7 @@
         <v>2.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT105" t="n">
         <v>2.33</v>
@@ -22218,7 +22218,7 @@
         <v>1.89</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.81</v>
@@ -22418,10 +22418,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT108" t="n">
         <v>1.44</v>
-      </c>
-      <c r="AT108" t="n">
-        <v>1.63</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -22624,7 +22624,7 @@
         <v>1.33</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU109" t="n">
         <v>1.51</v>
@@ -23030,7 +23030,7 @@
         <v>1.11</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU111" t="n">
         <v>1.64</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT112" t="n">
         <v>1.3</v>
@@ -24448,7 +24448,7 @@
         <v>1.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT118" t="n">
         <v>1.11</v>
@@ -25466,7 +25466,7 @@
         <v>2.22</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU123" t="n">
         <v>1.75</v>
@@ -26478,10 +26478,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU128" t="n">
         <v>2.27</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
         <v>1.44</v>
@@ -27493,7 +27493,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -27699,7 +27699,7 @@
         <v>0.11</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU134" t="n">
         <v>1.23</v>
@@ -27899,7 +27899,7 @@
         <v>1.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT135" t="n">
         <v>1.4</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT137" t="n">
         <v>1.33</v>
@@ -29323,7 +29323,7 @@
         <v>1.89</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU142" t="n">
         <v>1.84</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU145" t="n">
         <v>1.48</v>
@@ -30132,7 +30132,7 @@
         <v>1.25</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT146" t="n">
         <v>1.3</v>
@@ -30741,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
         <v>1</v>
@@ -31150,7 +31150,7 @@
         <v>1.7</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU151" t="n">
         <v>1.57</v>
@@ -31350,7 +31350,7 @@
         <v>2.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT152" t="n">
         <v>2.33</v>
@@ -34450,6 +34450,818 @@
       </c>
       <c r="BK167" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2547360</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44934.39583333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>4</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['25', '67', '81']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>5</v>
+      </c>
+      <c r="R168" t="n">
+        <v>4</v>
+      </c>
+      <c r="S168" t="n">
+        <v>9</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2547364</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44934.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['5', '73']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>3</v>
+      </c>
+      <c r="R169" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" t="n">
+        <v>6</v>
+      </c>
+      <c r="T169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2547358</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44934.60416666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>3</v>
+      </c>
+      <c r="N170" t="n">
+        <v>4</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['81', '87', '90']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="n">
+        <v>6</v>
+      </c>
+      <c r="S170" t="n">
+        <v>6</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2547362</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44934.70833333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" t="n">
+        <v>3</v>
+      </c>
+      <c r="N171" t="n">
+        <v>5</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['9', '76']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['43', '51', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>4</v>
+      </c>
+      <c r="R171" t="n">
+        <v>6</v>
+      </c>
+      <c r="S171" t="n">
+        <v>10</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V171" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.8</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT10" t="n">
         <v>1.1</v>
@@ -3745,7 +3745,7 @@
         <v>2.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AT18" t="n">
         <v>1.11</v>
@@ -6181,7 +6181,7 @@
         <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU28" t="n">
         <v>1.96</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU30" t="n">
         <v>2.43</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AT32" t="n">
         <v>1.33</v>
@@ -9226,7 +9226,7 @@
         <v>1.7</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU43" t="n">
         <v>1.31</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AT46" t="n">
         <v>2.33</v>
@@ -10850,7 +10850,7 @@
         <v>0.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>1.3</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13692,7 +13692,7 @@
         <v>1.22</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU65" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AT67" t="n">
         <v>1.44</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT70" t="n">
         <v>1.11</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU75" t="n">
         <v>1.56</v>
@@ -17952,7 +17952,7 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT86" t="n">
         <v>0.67</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AT95" t="n">
         <v>0.5</v>
@@ -20594,7 +20594,7 @@
         <v>1.11</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU99" t="n">
         <v>1.74</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT101" t="n">
         <v>1.3</v>
@@ -22827,7 +22827,7 @@
         <v>1</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -23433,7 +23433,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AT113" t="n">
         <v>1.1</v>
@@ -23842,7 +23842,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU115" t="n">
         <v>1.61</v>
@@ -25263,7 +25263,7 @@
         <v>1.22</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU129" t="n">
         <v>1.37</v>
@@ -27087,7 +27087,7 @@
         <v>1.29</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT131" t="n">
         <v>1.6</v>
@@ -27696,7 +27696,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AT134" t="n">
         <v>2.2</v>
@@ -28711,7 +28711,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AT139" t="n">
         <v>1.6</v>
@@ -28917,7 +28917,7 @@
         <v>1.67</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU140" t="n">
         <v>1.92</v>
@@ -29120,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU141" t="n">
         <v>1.86</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT147" t="n">
         <v>0.5</v>
@@ -31756,7 +31756,7 @@
         <v>0.78</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AT154" t="n">
         <v>1</v>
@@ -31818,7 +31818,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>2547350</v>
+        <v>2547354</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -31838,182 +31838,182 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['71']</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R155" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S155" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T155" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="U155" t="n">
         <v>2.3</v>
       </c>
       <c r="V155" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="W155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X155" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y155" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z155" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA155" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB155" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR155" t="n">
         <v>1.11</v>
       </c>
-      <c r="AC155" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AD155" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE155" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AF155" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG155" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH155" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK155" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL155" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM155" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN155" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO155" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP155" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ155" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR155" t="n">
+      <c r="AS155" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS155" t="n">
-        <v>1.89</v>
-      </c>
       <c r="AT155" t="n">
-        <v>1.44</v>
+        <v>1.1</v>
       </c>
       <c r="AU155" t="n">
         <v>1.8</v>
       </c>
       <c r="AV155" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AW155" t="n">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="AX155" t="n">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
       <c r="AY155" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ155" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="BA155" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB155" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="BC155" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="BD155" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="BE155" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BF155" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG155" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH155" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BI155" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BJ155" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BK155" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156">
@@ -32021,7 +32021,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>2547354</v>
+        <v>2547350</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -32041,182 +32041,182 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R156" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S156" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T156" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="U156" t="n">
         <v>2.3</v>
       </c>
       <c r="V156" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="W156" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X156" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y156" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR156" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA156" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB156" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH156" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI156" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL156" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AM156" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AN156" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AO156" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP156" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AQ156" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AR156" t="n">
-        <v>1.11</v>
-      </c>
       <c r="AS156" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AU156" t="n">
         <v>1.8</v>
       </c>
       <c r="AV156" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AW156" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="AX156" t="n">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="AY156" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ156" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="BA156" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB156" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="BC156" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="BD156" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="BE156" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="BF156" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BG156" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH156" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BI156" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BJ156" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BK156" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -32368,7 +32368,7 @@
         <v>2.1</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU157" t="n">
         <v>2.08</v>
@@ -33380,7 +33380,7 @@
         <v>1.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT162" t="n">
         <v>1.56</v>
@@ -33848,7 +33848,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>2547366</v>
+        <v>2547363</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -33868,59 +33868,59 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>KV Oostende</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>['44', '75']</t>
+          <t>['6']</t>
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R165" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S165" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T165" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U165" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V165" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="W165" t="n">
         <v>1.33</v>
@@ -33941,109 +33941,109 @@
         <v>1.11</v>
       </c>
       <c r="AC165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ165" t="n">
         <v>1.8</v>
       </c>
-      <c r="AD165" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE165" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AF165" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG165" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH165" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ165" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AK165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM165" t="n">
         <v>2.2</v>
       </c>
-      <c r="AL165" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM165" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AN165" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AO165" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AR165" t="n">
         <v>1.11</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AT165" t="n">
         <v>1.3</v>
       </c>
       <c r="AU165" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="AV165" t="n">
-        <v>0.92</v>
+        <v>1.3</v>
       </c>
       <c r="AW165" t="n">
-        <v>2.53</v>
+        <v>3.14</v>
       </c>
       <c r="AX165" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AY165" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AZ165" t="n">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="BA165" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BB165" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="BC165" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="BD165" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="BE165" t="n">
-        <v>2.93</v>
+        <v>2.5</v>
       </c>
       <c r="BF165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK165" t="n">
         <v>4</v>
-      </c>
-      <c r="BG165" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH165" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI165" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ165" t="n">
-        <v>17</v>
-      </c>
-      <c r="BK165" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -34051,7 +34051,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>2547363</v>
+        <v>2547366</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -34071,59 +34071,59 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>KV Oostende</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>RFC Seraing</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['44', '75']</t>
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S166" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T166" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U166" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V166" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="W166" t="n">
         <v>1.33</v>
@@ -34144,109 +34144,109 @@
         <v>1.11</v>
       </c>
       <c r="AC166" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AD166" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AE166" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AF166" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG166" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AH166" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI166" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AJ166" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AK166" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AL166" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AM166" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AN166" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AO166" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AR166" t="n">
         <v>1.11</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AT166" t="n">
         <v>1.3</v>
       </c>
       <c r="AU166" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="AV166" t="n">
-        <v>1.3</v>
+        <v>0.92</v>
       </c>
       <c r="AW166" t="n">
-        <v>3.14</v>
+        <v>2.53</v>
       </c>
       <c r="AX166" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AY166" t="n">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ166" t="n">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="BA166" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BB166" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="BC166" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="BD166" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="BE166" t="n">
-        <v>2.5</v>
+        <v>2.93</v>
       </c>
       <c r="BF166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH166" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BI166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ166" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BK166" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
@@ -35261,6 +35261,412 @@
         <v>17</v>
       </c>
       <c r="BK171" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2547373</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2</v>
+      </c>
+      <c r="N172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['51', '56']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>9</v>
+      </c>
+      <c r="R172" t="n">
+        <v>3</v>
+      </c>
+      <c r="S172" t="n">
+        <v>12</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2547370</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44940.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>3</v>
+      </c>
+      <c r="R173" t="n">
+        <v>11</v>
+      </c>
+      <c r="S173" t="n">
+        <v>14</v>
+      </c>
+      <c r="T173" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK173" t="n">
         <v>15</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK173"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT8" t="n">
         <v>1.56</v>
@@ -2324,7 +2324,7 @@
         <v>1.3</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.89</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT16" t="n">
         <v>1.4</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT17" t="n">
         <v>1.44</v>
@@ -4354,7 +4354,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.1</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU20" t="n">
         <v>1.92</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>0.8</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU22" t="n">
         <v>1.47</v>
@@ -5166,7 +5166,7 @@
         <v>1.11</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU23" t="n">
         <v>1.49</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT24" t="n">
         <v>2.2</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT35" t="n">
         <v>1.56</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT38" t="n">
         <v>1.3</v>
@@ -8414,7 +8414,7 @@
         <v>1.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT40" t="n">
         <v>1.1</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT44" t="n">
         <v>1.3</v>
@@ -10038,7 +10038,7 @@
         <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU47" t="n">
         <v>1.7</v>
@@ -10241,7 +10241,7 @@
         <v>1.44</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -12065,10 +12065,10 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU57" t="n">
         <v>2.23</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT58" t="n">
         <v>1.11</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT59" t="n">
         <v>1.3</v>
@@ -12677,7 +12677,7 @@
         <v>1.7</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -15316,7 +15316,7 @@
         <v>1.89</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15719,7 +15719,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT75" t="n">
         <v>1.45</v>
@@ -15925,7 +15925,7 @@
         <v>1.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU76" t="n">
         <v>1.85</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT79" t="n">
         <v>1.4</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT80" t="n">
         <v>2.2</v>
@@ -17955,7 +17955,7 @@
         <v>1.7</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -19173,7 +19173,7 @@
         <v>2.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT93" t="n">
         <v>1.11</v>
@@ -19782,7 +19782,7 @@
         <v>0.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU95" t="n">
         <v>1.22</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT97" t="n">
         <v>1.11</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT98" t="n">
         <v>1.4</v>
@@ -21203,7 +21203,7 @@
         <v>0.8</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -22824,7 +22824,7 @@
         <v>1.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT110" t="n">
         <v>1.45</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT112" t="n">
         <v>1.3</v>
@@ -23839,7 +23839,7 @@
         <v>1.8</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT115" t="n">
         <v>1.4</v>
@@ -24045,7 +24045,7 @@
         <v>2.1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU116" t="n">
         <v>2.28</v>
@@ -24248,7 +24248,7 @@
         <v>2.5</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU117" t="n">
         <v>1.67</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT121" t="n">
         <v>1</v>
@@ -26278,7 +26278,7 @@
         <v>1.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT128" t="n">
         <v>0.5</v>
@@ -27090,7 +27090,7 @@
         <v>1.7</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU131" t="n">
         <v>1.68</v>
@@ -27293,7 +27293,7 @@
         <v>2.1</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU132" t="n">
         <v>2.19</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT137" t="n">
         <v>1.33</v>
@@ -28508,10 +28508,10 @@
         <v>0.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU138" t="n">
         <v>1.71</v>
@@ -28714,7 +28714,7 @@
         <v>0.2</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU139" t="n">
         <v>1.24</v>
@@ -29117,7 +29117,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT141" t="n">
         <v>1.4</v>
@@ -30338,7 +30338,7 @@
         <v>1.7</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU147" t="n">
         <v>1.7</v>
@@ -31959,7 +31959,7 @@
         <v>1.11</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT155" t="n">
         <v>1.1</v>
@@ -32571,7 +32571,7 @@
         <v>2.22</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU158" t="n">
         <v>1.77</v>
@@ -33180,7 +33180,7 @@
         <v>1.22</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU161" t="n">
         <v>1.54</v>
@@ -33586,7 +33586,7 @@
         <v>1.7</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU163" t="n">
         <v>1.59</v>
@@ -33786,7 +33786,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT164" t="n">
         <v>1.33</v>
@@ -34598,7 +34598,7 @@
         <v>1.63</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT168" t="n">
         <v>1.44</v>
@@ -35652,22 +35652,631 @@
         <v>3.2</v>
       </c>
       <c r="BF173" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH173" t="n">
         <v>4</v>
       </c>
-      <c r="BH173" t="n">
+      <c r="BI173" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2547375</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44940.59375</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>AS Eupen</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['44', '68']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
         <v>3</v>
       </c>
-      <c r="BI173" t="n">
+      <c r="R174" t="n">
+        <v>3</v>
+      </c>
+      <c r="S174" t="n">
+        <v>6</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V174" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK174" t="n">
         <v>11</v>
       </c>
-      <c r="BJ173" t="n">
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2547372</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44940.59375</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>3</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['40', '70']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>10</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1</v>
+      </c>
+      <c r="S175" t="n">
+        <v>11</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG175" t="n">
         <v>5</v>
       </c>
-      <c r="BK173" t="n">
+      <c r="BH175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK175" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2547368</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44940.69791666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R176" t="n">
+        <v>5</v>
+      </c>
+      <c r="S176" t="n">
+        <v>6</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U176" t="n">
+        <v>3</v>
+      </c>
+      <c r="V176" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X176" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>2.33</v>
@@ -2121,7 +2121,7 @@
         <v>1.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.7</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -2933,7 +2933,7 @@
         <v>1.67</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>1.73</v>
@@ -4151,7 +4151,7 @@
         <v>0.2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.6</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT23" t="n">
         <v>0.45</v>
@@ -5572,7 +5572,7 @@
         <v>1.7</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.3</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>2.11</v>
@@ -7399,7 +7399,7 @@
         <v>1.22</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.18</v>
@@ -7602,7 +7602,7 @@
         <v>0.9</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU35" t="n">
         <v>1.92</v>
@@ -8617,7 +8617,7 @@
         <v>2.82</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>2.52</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>2.06</v>
@@ -9629,7 +9629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT45" t="n">
         <v>1.44</v>
@@ -10644,10 +10644,10 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU52" t="n">
         <v>2.24</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>2.27</v>
@@ -12271,7 +12271,7 @@
         <v>0.9</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.88</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT63" t="n">
         <v>1.4</v>
@@ -14707,7 +14707,7 @@
         <v>1.7</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.9</v>
@@ -14910,7 +14910,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT72" t="n">
         <v>2.33</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT73" t="n">
         <v>0.6</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT78" t="n">
         <v>1.3</v>
@@ -17143,7 +17143,7 @@
         <v>1.3</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.79</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>0.5</v>
@@ -18561,10 +18561,10 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>1.81</v>
@@ -18767,7 +18767,7 @@
         <v>0.8</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU90" t="n">
         <v>1.38</v>
@@ -19376,7 +19376,7 @@
         <v>2.82</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>2.06</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT96" t="n">
         <v>1.3</v>
@@ -20188,7 +20188,7 @@
         <v>1.64</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT99" t="n">
         <v>1.4</v>
@@ -20794,10 +20794,10 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -22015,7 +22015,7 @@
         <v>1.7</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU106" t="n">
         <v>1.67</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5</v>
@@ -23027,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.64</v>
@@ -23436,7 +23436,7 @@
         <v>0.2</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.28</v>
@@ -23636,7 +23636,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT114" t="n">
         <v>1.4</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT116" t="n">
         <v>1.73</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT123" t="n">
         <v>1.44</v>
@@ -25869,7 +25869,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT125" t="n">
         <v>1.3</v>
@@ -26075,7 +26075,7 @@
         <v>1.7</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26887,7 +26887,7 @@
         <v>0.8</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.33</v>
@@ -27290,7 +27290,7 @@
         <v>0.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
         <v>0.45</v>
@@ -28102,10 +28102,10 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU136" t="n">
         <v>1.62</v>
@@ -29320,7 +29320,7 @@
         <v>1.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
         <v>1.44</v>
@@ -29523,7 +29523,7 @@
         <v>1.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT143" t="n">
         <v>1.3</v>
@@ -29729,7 +29729,7 @@
         <v>2.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.72</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.48</v>
@@ -30541,7 +30541,7 @@
         <v>1.22</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.59</v>
@@ -30944,10 +30944,10 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU150" t="n">
         <v>2.16</v>
@@ -31962,7 +31962,7 @@
         <v>1.64</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU155" t="n">
         <v>1.8</v>
@@ -32162,7 +32162,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT156" t="n">
         <v>1.4</v>
@@ -32365,7 +32365,7 @@
         <v>1.33</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT157" t="n">
         <v>1.45</v>
@@ -32568,7 +32568,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT158" t="n">
         <v>0.45</v>
@@ -32974,10 +32974,10 @@
         <v>0.88</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU160" t="n">
         <v>1.55</v>
@@ -33383,7 +33383,7 @@
         <v>1.7</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU162" t="n">
         <v>1.73</v>
@@ -35210,7 +35210,7 @@
         <v>1.44</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.83</v>
@@ -36277,6 +36277,818 @@
       </c>
       <c r="BK176" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2547367</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44941.39583333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>3</v>
+      </c>
+      <c r="R177" t="n">
+        <v>4</v>
+      </c>
+      <c r="S177" t="n">
+        <v>7</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V177" t="n">
+        <v>4</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2547369</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44941.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['7', '69']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>7</v>
+      </c>
+      <c r="R178" t="n">
+        <v>5</v>
+      </c>
+      <c r="S178" t="n">
+        <v>12</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V178" t="n">
+        <v>7</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2547371</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44941.60416666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['34', '76']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>8</v>
+      </c>
+      <c r="R179" t="n">
+        <v>9</v>
+      </c>
+      <c r="S179" t="n">
+        <v>17</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2547374</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44941.70833333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['44', '51']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>9</v>
+      </c>
+      <c r="R180" t="n">
+        <v>7</v>
+      </c>
+      <c r="S180" t="n">
+        <v>16</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT2" t="n">
         <v>1.4</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
         <v>1.3</v>
@@ -3339,7 +3339,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT30" t="n">
         <v>1.4</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU31" t="n">
         <v>1.73</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT36" t="n">
         <v>1.44</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU37" t="n">
         <v>2.29</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT43" t="n">
         <v>1.45</v>
@@ -9835,7 +9835,7 @@
         <v>0.2</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU46" t="n">
         <v>1.6</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT48" t="n">
         <v>0.45</v>
@@ -10444,7 +10444,7 @@
         <v>1.22</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU49" t="n">
         <v>1.49</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT60" t="n">
         <v>0.45</v>
@@ -13895,7 +13895,7 @@
         <v>0.8</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU66" t="n">
         <v>1.29</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT69" t="n">
         <v>1.33</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT70" t="n">
         <v>1.1</v>
@@ -15113,7 +15113,7 @@
         <v>2.3</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -16937,7 +16937,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT81" t="n">
         <v>1.44</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT83" t="n">
         <v>1.3</v>
@@ -17546,7 +17546,7 @@
         <v>1.4</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT84" t="n">
         <v>2.2</v>
@@ -17752,7 +17752,7 @@
         <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17952,7 +17952,7 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT86" t="n">
         <v>0.6</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU87" t="n">
         <v>2.1</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT101" t="n">
         <v>1.3</v>
@@ -21809,10 +21809,10 @@
         <v>2.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU105" t="n">
         <v>1.47</v>
@@ -22012,7 +22012,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT106" t="n">
         <v>1.4</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU107" t="n">
         <v>1.81</v>
@@ -25669,7 +25669,7 @@
         <v>2.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU124" t="n">
         <v>1.71</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT126" t="n">
         <v>1.1</v>
@@ -26481,7 +26481,7 @@
         <v>2.82</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU128" t="n">
         <v>2.27</v>
@@ -27087,7 +27087,7 @@
         <v>1.29</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT131" t="n">
         <v>1.73</v>
@@ -27899,7 +27899,7 @@
         <v>1.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT135" t="n">
         <v>1.4</v>
@@ -30132,7 +30132,7 @@
         <v>1.25</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT146" t="n">
         <v>1.3</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT147" t="n">
         <v>0.45</v>
@@ -31147,7 +31147,7 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT151" t="n">
         <v>2.2</v>
@@ -31353,7 +31353,7 @@
         <v>1.3</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU152" t="n">
         <v>1.82</v>
@@ -32774,7 +32774,7 @@
         <v>0.8</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU159" t="n">
         <v>1.37</v>
@@ -33380,7 +33380,7 @@
         <v>1.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT162" t="n">
         <v>1.4</v>
@@ -33583,7 +33583,7 @@
         <v>1.67</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT163" t="n">
         <v>1.73</v>
@@ -34804,7 +34804,7 @@
         <v>1</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -35207,7 +35207,7 @@
         <v>0.88</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -35410,7 +35410,7 @@
         <v>1.3</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT172" t="n">
         <v>1.45</v>
@@ -37089,6 +37089,615 @@
       </c>
       <c r="BK180" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2547379</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44943.60416666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>AS Eupen</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>8</v>
+      </c>
+      <c r="R181" t="n">
+        <v>7</v>
+      </c>
+      <c r="S181" t="n">
+        <v>15</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2547383</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44943.69791666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>21</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" t="n">
+        <v>3</v>
+      </c>
+      <c r="N182" t="n">
+        <v>5</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['53', '55']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['7', '24', '64']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>11</v>
+      </c>
+      <c r="R182" t="n">
+        <v>4</v>
+      </c>
+      <c r="S182" t="n">
+        <v>15</v>
+      </c>
+      <c r="T182" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2547377</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44943.69791666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>21</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['45+1', '85']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>7</v>
+      </c>
+      <c r="R183" t="n">
+        <v>7</v>
+      </c>
+      <c r="S183" t="n">
+        <v>14</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1.45</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.22</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT9" t="n">
         <v>0.45</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
         <v>1.1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.44</v>
@@ -4354,7 +4354,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU20" t="n">
         <v>1.92</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1.73</v>
@@ -5369,7 +5369,7 @@
         <v>1.64</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU24" t="n">
         <v>1.52</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU27" t="n">
         <v>1.46</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.4</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT31" t="n">
         <v>0.44</v>
@@ -7602,7 +7602,7 @@
         <v>0.9</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU35" t="n">
         <v>1.92</v>
@@ -8211,7 +8211,7 @@
         <v>0.9</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU38" t="n">
         <v>1.9</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT39" t="n">
         <v>1.73</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU47" t="n">
         <v>1.7</v>
@@ -10647,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>1.4</v>
@@ -11459,7 +11459,7 @@
         <v>2.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU54" t="n">
         <v>2</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT55" t="n">
         <v>1.4</v>
@@ -12474,7 +12474,7 @@
         <v>1.64</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT61" t="n">
         <v>1.45</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU64" t="n">
         <v>1.71</v>
@@ -13892,7 +13892,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
         <v>0.44</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14907,10 +14907,10 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15519,7 +15519,7 @@
         <v>2.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT76" t="n">
         <v>0.45</v>
@@ -16737,7 +16737,7 @@
         <v>0.9</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU80" t="n">
         <v>1.97</v>
@@ -17140,7 +17140,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>1.82</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU83" t="n">
         <v>1.66</v>
@@ -17549,7 +17549,7 @@
         <v>1.4</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT85" t="n">
         <v>2.4</v>
@@ -17955,7 +17955,7 @@
         <v>1.55</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT88" t="n">
         <v>1.33</v>
@@ -18764,10 +18764,10 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU90" t="n">
         <v>1.38</v>
@@ -21000,7 +21000,7 @@
         <v>1.55</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU101" t="n">
         <v>1.71</v>
@@ -21200,10 +21200,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -22015,7 +22015,7 @@
         <v>1.82</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU106" t="n">
         <v>1.67</v>
@@ -22418,7 +22418,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT108" t="n">
         <v>1.44</v>
@@ -22621,10 +22621,10 @@
         <v>1.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU109" t="n">
         <v>1.51</v>
@@ -24651,7 +24651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT119" t="n">
         <v>1.33</v>
@@ -24854,7 +24854,7 @@
         <v>0.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>1.3</v>
@@ -25872,7 +25872,7 @@
         <v>2</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU125" t="n">
         <v>1.82</v>
@@ -26275,10 +26275,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26884,7 +26884,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27493,7 +27493,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -27699,7 +27699,7 @@
         <v>0.2</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU134" t="n">
         <v>1.23</v>
@@ -28105,7 +28105,7 @@
         <v>1.3</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU136" t="n">
         <v>1.62</v>
@@ -28511,7 +28511,7 @@
         <v>1.64</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU138" t="n">
         <v>1.71</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT140" t="n">
         <v>1.45</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -30135,7 +30135,7 @@
         <v>1.4</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU146" t="n">
         <v>1.61</v>
@@ -30947,7 +30947,7 @@
         <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU150" t="n">
         <v>2.16</v>
@@ -31150,7 +31150,7 @@
         <v>1.82</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU151" t="n">
         <v>1.57</v>
@@ -31350,7 +31350,7 @@
         <v>2.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT152" t="n">
         <v>2.4</v>
@@ -31553,7 +31553,7 @@
         <v>1.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT153" t="n">
         <v>1.4</v>
@@ -32771,7 +32771,7 @@
         <v>2.63</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT159" t="n">
         <v>2.4</v>
@@ -33180,7 +33180,7 @@
         <v>1.22</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU161" t="n">
         <v>1.54</v>
@@ -33383,7 +33383,7 @@
         <v>1.55</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU162" t="n">
         <v>1.73</v>
@@ -33989,7 +33989,7 @@
         <v>1.11</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT165" t="n">
         <v>1.3</v>
@@ -34192,10 +34192,10 @@
         <v>1.11</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU166" t="n">
         <v>1.61</v>
@@ -35004,10 +35004,10 @@
         <v>2.11</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU170" t="n">
         <v>1.79</v>
@@ -36225,7 +36225,7 @@
         <v>2.82</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU176" t="n">
         <v>2.14</v>
@@ -36834,7 +36834,7 @@
         <v>2.3</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU179" t="n">
         <v>1.77</v>
@@ -37698,6 +37698,818 @@
       </c>
       <c r="BK183" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2547384</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44944.60416666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>21</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>3</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['11', '21', '88']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>6</v>
+      </c>
+      <c r="R184" t="n">
+        <v>5</v>
+      </c>
+      <c r="S184" t="n">
+        <v>11</v>
+      </c>
+      <c r="T184" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2547381</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44944.60416666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>21</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>3</v>
+      </c>
+      <c r="R185" t="n">
+        <v>6</v>
+      </c>
+      <c r="S185" t="n">
+        <v>9</v>
+      </c>
+      <c r="T185" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2547376</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44944.69791666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>21</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>2</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>3</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" t="n">
+        <v>3</v>
+      </c>
+      <c r="N186" t="n">
+        <v>5</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['35', '36']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['11', '62', '75']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>5</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2</v>
+      </c>
+      <c r="S186" t="n">
+        <v>7</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V186" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2547380</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44944.69791666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>21</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3</v>
+      </c>
+      <c r="L187" t="n">
+        <v>3</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>5</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['9', '23', '63']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['18', '60']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>6</v>
+      </c>
+      <c r="R187" t="n">
+        <v>8</v>
+      </c>
+      <c r="S187" t="n">
+        <v>14</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V187" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT6" t="n">
         <v>2.09</v>
@@ -2730,7 +2730,7 @@
         <v>2.3</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT15" t="n">
         <v>1.73</v>
@@ -3948,7 +3948,7 @@
         <v>0.9</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT26" t="n">
         <v>1.3</v>
@@ -6993,7 +6993,7 @@
         <v>0.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT34" t="n">
         <v>1.1</v>
@@ -7805,7 +7805,7 @@
         <v>1.4</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU36" t="n">
         <v>1.75</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU42" t="n">
         <v>1.95</v>
@@ -9632,7 +9632,7 @@
         <v>1.3</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU45" t="n">
         <v>1.68</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT49" t="n">
         <v>0.44</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT50" t="n">
         <v>1.55</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT65" t="n">
         <v>1.4</v>
@@ -14098,7 +14098,7 @@
         <v>0.2</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -14504,7 +14504,7 @@
         <v>1.4</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU69" t="n">
         <v>1.62</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT73" t="n">
         <v>0.82</v>
@@ -16940,7 +16940,7 @@
         <v>1.82</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU81" t="n">
         <v>1.72</v>
@@ -18361,7 +18361,7 @@
         <v>1.18</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -21606,10 +21606,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU104" t="n">
         <v>1.71</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT107" t="n">
         <v>0.44</v>
@@ -22421,7 +22421,7 @@
         <v>1.18</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -24654,7 +24654,7 @@
         <v>1.6</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU119" t="n">
         <v>1.89</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT122" t="n">
         <v>1.45</v>
@@ -25466,7 +25466,7 @@
         <v>2.3</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU123" t="n">
         <v>1.75</v>
@@ -25869,7 +25869,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT125" t="n">
         <v>1.18</v>
@@ -28308,7 +28308,7 @@
         <v>2.82</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU137" t="n">
         <v>2.22</v>
@@ -29320,10 +29320,10 @@
         <v>1.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU142" t="n">
         <v>1.84</v>
@@ -30538,7 +30538,7 @@
         <v>0.88</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -32162,7 +32162,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT156" t="n">
         <v>1.4</v>
@@ -33177,7 +33177,7 @@
         <v>0.75</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT161" t="n">
         <v>0.82</v>
@@ -33789,7 +33789,7 @@
         <v>0.9</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU164" t="n">
         <v>1.83</v>
@@ -34601,7 +34601,7 @@
         <v>2.82</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU168" t="n">
         <v>2.18</v>
@@ -36628,7 +36628,7 @@
         <v>1.11</v>
       </c>
       <c r="AS178" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT178" t="n">
         <v>1</v>
@@ -38510,6 +38510,412 @@
       </c>
       <c r="BK187" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2547378</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44945.60416666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>21</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>9</v>
+      </c>
+      <c r="R188" t="n">
+        <v>5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>14</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V188" t="n">
+        <v>5</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2547382</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44945.69791666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>1</v>
+      </c>
+      <c r="R189" t="n">
+        <v>8</v>
+      </c>
+      <c r="S189" t="n">
+        <v>9</v>
+      </c>
+      <c r="T189" t="n">
+        <v>4</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
         <v>1.55</v>
@@ -2527,7 +2527,7 @@
         <v>1.55</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT11" t="n">
         <v>1.3</v>
@@ -2933,7 +2933,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT14" t="n">
         <v>0.44</v>
@@ -3745,7 +3745,7 @@
         <v>2.82</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT19" t="n">
         <v>0.82</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT24" t="n">
         <v>2.09</v>
@@ -5572,7 +5572,7 @@
         <v>1.82</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -5775,7 +5775,7 @@
         <v>1.91</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU26" t="n">
         <v>1.56</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.96</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT29" t="n">
         <v>1.4</v>
@@ -6587,7 +6587,7 @@
         <v>1.55</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU30" t="n">
         <v>2.43</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT32" t="n">
         <v>1.3</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU33" t="n">
         <v>2.11</v>
@@ -7399,7 +7399,7 @@
         <v>1.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU34" t="n">
         <v>1.18</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT39" t="n">
         <v>1.73</v>
@@ -8617,7 +8617,7 @@
         <v>2.82</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU40" t="n">
         <v>2.52</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU41" t="n">
         <v>2.06</v>
@@ -9226,7 +9226,7 @@
         <v>1.82</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.31</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU44" t="n">
         <v>1.38</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT46" t="n">
         <v>2.4</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU52" t="n">
         <v>2.24</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT54" t="n">
         <v>2.09</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU56" t="n">
         <v>2.27</v>
@@ -12271,7 +12271,7 @@
         <v>0.9</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU58" t="n">
         <v>1.88</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT59" t="n">
         <v>1.18</v>
@@ -12880,7 +12880,7 @@
         <v>1.18</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU62" t="n">
         <v>1.87</v>
@@ -13692,7 +13692,7 @@
         <v>1.2</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU65" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT67" t="n">
         <v>1.4</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>1.55</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU70" t="n">
         <v>1.9</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT72" t="n">
         <v>2.4</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT74" t="n">
         <v>1.18</v>
@@ -15719,10 +15719,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU75" t="n">
         <v>1.56</v>
@@ -16331,7 +16331,7 @@
         <v>1.3</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU78" t="n">
         <v>1.89</v>
@@ -17143,7 +17143,7 @@
         <v>1.18</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU82" t="n">
         <v>1.79</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT85" t="n">
         <v>2.4</v>
@@ -18564,7 +18564,7 @@
         <v>1.91</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU89" t="n">
         <v>1.81</v>
@@ -19170,7 +19170,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT92" t="n">
         <v>1.73</v>
@@ -19376,7 +19376,7 @@
         <v>2.82</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU93" t="n">
         <v>2.06</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT95" t="n">
         <v>0.45</v>
@@ -19985,7 +19985,7 @@
         <v>2</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU96" t="n">
         <v>2.23</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20594,7 +20594,7 @@
         <v>1.3</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU99" t="n">
         <v>1.74</v>
@@ -20794,10 +20794,10 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -22621,7 +22621,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT109" t="n">
         <v>2.09</v>
@@ -22827,7 +22827,7 @@
         <v>0.9</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -23030,7 +23030,7 @@
         <v>1.3</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU111" t="n">
         <v>1.64</v>
@@ -23233,7 +23233,7 @@
         <v>2.82</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -23433,10 +23433,10 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU113" t="n">
         <v>1.28</v>
@@ -23636,7 +23636,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT114" t="n">
         <v>1.4</v>
@@ -23839,10 +23839,10 @@
         <v>1.8</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU115" t="n">
         <v>1.61</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT117" t="n">
         <v>0.45</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU120" t="n">
         <v>1.4</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT121" t="n">
         <v>1</v>
@@ -25263,7 +25263,7 @@
         <v>1.2</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT123" t="n">
         <v>1.4</v>
@@ -25666,7 +25666,7 @@
         <v>2.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT124" t="n">
         <v>2.4</v>
@@ -26075,7 +26075,7 @@
         <v>1.82</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT127" t="n">
         <v>0.82</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU129" t="n">
         <v>1.37</v>
@@ -26887,7 +26887,7 @@
         <v>1</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU130" t="n">
         <v>1.33</v>
@@ -27696,7 +27696,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT134" t="n">
         <v>2.09</v>
@@ -28508,7 +28508,7 @@
         <v>0.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT138" t="n">
         <v>0.82</v>
@@ -28711,7 +28711,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT139" t="n">
         <v>1.73</v>
@@ -28917,7 +28917,7 @@
         <v>1.6</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU140" t="n">
         <v>1.92</v>
@@ -29120,7 +29120,7 @@
         <v>0.9</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU141" t="n">
         <v>1.86</v>
@@ -29523,10 +29523,10 @@
         <v>1.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU143" t="n">
         <v>1.66</v>
@@ -29726,10 +29726,10 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU144" t="n">
         <v>1.72</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU145" t="n">
         <v>1.48</v>
@@ -30541,7 +30541,7 @@
         <v>1.2</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU148" t="n">
         <v>1.59</v>
@@ -31756,7 +31756,7 @@
         <v>0.78</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT154" t="n">
         <v>1</v>
@@ -31959,10 +31959,10 @@
         <v>1.11</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT155" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU155" t="n">
         <v>1.8</v>
@@ -32165,7 +32165,7 @@
         <v>1.91</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU156" t="n">
         <v>1.8</v>
@@ -32368,7 +32368,7 @@
         <v>2</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU157" t="n">
         <v>2.08</v>
@@ -32568,7 +32568,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT158" t="n">
         <v>0.45</v>
@@ -32977,7 +32977,7 @@
         <v>1.3</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU160" t="n">
         <v>1.55</v>
@@ -33992,7 +33992,7 @@
         <v>1.6</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU165" t="n">
         <v>1.84</v>
@@ -34192,7 +34192,7 @@
         <v>1.11</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT166" t="n">
         <v>1.18</v>
@@ -34395,7 +34395,7 @@
         <v>1.56</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT167" t="n">
         <v>1.4</v>
@@ -35210,7 +35210,7 @@
         <v>1.4</v>
       </c>
       <c r="AT171" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU171" t="n">
         <v>1.83</v>
@@ -35413,7 +35413,7 @@
         <v>1.55</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU172" t="n">
         <v>1.7</v>
@@ -35613,10 +35613,10 @@
         <v>1.44</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU173" t="n">
         <v>1.17</v>
@@ -36019,7 +36019,7 @@
         <v>0.5</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT175" t="n">
         <v>0.45</v>
@@ -36428,7 +36428,7 @@
         <v>2</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU177" t="n">
         <v>2.11</v>
@@ -36631,7 +36631,7 @@
         <v>1.91</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU178" t="n">
         <v>1.87</v>
@@ -36831,7 +36831,7 @@
         <v>1.56</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT179" t="n">
         <v>1.55</v>
@@ -37037,7 +37037,7 @@
         <v>1.3</v>
       </c>
       <c r="AT180" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU180" t="n">
         <v>1.52</v>
@@ -37846,7 +37846,7 @@
         <v>1.4</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT184" t="n">
         <v>1.55</v>
@@ -38916,6 +38916,1224 @@
       </c>
       <c r="BK189" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2547389</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>22</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>5</v>
+      </c>
+      <c r="R190" t="n">
+        <v>5</v>
+      </c>
+      <c r="S190" t="n">
+        <v>10</v>
+      </c>
+      <c r="T190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2547393</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44947.59375</v>
+      </c>
+      <c r="F191" t="n">
+        <v>22</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['24', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>4</v>
+      </c>
+      <c r="R191" t="n">
+        <v>6</v>
+      </c>
+      <c r="S191" t="n">
+        <v>10</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2547390</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44947.59375</v>
+      </c>
+      <c r="F192" t="n">
+        <v>22</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>2</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>3</v>
+      </c>
+      <c r="L192" t="n">
+        <v>3</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="n">
+        <v>5</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['37', '45+3', '73']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['33', '57']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>9</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
+      <c r="S192" t="n">
+        <v>9</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V192" t="n">
+        <v>4</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2547388</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44947.69791666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>22</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>12</v>
+      </c>
+      <c r="R193" t="n">
+        <v>5</v>
+      </c>
+      <c r="S193" t="n">
+        <v>17</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V193" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2547386</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44948.39583333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>22</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>3</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>4</v>
+      </c>
+      <c r="L194" t="n">
+        <v>4</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['8', '29', '42', '87']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2</v>
+      </c>
+      <c r="S194" t="n">
+        <v>4</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V194" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2547387</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44948.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>22</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>4</v>
+      </c>
+      <c r="R195" t="n">
+        <v>6</v>
+      </c>
+      <c r="S195" t="n">
+        <v>10</v>
+      </c>
+      <c r="T195" t="n">
+        <v>5</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.82</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT6" t="n">
         <v>2.09</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT7" t="n">
         <v>2.4</v>
@@ -2730,7 +2730,7 @@
         <v>2.36</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT20" t="n">
         <v>0.82</v>
@@ -6384,7 +6384,7 @@
         <v>1.09</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU29" t="n">
         <v>1.58</v>
@@ -6993,7 +6993,7 @@
         <v>0.18</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT34" t="n">
         <v>1.27</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT41" t="n">
         <v>0.91</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU42" t="n">
         <v>1.95</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT49" t="n">
         <v>0.44</v>
@@ -11662,7 +11662,7 @@
         <v>1.18</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU55" t="n">
         <v>1.58</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT56" t="n">
         <v>1.17</v>
@@ -13286,7 +13286,7 @@
         <v>1.3</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU63" t="n">
         <v>1.89</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT65" t="n">
         <v>1.27</v>
@@ -14504,7 +14504,7 @@
         <v>1.4</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU69" t="n">
         <v>1.62</v>
@@ -16534,7 +16534,7 @@
         <v>2.82</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU79" t="n">
         <v>2.11</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT87" t="n">
         <v>0.44</v>
@@ -18361,7 +18361,7 @@
         <v>1.18</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT96" t="n">
         <v>1.27</v>
@@ -20391,7 +20391,7 @@
         <v>0.9</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -21606,10 +21606,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU104" t="n">
         <v>1.71</v>
@@ -23639,7 +23639,7 @@
         <v>2.36</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU114" t="n">
         <v>1.74</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT116" t="n">
         <v>1.73</v>
@@ -24654,7 +24654,7 @@
         <v>1.6</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU119" t="n">
         <v>1.89</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT122" t="n">
         <v>1.33</v>
@@ -27290,7 +27290,7 @@
         <v>0.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT132" t="n">
         <v>0.45</v>
@@ -27902,7 +27902,7 @@
         <v>1.4</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU135" t="n">
         <v>1.61</v>
@@ -28308,7 +28308,7 @@
         <v>2.82</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU137" t="n">
         <v>2.22</v>
@@ -30538,7 +30538,7 @@
         <v>0.88</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT148" t="n">
         <v>1.17</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT150" t="n">
         <v>1.55</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU153" t="n">
         <v>1.39</v>
@@ -32365,7 +32365,7 @@
         <v>1.33</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT157" t="n">
         <v>1.33</v>
@@ -33177,7 +33177,7 @@
         <v>0.75</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT161" t="n">
         <v>0.82</v>
@@ -33789,7 +33789,7 @@
         <v>0.9</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU164" t="n">
         <v>1.83</v>
@@ -34398,7 +34398,7 @@
         <v>2.55</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU167" t="n">
         <v>1.72</v>
@@ -36425,7 +36425,7 @@
         <v>1.11</v>
       </c>
       <c r="AS177" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT177" t="n">
         <v>1.27</v>
@@ -38661,7 +38661,7 @@
         <v>1.91</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU188" t="n">
         <v>1.87</v>
@@ -38861,7 +38861,7 @@
         <v>1.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT189" t="n">
         <v>1.4</v>
@@ -40118,22 +40118,428 @@
         <v>3.34</v>
       </c>
       <c r="BF195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2547385</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44948.60416666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>22</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['45+2', '50']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['13', '16']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>2</v>
+      </c>
+      <c r="R196" t="n">
+        <v>3</v>
+      </c>
+      <c r="S196" t="n">
+        <v>5</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V196" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2547391</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44948.70833333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>22</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>3</v>
+      </c>
+      <c r="N197" t="n">
+        <v>3</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['34', '44', '55']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" t="n">
+        <v>5</v>
+      </c>
+      <c r="S197" t="n">
+        <v>6</v>
+      </c>
+      <c r="T197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI197" t="n">
         <v>9</v>
       </c>
-      <c r="BG195" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH195" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI195" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ195" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK195" t="n">
-        <v>10</v>
+      <c r="BJ197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -31818,7 +31818,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>2547354</v>
+        <v>2547350</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -31838,182 +31838,182 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>KAA Gent</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R155" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S155" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T155" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="U155" t="n">
         <v>2.3</v>
       </c>
       <c r="V155" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="W155" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X155" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y155" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR155" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA155" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB155" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC155" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AD155" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE155" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF155" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG155" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH155" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK155" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL155" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AM155" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AN155" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AO155" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP155" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AQ155" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AR155" t="n">
-        <v>1.11</v>
-      </c>
       <c r="AS155" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AU155" t="n">
         <v>1.8</v>
       </c>
       <c r="AV155" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AW155" t="n">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="AX155" t="n">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="AY155" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ155" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="BA155" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB155" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="BC155" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="BD155" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="BE155" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="BF155" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BG155" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH155" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BI155" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BJ155" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BK155" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -32021,7 +32021,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>2547350</v>
+        <v>2547354</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -32041,182 +32041,182 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['71']</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R156" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S156" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T156" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="U156" t="n">
         <v>2.3</v>
       </c>
       <c r="V156" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="W156" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X156" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y156" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z156" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA156" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB156" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR156" t="n">
         <v>1.11</v>
       </c>
-      <c r="AC156" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH156" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI156" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL156" t="n">
+      <c r="AS156" t="n">
         <v>1.75</v>
       </c>
-      <c r="AM156" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN156" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO156" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP156" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ156" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR156" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS156" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AT156" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU156" t="n">
         <v>1.8</v>
       </c>
       <c r="AV156" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AW156" t="n">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="AX156" t="n">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
       <c r="AY156" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ156" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="BA156" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB156" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="BC156" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="BD156" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="BE156" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BF156" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG156" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH156" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BI156" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BJ156" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BK156" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
@@ -35675,7 +35675,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>2547375</v>
+        <v>2547372</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -35695,182 +35695,182 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>AS Eupen</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Sint-Truiden</t>
+          <t>KV Oostende</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" t="n">
         <v>1</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40', '70']</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>['44', '68']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S174" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X174" t="n">
         <v>3.2</v>
       </c>
-      <c r="U174" t="n">
+      <c r="Y174" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM174" t="n">
         <v>2.15</v>
       </c>
-      <c r="V174" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W174" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X174" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y174" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z174" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA174" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB174" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC174" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AD174" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE174" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AF174" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG174" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH174" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AJ174" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK174" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AL174" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM174" t="n">
-        <v>2</v>
-      </c>
       <c r="AN174" t="n">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AO174" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR174" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>0.9</v>
+        <v>1.75</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.73</v>
+        <v>0.45</v>
       </c>
       <c r="AU174" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="AV174" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AW174" t="n">
-        <v>3.04</v>
+        <v>3.21</v>
       </c>
       <c r="AX174" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="AY174" t="n">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="AZ174" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="BA174" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BB174" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="BC174" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="BD174" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="BE174" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="BF174" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG174" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH174" t="n">
         <v>9</v>
       </c>
       <c r="BI174" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BJ174" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK174" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
@@ -35878,7 +35878,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>2547372</v>
+        <v>2547375</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -35898,182 +35898,182 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>AS Eupen</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>KV Oostende</t>
+          <t>Sint-Truiden</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
         <v>1</v>
       </c>
       <c r="L175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['44', '68']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
         <v>3</v>
       </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>['40', '70']</t>
-        </is>
-      </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>['63']</t>
-        </is>
-      </c>
-      <c r="Q175" t="n">
-        <v>10</v>
-      </c>
       <c r="R175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S175" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T175" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="U175" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="V175" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="W175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO175" t="n">
         <v>1.3</v>
       </c>
-      <c r="X175" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y175" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z175" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA175" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AB175" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC175" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD175" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE175" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AF175" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG175" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH175" t="n">
+      <c r="AP175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA175" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI175" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ175" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AK175" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AL175" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AM175" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN175" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO175" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP175" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ175" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR175" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS175" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT175" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AU175" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AV175" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AW175" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AX175" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AY175" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ175" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA175" t="n">
-        <v>1.17</v>
-      </c>
       <c r="BB175" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="BC175" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="BD175" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="BE175" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="BF175" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BG175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH175" t="n">
         <v>9</v>
       </c>
       <c r="BI175" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BJ175" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BK175" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176">
@@ -37299,7 +37299,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>2547383</v>
+        <v>2547377</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -37319,155 +37319,155 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L182" t="n">
         <v>2</v>
       </c>
       <c r="M182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>['53', '55']</t>
+          <t>['45+1', '85']</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>['7', '24', '64']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R182" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S182" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T182" t="n">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="U182" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="V182" t="n">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="W182" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="X182" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="Y182" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="Z182" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AA182" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="AB182" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AC182" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="AD182" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AE182" t="n">
-        <v>1.72</v>
+        <v>3.5</v>
       </c>
       <c r="AF182" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG182" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH182" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AI182" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AJ182" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AK182" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AL182" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AM182" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AN182" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO182" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.21</v>
+        <v>1.73</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.7</v>
       </c>
       <c r="AR182" t="n">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU182" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="AV182" t="n">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="AW182" t="n">
-        <v>3.34</v>
+        <v>2.76</v>
       </c>
       <c r="AX182" t="n">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="AY182" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ182" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="BA182" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB182" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="BC182" t="n">
         <v>1.65</v>
@@ -37482,19 +37482,19 @@
         <v>6</v>
       </c>
       <c r="BG182" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH182" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI182" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BJ182" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BK182" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
@@ -37502,7 +37502,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>2547377</v>
+        <v>2547383</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -37522,155 +37522,155 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L183" t="n">
         <v>2</v>
       </c>
       <c r="M183" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N183" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>['45+1', '85']</t>
+          <t>['53', '55']</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['7', '24', '64']</t>
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R183" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S183" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T183" t="n">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="U183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM183" t="n">
         <v>2.15</v>
       </c>
-      <c r="V183" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W183" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X183" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Y183" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z183" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA183" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB183" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC183" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD183" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE183" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF183" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG183" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH183" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI183" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ183" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AK183" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL183" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AM183" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AN183" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO183" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.73</v>
+        <v>1.21</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.7</v>
       </c>
       <c r="AR183" t="n">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.44</v>
+        <v>2.4</v>
       </c>
       <c r="AU183" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="AV183" t="n">
-        <v>1.2</v>
+        <v>1.62</v>
       </c>
       <c r="AW183" t="n">
-        <v>2.76</v>
+        <v>3.34</v>
       </c>
       <c r="AX183" t="n">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="AY183" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ183" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="BA183" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB183" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="BC183" t="n">
         <v>1.65</v>
@@ -37685,19 +37685,19 @@
         <v>6</v>
       </c>
       <c r="BG183" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH183" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BI183" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BJ183" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK183" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
@@ -37705,7 +37705,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>2547384</v>
+        <v>2547381</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -37725,182 +37725,182 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>KV Oostende</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
         <v>3</v>
       </c>
-      <c r="N184" t="n">
-        <v>3</v>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>['11', '21', '88']</t>
-        </is>
-      </c>
-      <c r="Q184" t="n">
+      <c r="R184" t="n">
         <v>6</v>
       </c>
-      <c r="R184" t="n">
-        <v>5</v>
-      </c>
       <c r="S184" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T184" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="U184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR184" t="n">
         <v>2.2</v>
       </c>
-      <c r="V184" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W184" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X184" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y184" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z184" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA184" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AB184" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC184" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AD184" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AE184" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AF184" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG184" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH184" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AI184" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ184" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK184" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AL184" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AM184" t="n">
+      <c r="AS184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX184" t="n">
         <v>2.1</v>
       </c>
-      <c r="AN184" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AO184" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP184" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AQ184" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR184" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS184" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AT184" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AU184" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AV184" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AW184" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AX184" t="n">
-        <v>2.63</v>
-      </c>
       <c r="AY184" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ184" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="BA184" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BB184" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BC184" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BD184" t="n">
         <v>2.1</v>
       </c>
       <c r="BE184" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="BF184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH184" t="n">
         <v>5</v>
       </c>
-      <c r="BG184" t="n">
+      <c r="BI184" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ184" t="n">
         <v>7</v>
       </c>
-      <c r="BH184" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI184" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ184" t="n">
-        <v>18</v>
-      </c>
       <c r="BK184" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185">
@@ -37908,7 +37908,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>2547381</v>
+        <v>2547384</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -37928,182 +37928,182 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>KV Oostende</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Union Saint-Gilloise</t>
+          <t>Royal Antwerp FC</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>['11', '21', '88']</t>
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R185" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S185" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T185" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="U185" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V185" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="W185" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X185" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Y185" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Z185" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA185" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="AB185" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AC185" t="n">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="AD185" t="n">
-        <v>3.58</v>
+        <v>3.88</v>
       </c>
       <c r="AE185" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="AF185" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG185" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH185" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AI185" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AJ185" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AK185" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="AL185" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AM185" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AN185" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="AO185" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR185" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.6</v>
+        <v>1.09</v>
       </c>
       <c r="AT185" t="n">
-        <v>2.09</v>
+        <v>1.55</v>
       </c>
       <c r="AU185" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AV185" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="AW185" t="n">
-        <v>3.43</v>
+        <v>3.16</v>
       </c>
       <c r="AX185" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="AY185" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ185" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="BA185" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BB185" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="BC185" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BD185" t="n">
         <v>2.1</v>
       </c>
       <c r="BE185" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="BF185" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG185" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH185" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI185" t="n">
         <v>5</v>
       </c>
-      <c r="BI185" t="n">
-        <v>14</v>
-      </c>
       <c r="BJ185" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="BK185" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186">
@@ -38111,7 +38111,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>2547376</v>
+        <v>2547380</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -38131,12 +38131,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>KV Kortrijk</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>RFC Seraing</t>
         </is>
       </c>
       <c r="I186" t="n">
@@ -38149,164 +38149,164 @@
         <v>3</v>
       </c>
       <c r="L186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N186" t="n">
         <v>5</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>['35', '36']</t>
+          <t>['9', '23', '63']</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>['11', '62', '75']</t>
+          <t>['18', '60']</t>
         </is>
       </c>
       <c r="Q186" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R186" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S186" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T186" t="n">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="U186" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="V186" t="n">
-        <v>5.75</v>
+        <v>4.1</v>
       </c>
       <c r="W186" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X186" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Y186" t="n">
-        <v>2.15</v>
+        <v>2.64</v>
       </c>
       <c r="Z186" t="n">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AA186" t="n">
-        <v>4.75</v>
+        <v>6.45</v>
       </c>
       <c r="AB186" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AC186" t="n">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AD186" t="n">
-        <v>4.58</v>
+        <v>3.41</v>
       </c>
       <c r="AE186" t="n">
-        <v>6.25</v>
+        <v>3.56</v>
       </c>
       <c r="AF186" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG186" t="n">
         <v>13</v>
       </c>
       <c r="AH186" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AI186" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ186" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AK186" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="AL186" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AM186" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AN186" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AO186" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.9</v>
+        <v>1.87</v>
       </c>
       <c r="AQ186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR186" t="n">
         <v>1.3</v>
       </c>
-      <c r="AR186" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AS186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT186" t="n">
         <v>1.18</v>
       </c>
-      <c r="AT186" t="n">
-        <v>0.82</v>
-      </c>
       <c r="AU186" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="AV186" t="n">
-        <v>1.34</v>
+        <v>0.93</v>
       </c>
       <c r="AW186" t="n">
-        <v>3.02</v>
+        <v>2.39</v>
       </c>
       <c r="AX186" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AY186" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ186" t="n">
-        <v>4.32</v>
+        <v>3.1</v>
       </c>
       <c r="BA186" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BB186" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="BC186" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BD186" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BE186" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BF186" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG186" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH186" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BI186" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ186" t="n">
         <v>21</v>
       </c>
       <c r="BK186" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
@@ -38314,7 +38314,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>2547380</v>
+        <v>2547376</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -38334,12 +38334,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>KV Kortrijk</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="I187" t="n">
@@ -38352,164 +38352,164 @@
         <v>3</v>
       </c>
       <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
         <v>3</v>
-      </c>
-      <c r="M187" t="n">
-        <v>2</v>
       </c>
       <c r="N187" t="n">
         <v>5</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>['9', '23', '63']</t>
+          <t>['35', '36']</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>['18', '60']</t>
+          <t>['11', '62', '75']</t>
         </is>
       </c>
       <c r="Q187" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R187" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S187" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T187" t="n">
-        <v>2.4</v>
+        <v>1.82</v>
       </c>
       <c r="U187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V187" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y187" t="n">
         <v>2.15</v>
       </c>
-      <c r="V187" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W187" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X187" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y187" t="n">
-        <v>2.64</v>
-      </c>
       <c r="Z187" t="n">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AA187" t="n">
-        <v>6.45</v>
+        <v>4.75</v>
       </c>
       <c r="AB187" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AC187" t="n">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AD187" t="n">
-        <v>3.41</v>
+        <v>4.58</v>
       </c>
       <c r="AE187" t="n">
-        <v>3.56</v>
+        <v>6.25</v>
       </c>
       <c r="AF187" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG187" t="n">
         <v>13</v>
       </c>
       <c r="AH187" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AI187" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AJ187" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AK187" t="n">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="AL187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU187" t="n">
         <v>1.68</v>
       </c>
-      <c r="AM187" t="n">
+      <c r="AV187" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD187" t="n">
         <v>2.05</v>
       </c>
-      <c r="AN187" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO187" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AP187" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AQ187" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AR187" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AS187" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT187" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AU187" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV187" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AW187" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AX187" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AY187" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ187" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BA187" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BB187" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BC187" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BD187" t="n">
-        <v>2.1</v>
-      </c>
       <c r="BE187" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BF187" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG187" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH187" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BI187" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ187" t="n">
         <v>21</v>
       </c>
       <c r="BK187" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188">

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT2" t="n">
         <v>1.55</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.09</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.18</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT10" t="n">
         <v>1.17</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT13" t="n">
         <v>1.27</v>
@@ -3339,7 +3339,7 @@
         <v>1.09</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.91</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.82</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU21" t="n">
         <v>1.94</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.47</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.49</v>
@@ -5369,7 +5369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU24" t="n">
         <v>1.52</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT25" t="n">
         <v>1.17</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT30" t="n">
         <v>1.27</v>
@@ -6790,7 +6790,7 @@
         <v>1.6</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU31" t="n">
         <v>1.73</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT36" t="n">
         <v>1.4</v>
@@ -8414,7 +8414,7 @@
         <v>1.09</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT43" t="n">
         <v>1.33</v>
@@ -9629,7 +9629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT45" t="n">
         <v>1.4</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10444,7 +10444,7 @@
         <v>1.09</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU49" t="n">
         <v>1.49</v>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU53" t="n">
         <v>2.17</v>
@@ -11459,7 +11459,7 @@
         <v>2.55</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU54" t="n">
         <v>2</v>
@@ -12068,7 +12068,7 @@
         <v>2.82</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU57" t="n">
         <v>2.23</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT63" t="n">
         <v>1.55</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU64" t="n">
         <v>1.71</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU66" t="n">
         <v>1.29</v>
@@ -14301,7 +14301,7 @@
         <v>1.09</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU68" t="n">
         <v>1.44</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT69" t="n">
         <v>1.27</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT70" t="n">
         <v>1.27</v>
@@ -15925,7 +15925,7 @@
         <v>1.6</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.85</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT78" t="n">
         <v>1.27</v>
@@ -16737,7 +16737,7 @@
         <v>0.9</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU80" t="n">
         <v>1.97</v>
@@ -16937,7 +16937,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT81" t="n">
         <v>1.4</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT83" t="n">
         <v>1.18</v>
@@ -17546,10 +17546,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -17952,7 +17952,7 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
         <v>0.82</v>
@@ -18158,7 +18158,7 @@
         <v>1.92</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU87" t="n">
         <v>2.1</v>
@@ -18970,7 +18970,7 @@
         <v>1.09</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU91" t="n">
         <v>1.61</v>
@@ -19173,7 +19173,7 @@
         <v>2.55</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -19782,7 +19782,7 @@
         <v>0.18</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.22</v>
@@ -20591,7 +20591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT99" t="n">
         <v>1.27</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT101" t="n">
         <v>1.18</v>
@@ -21406,7 +21406,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU103" t="n">
         <v>1.89</v>
@@ -21809,7 +21809,7 @@
         <v>2.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT105" t="n">
         <v>2.4</v>
@@ -22012,7 +22012,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT106" t="n">
         <v>1.55</v>
@@ -22218,7 +22218,7 @@
         <v>1.91</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU107" t="n">
         <v>1.81</v>
@@ -22624,7 +22624,7 @@
         <v>1.09</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU109" t="n">
         <v>1.51</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT111" t="n">
         <v>0.91</v>
@@ -24045,7 +24045,7 @@
         <v>1.92</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU116" t="n">
         <v>2.28</v>
@@ -24248,7 +24248,7 @@
         <v>2.55</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.67</v>
@@ -25060,7 +25060,7 @@
         <v>1.75</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU121" t="n">
         <v>1.64</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT126" t="n">
         <v>1.27</v>
@@ -26481,7 +26481,7 @@
         <v>2.82</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU128" t="n">
         <v>2.27</v>
@@ -27087,10 +27087,10 @@
         <v>1.29</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU131" t="n">
         <v>1.68</v>
@@ -27293,7 +27293,7 @@
         <v>1.92</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU132" t="n">
         <v>2.19</v>
@@ -27496,7 +27496,7 @@
         <v>1.18</v>
       </c>
       <c r="AT133" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU133" t="n">
         <v>1.79</v>
@@ -27699,7 +27699,7 @@
         <v>0.18</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU134" t="n">
         <v>1.23</v>
@@ -27899,7 +27899,7 @@
         <v>1.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT135" t="n">
         <v>1.55</v>
@@ -28102,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT136" t="n">
         <v>1.55</v>
@@ -28714,7 +28714,7 @@
         <v>0.18</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU139" t="n">
         <v>1.24</v>
@@ -30132,7 +30132,7 @@
         <v>1.25</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT146" t="n">
         <v>1.18</v>
@@ -30335,10 +30335,10 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.7</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU149" t="n">
         <v>1.32</v>
@@ -31147,10 +31147,10 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU151" t="n">
         <v>1.57</v>
@@ -31759,7 +31759,7 @@
         <v>0.18</v>
       </c>
       <c r="AT154" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU154" t="n">
         <v>1.18</v>
@@ -32571,7 +32571,7 @@
         <v>2.36</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU158" t="n">
         <v>1.77</v>
@@ -32974,7 +32974,7 @@
         <v>0.88</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT160" t="n">
         <v>1.27</v>
@@ -33380,7 +33380,7 @@
         <v>1.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT162" t="n">
         <v>1.55</v>
@@ -33583,10 +33583,10 @@
         <v>1.67</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU163" t="n">
         <v>1.59</v>
@@ -34804,7 +34804,7 @@
         <v>1</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -35007,7 +35007,7 @@
         <v>1.18</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU170" t="n">
         <v>1.79</v>
@@ -35207,7 +35207,7 @@
         <v>0.88</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT171" t="n">
         <v>0.91</v>
@@ -35410,7 +35410,7 @@
         <v>1.3</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT172" t="n">
         <v>1.33</v>
@@ -35819,7 +35819,7 @@
         <v>1.75</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU174" t="n">
         <v>1.89</v>
@@ -36022,7 +36022,7 @@
         <v>0.9</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU175" t="n">
         <v>1.76</v>
@@ -37034,7 +37034,7 @@
         <v>1.1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT180" t="n">
         <v>1.17</v>
@@ -37237,10 +37237,10 @@
         <v>1</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT181" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU181" t="n">
         <v>1.83</v>
@@ -37440,10 +37440,10 @@
         <v>0.5</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU182" t="n">
         <v>1.56</v>
@@ -37643,7 +37643,7 @@
         <v>2.33</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT183" t="n">
         <v>2.4</v>
@@ -37849,7 +37849,7 @@
         <v>1.6</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU184" t="n">
         <v>1.79</v>
@@ -40540,6 +40540,1021 @@
       </c>
       <c r="BK197" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2547395</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44953.69791666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>23</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>AS Eupen</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3</v>
+      </c>
+      <c r="L198" t="n">
+        <v>3</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['31', '35', '59']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>7</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2</v>
+      </c>
+      <c r="S198" t="n">
+        <v>9</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2547401</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>23</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['22', '57']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>11</v>
+      </c>
+      <c r="R199" t="n">
+        <v>5</v>
+      </c>
+      <c r="S199" t="n">
+        <v>16</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>24</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2547397</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44954.59375</v>
+      </c>
+      <c r="F200" t="n">
+        <v>23</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>6</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>9</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2547398</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44954.59375</v>
+      </c>
+      <c r="F201" t="n">
+        <v>23</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>2</v>
+      </c>
+      <c r="N201" t="n">
+        <v>4</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['20', '89']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['45+5', '84']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>2</v>
+      </c>
+      <c r="R201" t="n">
+        <v>5</v>
+      </c>
+      <c r="S201" t="n">
+        <v>7</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2547402</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44954.69791666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>23</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>2</v>
+      </c>
+      <c r="R202" t="n">
+        <v>8</v>
+      </c>
+      <c r="S202" t="n">
+        <v>10</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.92</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT12" t="n">
         <v>1.27</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT27" t="n">
         <v>1.18</v>
@@ -6384,7 +6384,7 @@
         <v>1.09</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU29" t="n">
         <v>1.58</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT31" t="n">
         <v>0.4</v>
@@ -7602,7 +7602,7 @@
         <v>0.9</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.92</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT47" t="n">
         <v>0.82</v>
@@ -10647,7 +10647,7 @@
         <v>1.91</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -11659,10 +11659,10 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU55" t="n">
         <v>1.58</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>1.18</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU63" t="n">
         <v>1.89</v>
@@ -14907,10 +14907,10 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16534,7 +16534,7 @@
         <v>2.82</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU79" t="n">
         <v>2.11</v>
@@ -17140,7 +17140,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT82" t="n">
         <v>0.91</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT88" t="n">
         <v>1.27</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.38</v>
@@ -20391,7 +20391,7 @@
         <v>0.9</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT103" t="n">
         <v>0.92</v>
@@ -22015,7 +22015,7 @@
         <v>1.92</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.67</v>
@@ -22418,7 +22418,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT108" t="n">
         <v>1.4</v>
@@ -23639,7 +23639,7 @@
         <v>2.36</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU114" t="n">
         <v>1.74</v>
@@ -24651,7 +24651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT119" t="n">
         <v>1.27</v>
@@ -27493,7 +27493,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT133" t="n">
         <v>0.92</v>
@@ -27902,7 +27902,7 @@
         <v>1.36</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU135" t="n">
         <v>1.61</v>
@@ -28105,7 +28105,7 @@
         <v>1.18</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU136" t="n">
         <v>1.62</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT140" t="n">
         <v>1.33</v>
@@ -30947,7 +30947,7 @@
         <v>1.92</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU150" t="n">
         <v>2.16</v>
@@ -31350,7 +31350,7 @@
         <v>2.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT152" t="n">
         <v>2.4</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU153" t="n">
         <v>1.39</v>
@@ -33383,7 +33383,7 @@
         <v>1.67</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU162" t="n">
         <v>1.73</v>
@@ -33989,7 +33989,7 @@
         <v>1.11</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT165" t="n">
         <v>1.27</v>
@@ -34398,7 +34398,7 @@
         <v>2.55</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU167" t="n">
         <v>1.72</v>
@@ -35004,7 +35004,7 @@
         <v>2.11</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT170" t="n">
         <v>2.17</v>
@@ -36834,7 +36834,7 @@
         <v>2.36</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU179" t="n">
         <v>1.77</v>
@@ -37846,7 +37846,7 @@
         <v>2.2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT184" t="n">
         <v>2.17</v>
@@ -38052,7 +38052,7 @@
         <v>1.09</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU185" t="n">
         <v>1.64</v>
@@ -38455,7 +38455,7 @@
         <v>0.6</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT187" t="n">
         <v>0.82</v>
@@ -40488,7 +40488,7 @@
         <v>1.09</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU197" t="n">
         <v>1.54</v>
@@ -41554,6 +41554,412 @@
         <v>6</v>
       </c>
       <c r="BK202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2547394</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44955.39583333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>23</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>6</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>8</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2547399</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44955.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>23</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>3</v>
+      </c>
+      <c r="M204" t="n">
+        <v>2</v>
+      </c>
+      <c r="N204" t="n">
+        <v>5</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['58', '59', '90+4']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['66', '90']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>4</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2</v>
+      </c>
+      <c r="S204" t="n">
+        <v>6</v>
+      </c>
+      <c r="T204" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK204" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK204"/>
+  <dimension ref="A1:BK206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT16" t="n">
         <v>1.27</v>
@@ -3948,7 +3948,7 @@
         <v>0.9</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT21" t="n">
         <v>0.92</v>
@@ -5978,7 +5978,7 @@
         <v>1.17</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU27" t="n">
         <v>1.46</v>
@@ -7805,7 +7805,7 @@
         <v>1.36</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU36" t="n">
         <v>1.75</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT37" t="n">
         <v>2.4</v>
@@ -8211,7 +8211,7 @@
         <v>0.9</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU38" t="n">
         <v>1.9</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT40" t="n">
         <v>1.17</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT42" t="n">
         <v>1.27</v>
@@ -9632,7 +9632,7 @@
         <v>1.18</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU45" t="n">
         <v>1.68</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT57" t="n">
         <v>1.67</v>
@@ -12474,7 +12474,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT64" t="n">
         <v>2.17</v>
@@ -14098,7 +14098,7 @@
         <v>0.18</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -15519,7 +15519,7 @@
         <v>2.55</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -16125,7 +16125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT77" t="n">
         <v>1.67</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT79" t="n">
         <v>1.42</v>
@@ -16940,7 +16940,7 @@
         <v>1.92</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU81" t="n">
         <v>1.72</v>
@@ -17346,7 +17346,7 @@
         <v>1.92</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU83" t="n">
         <v>1.66</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT93" t="n">
         <v>0.91</v>
@@ -19576,7 +19576,7 @@
         <v>1.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT94" t="n">
         <v>1.33</v>
@@ -21000,7 +21000,7 @@
         <v>1.67</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU101" t="n">
         <v>1.71</v>
@@ -22421,7 +22421,7 @@
         <v>1.17</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT112" t="n">
         <v>1.27</v>
@@ -24448,7 +24448,7 @@
         <v>1.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT118" t="n">
         <v>1.27</v>
@@ -25466,7 +25466,7 @@
         <v>2.36</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU123" t="n">
         <v>1.75</v>
@@ -25872,7 +25872,7 @@
         <v>1.91</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU125" t="n">
         <v>1.82</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT128" t="n">
         <v>0.4</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT129" t="n">
         <v>1.27</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT137" t="n">
         <v>1.27</v>
@@ -29323,7 +29323,7 @@
         <v>1.91</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU142" t="n">
         <v>1.84</v>
@@ -30135,7 +30135,7 @@
         <v>1.36</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU146" t="n">
         <v>1.61</v>
@@ -30741,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT149" t="n">
         <v>0.92</v>
@@ -34195,7 +34195,7 @@
         <v>1.09</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU166" t="n">
         <v>1.61</v>
@@ -34598,10 +34598,10 @@
         <v>1.63</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU168" t="n">
         <v>2.18</v>
@@ -34801,7 +34801,7 @@
         <v>0.57</v>
       </c>
       <c r="AS169" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT169" t="n">
         <v>0.4</v>
@@ -36222,7 +36222,7 @@
         <v>0.67</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT176" t="n">
         <v>0.82</v>
@@ -38255,7 +38255,7 @@
         <v>1</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU186" t="n">
         <v>1.46</v>
@@ -38864,7 +38864,7 @@
         <v>1.09</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU189" t="n">
         <v>1.55</v>
@@ -39064,7 +39064,7 @@
         <v>1.3</v>
       </c>
       <c r="AS190" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT190" t="n">
         <v>1.27</v>
@@ -41961,6 +41961,412 @@
       </c>
       <c r="BK204" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2547400</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>44955.60416666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>23</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2</v>
+      </c>
+      <c r="K205" t="n">
+        <v>3</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['7', '45+6']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>4</v>
+      </c>
+      <c r="R205" t="n">
+        <v>8</v>
+      </c>
+      <c r="S205" t="n">
+        <v>12</v>
+      </c>
+      <c r="T205" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2547396</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>44955.70833333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>23</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>4</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>4</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['7', '14', '60', '64']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3</v>
+      </c>
+      <c r="R206" t="n">
+        <v>4</v>
+      </c>
+      <c r="S206" t="n">
+        <v>7</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V206" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK206"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.92</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT17" t="n">
         <v>1.55</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT35" t="n">
         <v>1.5</v>
@@ -8008,7 +8008,7 @@
         <v>0.92</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU37" t="n">
         <v>2.29</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT38" t="n">
         <v>1.08</v>
@@ -9835,7 +9835,7 @@
         <v>0.18</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU46" t="n">
         <v>1.6</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT58" t="n">
         <v>0.91</v>
@@ -15113,7 +15113,7 @@
         <v>2.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT80" t="n">
         <v>2.17</v>
@@ -17752,7 +17752,7 @@
         <v>1.09</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT98" t="n">
         <v>1.42</v>
@@ -21812,7 +21812,7 @@
         <v>1.36</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU105" t="n">
         <v>1.47</v>
@@ -22824,7 +22824,7 @@
         <v>1.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT110" t="n">
         <v>1.33</v>
@@ -25669,7 +25669,7 @@
         <v>2.55</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU124" t="n">
         <v>1.71</v>
@@ -29117,7 +29117,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT141" t="n">
         <v>1.27</v>
@@ -31353,7 +31353,7 @@
         <v>1.17</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU152" t="n">
         <v>1.82</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU159" t="n">
         <v>1.37</v>
@@ -33786,7 +33786,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT164" t="n">
         <v>1.27</v>
@@ -36019,7 +36019,7 @@
         <v>1.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT175" t="n">
         <v>1.67</v>
@@ -37646,7 +37646,7 @@
         <v>1.67</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AU183" t="n">
         <v>1.72</v>
@@ -42367,6 +42367,209 @@
       </c>
       <c r="BK206" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2547392</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>44958.61458333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>AS Eupen</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>3</v>
+      </c>
+      <c r="R207" t="n">
+        <v>7</v>
+      </c>
+      <c r="S207" t="n">
+        <v>10</v>
+      </c>
+      <c r="T207" t="n">
+        <v>6</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>0.4</v>
@@ -3745,7 +3745,7 @@
         <v>2.83</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT17" t="n">
         <v>1.55</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT18" t="n">
         <v>0.91</v>
@@ -5775,7 +5775,7 @@
         <v>1.91</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU26" t="n">
         <v>1.56</v>
@@ -6181,7 +6181,7 @@
         <v>2.55</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU28" t="n">
         <v>1.96</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>1.42</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>2.43</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>0.4</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT32" t="n">
         <v>1.27</v>
@@ -7399,7 +7399,7 @@
         <v>1.09</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU34" t="n">
         <v>1.18</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT35" t="n">
         <v>1.5</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT38" t="n">
         <v>1.08</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.67</v>
@@ -9226,7 +9226,7 @@
         <v>1.92</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU43" t="n">
         <v>1.31</v>
@@ -9429,7 +9429,7 @@
         <v>1.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU44" t="n">
         <v>1.38</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT46" t="n">
         <v>2.27</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
         <v>0.82</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11053,7 +11053,7 @@
         <v>2.36</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU52" t="n">
         <v>2.24</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT58" t="n">
         <v>0.91</v>
@@ -12880,7 +12880,7 @@
         <v>1.17</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13083,7 +13083,7 @@
         <v>2.55</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU62" t="n">
         <v>1.87</v>
@@ -13692,7 +13692,7 @@
         <v>1.09</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU65" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT67" t="n">
         <v>1.55</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>0.92</v>
@@ -14707,7 +14707,7 @@
         <v>1.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU70" t="n">
         <v>1.9</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
         <v>1.5</v>
@@ -15722,7 +15722,7 @@
         <v>1.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU75" t="n">
         <v>1.56</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16331,7 +16331,7 @@
         <v>1.18</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU78" t="n">
         <v>1.89</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT80" t="n">
         <v>2.17</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>2.27</v>
@@ -19579,7 +19579,7 @@
         <v>0.92</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT95" t="n">
         <v>0.5</v>
@@ -19985,7 +19985,7 @@
         <v>1.92</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU96" t="n">
         <v>2.23</v>
@@ -20188,7 +20188,7 @@
         <v>1.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT98" t="n">
         <v>1.42</v>
@@ -20594,7 +20594,7 @@
         <v>1.18</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU99" t="n">
         <v>1.74</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>0.92</v>
@@ -22621,7 +22621,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>2.17</v>
@@ -22824,10 +22824,10 @@
         <v>1.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -23233,7 +23233,7 @@
         <v>2.83</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -23433,7 +23433,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT113" t="n">
         <v>1.17</v>
@@ -23842,7 +23842,7 @@
         <v>1.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU115" t="n">
         <v>1.61</v>
@@ -24451,7 +24451,7 @@
         <v>0.92</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -24651,7 +24651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT119" t="n">
         <v>1.27</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU120" t="n">
         <v>1.4</v>
@@ -25263,7 +25263,7 @@
         <v>1.09</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -26075,7 +26075,7 @@
         <v>1.92</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
         <v>0.82</v>
@@ -26684,7 +26684,7 @@
         <v>0.92</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU129" t="n">
         <v>1.37</v>
@@ -27696,7 +27696,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT134" t="n">
         <v>2.17</v>
@@ -28711,7 +28711,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT139" t="n">
         <v>1.67</v>
@@ -28914,10 +28914,10 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU140" t="n">
         <v>1.92</v>
@@ -29117,10 +29117,10 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU141" t="n">
         <v>1.86</v>
@@ -29526,7 +29526,7 @@
         <v>2.36</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU143" t="n">
         <v>1.66</v>
@@ -29729,7 +29729,7 @@
         <v>2.55</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU144" t="n">
         <v>1.72</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT145" t="n">
         <v>0.91</v>
@@ -31756,7 +31756,7 @@
         <v>0.78</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT154" t="n">
         <v>0.92</v>
@@ -31962,7 +31962,7 @@
         <v>1.91</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU155" t="n">
         <v>1.8</v>
@@ -32368,7 +32368,7 @@
         <v>1.92</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU157" t="n">
         <v>2.08</v>
@@ -32977,7 +32977,7 @@
         <v>1.18</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU160" t="n">
         <v>1.55</v>
@@ -33786,7 +33786,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT164" t="n">
         <v>1.27</v>
@@ -33989,10 +33989,10 @@
         <v>1.11</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU165" t="n">
         <v>1.84</v>
@@ -34192,7 +34192,7 @@
         <v>1.11</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT166" t="n">
         <v>1.08</v>
@@ -35413,7 +35413,7 @@
         <v>1.67</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU172" t="n">
         <v>1.7</v>
@@ -35613,10 +35613,10 @@
         <v>1.44</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU173" t="n">
         <v>1.17</v>
@@ -36019,7 +36019,7 @@
         <v>1.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT175" t="n">
         <v>1.67</v>
@@ -36428,7 +36428,7 @@
         <v>1.92</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU177" t="n">
         <v>2.11</v>
@@ -37846,7 +37846,7 @@
         <v>2.2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT184" t="n">
         <v>2.17</v>
@@ -38049,7 +38049,7 @@
         <v>1.4</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT185" t="n">
         <v>1.5</v>
@@ -39067,7 +39067,7 @@
         <v>0.92</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU190" t="n">
         <v>1.46</v>
@@ -39267,7 +39267,7 @@
         <v>1</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT191" t="n">
         <v>1.17</v>
@@ -39676,7 +39676,7 @@
         <v>2.36</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU193" t="n">
         <v>1.79</v>
@@ -39879,7 +39879,7 @@
         <v>2.55</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU194" t="n">
         <v>1.72</v>
@@ -40079,10 +40079,10 @@
         <v>1.1</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU195" t="n">
         <v>1.15</v>
@@ -41906,7 +41906,7 @@
         <v>1.55</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT204" t="n">
         <v>1.42</v>
@@ -42515,7 +42515,7 @@
         <v>2.4</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT207" t="n">
         <v>2.27</v>
@@ -42570,6 +42570,818 @@
       </c>
       <c r="BK207" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2547411</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44960.69791666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>24</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['32', '89']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>3</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2</v>
+      </c>
+      <c r="S208" t="n">
+        <v>5</v>
+      </c>
+      <c r="T208" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2547406</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F209" t="n">
+        <v>24</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>4</v>
+      </c>
+      <c r="R209" t="n">
+        <v>1</v>
+      </c>
+      <c r="S209" t="n">
+        <v>5</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X209" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2547410</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>44961.59375</v>
+      </c>
+      <c r="F210" t="n">
+        <v>24</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>AS Eupen</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>4</v>
+      </c>
+      <c r="R210" t="n">
+        <v>7</v>
+      </c>
+      <c r="S210" t="n">
+        <v>11</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X210" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2547405</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>44961.59375</v>
+      </c>
+      <c r="F211" t="n">
+        <v>24</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['5', '85']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>7</v>
+      </c>
+      <c r="R211" t="n">
+        <v>11</v>
+      </c>
+      <c r="S211" t="n">
+        <v>18</v>
+      </c>
+      <c r="T211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X211" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT6" t="n">
         <v>2.17</v>
@@ -1918,7 +1918,7 @@
         <v>1.92</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT8" t="n">
         <v>1.5</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT15" t="n">
         <v>1.67</v>
@@ -3948,7 +3948,7 @@
         <v>0.92</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.42</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.92</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU20" t="n">
         <v>1.92</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT24" t="n">
         <v>2.17</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT26" t="n">
         <v>1.25</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT28" t="n">
         <v>1.23</v>
@@ -6993,7 +6993,7 @@
         <v>0.42</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU33" t="n">
         <v>2.11</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT34" t="n">
         <v>1.42</v>
@@ -7805,7 +7805,7 @@
         <v>1.36</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.75</v>
@@ -8008,7 +8008,7 @@
         <v>0.92</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU37" t="n">
         <v>2.29</v>
@@ -8820,7 +8820,7 @@
         <v>1.92</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU41" t="n">
         <v>2.06</v>
@@ -9023,7 +9023,7 @@
         <v>0.92</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU42" t="n">
         <v>1.95</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT44" t="n">
         <v>1.25</v>
@@ -9632,7 +9632,7 @@
         <v>1.18</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.68</v>
@@ -9835,7 +9835,7 @@
         <v>0.42</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU46" t="n">
         <v>1.6</v>
@@ -10038,7 +10038,7 @@
         <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU47" t="n">
         <v>1.7</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT49" t="n">
         <v>0.4</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT50" t="n">
         <v>1.5</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT52" t="n">
         <v>1.42</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT54" t="n">
         <v>2.17</v>
@@ -12271,7 +12271,7 @@
         <v>0.92</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU58" t="n">
         <v>1.88</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT59" t="n">
         <v>1.08</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT62" t="n">
         <v>1.25</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT65" t="n">
         <v>1.25</v>
@@ -14098,7 +14098,7 @@
         <v>0.42</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -14504,7 +14504,7 @@
         <v>1.36</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU69" t="n">
         <v>1.62</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15313,10 +15313,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT74" t="n">
         <v>1.08</v>
@@ -15719,7 +15719,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT75" t="n">
         <v>1.23</v>
@@ -16940,7 +16940,7 @@
         <v>1.92</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.72</v>
@@ -17143,7 +17143,7 @@
         <v>1.17</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU82" t="n">
         <v>1.79</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17955,7 +17955,7 @@
         <v>1.67</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -18361,7 +18361,7 @@
         <v>1.17</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT89" t="n">
         <v>1.17</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT91" t="n">
         <v>0.92</v>
@@ -19170,7 +19170,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT92" t="n">
         <v>1.67</v>
@@ -19376,7 +19376,7 @@
         <v>2.83</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU93" t="n">
         <v>2.06</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT97" t="n">
         <v>1.42</v>
@@ -20794,7 +20794,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT100" t="n">
         <v>1.17</v>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21606,10 +21606,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.71</v>
@@ -21812,7 +21812,7 @@
         <v>1.36</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU105" t="n">
         <v>1.47</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT107" t="n">
         <v>0.4</v>
@@ -22421,7 +22421,7 @@
         <v>1.17</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -23030,7 +23030,7 @@
         <v>1.18</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU111" t="n">
         <v>1.64</v>
@@ -23636,7 +23636,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT114" t="n">
         <v>1.42</v>
@@ -23839,7 +23839,7 @@
         <v>1.8</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT115" t="n">
         <v>1.25</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24654,7 +24654,7 @@
         <v>1.67</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU119" t="n">
         <v>1.89</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT121" t="n">
         <v>0.92</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT122" t="n">
         <v>1.23</v>
@@ -25463,10 +25463,10 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU123" t="n">
         <v>1.75</v>
@@ -25666,10 +25666,10 @@
         <v>2.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU124" t="n">
         <v>1.71</v>
@@ -25869,7 +25869,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT125" t="n">
         <v>1.08</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -28308,7 +28308,7 @@
         <v>2.83</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU137" t="n">
         <v>2.22</v>
@@ -28508,10 +28508,10 @@
         <v>0.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU138" t="n">
         <v>1.71</v>
@@ -29320,10 +29320,10 @@
         <v>1.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.84</v>
@@ -29523,7 +29523,7 @@
         <v>1.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT143" t="n">
         <v>1.25</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT144" t="n">
         <v>1.42</v>
@@ -29932,7 +29932,7 @@
         <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU145" t="n">
         <v>1.48</v>
@@ -30538,7 +30538,7 @@
         <v>0.88</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT148" t="n">
         <v>1.17</v>
@@ -31353,7 +31353,7 @@
         <v>1.17</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU152" t="n">
         <v>1.82</v>
@@ -31959,7 +31959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT155" t="n">
         <v>1.25</v>
@@ -32162,7 +32162,7 @@
         <v>1.11</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT156" t="n">
         <v>1.17</v>
@@ -32568,7 +32568,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT158" t="n">
         <v>0.5</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU159" t="n">
         <v>1.37</v>
@@ -33177,10 +33177,10 @@
         <v>0.75</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU161" t="n">
         <v>1.54</v>
@@ -33789,7 +33789,7 @@
         <v>0.92</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU164" t="n">
         <v>1.83</v>
@@ -34395,7 +34395,7 @@
         <v>1.56</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT167" t="n">
         <v>1.42</v>
@@ -34601,7 +34601,7 @@
         <v>2.83</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU168" t="n">
         <v>2.18</v>
@@ -35210,7 +35210,7 @@
         <v>1.36</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU171" t="n">
         <v>1.83</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT174" t="n">
         <v>0.5</v>
@@ -36225,7 +36225,7 @@
         <v>2.83</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU176" t="n">
         <v>2.14</v>
@@ -36628,10 +36628,10 @@
         <v>1.11</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU178" t="n">
         <v>1.87</v>
@@ -36831,7 +36831,7 @@
         <v>1.56</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT179" t="n">
         <v>1.5</v>
@@ -37646,7 +37646,7 @@
         <v>1.67</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU183" t="n">
         <v>1.72</v>
@@ -38458,7 +38458,7 @@
         <v>1.17</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU187" t="n">
         <v>1.68</v>
@@ -38658,10 +38658,10 @@
         <v>1.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU188" t="n">
         <v>1.87</v>
@@ -38861,10 +38861,10 @@
         <v>1.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU189" t="n">
         <v>1.55</v>
@@ -39470,10 +39470,10 @@
         <v>1</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU192" t="n">
         <v>1.89</v>
@@ -39673,7 +39673,7 @@
         <v>1.45</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT193" t="n">
         <v>1.23</v>
@@ -39876,7 +39876,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT194" t="n">
         <v>1.25</v>
@@ -40285,7 +40285,7 @@
         <v>1.92</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU196" t="n">
         <v>2.08</v>
@@ -40485,7 +40485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT197" t="n">
         <v>1.42</v>
@@ -42112,7 +42112,7 @@
         <v>0.92</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU205" t="n">
         <v>1.47</v>
@@ -42518,7 +42518,7 @@
         <v>0.92</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AU207" t="n">
         <v>1.67</v>
@@ -43382,6 +43382,1021 @@
       </c>
       <c r="BK211" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2547409</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>44961.69791666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>24</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>2</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2</v>
+      </c>
+      <c r="S212" t="n">
+        <v>4</v>
+      </c>
+      <c r="T212" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X212" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2547404</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>44962.39583333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>24</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>2</v>
+      </c>
+      <c r="R213" t="n">
+        <v>5</v>
+      </c>
+      <c r="S213" t="n">
+        <v>7</v>
+      </c>
+      <c r="T213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X213" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2547408</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>44962.5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>24</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="n">
+        <v>4</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['5', '27']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['66', '67']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>4</v>
+      </c>
+      <c r="R214" t="n">
+        <v>7</v>
+      </c>
+      <c r="S214" t="n">
+        <v>11</v>
+      </c>
+      <c r="T214" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2547403</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>44962.60416666666</v>
+      </c>
+      <c r="F215" t="n">
+        <v>24</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>2</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="n">
+        <v>3</v>
+      </c>
+      <c r="N215" t="n">
+        <v>5</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['9', '88']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['23', '67', '86']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>4</v>
+      </c>
+      <c r="R215" t="n">
+        <v>3</v>
+      </c>
+      <c r="S215" t="n">
+        <v>7</v>
+      </c>
+      <c r="T215" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X215" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2547407</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>44962.63541666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>24</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>4</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>4</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['9', '55', '79', '89']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>2</v>
+      </c>
+      <c r="R216" t="n">
+        <v>3</v>
+      </c>
+      <c r="S216" t="n">
+        <v>5</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,18 @@
     <t>['9', '55', '79', '89']</t>
   </si>
   <si>
+    <t>['86', '90+1']</t>
+  </si>
+  <si>
+    <t>['16', '35', '47']</t>
+  </si>
+  <si>
+    <t>['18', '52', '61']</t>
+  </si>
+  <si>
+    <t>['66', '81', '83']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -1052,6 +1064,9 @@
   </si>
   <si>
     <t>['23', '67', '86']</t>
+  </si>
+  <si>
+    <t>['14', '30', '66']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1657,7 +1672,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1747,7 +1762,7 @@
         <v>1.92</v>
       </c>
       <c r="AT2">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1848,7 +1863,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1935,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
         <v>0.92</v>
@@ -2039,7 +2054,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2320,7 +2335,7 @@
         <v>0.92</v>
       </c>
       <c r="AT5">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2511,7 +2526,7 @@
         <v>1.25</v>
       </c>
       <c r="AT6">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2612,7 +2627,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2699,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT7">
         <v>2.33</v>
@@ -2803,7 +2818,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2893,7 +2908,7 @@
         <v>1.69</v>
       </c>
       <c r="AT8">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3081,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT9">
         <v>0.5</v>
@@ -3272,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT10">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3845,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>1.25</v>
@@ -4039,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4140,7 +4155,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4230,7 +4245,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4331,7 +4346,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4418,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT16">
         <v>1.25</v>
@@ -4522,7 +4537,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4609,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4713,7 +4728,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5182,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT20">
         <v>0.75</v>
@@ -5286,7 +5301,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5373,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT21">
         <v>0.92</v>
@@ -5567,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU22">
         <v>1.47</v>
@@ -5668,7 +5683,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5755,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT23">
         <v>0.5</v>
@@ -5949,7 +5964,7 @@
         <v>1.69</v>
       </c>
       <c r="AT24">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU24">
         <v>1.52</v>
@@ -6140,7 +6155,7 @@
         <v>1.92</v>
       </c>
       <c r="AT25">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU25">
         <v>1.02</v>
@@ -6432,7 +6447,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6519,10 +6534,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT27">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.46</v>
@@ -6623,7 +6638,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6814,7 +6829,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6904,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="AT29">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU29">
         <v>1.58</v>
@@ -7005,7 +7020,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7092,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT30">
         <v>1.25</v>
@@ -7286,7 +7301,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU31">
         <v>1.73</v>
@@ -7387,7 +7402,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7769,7 +7784,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7960,7 +7975,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8047,10 +8062,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT35">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU35">
         <v>1.92</v>
@@ -8151,7 +8166,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8238,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT36">
         <v>1.5</v>
@@ -8342,7 +8357,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8533,7 +8548,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8620,10 +8635,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT38">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>1.9</v>
@@ -8814,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU39">
         <v>1.41</v>
@@ -8915,7 +8930,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9002,10 +9017,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT40">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU40">
         <v>2.52</v>
@@ -9106,7 +9121,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -9193,7 +9208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT41">
         <v>0.83</v>
@@ -9297,7 +9312,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9488,7 +9503,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9679,7 +9694,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9870,7 +9885,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9957,7 +9972,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
         <v>1.5</v>
@@ -10061,7 +10076,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10252,7 +10267,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10530,7 +10545,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT48">
         <v>0.5</v>
@@ -10724,7 +10739,7 @@
         <v>1.25</v>
       </c>
       <c r="AT49">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU49">
         <v>1.49</v>
@@ -10825,7 +10840,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10915,7 +10930,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU50">
         <v>1.72</v>
@@ -11398,7 +11413,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11485,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT53">
         <v>0.92</v>
@@ -11589,7 +11604,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11679,7 +11694,7 @@
         <v>2.42</v>
       </c>
       <c r="AT54">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -11867,10 +11882,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT55">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU55">
         <v>1.58</v>
@@ -12058,10 +12073,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT56">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU56">
         <v>2.27</v>
@@ -12249,10 +12264,10 @@
         <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT57">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU57">
         <v>2.23</v>
@@ -12353,7 +12368,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12440,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT58">
         <v>0.83</v>
@@ -12544,7 +12559,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12634,7 +12649,7 @@
         <v>1.69</v>
       </c>
       <c r="AT59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU59">
         <v>1.54</v>
@@ -12926,7 +12941,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13013,7 +13028,7 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT61">
         <v>1.23</v>
@@ -13308,7 +13323,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13395,10 +13410,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU63">
         <v>1.89</v>
@@ -13499,7 +13514,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13589,7 +13604,7 @@
         <v>0.92</v>
       </c>
       <c r="AT64">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13690,7 +13705,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13881,7 +13896,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13971,7 +13986,7 @@
         <v>1</v>
       </c>
       <c r="AT66">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU66">
         <v>1.29</v>
@@ -14072,7 +14087,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14454,7 +14469,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14541,7 +14556,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT69">
         <v>1.25</v>
@@ -14645,7 +14660,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14732,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT70">
         <v>1.42</v>
@@ -14836,7 +14851,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14926,7 +14941,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU71">
         <v>1.89</v>
@@ -15027,7 +15042,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15499,7 +15514,7 @@
         <v>2.42</v>
       </c>
       <c r="AT74">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>1.73</v>
@@ -15791,7 +15806,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15982,7 +15997,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -16072,7 +16087,7 @@
         <v>0.92</v>
       </c>
       <c r="AT77">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -16173,7 +16188,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16260,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT78">
         <v>1.25</v>
@@ -16451,10 +16466,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT79">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU79">
         <v>2.11</v>
@@ -16642,10 +16657,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT80">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU80">
         <v>1.97</v>
@@ -16937,7 +16952,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17024,7 +17039,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT82">
         <v>0.83</v>
@@ -17128,7 +17143,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17218,7 +17233,7 @@
         <v>1.92</v>
       </c>
       <c r="AT83">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>1.66</v>
@@ -17319,7 +17334,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17406,10 +17421,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU84">
         <v>1.57</v>
@@ -17510,7 +17525,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17788,7 +17803,7 @@
         <v>0.5</v>
       </c>
       <c r="AS86">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT86">
         <v>0.75</v>
@@ -17979,10 +17994,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT87">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU87">
         <v>2.1</v>
@@ -18083,7 +18098,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -18170,7 +18185,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT88">
         <v>1.25</v>
@@ -18274,7 +18289,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18364,7 +18379,7 @@
         <v>1.75</v>
       </c>
       <c r="AT89">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU89">
         <v>1.81</v>
@@ -18555,7 +18570,7 @@
         <v>1</v>
       </c>
       <c r="AT90">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU90">
         <v>1.38</v>
@@ -18656,7 +18671,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18937,7 +18952,7 @@
         <v>2.42</v>
       </c>
       <c r="AT92">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU92">
         <v>1.72</v>
@@ -19038,7 +19053,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19125,7 +19140,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT93">
         <v>0.83</v>
@@ -19229,7 +19244,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19611,7 +19626,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19698,7 +19713,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT96">
         <v>1.25</v>
@@ -19802,7 +19817,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19993,7 +20008,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20080,10 +20095,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT98">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU98">
         <v>1.83</v>
@@ -20271,7 +20286,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT99">
         <v>1.25</v>
@@ -20465,7 +20480,7 @@
         <v>2.42</v>
       </c>
       <c r="AT100">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU100">
         <v>1.79</v>
@@ -20566,7 +20581,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20653,10 +20668,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT101">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>1.71</v>
@@ -20757,7 +20772,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20948,7 +20963,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21330,7 +21345,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21417,7 +21432,7 @@
         <v>2.4</v>
       </c>
       <c r="AS105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
         <v>2.33</v>
@@ -21611,7 +21626,7 @@
         <v>1.92</v>
       </c>
       <c r="AT106">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU106">
         <v>1.67</v>
@@ -21802,7 +21817,7 @@
         <v>1.75</v>
       </c>
       <c r="AT107">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU107">
         <v>1.81</v>
@@ -21990,7 +22005,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT108">
         <v>1.5</v>
@@ -22094,7 +22109,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22184,7 +22199,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU109">
         <v>1.51</v>
@@ -22285,7 +22300,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22372,7 +22387,7 @@
         <v>1.83</v>
       </c>
       <c r="AS110">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT110">
         <v>1.23</v>
@@ -22476,7 +22491,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22563,7 +22578,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT111">
         <v>0.83</v>
@@ -22754,7 +22769,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT112">
         <v>1.25</v>
@@ -22948,7 +22963,7 @@
         <v>0.42</v>
       </c>
       <c r="AT113">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU113">
         <v>1.28</v>
@@ -23139,7 +23154,7 @@
         <v>2.42</v>
       </c>
       <c r="AT114">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU114">
         <v>1.74</v>
@@ -23518,10 +23533,10 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT116">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU116">
         <v>2.28</v>
@@ -23813,7 +23828,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24195,7 +24210,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24386,7 +24401,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24768,7 +24783,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24959,7 +24974,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25150,7 +25165,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25240,7 +25255,7 @@
         <v>1.75</v>
       </c>
       <c r="AT125">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.82</v>
@@ -25532,7 +25547,7 @@
         <v>174</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25810,10 +25825,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT128">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU128">
         <v>2.27</v>
@@ -25914,7 +25929,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26195,7 +26210,7 @@
         <v>1</v>
       </c>
       <c r="AT130">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU130">
         <v>1.33</v>
@@ -26296,7 +26311,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26383,10 +26398,10 @@
         <v>1.29</v>
       </c>
       <c r="AS131">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT131">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU131">
         <v>1.68</v>
@@ -26487,7 +26502,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26574,7 +26589,7 @@
         <v>0.71</v>
       </c>
       <c r="AS132">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT132">
         <v>0.5</v>
@@ -26678,7 +26693,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26765,7 +26780,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT133">
         <v>0.92</v>
@@ -26869,7 +26884,7 @@
         <v>92</v>
       </c>
       <c r="P134" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26959,7 +26974,7 @@
         <v>0.42</v>
       </c>
       <c r="AT134">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU134">
         <v>1.23</v>
@@ -27147,10 +27162,10 @@
         <v>1.43</v>
       </c>
       <c r="AS135">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT135">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU135">
         <v>1.61</v>
@@ -27338,10 +27353,10 @@
         <v>2</v>
       </c>
       <c r="AS136">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT136">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU136">
         <v>1.62</v>
@@ -27529,7 +27544,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT137">
         <v>1.25</v>
@@ -27633,7 +27648,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27824,7 +27839,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27914,7 +27929,7 @@
         <v>0.42</v>
       </c>
       <c r="AT139">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU139">
         <v>1.24</v>
@@ -28015,7 +28030,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28293,7 +28308,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT141">
         <v>1.25</v>
@@ -28588,7 +28603,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28970,7 +28985,7 @@
         <v>189</v>
       </c>
       <c r="P145" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29248,10 +29263,10 @@
         <v>1.25</v>
       </c>
       <c r="AS146">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT146">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU146">
         <v>1.61</v>
@@ -29439,7 +29454,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT147">
         <v>0.5</v>
@@ -29633,7 +29648,7 @@
         <v>1.25</v>
       </c>
       <c r="AT148">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU148">
         <v>1.59</v>
@@ -29734,7 +29749,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29925,7 +29940,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30012,10 +30027,10 @@
         <v>1.71</v>
       </c>
       <c r="AS150">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT150">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU150">
         <v>2.16</v>
@@ -30116,7 +30131,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30206,7 +30221,7 @@
         <v>1.92</v>
       </c>
       <c r="AT151">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU151">
         <v>1.57</v>
@@ -30307,7 +30322,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30394,7 +30409,7 @@
         <v>2.57</v>
       </c>
       <c r="AS152">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT152">
         <v>2.33</v>
@@ -30498,7 +30513,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30588,7 +30603,7 @@
         <v>1</v>
       </c>
       <c r="AT153">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU153">
         <v>1.39</v>
@@ -30689,7 +30704,7 @@
         <v>85</v>
       </c>
       <c r="P154" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31161,7 +31176,7 @@
         <v>1.69</v>
       </c>
       <c r="AT156">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU156">
         <v>1.8</v>
@@ -31262,7 +31277,7 @@
         <v>110</v>
       </c>
       <c r="P157" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31349,7 +31364,7 @@
         <v>1.33</v>
       </c>
       <c r="AS157">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT157">
         <v>1.23</v>
@@ -31835,7 +31850,7 @@
         <v>85</v>
       </c>
       <c r="P160" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31922,7 +31937,7 @@
         <v>0.88</v>
       </c>
       <c r="AS160">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT160">
         <v>1.42</v>
@@ -32217,7 +32232,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32304,10 +32319,10 @@
         <v>1.63</v>
       </c>
       <c r="AS162">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT162">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU162">
         <v>1.73</v>
@@ -32408,7 +32423,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q163">
         <v>9</v>
@@ -32498,7 +32513,7 @@
         <v>1.92</v>
       </c>
       <c r="AT163">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU163">
         <v>1.59</v>
@@ -32599,7 +32614,7 @@
         <v>171</v>
       </c>
       <c r="P164" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32686,7 +32701,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT164">
         <v>1.25</v>
@@ -32790,7 +32805,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32981,7 +32996,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33071,7 +33086,7 @@
         <v>1</v>
       </c>
       <c r="AT166">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1.61</v>
@@ -33262,7 +33277,7 @@
         <v>2.42</v>
       </c>
       <c r="AT167">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU167">
         <v>1.72</v>
@@ -33450,7 +33465,7 @@
         <v>1.63</v>
       </c>
       <c r="AS168">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT168">
         <v>1.5</v>
@@ -33644,7 +33659,7 @@
         <v>0.92</v>
       </c>
       <c r="AT169">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU169">
         <v>1.41</v>
@@ -33745,7 +33760,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -33832,10 +33847,10 @@
         <v>2.11</v>
       </c>
       <c r="AS170">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT170">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU170">
         <v>1.79</v>
@@ -33936,7 +33951,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34023,7 +34038,7 @@
         <v>0.88</v>
       </c>
       <c r="AS171">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT171">
         <v>0.83</v>
@@ -34127,7 +34142,7 @@
         <v>176</v>
       </c>
       <c r="P172" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34214,7 +34229,7 @@
         <v>1.3</v>
       </c>
       <c r="AS172">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT172">
         <v>1.23</v>
@@ -34318,7 +34333,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34700,7 +34715,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34787,10 +34802,10 @@
         <v>1.6</v>
       </c>
       <c r="AS175">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT175">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU175">
         <v>1.76</v>
@@ -34978,7 +34993,7 @@
         <v>0.67</v>
       </c>
       <c r="AS176">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT176">
         <v>0.75</v>
@@ -35169,7 +35184,7 @@
         <v>1.11</v>
       </c>
       <c r="AS177">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT177">
         <v>1.42</v>
@@ -35554,7 +35569,7 @@
         <v>2.42</v>
       </c>
       <c r="AT179">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU179">
         <v>1.77</v>
@@ -35655,7 +35670,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -35742,10 +35757,10 @@
         <v>1.1</v>
       </c>
       <c r="AS180">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT180">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU180">
         <v>1.52</v>
@@ -35933,7 +35948,7 @@
         <v>1</v>
       </c>
       <c r="AS181">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT181">
         <v>0.92</v>
@@ -36127,7 +36142,7 @@
         <v>1.92</v>
       </c>
       <c r="AT182">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU182">
         <v>1.56</v>
@@ -36228,7 +36243,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36315,7 +36330,7 @@
         <v>2.33</v>
       </c>
       <c r="AS183">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT183">
         <v>2.33</v>
@@ -36419,7 +36434,7 @@
         <v>98</v>
       </c>
       <c r="P184" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36509,7 +36524,7 @@
         <v>1.67</v>
       </c>
       <c r="AT184">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU184">
         <v>1.79</v>
@@ -36610,7 +36625,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36700,7 +36715,7 @@
         <v>1</v>
       </c>
       <c r="AT185">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU185">
         <v>1.64</v>
@@ -36801,7 +36816,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36891,7 +36906,7 @@
         <v>1</v>
       </c>
       <c r="AT186">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU186">
         <v>1.46</v>
@@ -36992,7 +37007,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37079,7 +37094,7 @@
         <v>0.6</v>
       </c>
       <c r="AS187">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT187">
         <v>0.75</v>
@@ -37756,7 +37771,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37846,7 +37861,7 @@
         <v>1</v>
       </c>
       <c r="AT191">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU191">
         <v>1.67</v>
@@ -37947,7 +37962,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q192">
         <v>9</v>
@@ -38329,7 +38344,7 @@
         <v>221</v>
       </c>
       <c r="P194" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38520,7 +38535,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38711,7 +38726,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38798,7 +38813,7 @@
         <v>1.3</v>
       </c>
       <c r="AS196">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT196">
         <v>1.25</v>
@@ -38902,7 +38917,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -38992,7 +39007,7 @@
         <v>1.25</v>
       </c>
       <c r="AT197">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU197">
         <v>1.54</v>
@@ -39371,10 +39386,10 @@
         <v>0.44</v>
       </c>
       <c r="AS199">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT199">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU199">
         <v>1.74</v>
@@ -39562,10 +39577,10 @@
         <v>1.73</v>
       </c>
       <c r="AS200">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT200">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU200">
         <v>1.81</v>
@@ -39666,7 +39681,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -39857,7 +39872,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -39944,10 +39959,10 @@
         <v>2.09</v>
       </c>
       <c r="AS202">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT202">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AU202">
         <v>1.53</v>
@@ -40135,10 +40150,10 @@
         <v>1.55</v>
       </c>
       <c r="AS203">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT203">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU203">
         <v>1.75</v>
@@ -40239,7 +40254,7 @@
         <v>227</v>
       </c>
       <c r="P204" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40329,7 +40344,7 @@
         <v>1.67</v>
       </c>
       <c r="AT204">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU204">
         <v>1.71</v>
@@ -40430,7 +40445,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40708,10 +40723,10 @@
         <v>1.18</v>
       </c>
       <c r="AS206">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AT206">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU206">
         <v>2.06</v>
@@ -40899,7 +40914,7 @@
         <v>2.4</v>
       </c>
       <c r="AS207">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT207">
         <v>2.33</v>
@@ -41003,7 +41018,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41194,7 +41209,7 @@
         <v>115</v>
       </c>
       <c r="P209" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41385,7 +41400,7 @@
         <v>98</v>
       </c>
       <c r="P210" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41472,7 +41487,7 @@
         <v>1.27</v>
       </c>
       <c r="AS210">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT210">
         <v>1.25</v>
@@ -41576,7 +41591,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -42149,7 +42164,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42340,7 +42355,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42673,6 +42688,1343 @@
       </c>
       <c r="BK216">
         <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2547416</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44967.66666666666</v>
+      </c>
+      <c r="F217">
+        <v>25</v>
+      </c>
+      <c r="G217" t="s">
+        <v>76</v>
+      </c>
+      <c r="H217" t="s">
+        <v>75</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217" t="s">
+        <v>85</v>
+      </c>
+      <c r="P217" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q217">
+        <v>5</v>
+      </c>
+      <c r="R217">
+        <v>7</v>
+      </c>
+      <c r="S217">
+        <v>12</v>
+      </c>
+      <c r="T217">
+        <v>3</v>
+      </c>
+      <c r="U217">
+        <v>2.2</v>
+      </c>
+      <c r="V217">
+        <v>3.4</v>
+      </c>
+      <c r="W217">
+        <v>1.36</v>
+      </c>
+      <c r="X217">
+        <v>3</v>
+      </c>
+      <c r="Y217">
+        <v>2.75</v>
+      </c>
+      <c r="Z217">
+        <v>1.4</v>
+      </c>
+      <c r="AA217">
+        <v>7</v>
+      </c>
+      <c r="AB217">
+        <v>1.1</v>
+      </c>
+      <c r="AC217">
+        <v>2.15</v>
+      </c>
+      <c r="AD217">
+        <v>3.25</v>
+      </c>
+      <c r="AE217">
+        <v>2.85</v>
+      </c>
+      <c r="AF217">
+        <v>1.04</v>
+      </c>
+      <c r="AG217">
+        <v>12</v>
+      </c>
+      <c r="AH217">
+        <v>1.28</v>
+      </c>
+      <c r="AI217">
+        <v>3.6</v>
+      </c>
+      <c r="AJ217">
+        <v>1.75</v>
+      </c>
+      <c r="AK217">
+        <v>1.91</v>
+      </c>
+      <c r="AL217">
+        <v>1.67</v>
+      </c>
+      <c r="AM217">
+        <v>2.1</v>
+      </c>
+      <c r="AN217">
+        <v>1.44</v>
+      </c>
+      <c r="AO217">
+        <v>1.25</v>
+      </c>
+      <c r="AP217">
+        <v>1.57</v>
+      </c>
+      <c r="AQ217">
+        <v>1.36</v>
+      </c>
+      <c r="AR217">
+        <v>1.17</v>
+      </c>
+      <c r="AS217">
+        <v>1.33</v>
+      </c>
+      <c r="AT217">
+        <v>1.15</v>
+      </c>
+      <c r="AU217">
+        <v>1.82</v>
+      </c>
+      <c r="AV217">
+        <v>1.4</v>
+      </c>
+      <c r="AW217">
+        <v>3.22</v>
+      </c>
+      <c r="AX217">
+        <v>1.91</v>
+      </c>
+      <c r="AY217">
+        <v>8</v>
+      </c>
+      <c r="AZ217">
+        <v>2.1</v>
+      </c>
+      <c r="BA217">
+        <v>1.14</v>
+      </c>
+      <c r="BB217">
+        <v>1.27</v>
+      </c>
+      <c r="BC217">
+        <v>1.57</v>
+      </c>
+      <c r="BD217">
+        <v>2</v>
+      </c>
+      <c r="BE217">
+        <v>2.4</v>
+      </c>
+      <c r="BF217">
+        <v>2</v>
+      </c>
+      <c r="BG217">
+        <v>5</v>
+      </c>
+      <c r="BH217">
+        <v>6</v>
+      </c>
+      <c r="BI217">
+        <v>7</v>
+      </c>
+      <c r="BJ217">
+        <v>8</v>
+      </c>
+      <c r="BK217">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2547412</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44967.69791666666</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>70</v>
+      </c>
+      <c r="H218" t="s">
+        <v>74</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>2</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>110</v>
+      </c>
+      <c r="P218" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q218">
+        <v>5</v>
+      </c>
+      <c r="R218">
+        <v>3</v>
+      </c>
+      <c r="S218">
+        <v>8</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>2.2</v>
+      </c>
+      <c r="V218">
+        <v>3.5</v>
+      </c>
+      <c r="W218">
+        <v>1.36</v>
+      </c>
+      <c r="X218">
+        <v>3</v>
+      </c>
+      <c r="Y218">
+        <v>2.75</v>
+      </c>
+      <c r="Z218">
+        <v>1.4</v>
+      </c>
+      <c r="AA218">
+        <v>7</v>
+      </c>
+      <c r="AB218">
+        <v>1.1</v>
+      </c>
+      <c r="AC218">
+        <v>2.3</v>
+      </c>
+      <c r="AD218">
+        <v>3.3</v>
+      </c>
+      <c r="AE218">
+        <v>2.55</v>
+      </c>
+      <c r="AF218">
+        <v>1.04</v>
+      </c>
+      <c r="AG218">
+        <v>12</v>
+      </c>
+      <c r="AH218">
+        <v>1.28</v>
+      </c>
+      <c r="AI218">
+        <v>3.75</v>
+      </c>
+      <c r="AJ218">
+        <v>1.75</v>
+      </c>
+      <c r="AK218">
+        <v>1.9</v>
+      </c>
+      <c r="AL218">
+        <v>1.67</v>
+      </c>
+      <c r="AM218">
+        <v>2.1</v>
+      </c>
+      <c r="AN218">
+        <v>1.4</v>
+      </c>
+      <c r="AO218">
+        <v>1.29</v>
+      </c>
+      <c r="AP218">
+        <v>1.58</v>
+      </c>
+      <c r="AQ218">
+        <v>1.92</v>
+      </c>
+      <c r="AR218">
+        <v>2.17</v>
+      </c>
+      <c r="AS218">
+        <v>1.85</v>
+      </c>
+      <c r="AT218">
+        <v>2.08</v>
+      </c>
+      <c r="AU218">
+        <v>2.04</v>
+      </c>
+      <c r="AV218">
+        <v>1.59</v>
+      </c>
+      <c r="AW218">
+        <v>3.63</v>
+      </c>
+      <c r="AX218">
+        <v>1.73</v>
+      </c>
+      <c r="AY218">
+        <v>8</v>
+      </c>
+      <c r="AZ218">
+        <v>2.38</v>
+      </c>
+      <c r="BA218">
+        <v>1.2</v>
+      </c>
+      <c r="BB218">
+        <v>1.48</v>
+      </c>
+      <c r="BC218">
+        <v>1.73</v>
+      </c>
+      <c r="BD218">
+        <v>2.1</v>
+      </c>
+      <c r="BE218">
+        <v>2.7</v>
+      </c>
+      <c r="BF218">
+        <v>2</v>
+      </c>
+      <c r="BG218">
+        <v>3</v>
+      </c>
+      <c r="BH218">
+        <v>8</v>
+      </c>
+      <c r="BI218">
+        <v>18</v>
+      </c>
+      <c r="BJ218">
+        <v>10</v>
+      </c>
+      <c r="BK218">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2547420</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44967.69791666666</v>
+      </c>
+      <c r="F219">
+        <v>25</v>
+      </c>
+      <c r="G219" t="s">
+        <v>80</v>
+      </c>
+      <c r="H219" t="s">
+        <v>71</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>236</v>
+      </c>
+      <c r="P219" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q219">
+        <v>3</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>5</v>
+      </c>
+      <c r="T219">
+        <v>3.25</v>
+      </c>
+      <c r="U219">
+        <v>2.25</v>
+      </c>
+      <c r="V219">
+        <v>3</v>
+      </c>
+      <c r="W219">
+        <v>1.33</v>
+      </c>
+      <c r="X219">
+        <v>3.25</v>
+      </c>
+      <c r="Y219">
+        <v>2.63</v>
+      </c>
+      <c r="Z219">
+        <v>1.44</v>
+      </c>
+      <c r="AA219">
+        <v>6.5</v>
+      </c>
+      <c r="AB219">
+        <v>1.11</v>
+      </c>
+      <c r="AC219">
+        <v>2.6</v>
+      </c>
+      <c r="AD219">
+        <v>3.15</v>
+      </c>
+      <c r="AE219">
+        <v>2.35</v>
+      </c>
+      <c r="AF219">
+        <v>1.03</v>
+      </c>
+      <c r="AG219">
+        <v>13</v>
+      </c>
+      <c r="AH219">
+        <v>1.25</v>
+      </c>
+      <c r="AI219">
+        <v>3.75</v>
+      </c>
+      <c r="AJ219">
+        <v>1.76</v>
+      </c>
+      <c r="AK219">
+        <v>1.89</v>
+      </c>
+      <c r="AL219">
+        <v>1.62</v>
+      </c>
+      <c r="AM219">
+        <v>2.2</v>
+      </c>
+      <c r="AN219">
+        <v>1.5</v>
+      </c>
+      <c r="AO219">
+        <v>1.29</v>
+      </c>
+      <c r="AP219">
+        <v>1.47</v>
+      </c>
+      <c r="AQ219">
+        <v>0.92</v>
+      </c>
+      <c r="AR219">
+        <v>0.4</v>
+      </c>
+      <c r="AS219">
+        <v>1.08</v>
+      </c>
+      <c r="AT219">
+        <v>0.36</v>
+      </c>
+      <c r="AU219">
+        <v>1.6</v>
+      </c>
+      <c r="AV219">
+        <v>1.19</v>
+      </c>
+      <c r="AW219">
+        <v>2.79</v>
+      </c>
+      <c r="AX219">
+        <v>1.91</v>
+      </c>
+      <c r="AY219">
+        <v>8.5</v>
+      </c>
+      <c r="AZ219">
+        <v>2.1</v>
+      </c>
+      <c r="BA219">
+        <v>1.11</v>
+      </c>
+      <c r="BB219">
+        <v>1.24</v>
+      </c>
+      <c r="BC219">
+        <v>1.5</v>
+      </c>
+      <c r="BD219">
+        <v>1.83</v>
+      </c>
+      <c r="BE219">
+        <v>2.25</v>
+      </c>
+      <c r="BF219">
+        <v>4</v>
+      </c>
+      <c r="BG219">
+        <v>4</v>
+      </c>
+      <c r="BH219">
+        <v>8</v>
+      </c>
+      <c r="BI219">
+        <v>12</v>
+      </c>
+      <c r="BJ219">
+        <v>12</v>
+      </c>
+      <c r="BK219">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2547418</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F220">
+        <v>25</v>
+      </c>
+      <c r="G220" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220" t="s">
+        <v>78</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>2</v>
+      </c>
+      <c r="K220">
+        <v>4</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>3</v>
+      </c>
+      <c r="N220">
+        <v>6</v>
+      </c>
+      <c r="O220" t="s">
+        <v>237</v>
+      </c>
+      <c r="P220" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q220">
+        <v>3</v>
+      </c>
+      <c r="R220">
+        <v>6</v>
+      </c>
+      <c r="S220">
+        <v>9</v>
+      </c>
+      <c r="T220">
+        <v>3.5</v>
+      </c>
+      <c r="U220">
+        <v>2.1</v>
+      </c>
+      <c r="V220">
+        <v>3.1</v>
+      </c>
+      <c r="W220">
+        <v>1.4</v>
+      </c>
+      <c r="X220">
+        <v>2.75</v>
+      </c>
+      <c r="Y220">
+        <v>3</v>
+      </c>
+      <c r="Z220">
+        <v>1.36</v>
+      </c>
+      <c r="AA220">
+        <v>8</v>
+      </c>
+      <c r="AB220">
+        <v>1.08</v>
+      </c>
+      <c r="AC220">
+        <v>2.71</v>
+      </c>
+      <c r="AD220">
+        <v>3.3</v>
+      </c>
+      <c r="AE220">
+        <v>2.28</v>
+      </c>
+      <c r="AF220">
+        <v>1.05</v>
+      </c>
+      <c r="AG220">
+        <v>10</v>
+      </c>
+      <c r="AH220">
+        <v>1.33</v>
+      </c>
+      <c r="AI220">
+        <v>3.25</v>
+      </c>
+      <c r="AJ220">
+        <v>1.96</v>
+      </c>
+      <c r="AK220">
+        <v>1.74</v>
+      </c>
+      <c r="AL220">
+        <v>1.8</v>
+      </c>
+      <c r="AM220">
+        <v>1.95</v>
+      </c>
+      <c r="AN220">
+        <v>1.55</v>
+      </c>
+      <c r="AO220">
+        <v>1.3</v>
+      </c>
+      <c r="AP220">
+        <v>1.41</v>
+      </c>
+      <c r="AQ220">
+        <v>1.67</v>
+      </c>
+      <c r="AR220">
+        <v>1.42</v>
+      </c>
+      <c r="AS220">
+        <v>1.62</v>
+      </c>
+      <c r="AT220">
+        <v>1.38</v>
+      </c>
+      <c r="AU220">
+        <v>1.79</v>
+      </c>
+      <c r="AV220">
+        <v>1.48</v>
+      </c>
+      <c r="AW220">
+        <v>3.27</v>
+      </c>
+      <c r="AX220">
+        <v>2.1</v>
+      </c>
+      <c r="AY220">
+        <v>8</v>
+      </c>
+      <c r="AZ220">
+        <v>1.95</v>
+      </c>
+      <c r="BA220">
+        <v>1.14</v>
+      </c>
+      <c r="BB220">
+        <v>1.27</v>
+      </c>
+      <c r="BC220">
+        <v>1.57</v>
+      </c>
+      <c r="BD220">
+        <v>2</v>
+      </c>
+      <c r="BE220">
+        <v>2.4</v>
+      </c>
+      <c r="BF220">
+        <v>6</v>
+      </c>
+      <c r="BG220">
+        <v>10</v>
+      </c>
+      <c r="BH220">
+        <v>5</v>
+      </c>
+      <c r="BI220">
+        <v>5</v>
+      </c>
+      <c r="BJ220">
+        <v>11</v>
+      </c>
+      <c r="BK220">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2547419</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44968.59375</v>
+      </c>
+      <c r="F221">
+        <v>25</v>
+      </c>
+      <c r="G221" t="s">
+        <v>66</v>
+      </c>
+      <c r="H221" t="s">
+        <v>81</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>3</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>238</v>
+      </c>
+      <c r="P221" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q221">
+        <v>10</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>12</v>
+      </c>
+      <c r="T221">
+        <v>2.1</v>
+      </c>
+      <c r="U221">
+        <v>2.3</v>
+      </c>
+      <c r="V221">
+        <v>6</v>
+      </c>
+      <c r="W221">
+        <v>1.36</v>
+      </c>
+      <c r="X221">
+        <v>3</v>
+      </c>
+      <c r="Y221">
+        <v>2.63</v>
+      </c>
+      <c r="Z221">
+        <v>1.44</v>
+      </c>
+      <c r="AA221">
+        <v>7</v>
+      </c>
+      <c r="AB221">
+        <v>1.1</v>
+      </c>
+      <c r="AC221">
+        <v>1.47</v>
+      </c>
+      <c r="AD221">
+        <v>4.1</v>
+      </c>
+      <c r="AE221">
+        <v>5.35</v>
+      </c>
+      <c r="AF221">
+        <v>1.03</v>
+      </c>
+      <c r="AG221">
+        <v>13</v>
+      </c>
+      <c r="AH221">
+        <v>1.25</v>
+      </c>
+      <c r="AI221">
+        <v>3.75</v>
+      </c>
+      <c r="AJ221">
+        <v>1.77</v>
+      </c>
+      <c r="AK221">
+        <v>1.93</v>
+      </c>
+      <c r="AL221">
+        <v>1.95</v>
+      </c>
+      <c r="AM221">
+        <v>1.8</v>
+      </c>
+      <c r="AN221">
+        <v>1.13</v>
+      </c>
+      <c r="AO221">
+        <v>1.21</v>
+      </c>
+      <c r="AP221">
+        <v>2.45</v>
+      </c>
+      <c r="AQ221">
+        <v>1.18</v>
+      </c>
+      <c r="AR221">
+        <v>1.08</v>
+      </c>
+      <c r="AS221">
+        <v>1.33</v>
+      </c>
+      <c r="AT221">
+        <v>1</v>
+      </c>
+      <c r="AU221">
+        <v>1.47</v>
+      </c>
+      <c r="AV221">
+        <v>0.97</v>
+      </c>
+      <c r="AW221">
+        <v>2.44</v>
+      </c>
+      <c r="AX221">
+        <v>1.3</v>
+      </c>
+      <c r="AY221">
+        <v>9.5</v>
+      </c>
+      <c r="AZ221">
+        <v>4</v>
+      </c>
+      <c r="BA221">
+        <v>1.26</v>
+      </c>
+      <c r="BB221">
+        <v>1.57</v>
+      </c>
+      <c r="BC221">
+        <v>2</v>
+      </c>
+      <c r="BD221">
+        <v>2.4</v>
+      </c>
+      <c r="BE221">
+        <v>3.2</v>
+      </c>
+      <c r="BF221">
+        <v>6</v>
+      </c>
+      <c r="BG221">
+        <v>0</v>
+      </c>
+      <c r="BH221">
+        <v>9</v>
+      </c>
+      <c r="BI221">
+        <v>4</v>
+      </c>
+      <c r="BJ221">
+        <v>15</v>
+      </c>
+      <c r="BK221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2547415</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44969.39583333334</v>
+      </c>
+      <c r="F222">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>79</v>
+      </c>
+      <c r="H222" t="s">
+        <v>82</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222" t="s">
+        <v>85</v>
+      </c>
+      <c r="P222" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q222">
+        <v>9</v>
+      </c>
+      <c r="R222">
+        <v>3</v>
+      </c>
+      <c r="S222">
+        <v>12</v>
+      </c>
+      <c r="T222">
+        <v>2.6</v>
+      </c>
+      <c r="U222">
+        <v>2.25</v>
+      </c>
+      <c r="V222">
+        <v>4</v>
+      </c>
+      <c r="W222">
+        <v>1.33</v>
+      </c>
+      <c r="X222">
+        <v>3.25</v>
+      </c>
+      <c r="Y222">
+        <v>2.63</v>
+      </c>
+      <c r="Z222">
+        <v>1.44</v>
+      </c>
+      <c r="AA222">
+        <v>6.5</v>
+      </c>
+      <c r="AB222">
+        <v>1.11</v>
+      </c>
+      <c r="AC222">
+        <v>1.96</v>
+      </c>
+      <c r="AD222">
+        <v>3.6</v>
+      </c>
+      <c r="AE222">
+        <v>3.61</v>
+      </c>
+      <c r="AF222">
+        <v>1.03</v>
+      </c>
+      <c r="AG222">
+        <v>13</v>
+      </c>
+      <c r="AH222">
+        <v>1.25</v>
+      </c>
+      <c r="AI222">
+        <v>3.75</v>
+      </c>
+      <c r="AJ222">
+        <v>1.76</v>
+      </c>
+      <c r="AK222">
+        <v>1.99</v>
+      </c>
+      <c r="AL222">
+        <v>1.67</v>
+      </c>
+      <c r="AM222">
+        <v>2.1</v>
+      </c>
+      <c r="AN222">
+        <v>1.27</v>
+      </c>
+      <c r="AO222">
+        <v>1.28</v>
+      </c>
+      <c r="AP222">
+        <v>1.8</v>
+      </c>
+      <c r="AQ222">
+        <v>2.83</v>
+      </c>
+      <c r="AR222">
+        <v>1.5</v>
+      </c>
+      <c r="AS222">
+        <v>2.62</v>
+      </c>
+      <c r="AT222">
+        <v>1.62</v>
+      </c>
+      <c r="AU222">
+        <v>2.05</v>
+      </c>
+      <c r="AV222">
+        <v>1.51</v>
+      </c>
+      <c r="AW222">
+        <v>3.56</v>
+      </c>
+      <c r="AX222">
+        <v>1.59</v>
+      </c>
+      <c r="AY222">
+        <v>8</v>
+      </c>
+      <c r="AZ222">
+        <v>2.94</v>
+      </c>
+      <c r="BA222">
+        <v>1.21</v>
+      </c>
+      <c r="BB222">
+        <v>1.4</v>
+      </c>
+      <c r="BC222">
+        <v>1.73</v>
+      </c>
+      <c r="BD222">
+        <v>2.23</v>
+      </c>
+      <c r="BE222">
+        <v>2.98</v>
+      </c>
+      <c r="BF222">
+        <v>0</v>
+      </c>
+      <c r="BG222">
+        <v>4</v>
+      </c>
+      <c r="BH222">
+        <v>15</v>
+      </c>
+      <c r="BI222">
+        <v>5</v>
+      </c>
+      <c r="BJ222">
+        <v>15</v>
+      </c>
+      <c r="BK222">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2547413</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44969.5</v>
+      </c>
+      <c r="F223">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>72</v>
+      </c>
+      <c r="H223" t="s">
+        <v>69</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>4</v>
+      </c>
+      <c r="O223" t="s">
+        <v>239</v>
+      </c>
+      <c r="P223" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q223">
+        <v>4</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>6</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
+        <v>2.1</v>
+      </c>
+      <c r="V223">
+        <v>4.75</v>
+      </c>
+      <c r="W223">
+        <v>1.44</v>
+      </c>
+      <c r="X223">
+        <v>2.63</v>
+      </c>
+      <c r="Y223">
+        <v>3.25</v>
+      </c>
+      <c r="Z223">
+        <v>1.33</v>
+      </c>
+      <c r="AA223">
+        <v>9</v>
+      </c>
+      <c r="AB223">
+        <v>1.07</v>
+      </c>
+      <c r="AC223">
+        <v>1.88</v>
+      </c>
+      <c r="AD223">
+        <v>3.5</v>
+      </c>
+      <c r="AE223">
+        <v>4.04</v>
+      </c>
+      <c r="AF223">
+        <v>1.06</v>
+      </c>
+      <c r="AG223">
+        <v>10</v>
+      </c>
+      <c r="AH223">
+        <v>1.36</v>
+      </c>
+      <c r="AI223">
+        <v>3.2</v>
+      </c>
+      <c r="AJ223">
+        <v>2.02</v>
+      </c>
+      <c r="AK223">
+        <v>1.74</v>
+      </c>
+      <c r="AL223">
+        <v>1.95</v>
+      </c>
+      <c r="AM223">
+        <v>1.8</v>
+      </c>
+      <c r="AN223">
+        <v>1.24</v>
+      </c>
+      <c r="AO223">
+        <v>1.29</v>
+      </c>
+      <c r="AP223">
+        <v>1.85</v>
+      </c>
+      <c r="AQ223">
+        <v>1.17</v>
+      </c>
+      <c r="AR223">
+        <v>1.67</v>
+      </c>
+      <c r="AS223">
+        <v>1.31</v>
+      </c>
+      <c r="AT223">
+        <v>1.54</v>
+      </c>
+      <c r="AU223">
+        <v>1.67</v>
+      </c>
+      <c r="AV223">
+        <v>1.27</v>
+      </c>
+      <c r="AW223">
+        <v>2.94</v>
+      </c>
+      <c r="AX223">
+        <v>1.47</v>
+      </c>
+      <c r="AY223">
+        <v>8.1</v>
+      </c>
+      <c r="AZ223">
+        <v>3.44</v>
+      </c>
+      <c r="BA223">
+        <v>1.32</v>
+      </c>
+      <c r="BB223">
+        <v>1.61</v>
+      </c>
+      <c r="BC223">
+        <v>2.05</v>
+      </c>
+      <c r="BD223">
+        <v>2.69</v>
+      </c>
+      <c r="BE223">
+        <v>3.64</v>
+      </c>
+      <c r="BF223">
+        <v>9</v>
+      </c>
+      <c r="BG223">
+        <v>2</v>
+      </c>
+      <c r="BH223">
+        <v>15</v>
+      </c>
+      <c r="BI223">
+        <v>2</v>
+      </c>
+      <c r="BJ223">
+        <v>24</v>
+      </c>
+      <c r="BK223">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="352">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1068,6 +1068,9 @@
   <si>
     <t>['14', '30', '66']</t>
   </si>
+  <si>
+    <t>['67', '84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1428,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK223"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1759,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT2">
         <v>1.38</v>
@@ -3099,7 +3102,7 @@
         <v>1.31</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -4818,7 +4821,7 @@
         <v>0.42</v>
       </c>
       <c r="AT18">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5773,7 +5776,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU23">
         <v>1.49</v>
@@ -6152,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT25">
         <v>1.15</v>
@@ -7683,7 +7686,7 @@
         <v>2.42</v>
       </c>
       <c r="AT33">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>2.11</v>
@@ -9211,7 +9214,7 @@
         <v>1.85</v>
       </c>
       <c r="AT41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>2.06</v>
@@ -9590,7 +9593,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT43">
         <v>1.23</v>
@@ -10548,7 +10551,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU48">
         <v>1.63</v>
@@ -12458,7 +12461,7 @@
         <v>1.08</v>
       </c>
       <c r="AT58">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.88</v>
@@ -12837,10 +12840,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT60">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU60">
         <v>1.75</v>
@@ -15896,7 +15899,7 @@
         <v>1.67</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU76">
         <v>1.85</v>
@@ -16848,7 +16851,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT81">
         <v>1.5</v>
@@ -17042,7 +17045,7 @@
         <v>1.31</v>
       </c>
       <c r="AT82">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.79</v>
@@ -17230,7 +17233,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -19143,7 +19146,7 @@
         <v>2.62</v>
       </c>
       <c r="AT93">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>2.06</v>
@@ -19525,7 +19528,7 @@
         <v>0.42</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU95">
         <v>1.22</v>
@@ -21623,7 +21626,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT106">
         <v>1.62</v>
@@ -22581,7 +22584,7 @@
         <v>1.33</v>
       </c>
       <c r="AT111">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.64</v>
@@ -23727,7 +23730,7 @@
         <v>2.42</v>
       </c>
       <c r="AT117">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU117">
         <v>1.67</v>
@@ -25443,7 +25446,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT126">
         <v>1.42</v>
@@ -26592,7 +26595,7 @@
         <v>1.85</v>
       </c>
       <c r="AT132">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU132">
         <v>2.19</v>
@@ -29075,7 +29078,7 @@
         <v>1</v>
       </c>
       <c r="AT145">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU145">
         <v>1.48</v>
@@ -29457,7 +29460,7 @@
         <v>1.62</v>
       </c>
       <c r="AT147">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU147">
         <v>1.7</v>
@@ -30218,7 +30221,7 @@
         <v>2</v>
       </c>
       <c r="AS151">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT151">
         <v>2.08</v>
@@ -31558,7 +31561,7 @@
         <v>2.42</v>
       </c>
       <c r="AT158">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU158">
         <v>1.77</v>
@@ -32510,7 +32513,7 @@
         <v>1.67</v>
       </c>
       <c r="AS163">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT163">
         <v>1.54</v>
@@ -34041,7 +34044,7 @@
         <v>1.33</v>
       </c>
       <c r="AT171">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU171">
         <v>1.83</v>
@@ -34614,7 +34617,7 @@
         <v>1.69</v>
       </c>
       <c r="AT174">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU174">
         <v>1.89</v>
@@ -35378,7 +35381,7 @@
         <v>1.75</v>
       </c>
       <c r="AT178">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU178">
         <v>1.87</v>
@@ -36139,7 +36142,7 @@
         <v>0.5</v>
       </c>
       <c r="AS182">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT182">
         <v>0.36</v>
@@ -38052,7 +38055,7 @@
         <v>1.69</v>
       </c>
       <c r="AT192">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU192">
         <v>1.89</v>
@@ -39195,7 +39198,7 @@
         <v>1</v>
       </c>
       <c r="AS198">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT198">
         <v>0.92</v>
@@ -39771,7 +39774,7 @@
         <v>1</v>
       </c>
       <c r="AT201">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU201">
         <v>1.52</v>
@@ -41872,7 +41875,7 @@
         <v>1.25</v>
       </c>
       <c r="AT212">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU212">
         <v>1.45</v>
@@ -44025,6 +44028,388 @@
       </c>
       <c r="BK223">
         <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2547414</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44969.60416666666</v>
+      </c>
+      <c r="F224">
+        <v>25</v>
+      </c>
+      <c r="G224" t="s">
+        <v>65</v>
+      </c>
+      <c r="H224" t="s">
+        <v>67</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>85</v>
+      </c>
+      <c r="P224" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q224">
+        <v>7</v>
+      </c>
+      <c r="R224">
+        <v>3</v>
+      </c>
+      <c r="S224">
+        <v>10</v>
+      </c>
+      <c r="T224">
+        <v>2.25</v>
+      </c>
+      <c r="U224">
+        <v>2.38</v>
+      </c>
+      <c r="V224">
+        <v>4.75</v>
+      </c>
+      <c r="W224">
+        <v>1.33</v>
+      </c>
+      <c r="X224">
+        <v>3.25</v>
+      </c>
+      <c r="Y224">
+        <v>2.5</v>
+      </c>
+      <c r="Z224">
+        <v>1.5</v>
+      </c>
+      <c r="AA224">
+        <v>6</v>
+      </c>
+      <c r="AB224">
+        <v>1.13</v>
+      </c>
+      <c r="AC224">
+        <v>1.72</v>
+      </c>
+      <c r="AD224">
+        <v>3.92</v>
+      </c>
+      <c r="AE224">
+        <v>4.62</v>
+      </c>
+      <c r="AF224">
+        <v>1.02</v>
+      </c>
+      <c r="AG224">
+        <v>15</v>
+      </c>
+      <c r="AH224">
+        <v>1.2</v>
+      </c>
+      <c r="AI224">
+        <v>4.33</v>
+      </c>
+      <c r="AJ224">
+        <v>1.78</v>
+      </c>
+      <c r="AK224">
+        <v>2.04</v>
+      </c>
+      <c r="AL224">
+        <v>1.7</v>
+      </c>
+      <c r="AM224">
+        <v>2.05</v>
+      </c>
+      <c r="AN224">
+        <v>1.19</v>
+      </c>
+      <c r="AO224">
+        <v>1.23</v>
+      </c>
+      <c r="AP224">
+        <v>2.15</v>
+      </c>
+      <c r="AQ224">
+        <v>1.92</v>
+      </c>
+      <c r="AR224">
+        <v>0.83</v>
+      </c>
+      <c r="AS224">
+        <v>1.77</v>
+      </c>
+      <c r="AT224">
+        <v>1</v>
+      </c>
+      <c r="AU224">
+        <v>1.58</v>
+      </c>
+      <c r="AV224">
+        <v>1.22</v>
+      </c>
+      <c r="AW224">
+        <v>2.8</v>
+      </c>
+      <c r="AX224">
+        <v>1.39</v>
+      </c>
+      <c r="AY224">
+        <v>9.4</v>
+      </c>
+      <c r="AZ224">
+        <v>3.74</v>
+      </c>
+      <c r="BA224">
+        <v>1.18</v>
+      </c>
+      <c r="BB224">
+        <v>1.36</v>
+      </c>
+      <c r="BC224">
+        <v>1.65</v>
+      </c>
+      <c r="BD224">
+        <v>2.09</v>
+      </c>
+      <c r="BE224">
+        <v>2.72</v>
+      </c>
+      <c r="BF224">
+        <v>4</v>
+      </c>
+      <c r="BG224">
+        <v>3</v>
+      </c>
+      <c r="BH224">
+        <v>7</v>
+      </c>
+      <c r="BI224">
+        <v>12</v>
+      </c>
+      <c r="BJ224">
+        <v>11</v>
+      </c>
+      <c r="BK224">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2547417</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44969.63541666666</v>
+      </c>
+      <c r="F225">
+        <v>25</v>
+      </c>
+      <c r="G225" t="s">
+        <v>68</v>
+      </c>
+      <c r="H225" t="s">
+        <v>77</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>114</v>
+      </c>
+      <c r="P225" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q225">
+        <v>3</v>
+      </c>
+      <c r="R225">
+        <v>4</v>
+      </c>
+      <c r="S225">
+        <v>7</v>
+      </c>
+      <c r="T225">
+        <v>2.6</v>
+      </c>
+      <c r="U225">
+        <v>2.3</v>
+      </c>
+      <c r="V225">
+        <v>3.75</v>
+      </c>
+      <c r="W225">
+        <v>1.3</v>
+      </c>
+      <c r="X225">
+        <v>3.4</v>
+      </c>
+      <c r="Y225">
+        <v>2.5</v>
+      </c>
+      <c r="Z225">
+        <v>1.5</v>
+      </c>
+      <c r="AA225">
+        <v>6</v>
+      </c>
+      <c r="AB225">
+        <v>1.13</v>
+      </c>
+      <c r="AC225">
+        <v>2.14</v>
+      </c>
+      <c r="AD225">
+        <v>3.66</v>
+      </c>
+      <c r="AE225">
+        <v>3.19</v>
+      </c>
+      <c r="AF225">
+        <v>1.02</v>
+      </c>
+      <c r="AG225">
+        <v>15</v>
+      </c>
+      <c r="AH225">
+        <v>1.2</v>
+      </c>
+      <c r="AI225">
+        <v>4.5</v>
+      </c>
+      <c r="AJ225">
+        <v>1.71</v>
+      </c>
+      <c r="AK225">
+        <v>2.14</v>
+      </c>
+      <c r="AL225">
+        <v>1.57</v>
+      </c>
+      <c r="AM225">
+        <v>2.25</v>
+      </c>
+      <c r="AN225">
+        <v>1.32</v>
+      </c>
+      <c r="AO225">
+        <v>1.26</v>
+      </c>
+      <c r="AP225">
+        <v>1.77</v>
+      </c>
+      <c r="AQ225">
+        <v>0.92</v>
+      </c>
+      <c r="AR225">
+        <v>0.5</v>
+      </c>
+      <c r="AS225">
+        <v>0.92</v>
+      </c>
+      <c r="AT225">
+        <v>0.54</v>
+      </c>
+      <c r="AU225">
+        <v>1.46</v>
+      </c>
+      <c r="AV225">
+        <v>1.44</v>
+      </c>
+      <c r="AW225">
+        <v>2.9</v>
+      </c>
+      <c r="AX225">
+        <v>1.78</v>
+      </c>
+      <c r="AY225">
+        <v>7.5</v>
+      </c>
+      <c r="AZ225">
+        <v>2.4</v>
+      </c>
+      <c r="BA225">
+        <v>1.2</v>
+      </c>
+      <c r="BB225">
+        <v>1.4</v>
+      </c>
+      <c r="BC225">
+        <v>1.74</v>
+      </c>
+      <c r="BD225">
+        <v>2.19</v>
+      </c>
+      <c r="BE225">
+        <v>2.93</v>
+      </c>
+      <c r="BF225">
+        <v>2</v>
+      </c>
+      <c r="BG225">
+        <v>4</v>
+      </c>
+      <c r="BH225">
+        <v>10</v>
+      </c>
+      <c r="BI225">
+        <v>2</v>
+      </c>
+      <c r="BJ225">
+        <v>12</v>
+      </c>
+      <c r="BK225">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="354">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,9 @@
     <t>['66', '81', '83']</t>
   </si>
   <si>
+    <t>['21', '75']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -1070,6 +1073,9 @@
   </si>
   <si>
     <t>['67', '84']</t>
+  </si>
+  <si>
+    <t>['35', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1681,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1866,7 +1872,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2057,7 +2063,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2630,7 +2636,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2720,7 +2726,7 @@
         <v>1.85</v>
       </c>
       <c r="AT7">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2821,7 +2827,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2908,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT8">
         <v>1.62</v>
@@ -4158,7 +4164,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4349,7 +4355,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4540,7 +4546,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4731,7 +4737,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5304,7 +5310,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5686,7 +5692,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5964,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT24">
         <v>2.08</v>
@@ -6450,7 +6456,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6641,7 +6647,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6832,7 +6838,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7023,7 +7029,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7405,7 +7411,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7787,7 +7793,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7978,7 +7984,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8169,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8360,7 +8366,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8450,7 +8456,7 @@
         <v>0.92</v>
       </c>
       <c r="AT37">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU37">
         <v>2.29</v>
@@ -8551,7 +8557,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8933,7 +8939,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9124,7 +9130,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -9315,7 +9321,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9506,7 +9512,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9697,7 +9703,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9784,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT44">
         <v>1.25</v>
@@ -9888,7 +9894,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10079,7 +10085,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10169,7 +10175,7 @@
         <v>0.42</v>
       </c>
       <c r="AT46">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU46">
         <v>1.6</v>
@@ -10270,7 +10276,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10843,7 +10849,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11416,7 +11422,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11607,7 +11613,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12371,7 +12377,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12562,7 +12568,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12649,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12944,7 +12950,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13326,7 +13332,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13517,7 +13523,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13708,7 +13714,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13899,7 +13905,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14090,7 +14096,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14472,7 +14478,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14663,7 +14669,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14854,7 +14860,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15045,7 +15051,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15135,7 +15141,7 @@
         <v>2.42</v>
       </c>
       <c r="AT72">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU72">
         <v>1.9</v>
@@ -15705,7 +15711,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT75">
         <v>1.23</v>
@@ -15809,7 +15815,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16000,7 +16006,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -16191,7 +16197,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16955,7 +16961,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17146,7 +17152,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17337,7 +17343,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17528,7 +17534,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17618,7 +17624,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -18101,7 +18107,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -18292,7 +18298,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18674,7 +18680,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -19056,7 +19062,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19247,7 +19253,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19629,7 +19635,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19820,7 +19826,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19907,7 +19913,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT97">
         <v>1.42</v>
@@ -20011,7 +20017,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20584,7 +20590,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20775,7 +20781,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20966,7 +20972,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21348,7 +21354,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21438,7 +21444,7 @@
         <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU105">
         <v>1.47</v>
@@ -22112,7 +22118,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22303,7 +22309,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22494,7 +22500,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23345,7 +23351,7 @@
         <v>1.8</v>
       </c>
       <c r="AS115">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT115">
         <v>1.25</v>
@@ -23831,7 +23837,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24213,7 +24219,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24404,7 +24410,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24491,7 +24497,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT121">
         <v>0.92</v>
@@ -24786,7 +24792,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24977,7 +24983,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25067,7 +25073,7 @@
         <v>2.42</v>
       </c>
       <c r="AT124">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU124">
         <v>1.71</v>
@@ -25168,7 +25174,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25550,7 +25556,7 @@
         <v>174</v>
       </c>
       <c r="P127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25932,7 +25938,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26314,7 +26320,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26505,7 +26511,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26696,7 +26702,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26887,7 +26893,7 @@
         <v>92</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -27651,7 +27657,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27738,7 +27744,7 @@
         <v>0.71</v>
       </c>
       <c r="AS138">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT138">
         <v>0.75</v>
@@ -27842,7 +27848,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -28033,7 +28039,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28606,7 +28612,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28988,7 +28994,7 @@
         <v>189</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29752,7 +29758,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29943,7 +29949,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30134,7 +30140,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30325,7 +30331,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30415,7 +30421,7 @@
         <v>1.31</v>
       </c>
       <c r="AT152">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU152">
         <v>1.82</v>
@@ -30516,7 +30522,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30707,7 +30713,7 @@
         <v>85</v>
       </c>
       <c r="P154" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31176,7 +31182,7 @@
         <v>1.11</v>
       </c>
       <c r="AS156">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT156">
         <v>1.15</v>
@@ -31280,7 +31286,7 @@
         <v>110</v>
       </c>
       <c r="P157" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31752,7 +31758,7 @@
         <v>1</v>
       </c>
       <c r="AT159">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU159">
         <v>1.37</v>
@@ -31853,7 +31859,7 @@
         <v>85</v>
       </c>
       <c r="P160" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -32235,7 +32241,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32426,7 +32432,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q163">
         <v>9</v>
@@ -32617,7 +32623,7 @@
         <v>171</v>
       </c>
       <c r="P164" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32808,7 +32814,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32999,7 +33005,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33763,7 +33769,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -33954,7 +33960,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34145,7 +34151,7 @@
         <v>176</v>
       </c>
       <c r="P172" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34336,7 +34342,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34614,7 +34620,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT174">
         <v>0.54</v>
@@ -34718,7 +34724,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -35673,7 +35679,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -36246,7 +36252,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36336,7 +36342,7 @@
         <v>1.62</v>
       </c>
       <c r="AT183">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU183">
         <v>1.72</v>
@@ -36437,7 +36443,7 @@
         <v>98</v>
       </c>
       <c r="P184" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36628,7 +36634,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36819,7 +36825,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -37010,7 +37016,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37774,7 +37780,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37965,7 +37971,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q192">
         <v>9</v>
@@ -38052,7 +38058,7 @@
         <v>1</v>
       </c>
       <c r="AS192">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT192">
         <v>1</v>
@@ -38347,7 +38353,7 @@
         <v>221</v>
       </c>
       <c r="P194" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38538,7 +38544,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38729,7 +38735,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38920,7 +38926,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -39684,7 +39690,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -39875,7 +39881,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40257,7 +40263,7 @@
         <v>227</v>
       </c>
       <c r="P204" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40448,7 +40454,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40920,7 +40926,7 @@
         <v>1.08</v>
       </c>
       <c r="AT207">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU207">
         <v>1.67</v>
@@ -41021,7 +41027,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41212,7 +41218,7 @@
         <v>115</v>
       </c>
       <c r="P209" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41403,7 +41409,7 @@
         <v>98</v>
       </c>
       <c r="P210" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41594,7 +41600,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -42167,7 +42173,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42254,7 +42260,7 @@
         <v>1.27</v>
       </c>
       <c r="AS214">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT214">
         <v>1.25</v>
@@ -42358,7 +42364,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42448,7 +42454,7 @@
         <v>1.75</v>
       </c>
       <c r="AT215">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AU215">
         <v>1.85</v>
@@ -42931,7 +42937,7 @@
         <v>110</v>
       </c>
       <c r="P218" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q218">
         <v>5</v>
@@ -43313,7 +43319,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43695,7 +43701,7 @@
         <v>85</v>
       </c>
       <c r="P222" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -43886,7 +43892,7 @@
         <v>239</v>
       </c>
       <c r="P223" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44077,7 +44083,7 @@
         <v>85</v>
       </c>
       <c r="P224" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44410,6 +44416,197 @@
       </c>
       <c r="BK225">
         <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2547427</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44974.69791666666</v>
+      </c>
+      <c r="F226">
+        <v>26</v>
+      </c>
+      <c r="G226" t="s">
+        <v>71</v>
+      </c>
+      <c r="H226" t="s">
+        <v>79</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>240</v>
+      </c>
+      <c r="P226" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q226">
+        <v>4</v>
+      </c>
+      <c r="R226">
+        <v>4</v>
+      </c>
+      <c r="S226">
+        <v>8</v>
+      </c>
+      <c r="T226">
+        <v>4.5</v>
+      </c>
+      <c r="U226">
+        <v>2.3</v>
+      </c>
+      <c r="V226">
+        <v>2.35</v>
+      </c>
+      <c r="W226">
+        <v>1.29</v>
+      </c>
+      <c r="X226">
+        <v>3.3</v>
+      </c>
+      <c r="Y226">
+        <v>2.45</v>
+      </c>
+      <c r="Z226">
+        <v>1.49</v>
+      </c>
+      <c r="AA226">
+        <v>5.9</v>
+      </c>
+      <c r="AB226">
+        <v>1.1</v>
+      </c>
+      <c r="AC226">
+        <v>4.08</v>
+      </c>
+      <c r="AD226">
+        <v>3.96</v>
+      </c>
+      <c r="AE226">
+        <v>1.82</v>
+      </c>
+      <c r="AF226">
+        <v>1.02</v>
+      </c>
+      <c r="AG226">
+        <v>15</v>
+      </c>
+      <c r="AH226">
+        <v>1.2</v>
+      </c>
+      <c r="AI226">
+        <v>4.33</v>
+      </c>
+      <c r="AJ226">
+        <v>1.61</v>
+      </c>
+      <c r="AK226">
+        <v>2.15</v>
+      </c>
+      <c r="AL226">
+        <v>1.58</v>
+      </c>
+      <c r="AM226">
+        <v>2.25</v>
+      </c>
+      <c r="AN226">
+        <v>2.05</v>
+      </c>
+      <c r="AO226">
+        <v>1.2</v>
+      </c>
+      <c r="AP226">
+        <v>1.22</v>
+      </c>
+      <c r="AQ226">
+        <v>1.69</v>
+      </c>
+      <c r="AR226">
+        <v>2.33</v>
+      </c>
+      <c r="AS226">
+        <v>1.64</v>
+      </c>
+      <c r="AT226">
+        <v>2.23</v>
+      </c>
+      <c r="AU226">
+        <v>1.9</v>
+      </c>
+      <c r="AV226">
+        <v>1.59</v>
+      </c>
+      <c r="AW226">
+        <v>3.49</v>
+      </c>
+      <c r="AX226">
+        <v>2.6</v>
+      </c>
+      <c r="AY226">
+        <v>8.5</v>
+      </c>
+      <c r="AZ226">
+        <v>1.67</v>
+      </c>
+      <c r="BA226">
+        <v>1.12</v>
+      </c>
+      <c r="BB226">
+        <v>1.27</v>
+      </c>
+      <c r="BC226">
+        <v>1.55</v>
+      </c>
+      <c r="BD226">
+        <v>1.85</v>
+      </c>
+      <c r="BE226">
+        <v>2.25</v>
+      </c>
+      <c r="BF226">
+        <v>6</v>
+      </c>
+      <c r="BG226">
+        <v>4</v>
+      </c>
+      <c r="BH226">
+        <v>4</v>
+      </c>
+      <c r="BI226">
+        <v>6</v>
+      </c>
+      <c r="BJ226">
+        <v>10</v>
+      </c>
+      <c r="BK226">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,21 @@
     <t>['21', '75']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['22', '66']</t>
+  </si>
+  <si>
+    <t>['51', '78']</t>
+  </si>
+  <si>
+    <t>['49', '73']</t>
+  </si>
+  <si>
+    <t>['57', '67']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -1076,6 +1091,15 @@
   </si>
   <si>
     <t>['35', '90+4']</t>
+  </si>
+  <si>
+    <t>['20', '25', '85', '90+8']</t>
+  </si>
+  <si>
+    <t>['18', '71']</t>
+  </si>
+  <si>
+    <t>['41', '83']</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1705,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1872,7 +1896,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1962,7 +1986,7 @@
         <v>1.33</v>
       </c>
       <c r="AT3">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2063,7 +2087,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2153,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2532,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT6">
         <v>2.08</v>
@@ -2636,7 +2660,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2827,7 +2851,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3487,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT11">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3678,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT12">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3872,7 +3896,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4164,7 +4188,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4251,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT15">
         <v>1.54</v>
@@ -4355,7 +4379,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4445,7 +4469,7 @@
         <v>2.62</v>
       </c>
       <c r="AT16">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4546,7 +4570,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4636,7 +4660,7 @@
         <v>1.08</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4737,7 +4761,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4824,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -5015,10 +5039,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT19">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5209,7 +5233,7 @@
         <v>1.85</v>
       </c>
       <c r="AT20">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU20">
         <v>1.92</v>
@@ -5310,7 +5334,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5400,7 +5424,7 @@
         <v>2.62</v>
       </c>
       <c r="AT21">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU21">
         <v>1.94</v>
@@ -5692,7 +5716,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6352,10 +6376,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT26">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU26">
         <v>1.56</v>
@@ -6456,7 +6480,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6647,7 +6671,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6734,10 +6758,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT28">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU28">
         <v>1.96</v>
@@ -6838,7 +6862,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7029,7 +7053,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7119,7 +7143,7 @@
         <v>1.62</v>
       </c>
       <c r="AT30">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU30">
         <v>2.43</v>
@@ -7307,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT31">
         <v>0.36</v>
@@ -7411,7 +7435,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7498,10 +7522,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT32">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7689,7 +7713,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -7793,7 +7817,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7880,10 +7904,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT34">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU34">
         <v>1.18</v>
@@ -7984,7 +8008,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8175,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8265,7 +8289,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU36">
         <v>1.75</v>
@@ -8366,7 +8390,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8557,7 +8581,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8939,7 +8963,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9130,7 +9154,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -9321,7 +9345,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9411,7 +9435,7 @@
         <v>0.92</v>
       </c>
       <c r="AT42">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU42">
         <v>1.95</v>
@@ -9512,7 +9536,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9602,7 +9626,7 @@
         <v>1.77</v>
       </c>
       <c r="AT43">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU43">
         <v>1.31</v>
@@ -9703,7 +9727,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9793,7 +9817,7 @@
         <v>1.64</v>
       </c>
       <c r="AT44">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU44">
         <v>1.38</v>
@@ -9894,7 +9918,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9984,7 +10008,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU45">
         <v>1.68</v>
@@ -10085,7 +10109,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10172,7 +10196,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT46">
         <v>2.23</v>
@@ -10276,7 +10300,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10363,10 +10387,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU47">
         <v>1.7</v>
@@ -10745,7 +10769,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT49">
         <v>0.36</v>
@@ -10849,7 +10873,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10936,7 +10960,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT50">
         <v>1.62</v>
@@ -11130,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -11318,10 +11342,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT52">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU52">
         <v>2.24</v>
@@ -11422,7 +11446,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11512,7 +11536,7 @@
         <v>1.62</v>
       </c>
       <c r="AT53">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU53">
         <v>2.17</v>
@@ -11613,7 +11637,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11700,7 +11724,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT54">
         <v>2.08</v>
@@ -12377,7 +12401,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12568,7 +12592,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12950,7 +12974,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13040,7 +13064,7 @@
         <v>1.31</v>
       </c>
       <c r="AT61">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -13228,10 +13252,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT62">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU62">
         <v>1.87</v>
@@ -13332,7 +13356,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13523,7 +13547,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13714,7 +13738,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13801,10 +13825,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT65">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU65">
         <v>1.42</v>
@@ -13905,7 +13929,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14096,7 +14120,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14183,10 +14207,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU67">
         <v>1.41</v>
@@ -14377,7 +14401,7 @@
         <v>1</v>
       </c>
       <c r="AT68">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU68">
         <v>1.44</v>
@@ -14478,7 +14502,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14568,7 +14592,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU69">
         <v>1.62</v>
@@ -14669,7 +14693,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14759,7 +14783,7 @@
         <v>1.62</v>
       </c>
       <c r="AT70">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU70">
         <v>1.9</v>
@@ -14860,7 +14884,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14947,7 +14971,7 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT71">
         <v>1.62</v>
@@ -15051,7 +15075,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15138,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT72">
         <v>2.23</v>
@@ -15329,10 +15353,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT73">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -15520,7 +15544,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT74">
         <v>1</v>
@@ -15714,7 +15738,7 @@
         <v>1.64</v>
       </c>
       <c r="AT75">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU75">
         <v>1.56</v>
@@ -15815,7 +15839,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15902,7 +15926,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT76">
         <v>0.54</v>
@@ -16006,7 +16030,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -16197,7 +16221,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16287,7 +16311,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU78">
         <v>1.89</v>
@@ -16860,7 +16884,7 @@
         <v>1.77</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU81">
         <v>1.72</v>
@@ -16961,7 +16985,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17152,7 +17176,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17343,7 +17367,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17534,7 +17558,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17815,7 +17839,7 @@
         <v>1.62</v>
       </c>
       <c r="AT86">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU86">
         <v>1.84</v>
@@ -18107,7 +18131,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -18197,7 +18221,7 @@
         <v>1.31</v>
       </c>
       <c r="AT88">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU88">
         <v>1.73</v>
@@ -18298,7 +18322,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18385,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT89">
         <v>1.15</v>
@@ -18680,7 +18704,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18767,10 +18791,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT91">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU91">
         <v>1.61</v>
@@ -18958,7 +18982,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT92">
         <v>1.54</v>
@@ -19062,7 +19086,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19253,7 +19277,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19343,7 +19367,7 @@
         <v>0.92</v>
       </c>
       <c r="AT94">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU94">
         <v>1.41</v>
@@ -19531,7 +19555,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT95">
         <v>0.54</v>
@@ -19635,7 +19659,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19725,7 +19749,7 @@
         <v>1.85</v>
       </c>
       <c r="AT96">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU96">
         <v>2.23</v>
@@ -19826,7 +19850,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19916,7 +19940,7 @@
         <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU97">
         <v>1.53</v>
@@ -20017,7 +20041,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20298,7 +20322,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU99">
         <v>1.74</v>
@@ -20486,7 +20510,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT100">
         <v>1.15</v>
@@ -20590,7 +20614,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20781,7 +20805,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20871,7 +20895,7 @@
         <v>1</v>
       </c>
       <c r="AT102">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20972,7 +20996,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21059,10 +21083,10 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT103">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU103">
         <v>1.89</v>
@@ -21250,10 +21274,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT104">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU104">
         <v>1.71</v>
@@ -21354,7 +21378,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21823,7 +21847,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT107">
         <v>0.36</v>
@@ -22017,7 +22041,7 @@
         <v>1.31</v>
       </c>
       <c r="AT108">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU108">
         <v>1.82</v>
@@ -22118,7 +22142,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22309,7 +22333,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22399,7 +22423,7 @@
         <v>1.08</v>
       </c>
       <c r="AT110">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU110">
         <v>1.72</v>
@@ -22500,7 +22524,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22781,7 +22805,7 @@
         <v>2.62</v>
       </c>
       <c r="AT112">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU112">
         <v>2.2</v>
@@ -22969,7 +22993,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT113">
         <v>1.15</v>
@@ -23160,7 +23184,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT114">
         <v>1.38</v>
@@ -23354,7 +23378,7 @@
         <v>1.64</v>
       </c>
       <c r="AT115">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU115">
         <v>1.61</v>
@@ -23733,7 +23757,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT117">
         <v>0.54</v>
@@ -23837,7 +23861,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23927,7 +23951,7 @@
         <v>0.92</v>
       </c>
       <c r="AT118">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU118">
         <v>1.38</v>
@@ -24115,10 +24139,10 @@
         <v>1.5</v>
       </c>
       <c r="AS119">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT119">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU119">
         <v>1.89</v>
@@ -24219,7 +24243,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24309,7 +24333,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU120">
         <v>1.4</v>
@@ -24410,7 +24434,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24500,7 +24524,7 @@
         <v>1.64</v>
       </c>
       <c r="AT121">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU121">
         <v>1.64</v>
@@ -24688,10 +24712,10 @@
         <v>1.57</v>
       </c>
       <c r="AS122">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT122">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU122">
         <v>1.64</v>
@@ -24792,7 +24816,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24879,10 +24903,10 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT123">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU123">
         <v>1.75</v>
@@ -24983,7 +25007,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25070,7 +25094,7 @@
         <v>2.5</v>
       </c>
       <c r="AS124">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT124">
         <v>2.23</v>
@@ -25174,7 +25198,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25261,7 +25285,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25455,7 +25479,7 @@
         <v>1.77</v>
       </c>
       <c r="AT126">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU126">
         <v>1.57</v>
@@ -25556,7 +25580,7 @@
         <v>174</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25646,7 +25670,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25938,7 +25962,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26028,7 +26052,7 @@
         <v>0.92</v>
       </c>
       <c r="AT129">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU129">
         <v>1.37</v>
@@ -26320,7 +26344,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26511,7 +26535,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26702,7 +26726,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26792,7 +26816,7 @@
         <v>1.31</v>
       </c>
       <c r="AT133">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU133">
         <v>1.79</v>
@@ -26893,7 +26917,7 @@
         <v>92</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26980,7 +27004,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT134">
         <v>2.08</v>
@@ -27556,7 +27580,7 @@
         <v>2.62</v>
       </c>
       <c r="AT137">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU137">
         <v>2.22</v>
@@ -27657,7 +27681,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27747,7 +27771,7 @@
         <v>1.64</v>
       </c>
       <c r="AT138">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU138">
         <v>1.71</v>
@@ -27848,7 +27872,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27935,7 +27959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT139">
         <v>1.54</v>
@@ -28039,7 +28063,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28126,10 +28150,10 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT140">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU140">
         <v>1.92</v>
@@ -28320,7 +28344,7 @@
         <v>1.08</v>
       </c>
       <c r="AT141">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU141">
         <v>1.86</v>
@@ -28508,10 +28532,10 @@
         <v>1.86</v>
       </c>
       <c r="AS142">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT142">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU142">
         <v>1.84</v>
@@ -28612,7 +28636,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28699,10 +28723,10 @@
         <v>1.13</v>
       </c>
       <c r="AS143">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT143">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU143">
         <v>1.66</v>
@@ -28890,10 +28914,10 @@
         <v>0.86</v>
       </c>
       <c r="AS144">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT144">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU144">
         <v>1.72</v>
@@ -28994,7 +29018,7 @@
         <v>189</v>
       </c>
       <c r="P145" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29654,7 +29678,7 @@
         <v>0.88</v>
       </c>
       <c r="AS148">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT148">
         <v>1.15</v>
@@ -29758,7 +29782,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29848,7 +29872,7 @@
         <v>0.92</v>
       </c>
       <c r="AT149">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU149">
         <v>1.32</v>
@@ -29949,7 +29973,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30140,7 +30164,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30331,7 +30355,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30522,7 +30546,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30713,7 +30737,7 @@
         <v>85</v>
       </c>
       <c r="P154" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30800,10 +30824,10 @@
         <v>0.78</v>
       </c>
       <c r="AS154">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT154">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU154">
         <v>1.18</v>
@@ -30991,10 +31015,10 @@
         <v>1.5</v>
       </c>
       <c r="AS155">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT155">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU155">
         <v>1.8</v>
@@ -31286,7 +31310,7 @@
         <v>110</v>
       </c>
       <c r="P157" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31376,7 +31400,7 @@
         <v>1.85</v>
       </c>
       <c r="AT157">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU157">
         <v>2.08</v>
@@ -31564,7 +31588,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT158">
         <v>0.54</v>
@@ -31859,7 +31883,7 @@
         <v>85</v>
       </c>
       <c r="P160" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31949,7 +31973,7 @@
         <v>1.33</v>
       </c>
       <c r="AT160">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU160">
         <v>1.55</v>
@@ -32137,10 +32161,10 @@
         <v>0.75</v>
       </c>
       <c r="AS161">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT161">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU161">
         <v>1.54</v>
@@ -32241,7 +32265,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32432,7 +32456,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q163">
         <v>9</v>
@@ -32623,7 +32647,7 @@
         <v>171</v>
       </c>
       <c r="P164" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32713,7 +32737,7 @@
         <v>1.08</v>
       </c>
       <c r="AT164">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU164">
         <v>1.83</v>
@@ -32814,7 +32838,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32901,10 +32925,10 @@
         <v>1.11</v>
       </c>
       <c r="AS165">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT165">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU165">
         <v>1.84</v>
@@ -33005,7 +33029,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33283,7 +33307,7 @@
         <v>1.56</v>
       </c>
       <c r="AS167">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT167">
         <v>1.38</v>
@@ -33477,7 +33501,7 @@
         <v>2.62</v>
       </c>
       <c r="AT168">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU168">
         <v>2.18</v>
@@ -33769,7 +33793,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -33960,7 +33984,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34151,7 +34175,7 @@
         <v>176</v>
       </c>
       <c r="P172" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34241,7 +34265,7 @@
         <v>1.62</v>
       </c>
       <c r="AT172">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU172">
         <v>1.7</v>
@@ -34342,7 +34366,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34429,10 +34453,10 @@
         <v>1.44</v>
       </c>
       <c r="AS173">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT173">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU173">
         <v>1.17</v>
@@ -34724,7 +34748,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -35005,7 +35029,7 @@
         <v>2.62</v>
       </c>
       <c r="AT176">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU176">
         <v>2.14</v>
@@ -35196,7 +35220,7 @@
         <v>1.85</v>
       </c>
       <c r="AT177">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU177">
         <v>2.11</v>
@@ -35384,7 +35408,7 @@
         <v>1.11</v>
       </c>
       <c r="AS178">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT178">
         <v>1</v>
@@ -35575,7 +35599,7 @@
         <v>1.56</v>
       </c>
       <c r="AS179">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT179">
         <v>1.62</v>
@@ -35679,7 +35703,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -35960,7 +35984,7 @@
         <v>1.33</v>
       </c>
       <c r="AT181">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU181">
         <v>1.83</v>
@@ -36252,7 +36276,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36443,7 +36467,7 @@
         <v>98</v>
       </c>
       <c r="P184" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36530,7 +36554,7 @@
         <v>2.2</v>
       </c>
       <c r="AS184">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT184">
         <v>2.08</v>
@@ -36634,7 +36658,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36825,7 +36849,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -37016,7 +37040,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37106,7 +37130,7 @@
         <v>1.31</v>
       </c>
       <c r="AT187">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU187">
         <v>1.68</v>
@@ -37294,10 +37318,10 @@
         <v>1.33</v>
       </c>
       <c r="AS188">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT188">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU188">
         <v>1.87</v>
@@ -37485,10 +37509,10 @@
         <v>1.44</v>
       </c>
       <c r="AS189">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT189">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU189">
         <v>1.55</v>
@@ -37679,7 +37703,7 @@
         <v>0.92</v>
       </c>
       <c r="AT190">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU190">
         <v>1.46</v>
@@ -37780,7 +37804,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37971,7 +37995,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q192">
         <v>9</v>
@@ -38249,10 +38273,10 @@
         <v>1.45</v>
       </c>
       <c r="AS193">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT193">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU193">
         <v>1.79</v>
@@ -38353,7 +38377,7 @@
         <v>221</v>
       </c>
       <c r="P194" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38440,10 +38464,10 @@
         <v>1.4</v>
       </c>
       <c r="AS194">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT194">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU194">
         <v>1.72</v>
@@ -38544,7 +38568,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38631,10 +38655,10 @@
         <v>1.1</v>
       </c>
       <c r="AS195">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT195">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU195">
         <v>1.15</v>
@@ -38735,7 +38759,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38825,7 +38849,7 @@
         <v>1.85</v>
       </c>
       <c r="AT196">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU196">
         <v>2.08</v>
@@ -38926,7 +38950,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -39013,7 +39037,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT197">
         <v>1.38</v>
@@ -39207,7 +39231,7 @@
         <v>1.77</v>
       </c>
       <c r="AT198">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU198">
         <v>1.55</v>
@@ -39690,7 +39714,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -39881,7 +39905,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40263,7 +40287,7 @@
         <v>227</v>
       </c>
       <c r="P204" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40350,7 +40374,7 @@
         <v>1.55</v>
       </c>
       <c r="AS204">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT204">
         <v>1.38</v>
@@ -40454,7 +40478,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40544,7 +40568,7 @@
         <v>0.92</v>
       </c>
       <c r="AT205">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU205">
         <v>1.47</v>
@@ -41027,7 +41051,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41117,7 +41141,7 @@
         <v>1</v>
       </c>
       <c r="AT208">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU208">
         <v>1.63</v>
@@ -41218,7 +41242,7 @@
         <v>115</v>
       </c>
       <c r="P209" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41305,10 +41329,10 @@
         <v>1.27</v>
       </c>
       <c r="AS209">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT209">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU209">
         <v>1.69</v>
@@ -41409,7 +41433,7 @@
         <v>98</v>
       </c>
       <c r="P210" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41499,7 +41523,7 @@
         <v>1.08</v>
       </c>
       <c r="AT210">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU210">
         <v>1.65</v>
@@ -41600,7 +41624,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41687,10 +41711,10 @@
         <v>1.33</v>
       </c>
       <c r="AS211">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AT211">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU211">
         <v>1.17</v>
@@ -41878,7 +41902,7 @@
         <v>0.91</v>
       </c>
       <c r="AS212">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT212">
         <v>1</v>
@@ -42069,10 +42093,10 @@
         <v>1.55</v>
       </c>
       <c r="AS213">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT213">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU213">
         <v>1.73</v>
@@ -42173,7 +42197,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42263,7 +42287,7 @@
         <v>1.64</v>
       </c>
       <c r="AT214">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU214">
         <v>1.93</v>
@@ -42364,7 +42388,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42451,7 +42475,7 @@
         <v>2.27</v>
       </c>
       <c r="AS215">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT215">
         <v>2.23</v>
@@ -42642,10 +42666,10 @@
         <v>0.82</v>
       </c>
       <c r="AS216">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AT216">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU216">
         <v>1.84</v>
@@ -42937,7 +42961,7 @@
         <v>110</v>
       </c>
       <c r="P218" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q218">
         <v>5</v>
@@ -43319,7 +43343,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43701,7 +43725,7 @@
         <v>85</v>
       </c>
       <c r="P222" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -43892,7 +43916,7 @@
         <v>239</v>
       </c>
       <c r="P223" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44083,7 +44107,7 @@
         <v>85</v>
       </c>
       <c r="P224" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44465,7 +44489,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44607,6 +44631,1534 @@
       </c>
       <c r="BK226">
         <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2547422</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F227">
+        <v>26</v>
+      </c>
+      <c r="G227" t="s">
+        <v>82</v>
+      </c>
+      <c r="H227" t="s">
+        <v>80</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>137</v>
+      </c>
+      <c r="P227" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q227">
+        <v>7</v>
+      </c>
+      <c r="R227">
+        <v>4</v>
+      </c>
+      <c r="S227">
+        <v>11</v>
+      </c>
+      <c r="T227">
+        <v>1.8</v>
+      </c>
+      <c r="U227">
+        <v>2.37</v>
+      </c>
+      <c r="V227">
+        <v>6.75</v>
+      </c>
+      <c r="W227">
+        <v>1.29</v>
+      </c>
+      <c r="X227">
+        <v>3.5</v>
+      </c>
+      <c r="Y227">
+        <v>2.25</v>
+      </c>
+      <c r="Z227">
+        <v>1.6</v>
+      </c>
+      <c r="AA227">
+        <v>5</v>
+      </c>
+      <c r="AB227">
+        <v>1.14</v>
+      </c>
+      <c r="AC227">
+        <v>1.35</v>
+      </c>
+      <c r="AD227">
+        <v>5.1</v>
+      </c>
+      <c r="AE227">
+        <v>8</v>
+      </c>
+      <c r="AF227">
+        <v>1.03</v>
+      </c>
+      <c r="AG227">
+        <v>11</v>
+      </c>
+      <c r="AH227">
+        <v>1.2</v>
+      </c>
+      <c r="AI227">
+        <v>4.33</v>
+      </c>
+      <c r="AJ227">
+        <v>1.64</v>
+      </c>
+      <c r="AK227">
+        <v>2.25</v>
+      </c>
+      <c r="AL227">
+        <v>1.85</v>
+      </c>
+      <c r="AM227">
+        <v>1.85</v>
+      </c>
+      <c r="AN227">
+        <v>1.07</v>
+      </c>
+      <c r="AO227">
+        <v>1.18</v>
+      </c>
+      <c r="AP227">
+        <v>3.1</v>
+      </c>
+      <c r="AQ227">
+        <v>2.42</v>
+      </c>
+      <c r="AR227">
+        <v>0.92</v>
+      </c>
+      <c r="AS227">
+        <v>2.46</v>
+      </c>
+      <c r="AT227">
+        <v>0.85</v>
+      </c>
+      <c r="AU227">
+        <v>1.69</v>
+      </c>
+      <c r="AV227">
+        <v>1.33</v>
+      </c>
+      <c r="AW227">
+        <v>3.02</v>
+      </c>
+      <c r="AX227">
+        <v>1.25</v>
+      </c>
+      <c r="AY227">
+        <v>10</v>
+      </c>
+      <c r="AZ227">
+        <v>4.5</v>
+      </c>
+      <c r="BA227">
+        <v>1.21</v>
+      </c>
+      <c r="BB227">
+        <v>1.48</v>
+      </c>
+      <c r="BC227">
+        <v>1.73</v>
+      </c>
+      <c r="BD227">
+        <v>2.1</v>
+      </c>
+      <c r="BE227">
+        <v>2.7</v>
+      </c>
+      <c r="BF227">
+        <v>3</v>
+      </c>
+      <c r="BG227">
+        <v>0</v>
+      </c>
+      <c r="BH227">
+        <v>10</v>
+      </c>
+      <c r="BI227">
+        <v>2</v>
+      </c>
+      <c r="BJ227">
+        <v>13</v>
+      </c>
+      <c r="BK227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2547429</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44975.59375</v>
+      </c>
+      <c r="F228">
+        <v>26</v>
+      </c>
+      <c r="G228" t="s">
+        <v>77</v>
+      </c>
+      <c r="H228" t="s">
+        <v>66</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228" t="s">
+        <v>85</v>
+      </c>
+      <c r="P228" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q228">
+        <v>11</v>
+      </c>
+      <c r="R228">
+        <v>3</v>
+      </c>
+      <c r="S228">
+        <v>14</v>
+      </c>
+      <c r="T228">
+        <v>3.4</v>
+      </c>
+      <c r="U228">
+        <v>2.15</v>
+      </c>
+      <c r="V228">
+        <v>2.75</v>
+      </c>
+      <c r="W228">
+        <v>1.34</v>
+      </c>
+      <c r="X228">
+        <v>3</v>
+      </c>
+      <c r="Y228">
+        <v>2.5</v>
+      </c>
+      <c r="Z228">
+        <v>1.46</v>
+      </c>
+      <c r="AA228">
+        <v>6</v>
+      </c>
+      <c r="AB228">
+        <v>1.11</v>
+      </c>
+      <c r="AC228">
+        <v>3</v>
+      </c>
+      <c r="AD228">
+        <v>3.5</v>
+      </c>
+      <c r="AE228">
+        <v>2.25</v>
+      </c>
+      <c r="AF228">
+        <v>1.04</v>
+      </c>
+      <c r="AG228">
+        <v>10.5</v>
+      </c>
+      <c r="AH228">
+        <v>1.23</v>
+      </c>
+      <c r="AI228">
+        <v>3.8</v>
+      </c>
+      <c r="AJ228">
+        <v>1.71</v>
+      </c>
+      <c r="AK228">
+        <v>2.15</v>
+      </c>
+      <c r="AL228">
+        <v>1.6</v>
+      </c>
+      <c r="AM228">
+        <v>2.15</v>
+      </c>
+      <c r="AN228">
+        <v>1.61</v>
+      </c>
+      <c r="AO228">
+        <v>1.29</v>
+      </c>
+      <c r="AP228">
+        <v>1.37</v>
+      </c>
+      <c r="AQ228">
+        <v>1</v>
+      </c>
+      <c r="AR228">
+        <v>1.25</v>
+      </c>
+      <c r="AS228">
+        <v>1</v>
+      </c>
+      <c r="AT228">
+        <v>1.23</v>
+      </c>
+      <c r="AU228">
+        <v>1.61</v>
+      </c>
+      <c r="AV228">
+        <v>1.39</v>
+      </c>
+      <c r="AW228">
+        <v>3</v>
+      </c>
+      <c r="AX228">
+        <v>2.1</v>
+      </c>
+      <c r="AY228">
+        <v>8</v>
+      </c>
+      <c r="AZ228">
+        <v>1.95</v>
+      </c>
+      <c r="BA228">
+        <v>1.25</v>
+      </c>
+      <c r="BB228">
+        <v>1.55</v>
+      </c>
+      <c r="BC228">
+        <v>1.85</v>
+      </c>
+      <c r="BD228">
+        <v>2.3</v>
+      </c>
+      <c r="BE228">
+        <v>3.4</v>
+      </c>
+      <c r="BF228">
+        <v>7</v>
+      </c>
+      <c r="BG228">
+        <v>3</v>
+      </c>
+      <c r="BH228">
+        <v>6</v>
+      </c>
+      <c r="BI228">
+        <v>3</v>
+      </c>
+      <c r="BJ228">
+        <v>13</v>
+      </c>
+      <c r="BK228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2547424</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44975.59375</v>
+      </c>
+      <c r="F229">
+        <v>26</v>
+      </c>
+      <c r="G229" t="s">
+        <v>81</v>
+      </c>
+      <c r="H229" t="s">
+        <v>68</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>241</v>
+      </c>
+      <c r="P229" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q229">
+        <v>4</v>
+      </c>
+      <c r="R229">
+        <v>7</v>
+      </c>
+      <c r="S229">
+        <v>11</v>
+      </c>
+      <c r="T229">
+        <v>3.74</v>
+      </c>
+      <c r="U229">
+        <v>2.16</v>
+      </c>
+      <c r="V229">
+        <v>2.76</v>
+      </c>
+      <c r="W229">
+        <v>1.38</v>
+      </c>
+      <c r="X229">
+        <v>2.91</v>
+      </c>
+      <c r="Y229">
+        <v>2.75</v>
+      </c>
+      <c r="Z229">
+        <v>1.42</v>
+      </c>
+      <c r="AA229">
+        <v>6.85</v>
+      </c>
+      <c r="AB229">
+        <v>1.08</v>
+      </c>
+      <c r="AC229">
+        <v>2.4</v>
+      </c>
+      <c r="AD229">
+        <v>3.4</v>
+      </c>
+      <c r="AE229">
+        <v>2.85</v>
+      </c>
+      <c r="AF229">
+        <v>1.06</v>
+      </c>
+      <c r="AG229">
+        <v>8</v>
+      </c>
+      <c r="AH229">
+        <v>1.29</v>
+      </c>
+      <c r="AI229">
+        <v>3.5</v>
+      </c>
+      <c r="AJ229">
+        <v>1.89</v>
+      </c>
+      <c r="AK229">
+        <v>1.92</v>
+      </c>
+      <c r="AL229">
+        <v>1.71</v>
+      </c>
+      <c r="AM229">
+        <v>2.08</v>
+      </c>
+      <c r="AN229">
+        <v>1.66</v>
+      </c>
+      <c r="AO229">
+        <v>1.3</v>
+      </c>
+      <c r="AP229">
+        <v>1.36</v>
+      </c>
+      <c r="AQ229">
+        <v>0.42</v>
+      </c>
+      <c r="AR229">
+        <v>0.75</v>
+      </c>
+      <c r="AS229">
+        <v>0.46</v>
+      </c>
+      <c r="AT229">
+        <v>0.77</v>
+      </c>
+      <c r="AU229">
+        <v>1.19</v>
+      </c>
+      <c r="AV229">
+        <v>1.3</v>
+      </c>
+      <c r="AW229">
+        <v>2.49</v>
+      </c>
+      <c r="AX229">
+        <v>2.5</v>
+      </c>
+      <c r="AY229">
+        <v>8</v>
+      </c>
+      <c r="AZ229">
+        <v>1.73</v>
+      </c>
+      <c r="BA229">
+        <v>1.23</v>
+      </c>
+      <c r="BB229">
+        <v>1.5</v>
+      </c>
+      <c r="BC229">
+        <v>1.8</v>
+      </c>
+      <c r="BD229">
+        <v>2.25</v>
+      </c>
+      <c r="BE229">
+        <v>3.25</v>
+      </c>
+      <c r="BF229">
+        <v>3</v>
+      </c>
+      <c r="BG229">
+        <v>4</v>
+      </c>
+      <c r="BH229">
+        <v>2</v>
+      </c>
+      <c r="BI229">
+        <v>5</v>
+      </c>
+      <c r="BJ229">
+        <v>5</v>
+      </c>
+      <c r="BK229">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2547426</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44975.69791666666</v>
+      </c>
+      <c r="F230">
+        <v>26</v>
+      </c>
+      <c r="G230" t="s">
+        <v>74</v>
+      </c>
+      <c r="H230" t="s">
+        <v>65</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>2</v>
+      </c>
+      <c r="K230">
+        <v>3</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>4</v>
+      </c>
+      <c r="N230">
+        <v>6</v>
+      </c>
+      <c r="O230" t="s">
+        <v>242</v>
+      </c>
+      <c r="P230" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q230">
+        <v>3</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>3</v>
+      </c>
+      <c r="T230">
+        <v>2.15</v>
+      </c>
+      <c r="U230">
+        <v>2.25</v>
+      </c>
+      <c r="V230">
+        <v>4.6</v>
+      </c>
+      <c r="W230">
+        <v>1.36</v>
+      </c>
+      <c r="X230">
+        <v>3</v>
+      </c>
+      <c r="Y230">
+        <v>2.5</v>
+      </c>
+      <c r="Z230">
+        <v>1.5</v>
+      </c>
+      <c r="AA230">
+        <v>6</v>
+      </c>
+      <c r="AB230">
+        <v>1.11</v>
+      </c>
+      <c r="AC230">
+        <v>1.61</v>
+      </c>
+      <c r="AD230">
+        <v>4.1</v>
+      </c>
+      <c r="AE230">
+        <v>5.3</v>
+      </c>
+      <c r="AF230">
+        <v>1.05</v>
+      </c>
+      <c r="AG230">
+        <v>9</v>
+      </c>
+      <c r="AH230">
+        <v>1.29</v>
+      </c>
+      <c r="AI230">
+        <v>3.5</v>
+      </c>
+      <c r="AJ230">
+        <v>1.82</v>
+      </c>
+      <c r="AK230">
+        <v>1.99</v>
+      </c>
+      <c r="AL230">
+        <v>1.85</v>
+      </c>
+      <c r="AM230">
+        <v>1.85</v>
+      </c>
+      <c r="AN230">
+        <v>1.11</v>
+      </c>
+      <c r="AO230">
+        <v>1.22</v>
+      </c>
+      <c r="AP230">
+        <v>2.38</v>
+      </c>
+      <c r="AQ230">
+        <v>2.42</v>
+      </c>
+      <c r="AR230">
+        <v>1.25</v>
+      </c>
+      <c r="AS230">
+        <v>2.23</v>
+      </c>
+      <c r="AT230">
+        <v>1.38</v>
+      </c>
+      <c r="AU230">
+        <v>1.85</v>
+      </c>
+      <c r="AV230">
+        <v>1.3</v>
+      </c>
+      <c r="AW230">
+        <v>3.15</v>
+      </c>
+      <c r="AX230">
+        <v>1.4</v>
+      </c>
+      <c r="AY230">
+        <v>9</v>
+      </c>
+      <c r="AZ230">
+        <v>3.4</v>
+      </c>
+      <c r="BA230">
+        <v>1.2</v>
+      </c>
+      <c r="BB230">
+        <v>1.48</v>
+      </c>
+      <c r="BC230">
+        <v>1.73</v>
+      </c>
+      <c r="BD230">
+        <v>2.1</v>
+      </c>
+      <c r="BE230">
+        <v>2.7</v>
+      </c>
+      <c r="BF230">
+        <v>7</v>
+      </c>
+      <c r="BG230">
+        <v>7</v>
+      </c>
+      <c r="BH230">
+        <v>4</v>
+      </c>
+      <c r="BI230">
+        <v>2</v>
+      </c>
+      <c r="BJ230">
+        <v>11</v>
+      </c>
+      <c r="BK230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2547425</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44976.39583333334</v>
+      </c>
+      <c r="F231">
+        <v>26</v>
+      </c>
+      <c r="G231" t="s">
+        <v>75</v>
+      </c>
+      <c r="H231" t="s">
+        <v>70</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>4</v>
+      </c>
+      <c r="O231" t="s">
+        <v>243</v>
+      </c>
+      <c r="P231" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q231">
+        <v>17</v>
+      </c>
+      <c r="R231">
+        <v>4</v>
+      </c>
+      <c r="S231">
+        <v>21</v>
+      </c>
+      <c r="T231">
+        <v>3.75</v>
+      </c>
+      <c r="U231">
+        <v>2.2</v>
+      </c>
+      <c r="V231">
+        <v>2.75</v>
+      </c>
+      <c r="W231">
+        <v>1.38</v>
+      </c>
+      <c r="X231">
+        <v>2.8</v>
+      </c>
+      <c r="Y231">
+        <v>2.75</v>
+      </c>
+      <c r="Z231">
+        <v>1.4</v>
+      </c>
+      <c r="AA231">
+        <v>7.25</v>
+      </c>
+      <c r="AB231">
+        <v>1.09</v>
+      </c>
+      <c r="AC231">
+        <v>3.26</v>
+      </c>
+      <c r="AD231">
+        <v>3.58</v>
+      </c>
+      <c r="AE231">
+        <v>2.16</v>
+      </c>
+      <c r="AF231">
+        <v>1.05</v>
+      </c>
+      <c r="AG231">
+        <v>11.75</v>
+      </c>
+      <c r="AH231">
+        <v>1.29</v>
+      </c>
+      <c r="AI231">
+        <v>3.63</v>
+      </c>
+      <c r="AJ231">
+        <v>1.75</v>
+      </c>
+      <c r="AK231">
+        <v>1.91</v>
+      </c>
+      <c r="AL231">
+        <v>1.7</v>
+      </c>
+      <c r="AM231">
+        <v>2.05</v>
+      </c>
+      <c r="AN231">
+        <v>1.65</v>
+      </c>
+      <c r="AO231">
+        <v>1.32</v>
+      </c>
+      <c r="AP231">
+        <v>1.35</v>
+      </c>
+      <c r="AQ231">
+        <v>1.67</v>
+      </c>
+      <c r="AR231">
+        <v>1.5</v>
+      </c>
+      <c r="AS231">
+        <v>1.62</v>
+      </c>
+      <c r="AT231">
+        <v>1.46</v>
+      </c>
+      <c r="AU231">
+        <v>1.71</v>
+      </c>
+      <c r="AV231">
+        <v>1.37</v>
+      </c>
+      <c r="AW231">
+        <v>3.08</v>
+      </c>
+      <c r="AX231">
+        <v>2.16</v>
+      </c>
+      <c r="AY231">
+        <v>7.7</v>
+      </c>
+      <c r="AZ231">
+        <v>2</v>
+      </c>
+      <c r="BA231">
+        <v>1.21</v>
+      </c>
+      <c r="BB231">
+        <v>1.48</v>
+      </c>
+      <c r="BC231">
+        <v>1.73</v>
+      </c>
+      <c r="BD231">
+        <v>2.1</v>
+      </c>
+      <c r="BE231">
+        <v>2.7</v>
+      </c>
+      <c r="BF231">
+        <v>11</v>
+      </c>
+      <c r="BG231">
+        <v>6</v>
+      </c>
+      <c r="BH231">
+        <v>13</v>
+      </c>
+      <c r="BI231">
+        <v>0</v>
+      </c>
+      <c r="BJ231">
+        <v>24</v>
+      </c>
+      <c r="BK231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2547421</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44976.5</v>
+      </c>
+      <c r="F232">
+        <v>26</v>
+      </c>
+      <c r="G232" t="s">
+        <v>78</v>
+      </c>
+      <c r="H232" t="s">
+        <v>76</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>244</v>
+      </c>
+      <c r="P232" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q232">
+        <v>4</v>
+      </c>
+      <c r="R232">
+        <v>9</v>
+      </c>
+      <c r="S232">
+        <v>13</v>
+      </c>
+      <c r="T232">
+        <v>2.1</v>
+      </c>
+      <c r="U232">
+        <v>2.3</v>
+      </c>
+      <c r="V232">
+        <v>5.25</v>
+      </c>
+      <c r="W232">
+        <v>1.35</v>
+      </c>
+      <c r="X232">
+        <v>3.05</v>
+      </c>
+      <c r="Y232">
+        <v>2.55</v>
+      </c>
+      <c r="Z232">
+        <v>1.45</v>
+      </c>
+      <c r="AA232">
+        <v>6.5</v>
+      </c>
+      <c r="AB232">
+        <v>1.11</v>
+      </c>
+      <c r="AC232">
+        <v>1.62</v>
+      </c>
+      <c r="AD232">
+        <v>4.24</v>
+      </c>
+      <c r="AE232">
+        <v>5.2</v>
+      </c>
+      <c r="AF232">
+        <v>1.04</v>
+      </c>
+      <c r="AG232">
+        <v>14.25</v>
+      </c>
+      <c r="AH232">
+        <v>1.25</v>
+      </c>
+      <c r="AI232">
+        <v>4.02</v>
+      </c>
+      <c r="AJ232">
+        <v>1.73</v>
+      </c>
+      <c r="AK232">
+        <v>1.91</v>
+      </c>
+      <c r="AL232">
+        <v>1.78</v>
+      </c>
+      <c r="AM232">
+        <v>1.9</v>
+      </c>
+      <c r="AN232">
+        <v>1.16</v>
+      </c>
+      <c r="AO232">
+        <v>1.22</v>
+      </c>
+      <c r="AP232">
+        <v>2.3</v>
+      </c>
+      <c r="AQ232">
+        <v>1.75</v>
+      </c>
+      <c r="AR232">
+        <v>1.23</v>
+      </c>
+      <c r="AS232">
+        <v>1.85</v>
+      </c>
+      <c r="AT232">
+        <v>1.14</v>
+      </c>
+      <c r="AU232">
+        <v>1.86</v>
+      </c>
+      <c r="AV232">
+        <v>1.44</v>
+      </c>
+      <c r="AW232">
+        <v>3.3</v>
+      </c>
+      <c r="AX232">
+        <v>1.32</v>
+      </c>
+      <c r="AY232">
+        <v>9.9</v>
+      </c>
+      <c r="AZ232">
+        <v>4.24</v>
+      </c>
+      <c r="BA232">
+        <v>1.14</v>
+      </c>
+      <c r="BB232">
+        <v>1.29</v>
+      </c>
+      <c r="BC232">
+        <v>1.57</v>
+      </c>
+      <c r="BD232">
+        <v>1.91</v>
+      </c>
+      <c r="BE232">
+        <v>2.4</v>
+      </c>
+      <c r="BF232">
+        <v>7</v>
+      </c>
+      <c r="BG232">
+        <v>5</v>
+      </c>
+      <c r="BH232">
+        <v>6</v>
+      </c>
+      <c r="BI232">
+        <v>7</v>
+      </c>
+      <c r="BJ232">
+        <v>13</v>
+      </c>
+      <c r="BK232">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2547423</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44976.60416666666</v>
+      </c>
+      <c r="F233">
+        <v>26</v>
+      </c>
+      <c r="G233" t="s">
+        <v>67</v>
+      </c>
+      <c r="H233" t="s">
+        <v>72</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>2</v>
+      </c>
+      <c r="N233">
+        <v>4</v>
+      </c>
+      <c r="O233" t="s">
+        <v>245</v>
+      </c>
+      <c r="P233" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q233">
+        <v>6</v>
+      </c>
+      <c r="R233">
+        <v>4</v>
+      </c>
+      <c r="S233">
+        <v>10</v>
+      </c>
+      <c r="T233">
+        <v>3.9</v>
+      </c>
+      <c r="U233">
+        <v>2.2</v>
+      </c>
+      <c r="V233">
+        <v>2.45</v>
+      </c>
+      <c r="W233">
+        <v>1.35</v>
+      </c>
+      <c r="X233">
+        <v>3.05</v>
+      </c>
+      <c r="Y233">
+        <v>2.55</v>
+      </c>
+      <c r="Z233">
+        <v>1.45</v>
+      </c>
+      <c r="AA233">
+        <v>6.5</v>
+      </c>
+      <c r="AB233">
+        <v>1.11</v>
+      </c>
+      <c r="AC233">
+        <v>3.1</v>
+      </c>
+      <c r="AD233">
+        <v>3.5</v>
+      </c>
+      <c r="AE233">
+        <v>2.11</v>
+      </c>
+      <c r="AF233">
+        <v>1.04</v>
+      </c>
+      <c r="AG233">
+        <v>13.75</v>
+      </c>
+      <c r="AH233">
+        <v>1.24</v>
+      </c>
+      <c r="AI233">
+        <v>4.1</v>
+      </c>
+      <c r="AJ233">
+        <v>1.74</v>
+      </c>
+      <c r="AK233">
+        <v>2.1</v>
+      </c>
+      <c r="AL233">
+        <v>1.62</v>
+      </c>
+      <c r="AM233">
+        <v>2.2</v>
+      </c>
+      <c r="AN233">
+        <v>1.82</v>
+      </c>
+      <c r="AO233">
+        <v>1.27</v>
+      </c>
+      <c r="AP233">
+        <v>1.27</v>
+      </c>
+      <c r="AQ233">
+        <v>1</v>
+      </c>
+      <c r="AR233">
+        <v>1.42</v>
+      </c>
+      <c r="AS233">
+        <v>1</v>
+      </c>
+      <c r="AT233">
+        <v>1.38</v>
+      </c>
+      <c r="AU233">
+        <v>1.51</v>
+      </c>
+      <c r="AV233">
+        <v>1.29</v>
+      </c>
+      <c r="AW233">
+        <v>2.8</v>
+      </c>
+      <c r="AX233">
+        <v>2.77</v>
+      </c>
+      <c r="AY233">
+        <v>7.9</v>
+      </c>
+      <c r="AZ233">
+        <v>1.65</v>
+      </c>
+      <c r="BA233">
+        <v>1.23</v>
+      </c>
+      <c r="BB233">
+        <v>1.5</v>
+      </c>
+      <c r="BC233">
+        <v>1.8</v>
+      </c>
+      <c r="BD233">
+        <v>2.25</v>
+      </c>
+      <c r="BE233">
+        <v>3.08</v>
+      </c>
+      <c r="BF233">
+        <v>8</v>
+      </c>
+      <c r="BG233">
+        <v>6</v>
+      </c>
+      <c r="BH233">
+        <v>5</v>
+      </c>
+      <c r="BI233">
+        <v>5</v>
+      </c>
+      <c r="BJ233">
+        <v>13</v>
+      </c>
+      <c r="BK233">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2547428</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44976.63541666666</v>
+      </c>
+      <c r="F234">
+        <v>26</v>
+      </c>
+      <c r="G234" t="s">
+        <v>69</v>
+      </c>
+      <c r="H234" t="s">
+        <v>73</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
+        <v>85</v>
+      </c>
+      <c r="P234" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q234">
+        <v>1</v>
+      </c>
+      <c r="R234">
+        <v>6</v>
+      </c>
+      <c r="S234">
+        <v>7</v>
+      </c>
+      <c r="T234">
+        <v>3.4</v>
+      </c>
+      <c r="U234">
+        <v>2.1</v>
+      </c>
+      <c r="V234">
+        <v>3.4</v>
+      </c>
+      <c r="W234">
+        <v>1.44</v>
+      </c>
+      <c r="X234">
+        <v>2.63</v>
+      </c>
+      <c r="Y234">
+        <v>3.25</v>
+      </c>
+      <c r="Z234">
+        <v>1.33</v>
+      </c>
+      <c r="AA234">
+        <v>9</v>
+      </c>
+      <c r="AB234">
+        <v>1.07</v>
+      </c>
+      <c r="AC234">
+        <v>2.2</v>
+      </c>
+      <c r="AD234">
+        <v>3.25</v>
+      </c>
+      <c r="AE234">
+        <v>3.15</v>
+      </c>
+      <c r="AF234">
+        <v>1.03</v>
+      </c>
+      <c r="AG234">
+        <v>8.4</v>
+      </c>
+      <c r="AH234">
+        <v>1.31</v>
+      </c>
+      <c r="AI234">
+        <v>3.08</v>
+      </c>
+      <c r="AJ234">
+        <v>2.01</v>
+      </c>
+      <c r="AK234">
+        <v>1.85</v>
+      </c>
+      <c r="AL234">
+        <v>1.8</v>
+      </c>
+      <c r="AM234">
+        <v>1.95</v>
+      </c>
+      <c r="AN234">
+        <v>1.49</v>
+      </c>
+      <c r="AO234">
+        <v>1.32</v>
+      </c>
+      <c r="AP234">
+        <v>1.47</v>
+      </c>
+      <c r="AQ234">
+        <v>1.25</v>
+      </c>
+      <c r="AR234">
+        <v>1.25</v>
+      </c>
+      <c r="AS234">
+        <v>1.15</v>
+      </c>
+      <c r="AT234">
+        <v>1.38</v>
+      </c>
+      <c r="AU234">
+        <v>1.41</v>
+      </c>
+      <c r="AV234">
+        <v>1.31</v>
+      </c>
+      <c r="AW234">
+        <v>2.72</v>
+      </c>
+      <c r="AX234">
+        <v>1.96</v>
+      </c>
+      <c r="AY234">
+        <v>7.5</v>
+      </c>
+      <c r="AZ234">
+        <v>2.22</v>
+      </c>
+      <c r="BA234">
+        <v>1.22</v>
+      </c>
+      <c r="BB234">
+        <v>1.44</v>
+      </c>
+      <c r="BC234">
+        <v>1.8</v>
+      </c>
+      <c r="BD234">
+        <v>2.29</v>
+      </c>
+      <c r="BE234">
+        <v>3.08</v>
+      </c>
+      <c r="BF234">
+        <v>2</v>
+      </c>
+      <c r="BG234">
+        <v>4</v>
+      </c>
+      <c r="BH234">
+        <v>1</v>
+      </c>
+      <c r="BI234">
+        <v>9</v>
+      </c>
+      <c r="BJ234">
+        <v>3</v>
+      </c>
+      <c r="BK234">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="364">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,9 @@
     <t>['57', '67']</t>
   </si>
   <si>
+    <t>['30', '49', '83']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -1100,6 +1103,9 @@
   </si>
   <si>
     <t>['41', '83']</t>
+  </si>
+  <si>
+    <t>['15', '44', '65']</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1711,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1896,7 +1902,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2087,7 +2093,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2365,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2660,7 +2666,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2851,7 +2857,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -4188,7 +4194,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4379,7 +4385,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4570,7 +4576,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4761,7 +4767,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5334,7 +5340,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5716,7 +5722,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6480,7 +6486,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6671,7 +6677,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6862,7 +6868,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7053,7 +7059,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7435,7 +7441,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7817,7 +7823,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8008,7 +8014,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8199,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8390,7 +8396,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8477,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT37">
         <v>2.23</v>
@@ -8581,7 +8587,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8963,7 +8969,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9154,7 +9160,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -9345,7 +9351,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9432,7 +9438,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT42">
         <v>1.23</v>
@@ -9536,7 +9542,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9727,7 +9733,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9918,7 +9924,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10109,7 +10115,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10300,7 +10306,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10873,7 +10879,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11446,7 +11452,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11637,7 +11643,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12401,7 +12407,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12592,7 +12598,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12974,7 +12980,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13356,7 +13362,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13547,7 +13553,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13634,7 +13640,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT64">
         <v>2.08</v>
@@ -13738,7 +13744,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13929,7 +13935,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14120,7 +14126,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14502,7 +14508,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14693,7 +14699,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14884,7 +14890,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15075,7 +15081,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15839,7 +15845,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16030,7 +16036,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -16117,7 +16123,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT77">
         <v>1.54</v>
@@ -16221,7 +16227,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16985,7 +16991,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17176,7 +17182,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17367,7 +17373,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17558,7 +17564,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18131,7 +18137,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -18322,7 +18328,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18704,7 +18710,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -19086,7 +19092,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19277,7 +19283,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19364,7 +19370,7 @@
         <v>1.6</v>
       </c>
       <c r="AS94">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT94">
         <v>1.14</v>
@@ -19659,7 +19665,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19850,7 +19856,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20041,7 +20047,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20614,7 +20620,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20805,7 +20811,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20996,7 +21002,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21378,7 +21384,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -22142,7 +22148,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22333,7 +22339,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22524,7 +22530,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23861,7 +23867,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23948,7 +23954,7 @@
         <v>1.2</v>
       </c>
       <c r="AS118">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT118">
         <v>1.38</v>
@@ -24243,7 +24249,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24434,7 +24440,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24816,7 +24822,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -25007,7 +25013,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25198,7 +25204,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25580,7 +25586,7 @@
         <v>174</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25962,7 +25968,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26049,7 +26055,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT129">
         <v>1.38</v>
@@ -26344,7 +26350,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26535,7 +26541,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26726,7 +26732,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26917,7 +26923,7 @@
         <v>92</v>
       </c>
       <c r="P134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -27681,7 +27687,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27872,7 +27878,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -28063,7 +28069,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28636,7 +28642,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -29018,7 +29024,7 @@
         <v>189</v>
       </c>
       <c r="P145" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29782,7 +29788,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29869,7 +29875,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT149">
         <v>0.85</v>
@@ -29973,7 +29979,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30164,7 +30170,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30355,7 +30361,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30546,7 +30552,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30737,7 +30743,7 @@
         <v>85</v>
       </c>
       <c r="P154" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31310,7 +31316,7 @@
         <v>110</v>
       </c>
       <c r="P157" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31883,7 +31889,7 @@
         <v>85</v>
       </c>
       <c r="P160" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -32265,7 +32271,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32456,7 +32462,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q163">
         <v>9</v>
@@ -32647,7 +32653,7 @@
         <v>171</v>
       </c>
       <c r="P164" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32838,7 +32844,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33029,7 +33035,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33689,7 +33695,7 @@
         <v>0.57</v>
       </c>
       <c r="AS169">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT169">
         <v>0.36</v>
@@ -33793,7 +33799,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -33984,7 +33990,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34175,7 +34181,7 @@
         <v>176</v>
       </c>
       <c r="P172" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34366,7 +34372,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34748,7 +34754,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -35703,7 +35709,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -36276,7 +36282,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36467,7 +36473,7 @@
         <v>98</v>
       </c>
       <c r="P184" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36658,7 +36664,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36849,7 +36855,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -37040,7 +37046,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37700,7 +37706,7 @@
         <v>1.3</v>
       </c>
       <c r="AS190">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT190">
         <v>1.38</v>
@@ -37804,7 +37810,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37995,7 +38001,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q192">
         <v>9</v>
@@ -38377,7 +38383,7 @@
         <v>221</v>
       </c>
       <c r="P194" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38568,7 +38574,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38759,7 +38765,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38950,7 +38956,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -39714,7 +39720,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -39905,7 +39911,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40287,7 +40293,7 @@
         <v>227</v>
       </c>
       <c r="P204" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40478,7 +40484,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40565,7 +40571,7 @@
         <v>1.4</v>
       </c>
       <c r="AS205">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT205">
         <v>1.46</v>
@@ -41051,7 +41057,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41242,7 +41248,7 @@
         <v>115</v>
       </c>
       <c r="P209" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41433,7 +41439,7 @@
         <v>98</v>
       </c>
       <c r="P210" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41624,7 +41630,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -42197,7 +42203,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42388,7 +42394,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42961,7 +42967,7 @@
         <v>110</v>
       </c>
       <c r="P218" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q218">
         <v>5</v>
@@ -43343,7 +43349,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43725,7 +43731,7 @@
         <v>85</v>
       </c>
       <c r="P222" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -43916,7 +43922,7 @@
         <v>239</v>
       </c>
       <c r="P223" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44107,7 +44113,7 @@
         <v>85</v>
       </c>
       <c r="P224" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44385,7 +44391,7 @@
         <v>0.5</v>
       </c>
       <c r="AS225">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT225">
         <v>0.54</v>
@@ -44489,7 +44495,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -45253,7 +45259,7 @@
         <v>242</v>
       </c>
       <c r="P230" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45444,7 +45450,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q231">
         <v>17</v>
@@ -45826,7 +45832,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -46017,7 +46023,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q234">
         <v>1</v>
@@ -46159,6 +46165,197 @@
       </c>
       <c r="BK234">
         <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2547435</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44981.69791666666</v>
+      </c>
+      <c r="F235">
+        <v>27</v>
+      </c>
+      <c r="G235" t="s">
+        <v>68</v>
+      </c>
+      <c r="H235" t="s">
+        <v>67</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>2</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>6</v>
+      </c>
+      <c r="O235" t="s">
+        <v>246</v>
+      </c>
+      <c r="P235" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q235">
+        <v>8</v>
+      </c>
+      <c r="R235">
+        <v>5</v>
+      </c>
+      <c r="S235">
+        <v>13</v>
+      </c>
+      <c r="T235">
+        <v>2.6</v>
+      </c>
+      <c r="U235">
+        <v>2.2</v>
+      </c>
+      <c r="V235">
+        <v>3.5</v>
+      </c>
+      <c r="W235">
+        <v>1.32</v>
+      </c>
+      <c r="X235">
+        <v>3.1</v>
+      </c>
+      <c r="Y235">
+        <v>2.45</v>
+      </c>
+      <c r="Z235">
+        <v>1.49</v>
+      </c>
+      <c r="AA235">
+        <v>5.75</v>
+      </c>
+      <c r="AB235">
+        <v>1.11</v>
+      </c>
+      <c r="AC235">
+        <v>2.15</v>
+      </c>
+      <c r="AD235">
+        <v>3.25</v>
+      </c>
+      <c r="AE235">
+        <v>2.8</v>
+      </c>
+      <c r="AF235">
+        <v>1.03</v>
+      </c>
+      <c r="AG235">
+        <v>15</v>
+      </c>
+      <c r="AH235">
+        <v>1.2</v>
+      </c>
+      <c r="AI235">
+        <v>4.33</v>
+      </c>
+      <c r="AJ235">
+        <v>1.65</v>
+      </c>
+      <c r="AK235">
+        <v>2.2</v>
+      </c>
+      <c r="AL235">
+        <v>1.58</v>
+      </c>
+      <c r="AM235">
+        <v>2.2</v>
+      </c>
+      <c r="AN235">
+        <v>1.33</v>
+      </c>
+      <c r="AO235">
+        <v>1.27</v>
+      </c>
+      <c r="AP235">
+        <v>1.7</v>
+      </c>
+      <c r="AQ235">
+        <v>0.92</v>
+      </c>
+      <c r="AR235">
+        <v>1</v>
+      </c>
+      <c r="AS235">
+        <v>0.93</v>
+      </c>
+      <c r="AT235">
+        <v>1</v>
+      </c>
+      <c r="AU235">
+        <v>1.45</v>
+      </c>
+      <c r="AV235">
+        <v>1.23</v>
+      </c>
+      <c r="AW235">
+        <v>2.68</v>
+      </c>
+      <c r="AX235">
+        <v>1.62</v>
+      </c>
+      <c r="AY235">
+        <v>8.5</v>
+      </c>
+      <c r="AZ235">
+        <v>2.63</v>
+      </c>
+      <c r="BA235">
+        <v>1.19</v>
+      </c>
+      <c r="BB235">
+        <v>1.43</v>
+      </c>
+      <c r="BC235">
+        <v>1.7</v>
+      </c>
+      <c r="BD235">
+        <v>2.1</v>
+      </c>
+      <c r="BE235">
+        <v>2.63</v>
+      </c>
+      <c r="BF235">
+        <v>6</v>
+      </c>
+      <c r="BG235">
+        <v>6</v>
+      </c>
+      <c r="BH235">
+        <v>13</v>
+      </c>
+      <c r="BI235">
+        <v>4</v>
+      </c>
+      <c r="BJ235">
+        <v>19</v>
+      </c>
+      <c r="BK235">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,15 @@
     <t>['30', '49', '83']</t>
   </si>
   <si>
+    <t>['9', '41', '73']</t>
+  </si>
+  <si>
+    <t>['10', '28']</t>
+  </si>
+  <si>
+    <t>['16', '20', '73', '89']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -1106,6 +1115,15 @@
   </si>
   <si>
     <t>['15', '44', '65']</t>
+  </si>
+  <si>
+    <t>['35', '55']</t>
+  </si>
+  <si>
+    <t>['13', '39']</t>
+  </si>
+  <si>
+    <t>['40', '67']</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK235"/>
+  <dimension ref="A1:BK239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1729,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1902,7 +1920,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2093,7 +2111,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2565,7 +2583,7 @@
         <v>1.15</v>
       </c>
       <c r="AT6">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2666,7 +2684,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2857,7 +2875,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3138,7 +3156,7 @@
         <v>1.31</v>
       </c>
       <c r="AT9">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3326,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT10">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4093,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4194,7 +4212,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4385,7 +4403,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4472,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT16">
         <v>1.38</v>
@@ -4576,7 +4594,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4663,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT17">
         <v>1.46</v>
@@ -4767,7 +4785,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4854,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -5340,7 +5358,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5427,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT21">
         <v>0.85</v>
@@ -5722,7 +5740,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5812,7 +5830,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU23">
         <v>1.49</v>
@@ -6003,7 +6021,7 @@
         <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU24">
         <v>1.52</v>
@@ -6194,7 +6212,7 @@
         <v>1.77</v>
       </c>
       <c r="AT25">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU25">
         <v>1.02</v>
@@ -6486,7 +6504,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6677,7 +6695,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6868,7 +6886,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7059,7 +7077,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7146,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT30">
         <v>1.38</v>
@@ -7340,7 +7358,7 @@
         <v>1.62</v>
       </c>
       <c r="AT31">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU31">
         <v>1.73</v>
@@ -7441,7 +7459,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7528,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT32">
         <v>1.23</v>
@@ -7823,7 +7841,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8014,7 +8032,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8101,7 +8119,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT35">
         <v>1.62</v>
@@ -8205,7 +8223,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8396,7 +8414,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8587,7 +8605,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8674,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8969,7 +8987,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9056,10 +9074,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT40">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU40">
         <v>2.52</v>
@@ -9160,7 +9178,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -9351,7 +9369,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9542,7 +9560,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9733,7 +9751,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9924,7 +9942,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10115,7 +10133,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10202,7 +10220,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT46">
         <v>2.23</v>
@@ -10306,7 +10324,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10587,7 +10605,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU48">
         <v>1.63</v>
@@ -10778,7 +10796,7 @@
         <v>1.15</v>
       </c>
       <c r="AT49">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU49">
         <v>1.49</v>
@@ -10879,7 +10897,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11452,7 +11470,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11539,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT53">
         <v>0.85</v>
@@ -11643,7 +11661,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11733,7 +11751,7 @@
         <v>2.46</v>
       </c>
       <c r="AT54">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12115,7 +12133,7 @@
         <v>1.85</v>
       </c>
       <c r="AT56">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU56">
         <v>2.27</v>
@@ -12303,7 +12321,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT57">
         <v>1.54</v>
@@ -12407,7 +12425,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12494,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12598,7 +12616,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12879,7 +12897,7 @@
         <v>1.77</v>
       </c>
       <c r="AT60">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU60">
         <v>1.75</v>
@@ -12980,7 +12998,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13362,7 +13380,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13553,7 +13571,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13643,7 +13661,7 @@
         <v>0.93</v>
       </c>
       <c r="AT64">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13744,7 +13762,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13935,7 +13953,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14025,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="AT66">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU66">
         <v>1.29</v>
@@ -14126,7 +14144,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14213,7 +14231,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT67">
         <v>1.46</v>
@@ -14508,7 +14526,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14699,7 +14717,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14786,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT70">
         <v>1.38</v>
@@ -14890,7 +14908,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15081,7 +15099,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15845,7 +15863,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15935,7 +15953,7 @@
         <v>1.62</v>
       </c>
       <c r="AT76">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>1.85</v>
@@ -16036,7 +16054,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -16227,7 +16245,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16505,7 +16523,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT79">
         <v>1.38</v>
@@ -16696,10 +16714,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT80">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU80">
         <v>1.97</v>
@@ -16991,7 +17009,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17182,7 +17200,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17373,7 +17391,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17463,7 +17481,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU84">
         <v>1.57</v>
@@ -17564,7 +17582,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17842,7 +17860,7 @@
         <v>0.5</v>
       </c>
       <c r="AS86">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT86">
         <v>0.77</v>
@@ -18036,7 +18054,7 @@
         <v>1.85</v>
       </c>
       <c r="AT87">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU87">
         <v>2.1</v>
@@ -18137,7 +18155,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -18328,7 +18346,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18418,7 +18436,7 @@
         <v>1.85</v>
       </c>
       <c r="AT89">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU89">
         <v>1.81</v>
@@ -18710,7 +18728,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -19092,7 +19110,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19179,7 +19197,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -19283,7 +19301,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19561,10 +19579,10 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT95">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU95">
         <v>1.22</v>
@@ -19665,7 +19683,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19856,7 +19874,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20047,7 +20065,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20134,7 +20152,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT98">
         <v>1.38</v>
@@ -20519,7 +20537,7 @@
         <v>2.23</v>
       </c>
       <c r="AT100">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU100">
         <v>1.79</v>
@@ -20620,7 +20638,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20707,7 +20725,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT101">
         <v>1</v>
@@ -20811,7 +20829,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21002,7 +21020,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21384,7 +21402,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21856,7 +21874,7 @@
         <v>1.85</v>
       </c>
       <c r="AT107">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU107">
         <v>1.81</v>
@@ -22148,7 +22166,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22238,7 +22256,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU109">
         <v>1.51</v>
@@ -22339,7 +22357,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22426,7 +22444,7 @@
         <v>1.83</v>
       </c>
       <c r="AS110">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT110">
         <v>1.14</v>
@@ -22530,7 +22548,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22808,7 +22826,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT112">
         <v>1.38</v>
@@ -22999,10 +23017,10 @@
         <v>0.5</v>
       </c>
       <c r="AS113">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT113">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU113">
         <v>1.28</v>
@@ -23766,7 +23784,7 @@
         <v>2.46</v>
       </c>
       <c r="AT117">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU117">
         <v>1.67</v>
@@ -23867,7 +23885,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24249,7 +24267,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24440,7 +24458,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24822,7 +24840,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -25013,7 +25031,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25204,7 +25222,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25586,7 +25604,7 @@
         <v>174</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25864,10 +25882,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT128">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU128">
         <v>2.27</v>
@@ -25968,7 +25986,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26249,7 +26267,7 @@
         <v>1</v>
       </c>
       <c r="AT130">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU130">
         <v>1.33</v>
@@ -26350,7 +26368,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26437,7 +26455,7 @@
         <v>1.29</v>
       </c>
       <c r="AS131">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT131">
         <v>1.54</v>
@@ -26541,7 +26559,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26631,7 +26649,7 @@
         <v>1.85</v>
       </c>
       <c r="AT132">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU132">
         <v>2.19</v>
@@ -26732,7 +26750,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26923,7 +26941,7 @@
         <v>92</v>
       </c>
       <c r="P134" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -27010,10 +27028,10 @@
         <v>1.86</v>
       </c>
       <c r="AS134">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT134">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU134">
         <v>1.23</v>
@@ -27583,7 +27601,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT137">
         <v>1.23</v>
@@ -27687,7 +27705,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27878,7 +27896,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27965,7 +27983,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT139">
         <v>1.54</v>
@@ -28069,7 +28087,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28347,7 +28365,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT141">
         <v>1.38</v>
@@ -28642,7 +28660,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -29024,7 +29042,7 @@
         <v>189</v>
       </c>
       <c r="P145" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29493,10 +29511,10 @@
         <v>0.63</v>
       </c>
       <c r="AS147">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT147">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU147">
         <v>1.7</v>
@@ -29687,7 +29705,7 @@
         <v>1.15</v>
       </c>
       <c r="AT148">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU148">
         <v>1.59</v>
@@ -29788,7 +29806,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29979,7 +29997,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30170,7 +30188,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30260,7 +30278,7 @@
         <v>1.77</v>
       </c>
       <c r="AT151">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU151">
         <v>1.57</v>
@@ -30361,7 +30379,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30552,7 +30570,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30743,7 +30761,7 @@
         <v>85</v>
       </c>
       <c r="P154" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30830,7 +30848,7 @@
         <v>0.78</v>
       </c>
       <c r="AS154">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT154">
         <v>0.85</v>
@@ -31215,7 +31233,7 @@
         <v>1.64</v>
       </c>
       <c r="AT156">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU156">
         <v>1.8</v>
@@ -31316,7 +31334,7 @@
         <v>110</v>
       </c>
       <c r="P157" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31597,7 +31615,7 @@
         <v>2.23</v>
       </c>
       <c r="AT158">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU158">
         <v>1.77</v>
@@ -31889,7 +31907,7 @@
         <v>85</v>
       </c>
       <c r="P160" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -32271,7 +32289,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32358,7 +32376,7 @@
         <v>1.63</v>
       </c>
       <c r="AS162">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT162">
         <v>1.62</v>
@@ -32462,7 +32480,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q163">
         <v>9</v>
@@ -32653,7 +32671,7 @@
         <v>171</v>
       </c>
       <c r="P164" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32740,7 +32758,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT164">
         <v>1.23</v>
@@ -32844,7 +32862,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33035,7 +33053,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33504,7 +33522,7 @@
         <v>1.63</v>
       </c>
       <c r="AS168">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT168">
         <v>1.46</v>
@@ -33698,7 +33716,7 @@
         <v>0.93</v>
       </c>
       <c r="AT169">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU169">
         <v>1.41</v>
@@ -33799,7 +33817,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -33889,7 +33907,7 @@
         <v>1.31</v>
       </c>
       <c r="AT170">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU170">
         <v>1.79</v>
@@ -33990,7 +34008,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34181,7 +34199,7 @@
         <v>176</v>
       </c>
       <c r="P172" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34268,7 +34286,7 @@
         <v>1.3</v>
       </c>
       <c r="AS172">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT172">
         <v>1.14</v>
@@ -34372,7 +34390,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34459,7 +34477,7 @@
         <v>1.44</v>
       </c>
       <c r="AS173">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT173">
         <v>1.38</v>
@@ -34653,7 +34671,7 @@
         <v>1.64</v>
       </c>
       <c r="AT174">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU174">
         <v>1.89</v>
@@ -34754,7 +34772,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34841,7 +34859,7 @@
         <v>1.6</v>
       </c>
       <c r="AS175">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT175">
         <v>1.54</v>
@@ -35032,7 +35050,7 @@
         <v>0.67</v>
       </c>
       <c r="AS176">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT176">
         <v>0.77</v>
@@ -35709,7 +35727,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -35799,7 +35817,7 @@
         <v>1.33</v>
       </c>
       <c r="AT180">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU180">
         <v>1.52</v>
@@ -36181,7 +36199,7 @@
         <v>1.77</v>
       </c>
       <c r="AT182">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU182">
         <v>1.56</v>
@@ -36282,7 +36300,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36369,7 +36387,7 @@
         <v>2.33</v>
       </c>
       <c r="AS183">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT183">
         <v>2.23</v>
@@ -36473,7 +36491,7 @@
         <v>98</v>
       </c>
       <c r="P184" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36563,7 +36581,7 @@
         <v>1.62</v>
       </c>
       <c r="AT184">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU184">
         <v>1.79</v>
@@ -36664,7 +36682,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36855,7 +36873,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -37046,7 +37064,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37810,7 +37828,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37900,7 +37918,7 @@
         <v>1</v>
       </c>
       <c r="AT191">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU191">
         <v>1.67</v>
@@ -38001,7 +38019,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q192">
         <v>9</v>
@@ -38383,7 +38401,7 @@
         <v>221</v>
       </c>
       <c r="P194" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38574,7 +38592,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38661,7 +38679,7 @@
         <v>1.1</v>
       </c>
       <c r="AS195">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT195">
         <v>1.38</v>
@@ -38765,7 +38783,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38956,7 +38974,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -39425,10 +39443,10 @@
         <v>0.44</v>
       </c>
       <c r="AS199">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT199">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU199">
         <v>1.74</v>
@@ -39720,7 +39738,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -39810,7 +39828,7 @@
         <v>1</v>
       </c>
       <c r="AT201">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU201">
         <v>1.52</v>
@@ -39911,7 +39929,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40001,7 +40019,7 @@
         <v>1.33</v>
       </c>
       <c r="AT202">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU202">
         <v>1.53</v>
@@ -40293,7 +40311,7 @@
         <v>227</v>
       </c>
       <c r="P204" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40484,7 +40502,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40762,7 +40780,7 @@
         <v>1.18</v>
       </c>
       <c r="AS206">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT206">
         <v>1</v>
@@ -40953,7 +40971,7 @@
         <v>2.4</v>
       </c>
       <c r="AS207">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT207">
         <v>2.23</v>
@@ -41057,7 +41075,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41248,7 +41266,7 @@
         <v>115</v>
       </c>
       <c r="P209" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41439,7 +41457,7 @@
         <v>98</v>
       </c>
       <c r="P210" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41526,7 +41544,7 @@
         <v>1.27</v>
       </c>
       <c r="AS210">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT210">
         <v>1.38</v>
@@ -41630,7 +41648,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41717,7 +41735,7 @@
         <v>1.33</v>
       </c>
       <c r="AS211">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT211">
         <v>1.14</v>
@@ -42203,7 +42221,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42394,7 +42412,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42866,7 +42884,7 @@
         <v>1.33</v>
       </c>
       <c r="AT217">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU217">
         <v>1.82</v>
@@ -42967,7 +42985,7 @@
         <v>110</v>
       </c>
       <c r="P218" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q218">
         <v>5</v>
@@ -43057,7 +43075,7 @@
         <v>1.85</v>
       </c>
       <c r="AT218">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU218">
         <v>2.04</v>
@@ -43245,10 +43263,10 @@
         <v>0.4</v>
       </c>
       <c r="AS219">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT219">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU219">
         <v>1.6</v>
@@ -43349,7 +43367,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43436,7 +43454,7 @@
         <v>1.42</v>
       </c>
       <c r="AS220">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT220">
         <v>1.38</v>
@@ -43731,7 +43749,7 @@
         <v>85</v>
       </c>
       <c r="P222" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -43818,7 +43836,7 @@
         <v>1.5</v>
       </c>
       <c r="AS222">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT222">
         <v>1.62</v>
@@ -43922,7 +43940,7 @@
         <v>239</v>
       </c>
       <c r="P223" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44113,7 +44131,7 @@
         <v>85</v>
       </c>
       <c r="P224" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44394,7 +44412,7 @@
         <v>0.93</v>
       </c>
       <c r="AT225">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU225">
         <v>1.46</v>
@@ -44495,7 +44513,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -45155,7 +45173,7 @@
         <v>0.75</v>
       </c>
       <c r="AS229">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AT229">
         <v>0.77</v>
@@ -45259,7 +45277,7 @@
         <v>242</v>
       </c>
       <c r="P230" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45450,7 +45468,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q231">
         <v>17</v>
@@ -45832,7 +45850,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -46023,7 +46041,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q234">
         <v>1</v>
@@ -46214,7 +46232,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46356,6 +46374,770 @@
       </c>
       <c r="BK235">
         <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2547434</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F236">
+        <v>27</v>
+      </c>
+      <c r="G236" t="s">
+        <v>81</v>
+      </c>
+      <c r="H236" t="s">
+        <v>71</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236">
+        <v>2</v>
+      </c>
+      <c r="O236" t="s">
+        <v>85</v>
+      </c>
+      <c r="P236" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q236">
+        <v>4</v>
+      </c>
+      <c r="R236">
+        <v>3</v>
+      </c>
+      <c r="S236">
+        <v>7</v>
+      </c>
+      <c r="T236">
+        <v>3.8</v>
+      </c>
+      <c r="U236">
+        <v>2.15</v>
+      </c>
+      <c r="V236">
+        <v>2.5</v>
+      </c>
+      <c r="W236">
+        <v>1.35</v>
+      </c>
+      <c r="X236">
+        <v>2.95</v>
+      </c>
+      <c r="Y236">
+        <v>2.55</v>
+      </c>
+      <c r="Z236">
+        <v>1.44</v>
+      </c>
+      <c r="AA236">
+        <v>6.25</v>
+      </c>
+      <c r="AB236">
+        <v>1.1</v>
+      </c>
+      <c r="AC236">
+        <v>3.25</v>
+      </c>
+      <c r="AD236">
+        <v>3.4</v>
+      </c>
+      <c r="AE236">
+        <v>1.9</v>
+      </c>
+      <c r="AF236">
+        <v>1.04</v>
+      </c>
+      <c r="AG236">
+        <v>13</v>
+      </c>
+      <c r="AH236">
+        <v>1.28</v>
+      </c>
+      <c r="AI236">
+        <v>3.75</v>
+      </c>
+      <c r="AJ236">
+        <v>1.73</v>
+      </c>
+      <c r="AK236">
+        <v>1.91</v>
+      </c>
+      <c r="AL236">
+        <v>1.68</v>
+      </c>
+      <c r="AM236">
+        <v>2.05</v>
+      </c>
+      <c r="AN236">
+        <v>1.78</v>
+      </c>
+      <c r="AO236">
+        <v>1.27</v>
+      </c>
+      <c r="AP236">
+        <v>1.29</v>
+      </c>
+      <c r="AQ236">
+        <v>0.46</v>
+      </c>
+      <c r="AR236">
+        <v>0.36</v>
+      </c>
+      <c r="AS236">
+        <v>0.43</v>
+      </c>
+      <c r="AT236">
+        <v>0.58</v>
+      </c>
+      <c r="AU236">
+        <v>1.16</v>
+      </c>
+      <c r="AV236">
+        <v>1.22</v>
+      </c>
+      <c r="AW236">
+        <v>2.38</v>
+      </c>
+      <c r="AX236">
+        <v>2.88</v>
+      </c>
+      <c r="AY236">
+        <v>8.5</v>
+      </c>
+      <c r="AZ236">
+        <v>1.57</v>
+      </c>
+      <c r="BA236">
+        <v>1.2</v>
+      </c>
+      <c r="BB236">
+        <v>1.43</v>
+      </c>
+      <c r="BC236">
+        <v>1.7</v>
+      </c>
+      <c r="BD236">
+        <v>2.1</v>
+      </c>
+      <c r="BE236">
+        <v>2.63</v>
+      </c>
+      <c r="BF236">
+        <v>2</v>
+      </c>
+      <c r="BG236">
+        <v>5</v>
+      </c>
+      <c r="BH236">
+        <v>7</v>
+      </c>
+      <c r="BI236">
+        <v>5</v>
+      </c>
+      <c r="BJ236">
+        <v>9</v>
+      </c>
+      <c r="BK236">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2547432</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44982.59375</v>
+      </c>
+      <c r="F237">
+        <v>27</v>
+      </c>
+      <c r="G237" t="s">
+        <v>79</v>
+      </c>
+      <c r="H237" t="s">
+        <v>77</v>
+      </c>
+      <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>247</v>
+      </c>
+      <c r="P237" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q237">
+        <v>4</v>
+      </c>
+      <c r="R237">
+        <v>4</v>
+      </c>
+      <c r="S237">
+        <v>8</v>
+      </c>
+      <c r="T237">
+        <v>1.73</v>
+      </c>
+      <c r="U237">
+        <v>2.6</v>
+      </c>
+      <c r="V237">
+        <v>6</v>
+      </c>
+      <c r="W237">
+        <v>1.23</v>
+      </c>
+      <c r="X237">
+        <v>3.75</v>
+      </c>
+      <c r="Y237">
+        <v>2.05</v>
+      </c>
+      <c r="Z237">
+        <v>1.68</v>
+      </c>
+      <c r="AA237">
+        <v>4.4</v>
+      </c>
+      <c r="AB237">
+        <v>1.18</v>
+      </c>
+      <c r="AC237">
+        <v>1.3</v>
+      </c>
+      <c r="AD237">
+        <v>4.95</v>
+      </c>
+      <c r="AE237">
+        <v>7.25</v>
+      </c>
+      <c r="AF237">
+        <v>1.02</v>
+      </c>
+      <c r="AG237">
+        <v>13.5</v>
+      </c>
+      <c r="AH237">
+        <v>1.16</v>
+      </c>
+      <c r="AI237">
+        <v>4.75</v>
+      </c>
+      <c r="AJ237">
+        <v>1.42</v>
+      </c>
+      <c r="AK237">
+        <v>2.74</v>
+      </c>
+      <c r="AL237">
+        <v>1.7</v>
+      </c>
+      <c r="AM237">
+        <v>2</v>
+      </c>
+      <c r="AN237">
+        <v>1.08</v>
+      </c>
+      <c r="AO237">
+        <v>1.14</v>
+      </c>
+      <c r="AP237">
+        <v>3.2</v>
+      </c>
+      <c r="AQ237">
+        <v>2.62</v>
+      </c>
+      <c r="AR237">
+        <v>0.54</v>
+      </c>
+      <c r="AS237">
+        <v>2.64</v>
+      </c>
+      <c r="AT237">
+        <v>0.5</v>
+      </c>
+      <c r="AU237">
+        <v>2.01</v>
+      </c>
+      <c r="AV237">
+        <v>1.44</v>
+      </c>
+      <c r="AW237">
+        <v>3.45</v>
+      </c>
+      <c r="AX237">
+        <v>1.3</v>
+      </c>
+      <c r="AY237">
+        <v>10</v>
+      </c>
+      <c r="AZ237">
+        <v>4</v>
+      </c>
+      <c r="BA237">
+        <v>1.2</v>
+      </c>
+      <c r="BB237">
+        <v>1.43</v>
+      </c>
+      <c r="BC237">
+        <v>1.7</v>
+      </c>
+      <c r="BD237">
+        <v>2.1</v>
+      </c>
+      <c r="BE237">
+        <v>2.63</v>
+      </c>
+      <c r="BF237">
+        <v>8</v>
+      </c>
+      <c r="BG237">
+        <v>5</v>
+      </c>
+      <c r="BH237">
+        <v>5</v>
+      </c>
+      <c r="BI237">
+        <v>14</v>
+      </c>
+      <c r="BJ237">
+        <v>13</v>
+      </c>
+      <c r="BK237">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2547438</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44982.59375</v>
+      </c>
+      <c r="F238">
+        <v>27</v>
+      </c>
+      <c r="G238" t="s">
+        <v>80</v>
+      </c>
+      <c r="H238" t="s">
+        <v>75</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <v>2</v>
+      </c>
+      <c r="K238">
+        <v>4</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>4</v>
+      </c>
+      <c r="O238" t="s">
+        <v>248</v>
+      </c>
+      <c r="P238" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q238">
+        <v>4</v>
+      </c>
+      <c r="R238">
+        <v>6</v>
+      </c>
+      <c r="S238">
+        <v>10</v>
+      </c>
+      <c r="T238">
+        <v>3.6</v>
+      </c>
+      <c r="U238">
+        <v>2.15</v>
+      </c>
+      <c r="V238">
+        <v>2.65</v>
+      </c>
+      <c r="W238">
+        <v>1.36</v>
+      </c>
+      <c r="X238">
+        <v>2.9</v>
+      </c>
+      <c r="Y238">
+        <v>2.6</v>
+      </c>
+      <c r="Z238">
+        <v>1.42</v>
+      </c>
+      <c r="AA238">
+        <v>6.5</v>
+      </c>
+      <c r="AB238">
+        <v>1.09</v>
+      </c>
+      <c r="AC238">
+        <v>3.1</v>
+      </c>
+      <c r="AD238">
+        <v>3.3</v>
+      </c>
+      <c r="AE238">
+        <v>2</v>
+      </c>
+      <c r="AF238">
+        <v>1.04</v>
+      </c>
+      <c r="AG238">
+        <v>12</v>
+      </c>
+      <c r="AH238">
+        <v>1.28</v>
+      </c>
+      <c r="AI238">
+        <v>3.6</v>
+      </c>
+      <c r="AJ238">
+        <v>1.75</v>
+      </c>
+      <c r="AK238">
+        <v>1.91</v>
+      </c>
+      <c r="AL238">
+        <v>1.68</v>
+      </c>
+      <c r="AM238">
+        <v>2.05</v>
+      </c>
+      <c r="AN238">
+        <v>1.68</v>
+      </c>
+      <c r="AO238">
+        <v>1.28</v>
+      </c>
+      <c r="AP238">
+        <v>1.33</v>
+      </c>
+      <c r="AQ238">
+        <v>1.08</v>
+      </c>
+      <c r="AR238">
+        <v>1.15</v>
+      </c>
+      <c r="AS238">
+        <v>1.07</v>
+      </c>
+      <c r="AT238">
+        <v>1.14</v>
+      </c>
+      <c r="AU238">
+        <v>1.58</v>
+      </c>
+      <c r="AV238">
+        <v>1.41</v>
+      </c>
+      <c r="AW238">
+        <v>2.99</v>
+      </c>
+      <c r="AX238">
+        <v>2.2</v>
+      </c>
+      <c r="AY238">
+        <v>8</v>
+      </c>
+      <c r="AZ238">
+        <v>1.91</v>
+      </c>
+      <c r="BA238">
+        <v>1.2</v>
+      </c>
+      <c r="BB238">
+        <v>1.43</v>
+      </c>
+      <c r="BC238">
+        <v>1.7</v>
+      </c>
+      <c r="BD238">
+        <v>2.1</v>
+      </c>
+      <c r="BE238">
+        <v>2.63</v>
+      </c>
+      <c r="BF238">
+        <v>4</v>
+      </c>
+      <c r="BG238">
+        <v>5</v>
+      </c>
+      <c r="BH238">
+        <v>6</v>
+      </c>
+      <c r="BI238">
+        <v>12</v>
+      </c>
+      <c r="BJ238">
+        <v>10</v>
+      </c>
+      <c r="BK238">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2547436</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44982.69791666666</v>
+      </c>
+      <c r="F239">
+        <v>27</v>
+      </c>
+      <c r="G239" t="s">
+        <v>73</v>
+      </c>
+      <c r="H239" t="s">
+        <v>74</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>3</v>
+      </c>
+      <c r="L239">
+        <v>4</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>6</v>
+      </c>
+      <c r="O239" t="s">
+        <v>249</v>
+      </c>
+      <c r="P239" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q239">
+        <v>4</v>
+      </c>
+      <c r="R239">
+        <v>6</v>
+      </c>
+      <c r="S239">
+        <v>10</v>
+      </c>
+      <c r="T239">
+        <v>3.75</v>
+      </c>
+      <c r="U239">
+        <v>2.15</v>
+      </c>
+      <c r="V239">
+        <v>2.55</v>
+      </c>
+      <c r="W239">
+        <v>1.35</v>
+      </c>
+      <c r="X239">
+        <v>2.9</v>
+      </c>
+      <c r="Y239">
+        <v>2.6</v>
+      </c>
+      <c r="Z239">
+        <v>1.43</v>
+      </c>
+      <c r="AA239">
+        <v>6.5</v>
+      </c>
+      <c r="AB239">
+        <v>1.1</v>
+      </c>
+      <c r="AC239">
+        <v>3.35</v>
+      </c>
+      <c r="AD239">
+        <v>3.55</v>
+      </c>
+      <c r="AE239">
+        <v>2</v>
+      </c>
+      <c r="AF239">
+        <v>1.04</v>
+      </c>
+      <c r="AG239">
+        <v>12</v>
+      </c>
+      <c r="AH239">
+        <v>1.28</v>
+      </c>
+      <c r="AI239">
+        <v>3.6</v>
+      </c>
+      <c r="AJ239">
+        <v>1.63</v>
+      </c>
+      <c r="AK239">
+        <v>2.06</v>
+      </c>
+      <c r="AL239">
+        <v>1.68</v>
+      </c>
+      <c r="AM239">
+        <v>2.05</v>
+      </c>
+      <c r="AN239">
+        <v>1.75</v>
+      </c>
+      <c r="AO239">
+        <v>1.28</v>
+      </c>
+      <c r="AP239">
+        <v>1.3</v>
+      </c>
+      <c r="AQ239">
+        <v>1.62</v>
+      </c>
+      <c r="AR239">
+        <v>2.08</v>
+      </c>
+      <c r="AS239">
+        <v>1.71</v>
+      </c>
+      <c r="AT239">
+        <v>1.93</v>
+      </c>
+      <c r="AU239">
+        <v>1.76</v>
+      </c>
+      <c r="AV239">
+        <v>1.6</v>
+      </c>
+      <c r="AW239">
+        <v>3.36</v>
+      </c>
+      <c r="AX239">
+        <v>2.3</v>
+      </c>
+      <c r="AY239">
+        <v>8</v>
+      </c>
+      <c r="AZ239">
+        <v>1.8</v>
+      </c>
+      <c r="BA239">
+        <v>1.22</v>
+      </c>
+      <c r="BB239">
+        <v>1.43</v>
+      </c>
+      <c r="BC239">
+        <v>1.7</v>
+      </c>
+      <c r="BD239">
+        <v>2.1</v>
+      </c>
+      <c r="BE239">
+        <v>2.63</v>
+      </c>
+      <c r="BF239">
+        <v>7</v>
+      </c>
+      <c r="BG239">
+        <v>9</v>
+      </c>
+      <c r="BH239">
+        <v>5</v>
+      </c>
+      <c r="BI239">
+        <v>13</v>
+      </c>
+      <c r="BJ239">
+        <v>12</v>
+      </c>
+      <c r="BK239">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="374">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,6 +766,15 @@
     <t>['16', '20', '73', '89']</t>
   </si>
   <si>
+    <t>['73', '90+3']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['34', '38']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -1124,6 +1133,9 @@
   </si>
   <si>
     <t>['40', '67']</t>
+  </si>
+  <si>
+    <t>['14', '68']</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK239"/>
+  <dimension ref="A1:BK243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1729,7 +1741,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1819,7 +1831,7 @@
         <v>1.77</v>
       </c>
       <c r="AT2">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1920,7 +1932,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2007,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT3">
         <v>0.85</v>
@@ -2111,7 +2123,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2684,7 +2696,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2771,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT7">
         <v>2.23</v>
@@ -2875,7 +2887,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2965,7 +2977,7 @@
         <v>1.64</v>
       </c>
       <c r="AT8">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3153,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT9">
         <v>0.5</v>
@@ -3917,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT13">
         <v>1.38</v>
@@ -4212,7 +4224,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4302,7 +4314,7 @@
         <v>1.85</v>
       </c>
       <c r="AT15">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4403,7 +4415,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4493,7 +4505,7 @@
         <v>2.64</v>
       </c>
       <c r="AT16">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4594,7 +4606,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4785,7 +4797,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5254,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT20">
         <v>0.77</v>
@@ -5358,7 +5370,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5639,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU22">
         <v>1.47</v>
@@ -5740,7 +5752,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5827,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT23">
         <v>0.5</v>
@@ -6504,7 +6516,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6591,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -6695,7 +6707,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6886,7 +6898,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6976,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="AT29">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU29">
         <v>1.58</v>
@@ -7077,7 +7089,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7167,7 +7179,7 @@
         <v>1.71</v>
       </c>
       <c r="AT30">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU30">
         <v>2.43</v>
@@ -7459,7 +7471,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7841,7 +7853,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8032,7 +8044,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8122,7 +8134,7 @@
         <v>1.07</v>
       </c>
       <c r="AT35">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU35">
         <v>1.92</v>
@@ -8223,7 +8235,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8310,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT36">
         <v>1.46</v>
@@ -8414,7 +8426,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8605,7 +8617,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8886,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU39">
         <v>1.41</v>
@@ -8987,7 +8999,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9178,7 +9190,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -9265,7 +9277,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -9369,7 +9381,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9560,7 +9572,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9751,7 +9763,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9942,7 +9954,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10029,7 +10041,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT45">
         <v>1.46</v>
@@ -10133,7 +10145,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10324,7 +10336,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10602,7 +10614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT48">
         <v>0.5</v>
@@ -10897,7 +10909,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10987,7 +10999,7 @@
         <v>1.85</v>
       </c>
       <c r="AT50">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU50">
         <v>1.72</v>
@@ -11178,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -11470,7 +11482,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11661,7 +11673,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11939,10 +11951,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT55">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU55">
         <v>1.58</v>
@@ -12130,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT56">
         <v>1.14</v>
@@ -12324,7 +12336,7 @@
         <v>2.64</v>
       </c>
       <c r="AT57">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU57">
         <v>2.23</v>
@@ -12425,7 +12437,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12616,7 +12628,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12998,7 +13010,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13085,7 +13097,7 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT61">
         <v>1.14</v>
@@ -13380,7 +13392,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13467,10 +13479,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT63">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU63">
         <v>1.89</v>
@@ -13571,7 +13583,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13762,7 +13774,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13852,7 +13864,7 @@
         <v>1.15</v>
       </c>
       <c r="AT65">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU65">
         <v>1.42</v>
@@ -13953,7 +13965,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14144,7 +14156,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14526,7 +14538,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14613,7 +14625,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT69">
         <v>1.23</v>
@@ -14717,7 +14729,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14908,7 +14920,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14998,7 +15010,7 @@
         <v>1.62</v>
       </c>
       <c r="AT71">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU71">
         <v>1.89</v>
@@ -15099,7 +15111,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15863,7 +15875,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16054,7 +16066,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -16144,7 +16156,7 @@
         <v>0.93</v>
       </c>
       <c r="AT77">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -16245,7 +16257,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16332,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT78">
         <v>1.38</v>
@@ -16526,7 +16538,7 @@
         <v>2.64</v>
       </c>
       <c r="AT79">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU79">
         <v>2.11</v>
@@ -17009,7 +17021,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17096,7 +17108,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -17200,7 +17212,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17391,7 +17403,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17478,7 +17490,7 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT84">
         <v>1.93</v>
@@ -17582,7 +17594,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -18051,7 +18063,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT87">
         <v>0.58</v>
@@ -18155,7 +18167,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -18242,7 +18254,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT88">
         <v>1.23</v>
@@ -18346,7 +18358,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18627,7 +18639,7 @@
         <v>1</v>
       </c>
       <c r="AT90">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU90">
         <v>1.38</v>
@@ -18728,7 +18740,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -19009,7 +19021,7 @@
         <v>2.46</v>
       </c>
       <c r="AT92">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU92">
         <v>1.72</v>
@@ -19110,7 +19122,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19301,7 +19313,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19683,7 +19695,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19770,7 +19782,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT96">
         <v>1.38</v>
@@ -19874,7 +19886,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20065,7 +20077,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20155,7 +20167,7 @@
         <v>1.07</v>
       </c>
       <c r="AT98">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU98">
         <v>1.83</v>
@@ -20343,10 +20355,10 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT99">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU99">
         <v>1.74</v>
@@ -20638,7 +20650,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20829,7 +20841,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21020,7 +21032,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21402,7 +21414,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21489,7 +21501,7 @@
         <v>2.4</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT105">
         <v>2.23</v>
@@ -21683,7 +21695,7 @@
         <v>1.77</v>
       </c>
       <c r="AT106">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU106">
         <v>1.67</v>
@@ -22062,7 +22074,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT108">
         <v>1.46</v>
@@ -22166,7 +22178,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22357,7 +22369,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22548,7 +22560,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22635,7 +22647,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -23211,7 +23223,7 @@
         <v>2.23</v>
       </c>
       <c r="AT114">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU114">
         <v>1.74</v>
@@ -23402,7 +23414,7 @@
         <v>1.64</v>
       </c>
       <c r="AT115">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU115">
         <v>1.61</v>
@@ -23590,10 +23602,10 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT116">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU116">
         <v>2.28</v>
@@ -23885,7 +23897,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24267,7 +24279,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24458,7 +24470,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24840,7 +24852,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -25031,7 +25043,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25222,7 +25234,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25604,7 +25616,7 @@
         <v>174</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25986,7 +25998,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26076,7 +26088,7 @@
         <v>0.93</v>
       </c>
       <c r="AT129">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU129">
         <v>1.37</v>
@@ -26368,7 +26380,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26458,7 +26470,7 @@
         <v>1.71</v>
       </c>
       <c r="AT131">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU131">
         <v>1.68</v>
@@ -26559,7 +26571,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26646,7 +26658,7 @@
         <v>0.71</v>
       </c>
       <c r="AS132">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT132">
         <v>0.5</v>
@@ -26750,7 +26762,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26837,7 +26849,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT133">
         <v>0.85</v>
@@ -26941,7 +26953,7 @@
         <v>92</v>
       </c>
       <c r="P134" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -27219,10 +27231,10 @@
         <v>1.43</v>
       </c>
       <c r="AS135">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT135">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU135">
         <v>1.61</v>
@@ -27410,10 +27422,10 @@
         <v>2</v>
       </c>
       <c r="AS136">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT136">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU136">
         <v>1.62</v>
@@ -27705,7 +27717,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27896,7 +27908,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27986,7 +27998,7 @@
         <v>0.43</v>
       </c>
       <c r="AT139">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU139">
         <v>1.24</v>
@@ -28087,7 +28099,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28368,7 +28380,7 @@
         <v>1.07</v>
       </c>
       <c r="AT141">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU141">
         <v>1.86</v>
@@ -28660,7 +28672,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -29042,7 +29054,7 @@
         <v>189</v>
       </c>
       <c r="P145" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29320,7 +29332,7 @@
         <v>1.25</v>
       </c>
       <c r="AS146">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT146">
         <v>1</v>
@@ -29806,7 +29818,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29997,7 +30009,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30084,10 +30096,10 @@
         <v>1.71</v>
       </c>
       <c r="AS150">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT150">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU150">
         <v>2.16</v>
@@ -30188,7 +30200,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30379,7 +30391,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30466,7 +30478,7 @@
         <v>2.57</v>
       </c>
       <c r="AS152">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT152">
         <v>2.23</v>
@@ -30570,7 +30582,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30660,7 +30672,7 @@
         <v>1</v>
       </c>
       <c r="AT153">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU153">
         <v>1.39</v>
@@ -30761,7 +30773,7 @@
         <v>85</v>
       </c>
       <c r="P154" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31042,7 +31054,7 @@
         <v>1.85</v>
       </c>
       <c r="AT155">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU155">
         <v>1.8</v>
@@ -31334,7 +31346,7 @@
         <v>110</v>
       </c>
       <c r="P157" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31421,7 +31433,7 @@
         <v>1.33</v>
       </c>
       <c r="AS157">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT157">
         <v>1.14</v>
@@ -31907,7 +31919,7 @@
         <v>85</v>
       </c>
       <c r="P160" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31994,7 +32006,7 @@
         <v>0.88</v>
       </c>
       <c r="AS160">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT160">
         <v>1.38</v>
@@ -32289,7 +32301,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32379,7 +32391,7 @@
         <v>1.71</v>
       </c>
       <c r="AT162">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU162">
         <v>1.73</v>
@@ -32480,7 +32492,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q163">
         <v>9</v>
@@ -32570,7 +32582,7 @@
         <v>1.77</v>
       </c>
       <c r="AT163">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU163">
         <v>1.59</v>
@@ -32671,7 +32683,7 @@
         <v>171</v>
       </c>
       <c r="P164" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32862,7 +32874,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33053,7 +33065,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33334,7 +33346,7 @@
         <v>2.46</v>
       </c>
       <c r="AT167">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU167">
         <v>1.72</v>
@@ -33817,7 +33829,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -33904,7 +33916,7 @@
         <v>2.11</v>
       </c>
       <c r="AS170">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT170">
         <v>1.93</v>
@@ -34008,7 +34020,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34095,7 +34107,7 @@
         <v>0.88</v>
       </c>
       <c r="AS171">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT171">
         <v>1</v>
@@ -34199,7 +34211,7 @@
         <v>176</v>
       </c>
       <c r="P172" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34390,7 +34402,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34480,7 +34492,7 @@
         <v>0.43</v>
       </c>
       <c r="AT173">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU173">
         <v>1.17</v>
@@ -34772,7 +34784,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -34862,7 +34874,7 @@
         <v>1.07</v>
       </c>
       <c r="AT175">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU175">
         <v>1.76</v>
@@ -35241,7 +35253,7 @@
         <v>1.11</v>
       </c>
       <c r="AS177">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT177">
         <v>1.38</v>
@@ -35626,7 +35638,7 @@
         <v>2.23</v>
       </c>
       <c r="AT179">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU179">
         <v>1.77</v>
@@ -35727,7 +35739,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -35814,7 +35826,7 @@
         <v>1.1</v>
       </c>
       <c r="AS180">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT180">
         <v>1.14</v>
@@ -36005,7 +36017,7 @@
         <v>1</v>
       </c>
       <c r="AS181">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT181">
         <v>0.85</v>
@@ -36300,7 +36312,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36491,7 +36503,7 @@
         <v>98</v>
       </c>
       <c r="P184" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36682,7 +36694,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36772,7 +36784,7 @@
         <v>1</v>
       </c>
       <c r="AT185">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU185">
         <v>1.64</v>
@@ -36873,7 +36885,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -37064,7 +37076,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37151,7 +37163,7 @@
         <v>0.6</v>
       </c>
       <c r="AS187">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT187">
         <v>0.77</v>
@@ -37828,7 +37840,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -38019,7 +38031,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q192">
         <v>9</v>
@@ -38401,7 +38413,7 @@
         <v>221</v>
       </c>
       <c r="P194" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38491,7 +38503,7 @@
         <v>2.46</v>
       </c>
       <c r="AT194">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU194">
         <v>1.72</v>
@@ -38592,7 +38604,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38783,7 +38795,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38870,7 +38882,7 @@
         <v>1.3</v>
       </c>
       <c r="AS196">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT196">
         <v>1.23</v>
@@ -38974,7 +38986,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -39064,7 +39076,7 @@
         <v>1.15</v>
       </c>
       <c r="AT197">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU197">
         <v>1.54</v>
@@ -39634,10 +39646,10 @@
         <v>1.73</v>
       </c>
       <c r="AS200">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT200">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU200">
         <v>1.81</v>
@@ -39738,7 +39750,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -39929,7 +39941,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40016,7 +40028,7 @@
         <v>2.09</v>
       </c>
       <c r="AS202">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT202">
         <v>1.93</v>
@@ -40207,10 +40219,10 @@
         <v>1.55</v>
       </c>
       <c r="AS203">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT203">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU203">
         <v>1.75</v>
@@ -40311,7 +40323,7 @@
         <v>227</v>
       </c>
       <c r="P204" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40401,7 +40413,7 @@
         <v>1.62</v>
       </c>
       <c r="AT204">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU204">
         <v>1.71</v>
@@ -40502,7 +40514,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -41075,7 +41087,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41266,7 +41278,7 @@
         <v>115</v>
       </c>
       <c r="P209" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41356,7 +41368,7 @@
         <v>1.62</v>
       </c>
       <c r="AT209">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU209">
         <v>1.69</v>
@@ -41457,7 +41469,7 @@
         <v>98</v>
       </c>
       <c r="P210" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41648,7 +41660,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -42221,7 +42233,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42412,7 +42424,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42881,7 +42893,7 @@
         <v>1.17</v>
       </c>
       <c r="AS217">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT217">
         <v>1.14</v>
@@ -42985,7 +42997,7 @@
         <v>110</v>
       </c>
       <c r="P218" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q218">
         <v>5</v>
@@ -43072,7 +43084,7 @@
         <v>2.17</v>
       </c>
       <c r="AS218">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT218">
         <v>1.93</v>
@@ -43367,7 +43379,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43457,7 +43469,7 @@
         <v>1.71</v>
       </c>
       <c r="AT220">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU220">
         <v>1.79</v>
@@ -43645,7 +43657,7 @@
         <v>1.08</v>
       </c>
       <c r="AS221">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT221">
         <v>1</v>
@@ -43749,7 +43761,7 @@
         <v>85</v>
       </c>
       <c r="P222" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -43839,7 +43851,7 @@
         <v>2.64</v>
       </c>
       <c r="AT222">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU222">
         <v>2.05</v>
@@ -43940,7 +43952,7 @@
         <v>239</v>
       </c>
       <c r="P223" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44027,10 +44039,10 @@
         <v>1.67</v>
       </c>
       <c r="AS223">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT223">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU223">
         <v>1.67</v>
@@ -44131,7 +44143,7 @@
         <v>85</v>
       </c>
       <c r="P224" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44513,7 +44525,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -45277,7 +45289,7 @@
         <v>242</v>
       </c>
       <c r="P230" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45367,7 +45379,7 @@
         <v>2.23</v>
       </c>
       <c r="AT230">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU230">
         <v>1.85</v>
@@ -45468,7 +45480,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q231">
         <v>17</v>
@@ -45850,7 +45862,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -46041,7 +46053,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q234">
         <v>1</v>
@@ -46232,7 +46244,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46423,7 +46435,7 @@
         <v>85</v>
       </c>
       <c r="P236" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46805,7 +46817,7 @@
         <v>248</v>
       </c>
       <c r="P238" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -46996,7 +47008,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -47138,6 +47150,770 @@
       </c>
       <c r="BK239">
         <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2547430</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44983.39583333334</v>
+      </c>
+      <c r="F240">
+        <v>27</v>
+      </c>
+      <c r="G240" t="s">
+        <v>70</v>
+      </c>
+      <c r="H240" t="s">
+        <v>78</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>2</v>
+      </c>
+      <c r="O240" t="s">
+        <v>250</v>
+      </c>
+      <c r="P240" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q240">
+        <v>9</v>
+      </c>
+      <c r="R240">
+        <v>3</v>
+      </c>
+      <c r="S240">
+        <v>12</v>
+      </c>
+      <c r="T240">
+        <v>2.75</v>
+      </c>
+      <c r="U240">
+        <v>2.2</v>
+      </c>
+      <c r="V240">
+        <v>3.75</v>
+      </c>
+      <c r="W240">
+        <v>1.36</v>
+      </c>
+      <c r="X240">
+        <v>3</v>
+      </c>
+      <c r="Y240">
+        <v>2.75</v>
+      </c>
+      <c r="Z240">
+        <v>1.4</v>
+      </c>
+      <c r="AA240">
+        <v>7</v>
+      </c>
+      <c r="AB240">
+        <v>1.1</v>
+      </c>
+      <c r="AC240">
+        <v>2</v>
+      </c>
+      <c r="AD240">
+        <v>3.6</v>
+      </c>
+      <c r="AE240">
+        <v>3.3</v>
+      </c>
+      <c r="AF240">
+        <v>1.04</v>
+      </c>
+      <c r="AG240">
+        <v>12</v>
+      </c>
+      <c r="AH240">
+        <v>1.28</v>
+      </c>
+      <c r="AI240">
+        <v>3.6</v>
+      </c>
+      <c r="AJ240">
+        <v>1.86</v>
+      </c>
+      <c r="AK240">
+        <v>1.95</v>
+      </c>
+      <c r="AL240">
+        <v>1.75</v>
+      </c>
+      <c r="AM240">
+        <v>2</v>
+      </c>
+      <c r="AN240">
+        <v>1.32</v>
+      </c>
+      <c r="AO240">
+        <v>1.28</v>
+      </c>
+      <c r="AP240">
+        <v>1.72</v>
+      </c>
+      <c r="AQ240">
+        <v>1.85</v>
+      </c>
+      <c r="AR240">
+        <v>1.38</v>
+      </c>
+      <c r="AS240">
+        <v>1.93</v>
+      </c>
+      <c r="AT240">
+        <v>1.29</v>
+      </c>
+      <c r="AU240">
+        <v>1.97</v>
+      </c>
+      <c r="AV240">
+        <v>1.52</v>
+      </c>
+      <c r="AW240">
+        <v>3.49</v>
+      </c>
+      <c r="AX240">
+        <v>1.8</v>
+      </c>
+      <c r="AY240">
+        <v>8</v>
+      </c>
+      <c r="AZ240">
+        <v>2.3</v>
+      </c>
+      <c r="BA240">
+        <v>1.2</v>
+      </c>
+      <c r="BB240">
+        <v>1.48</v>
+      </c>
+      <c r="BC240">
+        <v>1.73</v>
+      </c>
+      <c r="BD240">
+        <v>2.1</v>
+      </c>
+      <c r="BE240">
+        <v>2.7</v>
+      </c>
+      <c r="BF240">
+        <v>7</v>
+      </c>
+      <c r="BG240">
+        <v>3</v>
+      </c>
+      <c r="BH240">
+        <v>5</v>
+      </c>
+      <c r="BI240">
+        <v>2</v>
+      </c>
+      <c r="BJ240">
+        <v>12</v>
+      </c>
+      <c r="BK240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2547433</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44983.5</v>
+      </c>
+      <c r="F241">
+        <v>27</v>
+      </c>
+      <c r="G241" t="s">
+        <v>76</v>
+      </c>
+      <c r="H241" t="s">
+        <v>82</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="O241" t="s">
+        <v>251</v>
+      </c>
+      <c r="P241" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q241">
+        <v>3</v>
+      </c>
+      <c r="R241">
+        <v>7</v>
+      </c>
+      <c r="S241">
+        <v>10</v>
+      </c>
+      <c r="T241">
+        <v>4</v>
+      </c>
+      <c r="U241">
+        <v>2.2</v>
+      </c>
+      <c r="V241">
+        <v>2.63</v>
+      </c>
+      <c r="W241">
+        <v>1.36</v>
+      </c>
+      <c r="X241">
+        <v>3</v>
+      </c>
+      <c r="Y241">
+        <v>2.75</v>
+      </c>
+      <c r="Z241">
+        <v>1.4</v>
+      </c>
+      <c r="AA241">
+        <v>7</v>
+      </c>
+      <c r="AB241">
+        <v>1.1</v>
+      </c>
+      <c r="AC241">
+        <v>3.6</v>
+      </c>
+      <c r="AD241">
+        <v>3.7</v>
+      </c>
+      <c r="AE241">
+        <v>1.91</v>
+      </c>
+      <c r="AF241">
+        <v>1.03</v>
+      </c>
+      <c r="AG241">
+        <v>13</v>
+      </c>
+      <c r="AH241">
+        <v>1.25</v>
+      </c>
+      <c r="AI241">
+        <v>3.75</v>
+      </c>
+      <c r="AJ241">
+        <v>1.74</v>
+      </c>
+      <c r="AK241">
+        <v>2.1</v>
+      </c>
+      <c r="AL241">
+        <v>1.7</v>
+      </c>
+      <c r="AM241">
+        <v>2.05</v>
+      </c>
+      <c r="AN241">
+        <v>1.73</v>
+      </c>
+      <c r="AO241">
+        <v>1.28</v>
+      </c>
+      <c r="AP241">
+        <v>1.3</v>
+      </c>
+      <c r="AQ241">
+        <v>1.33</v>
+      </c>
+      <c r="AR241">
+        <v>1.62</v>
+      </c>
+      <c r="AS241">
+        <v>1.31</v>
+      </c>
+      <c r="AT241">
+        <v>1.57</v>
+      </c>
+      <c r="AU241">
+        <v>1.74</v>
+      </c>
+      <c r="AV241">
+        <v>1.47</v>
+      </c>
+      <c r="AW241">
+        <v>3.21</v>
+      </c>
+      <c r="AX241">
+        <v>2.4</v>
+      </c>
+      <c r="AY241">
+        <v>8</v>
+      </c>
+      <c r="AZ241">
+        <v>1.73</v>
+      </c>
+      <c r="BA241">
+        <v>1.16</v>
+      </c>
+      <c r="BB241">
+        <v>1.43</v>
+      </c>
+      <c r="BC241">
+        <v>1.7</v>
+      </c>
+      <c r="BD241">
+        <v>2.1</v>
+      </c>
+      <c r="BE241">
+        <v>2.63</v>
+      </c>
+      <c r="BF241">
+        <v>4</v>
+      </c>
+      <c r="BG241">
+        <v>5</v>
+      </c>
+      <c r="BH241">
+        <v>6</v>
+      </c>
+      <c r="BI241">
+        <v>13</v>
+      </c>
+      <c r="BJ241">
+        <v>10</v>
+      </c>
+      <c r="BK241">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2547431</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44983.60416666666</v>
+      </c>
+      <c r="F242">
+        <v>27</v>
+      </c>
+      <c r="G242" t="s">
+        <v>72</v>
+      </c>
+      <c r="H242" t="s">
+        <v>65</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>3</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>4</v>
+      </c>
+      <c r="O242" t="s">
+        <v>252</v>
+      </c>
+      <c r="P242" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q242">
+        <v>7</v>
+      </c>
+      <c r="R242">
+        <v>3</v>
+      </c>
+      <c r="S242">
+        <v>10</v>
+      </c>
+      <c r="T242">
+        <v>2.4</v>
+      </c>
+      <c r="U242">
+        <v>2.25</v>
+      </c>
+      <c r="V242">
+        <v>4.33</v>
+      </c>
+      <c r="W242">
+        <v>1.36</v>
+      </c>
+      <c r="X242">
+        <v>3</v>
+      </c>
+      <c r="Y242">
+        <v>2.63</v>
+      </c>
+      <c r="Z242">
+        <v>1.44</v>
+      </c>
+      <c r="AA242">
+        <v>7</v>
+      </c>
+      <c r="AB242">
+        <v>1.1</v>
+      </c>
+      <c r="AC242">
+        <v>1.95</v>
+      </c>
+      <c r="AD242">
+        <v>3.6</v>
+      </c>
+      <c r="AE242">
+        <v>3.75</v>
+      </c>
+      <c r="AF242">
+        <v>1.04</v>
+      </c>
+      <c r="AG242">
+        <v>12</v>
+      </c>
+      <c r="AH242">
+        <v>1.28</v>
+      </c>
+      <c r="AI242">
+        <v>3.6</v>
+      </c>
+      <c r="AJ242">
+        <v>1.9</v>
+      </c>
+      <c r="AK242">
+        <v>1.95</v>
+      </c>
+      <c r="AL242">
+        <v>1.7</v>
+      </c>
+      <c r="AM242">
+        <v>2.05</v>
+      </c>
+      <c r="AN242">
+        <v>1.23</v>
+      </c>
+      <c r="AO242">
+        <v>1.27</v>
+      </c>
+      <c r="AP242">
+        <v>1.9</v>
+      </c>
+      <c r="AQ242">
+        <v>1.31</v>
+      </c>
+      <c r="AR242">
+        <v>1.38</v>
+      </c>
+      <c r="AS242">
+        <v>1.29</v>
+      </c>
+      <c r="AT242">
+        <v>1.36</v>
+      </c>
+      <c r="AU242">
+        <v>1.74</v>
+      </c>
+      <c r="AV242">
+        <v>1.31</v>
+      </c>
+      <c r="AW242">
+        <v>3.05</v>
+      </c>
+      <c r="AX242">
+        <v>1.62</v>
+      </c>
+      <c r="AY242">
+        <v>8</v>
+      </c>
+      <c r="AZ242">
+        <v>2.75</v>
+      </c>
+      <c r="BA242">
+        <v>1.24</v>
+      </c>
+      <c r="BB242">
+        <v>1.55</v>
+      </c>
+      <c r="BC242">
+        <v>1.85</v>
+      </c>
+      <c r="BD242">
+        <v>2.3</v>
+      </c>
+      <c r="BE242">
+        <v>3.3</v>
+      </c>
+      <c r="BF242">
+        <v>9</v>
+      </c>
+      <c r="BG242">
+        <v>5</v>
+      </c>
+      <c r="BH242">
+        <v>10</v>
+      </c>
+      <c r="BI242">
+        <v>8</v>
+      </c>
+      <c r="BJ242">
+        <v>19</v>
+      </c>
+      <c r="BK242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2547437</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44983.63541666666</v>
+      </c>
+      <c r="F243">
+        <v>27</v>
+      </c>
+      <c r="G243" t="s">
+        <v>66</v>
+      </c>
+      <c r="H243" t="s">
+        <v>69</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="O243" t="s">
+        <v>208</v>
+      </c>
+      <c r="P243" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q243">
+        <v>3</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>5</v>
+      </c>
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>2.1</v>
+      </c>
+      <c r="V243">
+        <v>4.33</v>
+      </c>
+      <c r="W243">
+        <v>1.44</v>
+      </c>
+      <c r="X243">
+        <v>2.63</v>
+      </c>
+      <c r="Y243">
+        <v>3.25</v>
+      </c>
+      <c r="Z243">
+        <v>1.33</v>
+      </c>
+      <c r="AA243">
+        <v>9</v>
+      </c>
+      <c r="AB243">
+        <v>1.07</v>
+      </c>
+      <c r="AC243">
+        <v>2.1</v>
+      </c>
+      <c r="AD243">
+        <v>3.5</v>
+      </c>
+      <c r="AE243">
+        <v>3.4</v>
+      </c>
+      <c r="AF243">
+        <v>1.06</v>
+      </c>
+      <c r="AG243">
+        <v>8.5</v>
+      </c>
+      <c r="AH243">
+        <v>1.32</v>
+      </c>
+      <c r="AI243">
+        <v>3.1</v>
+      </c>
+      <c r="AJ243">
+        <v>2.03</v>
+      </c>
+      <c r="AK243">
+        <v>1.83</v>
+      </c>
+      <c r="AL243">
+        <v>1.91</v>
+      </c>
+      <c r="AM243">
+        <v>1.91</v>
+      </c>
+      <c r="AN243">
+        <v>1.3</v>
+      </c>
+      <c r="AO243">
+        <v>1.25</v>
+      </c>
+      <c r="AP243">
+        <v>1.78</v>
+      </c>
+      <c r="AQ243">
+        <v>1.33</v>
+      </c>
+      <c r="AR243">
+        <v>1.54</v>
+      </c>
+      <c r="AS243">
+        <v>1.46</v>
+      </c>
+      <c r="AT243">
+        <v>1.43</v>
+      </c>
+      <c r="AU243">
+        <v>1.51</v>
+      </c>
+      <c r="AV243">
+        <v>1.22</v>
+      </c>
+      <c r="AW243">
+        <v>2.73</v>
+      </c>
+      <c r="AX243">
+        <v>1.67</v>
+      </c>
+      <c r="AY243">
+        <v>8</v>
+      </c>
+      <c r="AZ243">
+        <v>2.6</v>
+      </c>
+      <c r="BA243">
+        <v>1.24</v>
+      </c>
+      <c r="BB243">
+        <v>1.46</v>
+      </c>
+      <c r="BC243">
+        <v>1.95</v>
+      </c>
+      <c r="BD243">
+        <v>2.4</v>
+      </c>
+      <c r="BE243">
+        <v>3.3</v>
+      </c>
+      <c r="BF243">
+        <v>8</v>
+      </c>
+      <c r="BG243">
+        <v>4</v>
+      </c>
+      <c r="BH243">
+        <v>15</v>
+      </c>
+      <c r="BI243">
+        <v>10</v>
+      </c>
+      <c r="BJ243">
+        <v>23</v>
+      </c>
+      <c r="BK243">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="375">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,9 @@
     <t>['34', '38']</t>
   </si>
   <si>
+    <t>['44', '58', '90+5']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -1497,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1741,7 +1744,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1932,7 +1935,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2123,7 +2126,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2696,7 +2699,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2887,7 +2890,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -4120,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT14">
         <v>0.58</v>
@@ -4224,7 +4227,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4415,7 +4418,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4606,7 +4609,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4696,7 +4699,7 @@
         <v>1.07</v>
       </c>
       <c r="AT17">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4797,7 +4800,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5370,7 +5373,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5752,7 +5755,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6516,7 +6519,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6707,7 +6710,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6898,7 +6901,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6985,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT29">
         <v>1.29</v>
@@ -7089,7 +7092,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7471,7 +7474,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7853,7 +7856,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -8044,7 +8047,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8235,7 +8238,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8325,7 +8328,7 @@
         <v>1.31</v>
       </c>
       <c r="AT36">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU36">
         <v>1.75</v>
@@ -8426,7 +8429,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8617,7 +8620,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8895,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT39">
         <v>1.43</v>
@@ -8999,7 +9002,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9190,7 +9193,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -9381,7 +9384,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9572,7 +9575,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9763,7 +9766,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9954,7 +9957,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10044,7 +10047,7 @@
         <v>1.46</v>
       </c>
       <c r="AT45">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU45">
         <v>1.68</v>
@@ -10145,7 +10148,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10336,7 +10339,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10909,7 +10912,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11482,7 +11485,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11673,7 +11676,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12437,7 +12440,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12628,7 +12631,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -13010,7 +13013,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13392,7 +13395,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13583,7 +13586,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13774,7 +13777,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13965,7 +13968,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14156,7 +14159,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14246,7 +14249,7 @@
         <v>0.43</v>
       </c>
       <c r="AT67">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU67">
         <v>1.41</v>
@@ -14434,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT68">
         <v>0.85</v>
@@ -14538,7 +14541,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14729,7 +14732,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14920,7 +14923,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15111,7 +15114,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15875,7 +15878,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16066,7 +16069,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -16257,7 +16260,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16920,7 +16923,7 @@
         <v>1.77</v>
       </c>
       <c r="AT81">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU81">
         <v>1.72</v>
@@ -17021,7 +17024,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17212,7 +17215,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17403,7 +17406,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17594,7 +17597,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17681,7 +17684,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT85">
         <v>2.23</v>
@@ -18167,7 +18170,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -18358,7 +18361,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18740,7 +18743,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -19122,7 +19125,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19313,7 +19316,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19695,7 +19698,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19886,7 +19889,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20077,7 +20080,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20650,7 +20653,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20841,7 +20844,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -21032,7 +21035,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21414,7 +21417,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -22077,7 +22080,7 @@
         <v>1.29</v>
       </c>
       <c r="AT108">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU108">
         <v>1.82</v>
@@ -22178,7 +22181,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22265,7 +22268,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT109">
         <v>1.93</v>
@@ -22369,7 +22372,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22560,7 +22563,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23897,7 +23900,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24279,7 +24282,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24470,7 +24473,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24852,7 +24855,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24942,7 +24945,7 @@
         <v>2.23</v>
       </c>
       <c r="AT123">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU123">
         <v>1.75</v>
@@ -25043,7 +25046,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25234,7 +25237,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25616,7 +25619,7 @@
         <v>174</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25703,7 +25706,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT127">
         <v>0.77</v>
@@ -25998,7 +26001,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26380,7 +26383,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26571,7 +26574,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26762,7 +26765,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26953,7 +26956,7 @@
         <v>92</v>
       </c>
       <c r="P134" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -27717,7 +27720,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27908,7 +27911,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -28099,7 +28102,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28571,7 +28574,7 @@
         <v>1.85</v>
       </c>
       <c r="AT142">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU142">
         <v>1.84</v>
@@ -28672,7 +28675,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -29054,7 +29057,7 @@
         <v>189</v>
       </c>
       <c r="P145" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29141,7 +29144,7 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT145">
         <v>1</v>
@@ -29818,7 +29821,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -30009,7 +30012,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30200,7 +30203,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30391,7 +30394,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30582,7 +30585,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30773,7 +30776,7 @@
         <v>85</v>
       </c>
       <c r="P154" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31346,7 +31349,7 @@
         <v>110</v>
       </c>
       <c r="P157" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31919,7 +31922,7 @@
         <v>85</v>
       </c>
       <c r="P160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -32301,7 +32304,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32492,7 +32495,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q163">
         <v>9</v>
@@ -32683,7 +32686,7 @@
         <v>171</v>
       </c>
       <c r="P164" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32874,7 +32877,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33065,7 +33068,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33152,7 +33155,7 @@
         <v>1.11</v>
       </c>
       <c r="AS166">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -33537,7 +33540,7 @@
         <v>2.64</v>
       </c>
       <c r="AT168">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU168">
         <v>2.18</v>
@@ -33829,7 +33832,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -34020,7 +34023,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34211,7 +34214,7 @@
         <v>176</v>
       </c>
       <c r="P172" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34402,7 +34405,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34784,7 +34787,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -35739,7 +35742,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -36312,7 +36315,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36503,7 +36506,7 @@
         <v>98</v>
       </c>
       <c r="P184" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36694,7 +36697,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36781,7 +36784,7 @@
         <v>1.4</v>
       </c>
       <c r="AS185">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT185">
         <v>1.57</v>
@@ -36885,7 +36888,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -37076,7 +37079,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37548,7 +37551,7 @@
         <v>1.15</v>
       </c>
       <c r="AT189">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU189">
         <v>1.55</v>
@@ -37840,7 +37843,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37927,7 +37930,7 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT191">
         <v>1.14</v>
@@ -38031,7 +38034,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q192">
         <v>9</v>
@@ -38413,7 +38416,7 @@
         <v>221</v>
       </c>
       <c r="P194" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38604,7 +38607,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38795,7 +38798,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38986,7 +38989,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -39750,7 +39753,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -39941,7 +39944,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40323,7 +40326,7 @@
         <v>227</v>
       </c>
       <c r="P204" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40514,7 +40517,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40604,7 +40607,7 @@
         <v>0.93</v>
       </c>
       <c r="AT205">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU205">
         <v>1.47</v>
@@ -41087,7 +41090,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41174,7 +41177,7 @@
         <v>1.27</v>
       </c>
       <c r="AS208">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT208">
         <v>1.38</v>
@@ -41278,7 +41281,7 @@
         <v>115</v>
       </c>
       <c r="P209" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41469,7 +41472,7 @@
         <v>98</v>
       </c>
       <c r="P210" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41660,7 +41663,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -42132,7 +42135,7 @@
         <v>2.46</v>
       </c>
       <c r="AT213">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU213">
         <v>1.73</v>
@@ -42233,7 +42236,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42424,7 +42427,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42997,7 +43000,7 @@
         <v>110</v>
       </c>
       <c r="P218" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q218">
         <v>5</v>
@@ -43379,7 +43382,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43761,7 +43764,7 @@
         <v>85</v>
       </c>
       <c r="P222" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -43952,7 +43955,7 @@
         <v>239</v>
       </c>
       <c r="P223" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44143,7 +44146,7 @@
         <v>85</v>
       </c>
       <c r="P224" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44525,7 +44528,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44994,7 +44997,7 @@
         <v>1.25</v>
       </c>
       <c r="AS228">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT228">
         <v>1.23</v>
@@ -45289,7 +45292,7 @@
         <v>242</v>
       </c>
       <c r="P230" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45480,7 +45483,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q231">
         <v>17</v>
@@ -45570,7 +45573,7 @@
         <v>1.62</v>
       </c>
       <c r="AT231">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU231">
         <v>1.71</v>
@@ -45862,7 +45865,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -46053,7 +46056,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q234">
         <v>1</v>
@@ -46244,7 +46247,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46435,7 +46438,7 @@
         <v>85</v>
       </c>
       <c r="P236" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46817,7 +46820,7 @@
         <v>248</v>
       </c>
       <c r="P238" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47008,7 +47011,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -47581,7 +47584,7 @@
         <v>252</v>
       </c>
       <c r="P242" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -47914,6 +47917,197 @@
       </c>
       <c r="BK243">
         <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2547447</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44988.69791666666</v>
+      </c>
+      <c r="F244">
+        <v>28</v>
+      </c>
+      <c r="G244" t="s">
+        <v>77</v>
+      </c>
+      <c r="H244" t="s">
+        <v>70</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>3</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244" t="s">
+        <v>253</v>
+      </c>
+      <c r="P244" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>5</v>
+      </c>
+      <c r="S244">
+        <v>5</v>
+      </c>
+      <c r="T244">
+        <v>4.75</v>
+      </c>
+      <c r="U244">
+        <v>2.38</v>
+      </c>
+      <c r="V244">
+        <v>2.05</v>
+      </c>
+      <c r="W244">
+        <v>1.28</v>
+      </c>
+      <c r="X244">
+        <v>3.48</v>
+      </c>
+      <c r="Y244">
+        <v>2.32</v>
+      </c>
+      <c r="Z244">
+        <v>1.57</v>
+      </c>
+      <c r="AA244">
+        <v>5.35</v>
+      </c>
+      <c r="AB244">
+        <v>1.14</v>
+      </c>
+      <c r="AC244">
+        <v>5.15</v>
+      </c>
+      <c r="AD244">
+        <v>4.1</v>
+      </c>
+      <c r="AE244">
+        <v>1.62</v>
+      </c>
+      <c r="AF244">
+        <v>1.03</v>
+      </c>
+      <c r="AG244">
+        <v>11</v>
+      </c>
+      <c r="AH244">
+        <v>1.22</v>
+      </c>
+      <c r="AI244">
+        <v>4</v>
+      </c>
+      <c r="AJ244">
+        <v>1.75</v>
+      </c>
+      <c r="AK244">
+        <v>2.08</v>
+      </c>
+      <c r="AL244">
+        <v>1.7</v>
+      </c>
+      <c r="AM244">
+        <v>2.05</v>
+      </c>
+      <c r="AN244">
+        <v>2.15</v>
+      </c>
+      <c r="AO244">
+        <v>1.23</v>
+      </c>
+      <c r="AP244">
+        <v>1.18</v>
+      </c>
+      <c r="AQ244">
+        <v>1</v>
+      </c>
+      <c r="AR244">
+        <v>1.46</v>
+      </c>
+      <c r="AS244">
+        <v>1.14</v>
+      </c>
+      <c r="AT244">
+        <v>1.36</v>
+      </c>
+      <c r="AU244">
+        <v>1.62</v>
+      </c>
+      <c r="AV244">
+        <v>1.33</v>
+      </c>
+      <c r="AW244">
+        <v>2.95</v>
+      </c>
+      <c r="AX244">
+        <v>3.5</v>
+      </c>
+      <c r="AY244">
+        <v>8</v>
+      </c>
+      <c r="AZ244">
+        <v>1.41</v>
+      </c>
+      <c r="BA244">
+        <v>1.16</v>
+      </c>
+      <c r="BB244">
+        <v>1.32</v>
+      </c>
+      <c r="BC244">
+        <v>1.61</v>
+      </c>
+      <c r="BD244">
+        <v>2.02</v>
+      </c>
+      <c r="BE244">
+        <v>2.7</v>
+      </c>
+      <c r="BF244">
+        <v>7</v>
+      </c>
+      <c r="BG244">
+        <v>4</v>
+      </c>
+      <c r="BH244">
+        <v>6</v>
+      </c>
+      <c r="BI244">
+        <v>5</v>
+      </c>
+      <c r="BJ244">
+        <v>13</v>
+      </c>
+      <c r="BK244">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="384">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,27 @@
     <t>['44', '58', '90+5']</t>
   </si>
   <si>
+    <t>['31', '32', '55']</t>
+  </si>
+  <si>
+    <t>['29', '41', '45', '76']</t>
+  </si>
+  <si>
+    <t>['37', '72']</t>
+  </si>
+  <si>
+    <t>['45', '77']</t>
+  </si>
+  <si>
+    <t>['15', '32', '42', '69', '82']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['14', '52']</t>
+  </si>
+  <si>
     <t>['60', '79']</t>
   </si>
   <si>
@@ -809,9 +830,6 @@
   </si>
   <si>
     <t>['28', '66', '90+6']</t>
-  </si>
-  <si>
-    <t>['57']</t>
   </si>
   <si>
     <t>['27', '55']</t>
@@ -1139,6 +1157,15 @@
   </si>
   <si>
     <t>['14', '68']</t>
+  </si>
+  <si>
+    <t>['73', '82']</t>
+  </si>
+  <si>
+    <t>['23', '62']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK244"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1744,7 +1771,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1831,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT2">
         <v>1.29</v>
@@ -1935,7 +1962,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2025,7 +2052,7 @@
         <v>1.46</v>
       </c>
       <c r="AT3">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2126,7 +2153,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2213,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT4">
         <v>1.14</v>
@@ -2407,7 +2434,7 @@
         <v>0.93</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2595,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT6">
         <v>1.93</v>
@@ -2699,7 +2726,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2789,7 +2816,7 @@
         <v>1.93</v>
       </c>
       <c r="AT7">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2890,7 +2917,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3550,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT11">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3741,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT12">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3932,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT13">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4126,7 +4153,7 @@
         <v>1.14</v>
       </c>
       <c r="AT14">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4227,7 +4254,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4314,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT15">
         <v>1.43</v>
@@ -4418,7 +4445,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4609,7 +4636,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4800,7 +4827,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5078,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT19">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5272,7 +5299,7 @@
         <v>1.93</v>
       </c>
       <c r="AT20">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU20">
         <v>1.92</v>
@@ -5373,7 +5400,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5463,7 +5490,7 @@
         <v>2.64</v>
       </c>
       <c r="AT21">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU21">
         <v>1.94</v>
@@ -5651,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT22">
         <v>1.43</v>
@@ -5755,7 +5782,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -6224,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT25">
         <v>1.14</v>
@@ -6415,10 +6442,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT26">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU26">
         <v>1.56</v>
@@ -6519,7 +6546,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6609,7 +6636,7 @@
         <v>1.29</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU27">
         <v>1.46</v>
@@ -6710,7 +6737,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6797,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT28">
         <v>1.14</v>
@@ -6901,7 +6928,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7092,7 +7119,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7370,10 +7397,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT31">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU31">
         <v>1.73</v>
@@ -7474,7 +7501,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7564,7 +7591,7 @@
         <v>0.43</v>
       </c>
       <c r="AT32">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU32">
         <v>1.83</v>
@@ -7752,7 +7779,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -7856,7 +7883,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7943,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT34">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU34">
         <v>1.18</v>
@@ -8047,7 +8074,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8238,7 +8265,7 @@
         <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8325,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT36">
         <v>1.36</v>
@@ -8429,7 +8456,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8519,7 +8546,7 @@
         <v>0.93</v>
       </c>
       <c r="AT37">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU37">
         <v>2.29</v>
@@ -8620,7 +8647,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8710,7 +8737,7 @@
         <v>1.07</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU38">
         <v>1.9</v>
@@ -9002,7 +9029,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9193,7 +9220,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q41">
         <v>15</v>
@@ -9384,7 +9411,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q42">
         <v>2</v>
@@ -9474,7 +9501,7 @@
         <v>0.93</v>
       </c>
       <c r="AT42">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU42">
         <v>1.95</v>
@@ -9575,7 +9602,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9662,7 +9689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT43">
         <v>1.14</v>
@@ -9766,7 +9793,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9856,7 +9883,7 @@
         <v>1.64</v>
       </c>
       <c r="AT44">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU44">
         <v>1.38</v>
@@ -9957,7 +9984,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10148,7 +10175,7 @@
         <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10238,7 +10265,7 @@
         <v>0.43</v>
       </c>
       <c r="AT46">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU46">
         <v>1.6</v>
@@ -10339,7 +10366,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10426,10 +10453,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT47">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU47">
         <v>1.7</v>
@@ -10617,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT48">
         <v>0.5</v>
@@ -10808,10 +10835,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT49">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU49">
         <v>1.49</v>
@@ -10912,7 +10939,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10999,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT50">
         <v>1.57</v>
@@ -11190,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT51">
         <v>1.36</v>
@@ -11381,10 +11408,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT52">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU52">
         <v>2.24</v>
@@ -11485,7 +11512,7 @@
         <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11575,7 +11602,7 @@
         <v>1.71</v>
       </c>
       <c r="AT53">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU53">
         <v>2.17</v>
@@ -11676,7 +11703,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11763,7 +11790,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT54">
         <v>1.93</v>
@@ -12440,7 +12467,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12631,7 +12658,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q59">
         <v>9</v>
@@ -12721,7 +12748,7 @@
         <v>1.64</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU59">
         <v>1.54</v>
@@ -12909,7 +12936,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT60">
         <v>0.5</v>
@@ -13013,7 +13040,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13291,10 +13318,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT62">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU62">
         <v>1.87</v>
@@ -13395,7 +13422,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13586,7 +13613,7 @@
         <v>115</v>
       </c>
       <c r="P64" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13777,7 +13804,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13864,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
         <v>1.36</v>
@@ -13968,7 +13995,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14055,10 +14082,10 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT66">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU66">
         <v>1.29</v>
@@ -14159,7 +14186,7 @@
         <v>85</v>
       </c>
       <c r="P67" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14440,7 +14467,7 @@
         <v>1.14</v>
       </c>
       <c r="AT68">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU68">
         <v>1.44</v>
@@ -14541,7 +14568,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14628,10 +14655,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT69">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU69">
         <v>1.62</v>
@@ -14732,7 +14759,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14822,7 +14849,7 @@
         <v>1.71</v>
       </c>
       <c r="AT70">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU70">
         <v>1.9</v>
@@ -14923,7 +14950,7 @@
         <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15010,7 +15037,7 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT71">
         <v>1.57</v>
@@ -15114,7 +15141,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15201,10 +15228,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT72">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU72">
         <v>1.9</v>
@@ -15392,10 +15419,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT73">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -15583,10 +15610,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU74">
         <v>1.73</v>
@@ -15878,7 +15905,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15965,7 +15992,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT76">
         <v>0.5</v>
@@ -16069,7 +16096,7 @@
         <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -16260,7 +16287,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16350,7 +16377,7 @@
         <v>1.46</v>
       </c>
       <c r="AT78">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU78">
         <v>1.89</v>
@@ -16920,7 +16947,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT81">
         <v>1.36</v>
@@ -17024,7 +17051,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17215,7 +17242,7 @@
         <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17302,10 +17329,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU83">
         <v>1.66</v>
@@ -17406,7 +17433,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17493,7 +17520,7 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT84">
         <v>1.93</v>
@@ -17597,7 +17624,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17687,7 +17714,7 @@
         <v>1.14</v>
       </c>
       <c r="AT85">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU85">
         <v>1.48</v>
@@ -17878,7 +17905,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU86">
         <v>1.84</v>
@@ -18069,7 +18096,7 @@
         <v>1.93</v>
       </c>
       <c r="AT87">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU87">
         <v>2.1</v>
@@ -18170,7 +18197,7 @@
         <v>85</v>
       </c>
       <c r="P88" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q88">
         <v>14</v>
@@ -18260,7 +18287,7 @@
         <v>1.29</v>
       </c>
       <c r="AT88">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU88">
         <v>1.73</v>
@@ -18361,7 +18388,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18448,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT89">
         <v>1.14</v>
@@ -18639,7 +18666,7 @@
         <v>3</v>
       </c>
       <c r="AS90">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT90">
         <v>1.57</v>
@@ -18743,7 +18770,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18830,10 +18857,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT91">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU91">
         <v>1.61</v>
@@ -19021,7 +19048,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT92">
         <v>1.43</v>
@@ -19125,7 +19152,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q93">
         <v>10</v>
@@ -19316,7 +19343,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19698,7 +19725,7 @@
         <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q96">
         <v>11</v>
@@ -19788,7 +19815,7 @@
         <v>1.93</v>
       </c>
       <c r="AT96">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU96">
         <v>2.23</v>
@@ -19889,7 +19916,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19979,7 +20006,7 @@
         <v>1.64</v>
       </c>
       <c r="AT97">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU97">
         <v>1.53</v>
@@ -20080,7 +20107,7 @@
         <v>85</v>
       </c>
       <c r="P98" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20549,7 +20576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT100">
         <v>1.14</v>
@@ -20653,7 +20680,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20743,7 +20770,7 @@
         <v>1.71</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU101">
         <v>1.71</v>
@@ -20844,7 +20871,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20931,10 +20958,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT102">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -21035,7 +21062,7 @@
         <v>155</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -21122,10 +21149,10 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT103">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU103">
         <v>1.89</v>
@@ -21313,10 +21340,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT104">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU104">
         <v>1.71</v>
@@ -21417,7 +21444,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21504,10 +21531,10 @@
         <v>2.4</v>
       </c>
       <c r="AS105">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT105">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU105">
         <v>1.47</v>
@@ -21695,7 +21722,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT106">
         <v>1.57</v>
@@ -21886,10 +21913,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT107">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU107">
         <v>1.81</v>
@@ -22181,7 +22208,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22372,7 +22399,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22563,7 +22590,7 @@
         <v>161</v>
       </c>
       <c r="P111" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22844,7 +22871,7 @@
         <v>2.64</v>
       </c>
       <c r="AT112">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU112">
         <v>2.2</v>
@@ -23223,7 +23250,7 @@
         <v>1.67</v>
       </c>
       <c r="AS114">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT114">
         <v>1.29</v>
@@ -23796,7 +23823,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT117">
         <v>0.5</v>
@@ -23900,7 +23927,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23990,7 +24017,7 @@
         <v>0.93</v>
       </c>
       <c r="AT118">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU118">
         <v>1.38</v>
@@ -24178,10 +24205,10 @@
         <v>1.5</v>
       </c>
       <c r="AS119">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT119">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU119">
         <v>1.89</v>
@@ -24282,7 +24309,7 @@
         <v>85</v>
       </c>
       <c r="P120" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24369,10 +24396,10 @@
         <v>0.86</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT120">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU120">
         <v>1.4</v>
@@ -24473,7 +24500,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24563,7 +24590,7 @@
         <v>1.64</v>
       </c>
       <c r="AT121">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU121">
         <v>1.64</v>
@@ -24751,7 +24778,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT122">
         <v>1.14</v>
@@ -24855,7 +24882,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24942,7 +24969,7 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT123">
         <v>1.36</v>
@@ -25046,7 +25073,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25133,10 +25160,10 @@
         <v>2.5</v>
       </c>
       <c r="AS124">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT124">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU124">
         <v>1.71</v>
@@ -25237,7 +25264,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25324,10 +25351,10 @@
         <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU125">
         <v>1.82</v>
@@ -25515,10 +25542,10 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT126">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU126">
         <v>1.57</v>
@@ -25619,7 +25646,7 @@
         <v>174</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25709,7 +25736,7 @@
         <v>1.14</v>
       </c>
       <c r="AT127">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25900,7 +25927,7 @@
         <v>2.64</v>
       </c>
       <c r="AT128">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU128">
         <v>2.27</v>
@@ -26001,7 +26028,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26279,7 +26306,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT130">
         <v>1.14</v>
@@ -26383,7 +26410,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26574,7 +26601,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26765,7 +26792,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26855,7 +26882,7 @@
         <v>1.29</v>
       </c>
       <c r="AT133">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU133">
         <v>1.79</v>
@@ -26956,7 +26983,7 @@
         <v>92</v>
       </c>
       <c r="P134" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -27234,7 +27261,7 @@
         <v>1.43</v>
       </c>
       <c r="AS135">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT135">
         <v>1.29</v>
@@ -27619,7 +27646,7 @@
         <v>2.64</v>
       </c>
       <c r="AT137">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU137">
         <v>2.22</v>
@@ -27720,7 +27747,7 @@
         <v>183</v>
       </c>
       <c r="P138" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q138">
         <v>11</v>
@@ -27810,7 +27837,7 @@
         <v>1.64</v>
       </c>
       <c r="AT138">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU138">
         <v>1.71</v>
@@ -27911,7 +27938,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -28102,7 +28129,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28189,7 +28216,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT140">
         <v>1.14</v>
@@ -28571,7 +28598,7 @@
         <v>1.86</v>
       </c>
       <c r="AS142">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT142">
         <v>1.36</v>
@@ -28675,7 +28702,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q143">
         <v>10</v>
@@ -28762,10 +28789,10 @@
         <v>1.13</v>
       </c>
       <c r="AS143">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT143">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU143">
         <v>1.66</v>
@@ -28953,10 +28980,10 @@
         <v>0.86</v>
       </c>
       <c r="AS144">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT144">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU144">
         <v>1.72</v>
@@ -29057,7 +29084,7 @@
         <v>189</v>
       </c>
       <c r="P145" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29335,10 +29362,10 @@
         <v>1.25</v>
       </c>
       <c r="AS146">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU146">
         <v>1.61</v>
@@ -29717,7 +29744,7 @@
         <v>0.88</v>
       </c>
       <c r="AS148">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT148">
         <v>1.14</v>
@@ -29821,7 +29848,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29911,7 +29938,7 @@
         <v>0.93</v>
       </c>
       <c r="AT149">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU149">
         <v>1.32</v>
@@ -30012,7 +30039,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30203,7 +30230,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q151">
         <v>8</v>
@@ -30290,7 +30317,7 @@
         <v>2</v>
       </c>
       <c r="AS151">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT151">
         <v>1.93</v>
@@ -30394,7 +30421,7 @@
         <v>85</v>
       </c>
       <c r="P152" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30484,7 +30511,7 @@
         <v>1.29</v>
       </c>
       <c r="AT152">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU152">
         <v>1.82</v>
@@ -30585,7 +30612,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30672,7 +30699,7 @@
         <v>1.38</v>
       </c>
       <c r="AS153">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT153">
         <v>1.29</v>
@@ -30776,7 +30803,7 @@
         <v>85</v>
       </c>
       <c r="P154" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30866,7 +30893,7 @@
         <v>0.43</v>
       </c>
       <c r="AT154">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU154">
         <v>1.18</v>
@@ -31054,7 +31081,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT155">
         <v>1.36</v>
@@ -31349,7 +31376,7 @@
         <v>110</v>
       </c>
       <c r="P157" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31627,7 +31654,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT158">
         <v>0.5</v>
@@ -31818,10 +31845,10 @@
         <v>2.63</v>
       </c>
       <c r="AS159">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT159">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU159">
         <v>1.37</v>
@@ -31922,7 +31949,7 @@
         <v>85</v>
       </c>
       <c r="P160" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -32012,7 +32039,7 @@
         <v>1.46</v>
       </c>
       <c r="AT160">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU160">
         <v>1.55</v>
@@ -32200,10 +32227,10 @@
         <v>0.75</v>
       </c>
       <c r="AS161">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT161">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU161">
         <v>1.54</v>
@@ -32304,7 +32331,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32495,7 +32522,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q163">
         <v>9</v>
@@ -32582,7 +32609,7 @@
         <v>1.67</v>
       </c>
       <c r="AS163">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT163">
         <v>1.43</v>
@@ -32686,7 +32713,7 @@
         <v>171</v>
       </c>
       <c r="P164" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32776,7 +32803,7 @@
         <v>1.07</v>
       </c>
       <c r="AT164">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU164">
         <v>1.83</v>
@@ -32877,7 +32904,7 @@
         <v>85</v>
       </c>
       <c r="P165" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32964,10 +32991,10 @@
         <v>1.11</v>
       </c>
       <c r="AS165">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT165">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU165">
         <v>1.84</v>
@@ -33068,7 +33095,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33158,7 +33185,7 @@
         <v>1.14</v>
       </c>
       <c r="AT166">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU166">
         <v>1.61</v>
@@ -33346,7 +33373,7 @@
         <v>1.56</v>
       </c>
       <c r="AS167">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT167">
         <v>1.29</v>
@@ -33731,7 +33758,7 @@
         <v>0.93</v>
       </c>
       <c r="AT169">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU169">
         <v>1.41</v>
@@ -33832,7 +33859,7 @@
         <v>204</v>
       </c>
       <c r="P170" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -34023,7 +34050,7 @@
         <v>205</v>
       </c>
       <c r="P171" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34110,7 +34137,7 @@
         <v>0.88</v>
       </c>
       <c r="AS171">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT171">
         <v>1</v>
@@ -34214,7 +34241,7 @@
         <v>176</v>
       </c>
       <c r="P172" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34405,7 +34432,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34787,7 +34814,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -35068,7 +35095,7 @@
         <v>2.64</v>
       </c>
       <c r="AT176">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU176">
         <v>2.14</v>
@@ -35259,7 +35286,7 @@
         <v>1.93</v>
       </c>
       <c r="AT177">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU177">
         <v>2.11</v>
@@ -35447,7 +35474,7 @@
         <v>1.11</v>
       </c>
       <c r="AS178">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT178">
         <v>1</v>
@@ -35638,7 +35665,7 @@
         <v>1.56</v>
       </c>
       <c r="AS179">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT179">
         <v>1.57</v>
@@ -35742,7 +35769,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -36020,10 +36047,10 @@
         <v>1</v>
       </c>
       <c r="AS181">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT181">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU181">
         <v>1.83</v>
@@ -36211,10 +36238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS182">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT182">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU182">
         <v>1.56</v>
@@ -36315,7 +36342,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q183">
         <v>11</v>
@@ -36405,7 +36432,7 @@
         <v>1.71</v>
       </c>
       <c r="AT183">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU183">
         <v>1.72</v>
@@ -36506,7 +36533,7 @@
         <v>98</v>
       </c>
       <c r="P184" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36593,7 +36620,7 @@
         <v>2.2</v>
       </c>
       <c r="AS184">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT184">
         <v>1.93</v>
@@ -36697,7 +36724,7 @@
         <v>85</v>
       </c>
       <c r="P185" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q185">
         <v>6</v>
@@ -36888,7 +36915,7 @@
         <v>215</v>
       </c>
       <c r="P186" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q186">
         <v>6</v>
@@ -36975,10 +37002,10 @@
         <v>1.3</v>
       </c>
       <c r="AS186">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT186">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU186">
         <v>1.46</v>
@@ -37079,7 +37106,7 @@
         <v>216</v>
       </c>
       <c r="P187" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37169,7 +37196,7 @@
         <v>1.29</v>
       </c>
       <c r="AT187">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU187">
         <v>1.68</v>
@@ -37357,10 +37384,10 @@
         <v>1.33</v>
       </c>
       <c r="AS188">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT188">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU188">
         <v>1.87</v>
@@ -37548,7 +37575,7 @@
         <v>1.44</v>
       </c>
       <c r="AS189">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT189">
         <v>1.36</v>
@@ -37742,7 +37769,7 @@
         <v>0.93</v>
       </c>
       <c r="AT190">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU190">
         <v>1.46</v>
@@ -37843,7 +37870,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -38034,7 +38061,7 @@
         <v>220</v>
       </c>
       <c r="P192" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q192">
         <v>9</v>
@@ -38312,7 +38339,7 @@
         <v>1.45</v>
       </c>
       <c r="AS193">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT193">
         <v>1.14</v>
@@ -38416,7 +38443,7 @@
         <v>221</v>
       </c>
       <c r="P194" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38503,7 +38530,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT194">
         <v>1.36</v>
@@ -38607,7 +38634,7 @@
         <v>85</v>
       </c>
       <c r="P195" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38697,7 +38724,7 @@
         <v>0.43</v>
       </c>
       <c r="AT195">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU195">
         <v>1.15</v>
@@ -38798,7 +38825,7 @@
         <v>222</v>
       </c>
       <c r="P196" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38888,7 +38915,7 @@
         <v>1.93</v>
       </c>
       <c r="AT196">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU196">
         <v>2.08</v>
@@ -38989,7 +39016,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -39076,7 +39103,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT197">
         <v>1.29</v>
@@ -39267,10 +39294,10 @@
         <v>1</v>
       </c>
       <c r="AS198">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT198">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU198">
         <v>1.55</v>
@@ -39461,7 +39488,7 @@
         <v>1.71</v>
       </c>
       <c r="AT199">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU199">
         <v>1.74</v>
@@ -39649,7 +39676,7 @@
         <v>1.73</v>
       </c>
       <c r="AS200">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT200">
         <v>1.43</v>
@@ -39753,7 +39780,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -39840,7 +39867,7 @@
         <v>0.45</v>
       </c>
       <c r="AS201">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT201">
         <v>0.5</v>
@@ -39944,7 +39971,7 @@
         <v>85</v>
       </c>
       <c r="P202" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q202">
         <v>2</v>
@@ -40326,7 +40353,7 @@
         <v>227</v>
       </c>
       <c r="P204" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40413,7 +40440,7 @@
         <v>1.55</v>
       </c>
       <c r="AS204">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT204">
         <v>1.29</v>
@@ -40517,7 +40544,7 @@
         <v>228</v>
       </c>
       <c r="P205" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40798,7 +40825,7 @@
         <v>2.64</v>
       </c>
       <c r="AT206">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU206">
         <v>2.06</v>
@@ -40989,7 +41016,7 @@
         <v>1.07</v>
       </c>
       <c r="AT207">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU207">
         <v>1.67</v>
@@ -41090,7 +41117,7 @@
         <v>85</v>
       </c>
       <c r="P208" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q208">
         <v>3</v>
@@ -41180,7 +41207,7 @@
         <v>1.14</v>
       </c>
       <c r="AT208">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU208">
         <v>1.63</v>
@@ -41281,7 +41308,7 @@
         <v>115</v>
       </c>
       <c r="P209" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41368,7 +41395,7 @@
         <v>1.27</v>
       </c>
       <c r="AS209">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT209">
         <v>1.36</v>
@@ -41472,7 +41499,7 @@
         <v>98</v>
       </c>
       <c r="P210" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41562,7 +41589,7 @@
         <v>1.07</v>
       </c>
       <c r="AT210">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU210">
         <v>1.65</v>
@@ -41663,7 +41690,7 @@
         <v>231</v>
       </c>
       <c r="P211" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41941,7 +41968,7 @@
         <v>0.91</v>
       </c>
       <c r="AS212">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT212">
         <v>1</v>
@@ -42132,7 +42159,7 @@
         <v>1.55</v>
       </c>
       <c r="AS213">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT213">
         <v>1.36</v>
@@ -42236,7 +42263,7 @@
         <v>233</v>
       </c>
       <c r="P214" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -42326,7 +42353,7 @@
         <v>1.64</v>
       </c>
       <c r="AT214">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU214">
         <v>1.93</v>
@@ -42427,7 +42454,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42514,10 +42541,10 @@
         <v>2.27</v>
       </c>
       <c r="AS215">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT215">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU215">
         <v>1.85</v>
@@ -42705,10 +42732,10 @@
         <v>0.82</v>
       </c>
       <c r="AS216">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT216">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU216">
         <v>1.84</v>
@@ -42896,7 +42923,7 @@
         <v>1.17</v>
       </c>
       <c r="AS217">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT217">
         <v>1.14</v>
@@ -43000,7 +43027,7 @@
         <v>110</v>
       </c>
       <c r="P218" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q218">
         <v>5</v>
@@ -43281,7 +43308,7 @@
         <v>1.07</v>
       </c>
       <c r="AT219">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU219">
         <v>1.6</v>
@@ -43382,7 +43409,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43663,7 +43690,7 @@
         <v>1.46</v>
       </c>
       <c r="AT221">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU221">
         <v>1.47</v>
@@ -43764,7 +43791,7 @@
         <v>85</v>
       </c>
       <c r="P222" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q222">
         <v>9</v>
@@ -43955,7 +43982,7 @@
         <v>239</v>
       </c>
       <c r="P223" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44146,7 +44173,7 @@
         <v>85</v>
       </c>
       <c r="P224" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44233,7 +44260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS224">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT224">
         <v>1</v>
@@ -44528,7 +44555,7 @@
         <v>240</v>
       </c>
       <c r="P226" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44618,7 +44645,7 @@
         <v>1.64</v>
       </c>
       <c r="AT226">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU226">
         <v>1.9</v>
@@ -44806,10 +44833,10 @@
         <v>0.92</v>
       </c>
       <c r="AS227">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT227">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU227">
         <v>1.69</v>
@@ -45000,7 +45027,7 @@
         <v>1.14</v>
       </c>
       <c r="AT228">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU228">
         <v>1.61</v>
@@ -45191,7 +45218,7 @@
         <v>0.43</v>
       </c>
       <c r="AT229">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU229">
         <v>1.19</v>
@@ -45292,7 +45319,7 @@
         <v>242</v>
       </c>
       <c r="P230" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45379,7 +45406,7 @@
         <v>1.25</v>
       </c>
       <c r="AS230">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT230">
         <v>1.36</v>
@@ -45483,7 +45510,7 @@
         <v>243</v>
       </c>
       <c r="P231" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q231">
         <v>17</v>
@@ -45570,7 +45597,7 @@
         <v>1.5</v>
       </c>
       <c r="AS231">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT231">
         <v>1.36</v>
@@ -45761,7 +45788,7 @@
         <v>1.23</v>
       </c>
       <c r="AS232">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT232">
         <v>1.14</v>
@@ -45865,7 +45892,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q233">
         <v>6</v>
@@ -45952,10 +45979,10 @@
         <v>1.42</v>
       </c>
       <c r="AS233">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT233">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU233">
         <v>1.51</v>
@@ -46056,7 +46083,7 @@
         <v>85</v>
       </c>
       <c r="P234" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q234">
         <v>1</v>
@@ -46143,10 +46170,10 @@
         <v>1.25</v>
       </c>
       <c r="AS234">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT234">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU234">
         <v>1.41</v>
@@ -46247,7 +46274,7 @@
         <v>246</v>
       </c>
       <c r="P235" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46438,7 +46465,7 @@
         <v>85</v>
       </c>
       <c r="P236" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46528,7 +46555,7 @@
         <v>0.43</v>
       </c>
       <c r="AT236">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU236">
         <v>1.16</v>
@@ -46820,7 +46847,7 @@
         <v>248</v>
       </c>
       <c r="P238" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q238">
         <v>4</v>
@@ -47011,7 +47038,7 @@
         <v>249</v>
       </c>
       <c r="P239" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -47480,7 +47507,7 @@
         <v>1.62</v>
       </c>
       <c r="AS241">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT241">
         <v>1.57</v>
@@ -47584,7 +47611,7 @@
         <v>252</v>
       </c>
       <c r="P242" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q242">
         <v>7</v>
@@ -48108,6 +48135,1534 @@
       </c>
       <c r="BK244">
         <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2547443</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F245">
+        <v>28</v>
+      </c>
+      <c r="G245" t="s">
+        <v>67</v>
+      </c>
+      <c r="H245" t="s">
+        <v>66</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>85</v>
+      </c>
+      <c r="P245" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q245">
+        <v>4</v>
+      </c>
+      <c r="R245">
+        <v>2</v>
+      </c>
+      <c r="S245">
+        <v>6</v>
+      </c>
+      <c r="T245">
+        <v>3.6</v>
+      </c>
+      <c r="U245">
+        <v>2.2</v>
+      </c>
+      <c r="V245">
+        <v>2.9</v>
+      </c>
+      <c r="W245">
+        <v>1.33</v>
+      </c>
+      <c r="X245">
+        <v>3.1</v>
+      </c>
+      <c r="Y245">
+        <v>2.55</v>
+      </c>
+      <c r="Z245">
+        <v>1.46</v>
+      </c>
+      <c r="AA245">
+        <v>5.95</v>
+      </c>
+      <c r="AB245">
+        <v>1.1</v>
+      </c>
+      <c r="AC245">
+        <v>2.9</v>
+      </c>
+      <c r="AD245">
+        <v>3.45</v>
+      </c>
+      <c r="AE245">
+        <v>2.25</v>
+      </c>
+      <c r="AF245">
+        <v>1.03</v>
+      </c>
+      <c r="AG245">
+        <v>13</v>
+      </c>
+      <c r="AH245">
+        <v>1.22</v>
+      </c>
+      <c r="AI245">
+        <v>4</v>
+      </c>
+      <c r="AJ245">
+        <v>1.69</v>
+      </c>
+      <c r="AK245">
+        <v>1.97</v>
+      </c>
+      <c r="AL245">
+        <v>1.6</v>
+      </c>
+      <c r="AM245">
+        <v>2.25</v>
+      </c>
+      <c r="AN245">
+        <v>1.65</v>
+      </c>
+      <c r="AO245">
+        <v>1.25</v>
+      </c>
+      <c r="AP245">
+        <v>1.38</v>
+      </c>
+      <c r="AQ245">
+        <v>1</v>
+      </c>
+      <c r="AR245">
+        <v>1.23</v>
+      </c>
+      <c r="AS245">
+        <v>0.93</v>
+      </c>
+      <c r="AT245">
+        <v>1.36</v>
+      </c>
+      <c r="AU245">
+        <v>1.52</v>
+      </c>
+      <c r="AV245">
+        <v>1.36</v>
+      </c>
+      <c r="AW245">
+        <v>2.88</v>
+      </c>
+      <c r="AX245">
+        <v>2.3</v>
+      </c>
+      <c r="AY245">
+        <v>8</v>
+      </c>
+      <c r="AZ245">
+        <v>1.8</v>
+      </c>
+      <c r="BA245">
+        <v>1.2</v>
+      </c>
+      <c r="BB245">
+        <v>1.48</v>
+      </c>
+      <c r="BC245">
+        <v>1.73</v>
+      </c>
+      <c r="BD245">
+        <v>2.1</v>
+      </c>
+      <c r="BE245">
+        <v>2.7</v>
+      </c>
+      <c r="BF245">
+        <v>4</v>
+      </c>
+      <c r="BG245">
+        <v>7</v>
+      </c>
+      <c r="BH245">
+        <v>8</v>
+      </c>
+      <c r="BI245">
+        <v>3</v>
+      </c>
+      <c r="BJ245">
+        <v>12</v>
+      </c>
+      <c r="BK245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2547444</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44989.59375</v>
+      </c>
+      <c r="F246">
+        <v>28</v>
+      </c>
+      <c r="G246" t="s">
+        <v>75</v>
+      </c>
+      <c r="H246" t="s">
+        <v>81</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>3</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>4</v>
+      </c>
+      <c r="O246" t="s">
+        <v>254</v>
+      </c>
+      <c r="P246" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q246">
+        <v>11</v>
+      </c>
+      <c r="R246">
+        <v>3</v>
+      </c>
+      <c r="S246">
+        <v>14</v>
+      </c>
+      <c r="T246">
+        <v>1.9</v>
+      </c>
+      <c r="U246">
+        <v>2.3</v>
+      </c>
+      <c r="V246">
+        <v>6.25</v>
+      </c>
+      <c r="W246">
+        <v>1.35</v>
+      </c>
+      <c r="X246">
+        <v>2.9</v>
+      </c>
+      <c r="Y246">
+        <v>2.6</v>
+      </c>
+      <c r="Z246">
+        <v>1.43</v>
+      </c>
+      <c r="AA246">
+        <v>6.5</v>
+      </c>
+      <c r="AB246">
+        <v>1.09</v>
+      </c>
+      <c r="AC246">
+        <v>1.4</v>
+      </c>
+      <c r="AD246">
+        <v>4.6</v>
+      </c>
+      <c r="AE246">
+        <v>7.5</v>
+      </c>
+      <c r="AF246">
+        <v>1.03</v>
+      </c>
+      <c r="AG246">
+        <v>13</v>
+      </c>
+      <c r="AH246">
+        <v>1.25</v>
+      </c>
+      <c r="AI246">
+        <v>4</v>
+      </c>
+      <c r="AJ246">
+        <v>1.73</v>
+      </c>
+      <c r="AK246">
+        <v>1.92</v>
+      </c>
+      <c r="AL246">
+        <v>2.05</v>
+      </c>
+      <c r="AM246">
+        <v>1.66</v>
+      </c>
+      <c r="AN246">
+        <v>1.09</v>
+      </c>
+      <c r="AO246">
+        <v>1.19</v>
+      </c>
+      <c r="AP246">
+        <v>2.8</v>
+      </c>
+      <c r="AQ246">
+        <v>1.62</v>
+      </c>
+      <c r="AR246">
+        <v>1</v>
+      </c>
+      <c r="AS246">
+        <v>1.71</v>
+      </c>
+      <c r="AT246">
+        <v>0.93</v>
+      </c>
+      <c r="AU246">
+        <v>1.79</v>
+      </c>
+      <c r="AV246">
+        <v>0.93</v>
+      </c>
+      <c r="AW246">
+        <v>2.72</v>
+      </c>
+      <c r="AX246">
+        <v>1.17</v>
+      </c>
+      <c r="AY246">
+        <v>11</v>
+      </c>
+      <c r="AZ246">
+        <v>6</v>
+      </c>
+      <c r="BA246">
+        <v>1.2</v>
+      </c>
+      <c r="BB246">
+        <v>1.48</v>
+      </c>
+      <c r="BC246">
+        <v>1.73</v>
+      </c>
+      <c r="BD246">
+        <v>2.1</v>
+      </c>
+      <c r="BE246">
+        <v>2.7</v>
+      </c>
+      <c r="BF246">
+        <v>8</v>
+      </c>
+      <c r="BG246">
+        <v>3</v>
+      </c>
+      <c r="BH246">
+        <v>11</v>
+      </c>
+      <c r="BI246">
+        <v>1</v>
+      </c>
+      <c r="BJ246">
+        <v>19</v>
+      </c>
+      <c r="BK246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2547442</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44989.59375</v>
+      </c>
+      <c r="F247">
+        <v>28</v>
+      </c>
+      <c r="G247" t="s">
+        <v>76</v>
+      </c>
+      <c r="H247" t="s">
+        <v>68</v>
+      </c>
+      <c r="I247">
+        <v>3</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>3</v>
+      </c>
+      <c r="L247">
+        <v>4</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>6</v>
+      </c>
+      <c r="O247" t="s">
+        <v>255</v>
+      </c>
+      <c r="P247" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q247">
+        <v>3</v>
+      </c>
+      <c r="R247">
+        <v>5</v>
+      </c>
+      <c r="S247">
+        <v>8</v>
+      </c>
+      <c r="T247">
+        <v>2.37</v>
+      </c>
+      <c r="U247">
+        <v>2.2</v>
+      </c>
+      <c r="V247">
+        <v>4</v>
+      </c>
+      <c r="W247">
+        <v>1.32</v>
+      </c>
+      <c r="X247">
+        <v>3.1</v>
+      </c>
+      <c r="Y247">
+        <v>2.45</v>
+      </c>
+      <c r="Z247">
+        <v>1.47</v>
+      </c>
+      <c r="AA247">
+        <v>5.75</v>
+      </c>
+      <c r="AB247">
+        <v>1.11</v>
+      </c>
+      <c r="AC247">
+        <v>1.9</v>
+      </c>
+      <c r="AD247">
+        <v>3.65</v>
+      </c>
+      <c r="AE247">
+        <v>3.65</v>
+      </c>
+      <c r="AF247">
+        <v>1.02</v>
+      </c>
+      <c r="AG247">
+        <v>15</v>
+      </c>
+      <c r="AH247">
+        <v>1.22</v>
+      </c>
+      <c r="AI247">
+        <v>4.2</v>
+      </c>
+      <c r="AJ247">
+        <v>1.62</v>
+      </c>
+      <c r="AK247">
+        <v>2.08</v>
+      </c>
+      <c r="AL247">
+        <v>1.62</v>
+      </c>
+      <c r="AM247">
+        <v>2.15</v>
+      </c>
+      <c r="AN247">
+        <v>1.25</v>
+      </c>
+      <c r="AO247">
+        <v>1.26</v>
+      </c>
+      <c r="AP247">
+        <v>1.9</v>
+      </c>
+      <c r="AQ247">
+        <v>1.31</v>
+      </c>
+      <c r="AR247">
+        <v>0.77</v>
+      </c>
+      <c r="AS247">
+        <v>1.43</v>
+      </c>
+      <c r="AT247">
+        <v>0.71</v>
+      </c>
+      <c r="AU247">
+        <v>1.7</v>
+      </c>
+      <c r="AV247">
+        <v>1.3</v>
+      </c>
+      <c r="AW247">
+        <v>3</v>
+      </c>
+      <c r="AX247">
+        <v>1.67</v>
+      </c>
+      <c r="AY247">
+        <v>8.5</v>
+      </c>
+      <c r="AZ247">
+        <v>2.5</v>
+      </c>
+      <c r="BA247">
+        <v>1.17</v>
+      </c>
+      <c r="BB247">
+        <v>1.43</v>
+      </c>
+      <c r="BC247">
+        <v>1.7</v>
+      </c>
+      <c r="BD247">
+        <v>2.1</v>
+      </c>
+      <c r="BE247">
+        <v>2.63</v>
+      </c>
+      <c r="BF247">
+        <v>9</v>
+      </c>
+      <c r="BG247">
+        <v>5</v>
+      </c>
+      <c r="BH247">
+        <v>5</v>
+      </c>
+      <c r="BI247">
+        <v>6</v>
+      </c>
+      <c r="BJ247">
+        <v>14</v>
+      </c>
+      <c r="BK247">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2547439</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44989.69791666666</v>
+      </c>
+      <c r="F248">
+        <v>28</v>
+      </c>
+      <c r="G248" t="s">
+        <v>65</v>
+      </c>
+      <c r="H248" t="s">
+        <v>73</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>256</v>
+      </c>
+      <c r="P248" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q248">
+        <v>7</v>
+      </c>
+      <c r="R248">
+        <v>1</v>
+      </c>
+      <c r="S248">
+        <v>8</v>
+      </c>
+      <c r="T248">
+        <v>2.87</v>
+      </c>
+      <c r="U248">
+        <v>2.15</v>
+      </c>
+      <c r="V248">
+        <v>3.2</v>
+      </c>
+      <c r="W248">
+        <v>1.34</v>
+      </c>
+      <c r="X248">
+        <v>3</v>
+      </c>
+      <c r="Y248">
+        <v>2.55</v>
+      </c>
+      <c r="Z248">
+        <v>1.46</v>
+      </c>
+      <c r="AA248">
+        <v>6.25</v>
+      </c>
+      <c r="AB248">
+        <v>1.1</v>
+      </c>
+      <c r="AC248">
+        <v>2.45</v>
+      </c>
+      <c r="AD248">
+        <v>3.4</v>
+      </c>
+      <c r="AE248">
+        <v>2.6</v>
+      </c>
+      <c r="AF248">
+        <v>1.03</v>
+      </c>
+      <c r="AG248">
+        <v>13</v>
+      </c>
+      <c r="AH248">
+        <v>1.22</v>
+      </c>
+      <c r="AI248">
+        <v>4</v>
+      </c>
+      <c r="AJ248">
+        <v>1.68</v>
+      </c>
+      <c r="AK248">
+        <v>1.98</v>
+      </c>
+      <c r="AL248">
+        <v>1.62</v>
+      </c>
+      <c r="AM248">
+        <v>2.15</v>
+      </c>
+      <c r="AN248">
+        <v>1.43</v>
+      </c>
+      <c r="AO248">
+        <v>1.28</v>
+      </c>
+      <c r="AP248">
+        <v>1.55</v>
+      </c>
+      <c r="AQ248">
+        <v>1.77</v>
+      </c>
+      <c r="AR248">
+        <v>1.38</v>
+      </c>
+      <c r="AS248">
+        <v>1.86</v>
+      </c>
+      <c r="AT248">
+        <v>1.29</v>
+      </c>
+      <c r="AU248">
+        <v>1.56</v>
+      </c>
+      <c r="AV248">
+        <v>1.32</v>
+      </c>
+      <c r="AW248">
+        <v>2.88</v>
+      </c>
+      <c r="AX248">
+        <v>1.8</v>
+      </c>
+      <c r="AY248">
+        <v>8</v>
+      </c>
+      <c r="AZ248">
+        <v>2.38</v>
+      </c>
+      <c r="BA248">
+        <v>1.17</v>
+      </c>
+      <c r="BB248">
+        <v>1.43</v>
+      </c>
+      <c r="BC248">
+        <v>1.7</v>
+      </c>
+      <c r="BD248">
+        <v>2.1</v>
+      </c>
+      <c r="BE248">
+        <v>2.63</v>
+      </c>
+      <c r="BF248">
+        <v>8</v>
+      </c>
+      <c r="BG248">
+        <v>2</v>
+      </c>
+      <c r="BH248">
+        <v>17</v>
+      </c>
+      <c r="BI248">
+        <v>6</v>
+      </c>
+      <c r="BJ248">
+        <v>25</v>
+      </c>
+      <c r="BK248">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2547446</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44990.39583333334</v>
+      </c>
+      <c r="F249">
+        <v>28</v>
+      </c>
+      <c r="G249" t="s">
+        <v>69</v>
+      </c>
+      <c r="H249" t="s">
+        <v>79</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>2</v>
+      </c>
+      <c r="N249">
+        <v>4</v>
+      </c>
+      <c r="O249" t="s">
+        <v>257</v>
+      </c>
+      <c r="P249" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q249">
+        <v>2</v>
+      </c>
+      <c r="R249">
+        <v>2</v>
+      </c>
+      <c r="S249">
+        <v>4</v>
+      </c>
+      <c r="T249">
+        <v>4.33</v>
+      </c>
+      <c r="U249">
+        <v>2.2</v>
+      </c>
+      <c r="V249">
+        <v>2.5</v>
+      </c>
+      <c r="W249">
+        <v>1.4</v>
+      </c>
+      <c r="X249">
+        <v>2.75</v>
+      </c>
+      <c r="Y249">
+        <v>2.75</v>
+      </c>
+      <c r="Z249">
+        <v>1.4</v>
+      </c>
+      <c r="AA249">
+        <v>8</v>
+      </c>
+      <c r="AB249">
+        <v>1.08</v>
+      </c>
+      <c r="AC249">
+        <v>3.81</v>
+      </c>
+      <c r="AD249">
+        <v>3.43</v>
+      </c>
+      <c r="AE249">
+        <v>1.78</v>
+      </c>
+      <c r="AF249">
+        <v>1.05</v>
+      </c>
+      <c r="AG249">
+        <v>11</v>
+      </c>
+      <c r="AH249">
+        <v>1.3</v>
+      </c>
+      <c r="AI249">
+        <v>3.4</v>
+      </c>
+      <c r="AJ249">
+        <v>1.83</v>
+      </c>
+      <c r="AK249">
+        <v>1.84</v>
+      </c>
+      <c r="AL249">
+        <v>1.75</v>
+      </c>
+      <c r="AM249">
+        <v>2</v>
+      </c>
+      <c r="AN249">
+        <v>1.87</v>
+      </c>
+      <c r="AO249">
+        <v>1.28</v>
+      </c>
+      <c r="AP249">
+        <v>1.24</v>
+      </c>
+      <c r="AQ249">
+        <v>1.15</v>
+      </c>
+      <c r="AR249">
+        <v>2.23</v>
+      </c>
+      <c r="AS249">
+        <v>1.14</v>
+      </c>
+      <c r="AT249">
+        <v>2.14</v>
+      </c>
+      <c r="AU249">
+        <v>1.34</v>
+      </c>
+      <c r="AV249">
+        <v>1.57</v>
+      </c>
+      <c r="AW249">
+        <v>2.91</v>
+      </c>
+      <c r="AX249">
+        <v>2.4</v>
+      </c>
+      <c r="AY249">
+        <v>8</v>
+      </c>
+      <c r="AZ249">
+        <v>1.73</v>
+      </c>
+      <c r="BA249">
+        <v>1.23</v>
+      </c>
+      <c r="BB249">
+        <v>1.45</v>
+      </c>
+      <c r="BC249">
+        <v>1.83</v>
+      </c>
+      <c r="BD249">
+        <v>2.33</v>
+      </c>
+      <c r="BE249">
+        <v>3.14</v>
+      </c>
+      <c r="BF249">
+        <v>5</v>
+      </c>
+      <c r="BG249">
+        <v>6</v>
+      </c>
+      <c r="BH249">
+        <v>6</v>
+      </c>
+      <c r="BI249">
+        <v>2</v>
+      </c>
+      <c r="BJ249">
+        <v>11</v>
+      </c>
+      <c r="BK249">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2547441</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44990.5</v>
+      </c>
+      <c r="F250">
+        <v>28</v>
+      </c>
+      <c r="G250" t="s">
+        <v>82</v>
+      </c>
+      <c r="H250" t="s">
+        <v>71</v>
+      </c>
+      <c r="I250">
+        <v>3</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>3</v>
+      </c>
+      <c r="L250">
+        <v>5</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>5</v>
+      </c>
+      <c r="O250" t="s">
+        <v>258</v>
+      </c>
+      <c r="P250" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q250">
+        <v>6</v>
+      </c>
+      <c r="R250">
+        <v>3</v>
+      </c>
+      <c r="S250">
+        <v>9</v>
+      </c>
+      <c r="T250">
+        <v>2.05</v>
+      </c>
+      <c r="U250">
+        <v>2.38</v>
+      </c>
+      <c r="V250">
+        <v>5.5</v>
+      </c>
+      <c r="W250">
+        <v>1.33</v>
+      </c>
+      <c r="X250">
+        <v>3.25</v>
+      </c>
+      <c r="Y250">
+        <v>2.5</v>
+      </c>
+      <c r="Z250">
+        <v>1.5</v>
+      </c>
+      <c r="AA250">
+        <v>6.5</v>
+      </c>
+      <c r="AB250">
+        <v>1.11</v>
+      </c>
+      <c r="AC250">
+        <v>1.53</v>
+      </c>
+      <c r="AD250">
+        <v>3.72</v>
+      </c>
+      <c r="AE250">
+        <v>5.24</v>
+      </c>
+      <c r="AF250">
+        <v>1</v>
+      </c>
+      <c r="AG250">
+        <v>10.5</v>
+      </c>
+      <c r="AH250">
+        <v>1.19</v>
+      </c>
+      <c r="AI250">
+        <v>4</v>
+      </c>
+      <c r="AJ250">
+        <v>1.65</v>
+      </c>
+      <c r="AK250">
+        <v>2.03</v>
+      </c>
+      <c r="AL250">
+        <v>1.8</v>
+      </c>
+      <c r="AM250">
+        <v>1.95</v>
+      </c>
+      <c r="AN250">
+        <v>1.13</v>
+      </c>
+      <c r="AO250">
+        <v>1.22</v>
+      </c>
+      <c r="AP250">
+        <v>2.48</v>
+      </c>
+      <c r="AQ250">
+        <v>2.46</v>
+      </c>
+      <c r="AR250">
+        <v>0.58</v>
+      </c>
+      <c r="AS250">
+        <v>2.5</v>
+      </c>
+      <c r="AT250">
+        <v>0.54</v>
+      </c>
+      <c r="AU250">
+        <v>1.68</v>
+      </c>
+      <c r="AV250">
+        <v>1.22</v>
+      </c>
+      <c r="AW250">
+        <v>2.9</v>
+      </c>
+      <c r="AX250">
+        <v>1.4</v>
+      </c>
+      <c r="AY250">
+        <v>9</v>
+      </c>
+      <c r="AZ250">
+        <v>3.4</v>
+      </c>
+      <c r="BA250">
+        <v>1.18</v>
+      </c>
+      <c r="BB250">
+        <v>1.43</v>
+      </c>
+      <c r="BC250">
+        <v>1.67</v>
+      </c>
+      <c r="BD250">
+        <v>2.05</v>
+      </c>
+      <c r="BE250">
+        <v>2.6</v>
+      </c>
+      <c r="BF250">
+        <v>11</v>
+      </c>
+      <c r="BG250">
+        <v>6</v>
+      </c>
+      <c r="BH250">
+        <v>2</v>
+      </c>
+      <c r="BI250">
+        <v>2</v>
+      </c>
+      <c r="BJ250">
+        <v>13</v>
+      </c>
+      <c r="BK250">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2547440</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44990.60416666666</v>
+      </c>
+      <c r="F251">
+        <v>28</v>
+      </c>
+      <c r="G251" t="s">
+        <v>78</v>
+      </c>
+      <c r="H251" t="s">
+        <v>72</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="O251" t="s">
+        <v>259</v>
+      </c>
+      <c r="P251" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q251">
+        <v>4</v>
+      </c>
+      <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>6</v>
+      </c>
+      <c r="T251">
+        <v>2.75</v>
+      </c>
+      <c r="U251">
+        <v>2.2</v>
+      </c>
+      <c r="V251">
+        <v>4</v>
+      </c>
+      <c r="W251">
+        <v>1.36</v>
+      </c>
+      <c r="X251">
+        <v>3</v>
+      </c>
+      <c r="Y251">
+        <v>2.75</v>
+      </c>
+      <c r="Z251">
+        <v>1.4</v>
+      </c>
+      <c r="AA251">
+        <v>7</v>
+      </c>
+      <c r="AB251">
+        <v>1.1</v>
+      </c>
+      <c r="AC251">
+        <v>1.89</v>
+      </c>
+      <c r="AD251">
+        <v>3.7</v>
+      </c>
+      <c r="AE251">
+        <v>3.95</v>
+      </c>
+      <c r="AF251">
+        <v>1.05</v>
+      </c>
+      <c r="AG251">
+        <v>11</v>
+      </c>
+      <c r="AH251">
+        <v>1.3</v>
+      </c>
+      <c r="AI251">
+        <v>3.6</v>
+      </c>
+      <c r="AJ251">
+        <v>1.89</v>
+      </c>
+      <c r="AK251">
+        <v>1.92</v>
+      </c>
+      <c r="AL251">
+        <v>1.7</v>
+      </c>
+      <c r="AM251">
+        <v>2.05</v>
+      </c>
+      <c r="AN251">
+        <v>1.29</v>
+      </c>
+      <c r="AO251">
+        <v>1.29</v>
+      </c>
+      <c r="AP251">
+        <v>1.75</v>
+      </c>
+      <c r="AQ251">
+        <v>1.85</v>
+      </c>
+      <c r="AR251">
+        <v>1.38</v>
+      </c>
+      <c r="AS251">
+        <v>1.93</v>
+      </c>
+      <c r="AT251">
+        <v>1.29</v>
+      </c>
+      <c r="AU251">
+        <v>1.84</v>
+      </c>
+      <c r="AV251">
+        <v>1.3</v>
+      </c>
+      <c r="AW251">
+        <v>3.14</v>
+      </c>
+      <c r="AX251">
+        <v>1.62</v>
+      </c>
+      <c r="AY251">
+        <v>8.5</v>
+      </c>
+      <c r="AZ251">
+        <v>2.75</v>
+      </c>
+      <c r="BA251">
+        <v>1.23</v>
+      </c>
+      <c r="BB251">
+        <v>1.5</v>
+      </c>
+      <c r="BC251">
+        <v>1.8</v>
+      </c>
+      <c r="BD251">
+        <v>2.25</v>
+      </c>
+      <c r="BE251">
+        <v>3.08</v>
+      </c>
+      <c r="BF251">
+        <v>6</v>
+      </c>
+      <c r="BG251">
+        <v>4</v>
+      </c>
+      <c r="BH251">
+        <v>8</v>
+      </c>
+      <c r="BI251">
+        <v>4</v>
+      </c>
+      <c r="BJ251">
+        <v>14</v>
+      </c>
+      <c r="BK251">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>2547445</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>44990.63541666666</v>
+      </c>
+      <c r="F252">
+        <v>28</v>
+      </c>
+      <c r="G252" t="s">
+        <v>74</v>
+      </c>
+      <c r="H252" t="s">
+        <v>80</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>3</v>
+      </c>
+      <c r="O252" t="s">
+        <v>260</v>
+      </c>
+      <c r="P252" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q252">
+        <v>5</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>7</v>
+      </c>
+      <c r="T252">
+        <v>1.67</v>
+      </c>
+      <c r="U252">
+        <v>2.63</v>
+      </c>
+      <c r="V252">
+        <v>9</v>
+      </c>
+      <c r="W252">
+        <v>1.29</v>
+      </c>
+      <c r="X252">
+        <v>3.5</v>
+      </c>
+      <c r="Y252">
+        <v>2.25</v>
+      </c>
+      <c r="Z252">
+        <v>1.57</v>
+      </c>
+      <c r="AA252">
+        <v>5.5</v>
+      </c>
+      <c r="AB252">
+        <v>1.14</v>
+      </c>
+      <c r="AC252">
+        <v>1.3</v>
+      </c>
+      <c r="AD252">
+        <v>5.4</v>
+      </c>
+      <c r="AE252">
+        <v>10.5</v>
+      </c>
+      <c r="AF252">
+        <v>1.02</v>
+      </c>
+      <c r="AG252">
+        <v>17</v>
+      </c>
+      <c r="AH252">
+        <v>1.16</v>
+      </c>
+      <c r="AI252">
+        <v>5</v>
+      </c>
+      <c r="AJ252">
+        <v>1.6</v>
+      </c>
+      <c r="AK252">
+        <v>2.35</v>
+      </c>
+      <c r="AL252">
+        <v>2.05</v>
+      </c>
+      <c r="AM252">
+        <v>1.7</v>
+      </c>
+      <c r="AN252">
+        <v>1.04</v>
+      </c>
+      <c r="AO252">
+        <v>1.13</v>
+      </c>
+      <c r="AP252">
+        <v>3.74</v>
+      </c>
+      <c r="AQ252">
+        <v>2.23</v>
+      </c>
+      <c r="AR252">
+        <v>0.85</v>
+      </c>
+      <c r="AS252">
+        <v>2.29</v>
+      </c>
+      <c r="AT252">
+        <v>0.79</v>
+      </c>
+      <c r="AU252">
+        <v>1.84</v>
+      </c>
+      <c r="AV252">
+        <v>1.25</v>
+      </c>
+      <c r="AW252">
+        <v>3.09</v>
+      </c>
+      <c r="AX252">
+        <v>1.18</v>
+      </c>
+      <c r="AY252">
+        <v>11</v>
+      </c>
+      <c r="AZ252">
+        <v>5.5</v>
+      </c>
+      <c r="BA252">
+        <v>1.18</v>
+      </c>
+      <c r="BB252">
+        <v>1.43</v>
+      </c>
+      <c r="BC252">
+        <v>1.67</v>
+      </c>
+      <c r="BD252">
+        <v>2.1</v>
+      </c>
+      <c r="BE252">
+        <v>2.6</v>
+      </c>
+      <c r="BF252">
+        <v>7</v>
+      </c>
+      <c r="BG252">
+        <v>4</v>
+      </c>
+      <c r="BH252">
+        <v>5</v>
+      </c>
+      <c r="BI252">
+        <v>4</v>
+      </c>
+      <c r="BJ252">
+        <v>12</v>
+      </c>
+      <c r="BK252">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="384">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1527,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK252"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT3">
         <v>0.79</v>
@@ -2243,7 +2243,7 @@
         <v>0.93</v>
       </c>
       <c r="AT4">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT23">
         <v>0.5</v>
@@ -6827,7 +6827,7 @@
         <v>2.5</v>
       </c>
       <c r="AT28">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU28">
         <v>1.96</v>
@@ -9692,7 +9692,7 @@
         <v>1.86</v>
       </c>
       <c r="AT43">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU43">
         <v>1.31</v>
@@ -10071,7 +10071,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
         <v>1.36</v>
@@ -13130,7 +13130,7 @@
         <v>1.29</v>
       </c>
       <c r="AT61">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -13509,7 +13509,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT63">
         <v>1.29</v>
@@ -15804,7 +15804,7 @@
         <v>1.64</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU75">
         <v>1.56</v>
@@ -16374,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
         <v>1.29</v>
@@ -19433,7 +19433,7 @@
         <v>0.93</v>
       </c>
       <c r="AT94">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU94">
         <v>1.41</v>
@@ -20385,7 +20385,7 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT99">
         <v>1.36</v>
@@ -22489,7 +22489,7 @@
         <v>1.07</v>
       </c>
       <c r="AT110">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU110">
         <v>1.72</v>
@@ -22677,7 +22677,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -24781,7 +24781,7 @@
         <v>1.14</v>
       </c>
       <c r="AT122">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU122">
         <v>1.64</v>
@@ -27452,7 +27452,7 @@
         <v>2</v>
       </c>
       <c r="AS136">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT136">
         <v>1.57</v>
@@ -28219,7 +28219,7 @@
         <v>1.71</v>
       </c>
       <c r="AT140">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU140">
         <v>1.92</v>
@@ -31466,7 +31466,7 @@
         <v>1.93</v>
       </c>
       <c r="AT157">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU157">
         <v>2.08</v>
@@ -32036,7 +32036,7 @@
         <v>0.88</v>
       </c>
       <c r="AS160">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT160">
         <v>1.29</v>
@@ -34331,7 +34331,7 @@
         <v>1.71</v>
       </c>
       <c r="AT172">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU172">
         <v>1.7</v>
@@ -35856,7 +35856,7 @@
         <v>1.1</v>
       </c>
       <c r="AS180">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT180">
         <v>1.14</v>
@@ -38342,7 +38342,7 @@
         <v>2.29</v>
       </c>
       <c r="AT193">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU193">
         <v>1.79</v>
@@ -40058,7 +40058,7 @@
         <v>2.09</v>
       </c>
       <c r="AS202">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT202">
         <v>1.93</v>
@@ -41780,7 +41780,7 @@
         <v>0.43</v>
       </c>
       <c r="AT211">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU211">
         <v>1.17</v>
@@ -43687,7 +43687,7 @@
         <v>1.08</v>
       </c>
       <c r="AS221">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT221">
         <v>0.93</v>
@@ -45791,7 +45791,7 @@
         <v>1.93</v>
       </c>
       <c r="AT232">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU232">
         <v>1.86</v>
@@ -47889,7 +47889,7 @@
         <v>1.54</v>
       </c>
       <c r="AS243">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT243">
         <v>1.43</v>
@@ -49663,6 +49663,197 @@
       </c>
       <c r="BK252">
         <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>2547455</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>44995.69791666666</v>
+      </c>
+      <c r="F253">
+        <v>29</v>
+      </c>
+      <c r="G253" t="s">
+        <v>66</v>
+      </c>
+      <c r="H253" t="s">
+        <v>76</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
+        <v>85</v>
+      </c>
+      <c r="P253" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q253">
+        <v>7</v>
+      </c>
+      <c r="R253">
+        <v>4</v>
+      </c>
+      <c r="S253">
+        <v>11</v>
+      </c>
+      <c r="T253">
+        <v>2.55</v>
+      </c>
+      <c r="U253">
+        <v>2.15</v>
+      </c>
+      <c r="V253">
+        <v>3.7</v>
+      </c>
+      <c r="W253">
+        <v>1.34</v>
+      </c>
+      <c r="X253">
+        <v>2.95</v>
+      </c>
+      <c r="Y253">
+        <v>2.55</v>
+      </c>
+      <c r="Z253">
+        <v>1.44</v>
+      </c>
+      <c r="AA253">
+        <v>6.25</v>
+      </c>
+      <c r="AB253">
+        <v>1.1</v>
+      </c>
+      <c r="AC253">
+        <v>2</v>
+      </c>
+      <c r="AD253">
+        <v>3.5</v>
+      </c>
+      <c r="AE253">
+        <v>3.5</v>
+      </c>
+      <c r="AF253">
+        <v>1.04</v>
+      </c>
+      <c r="AG253">
+        <v>13</v>
+      </c>
+      <c r="AH253">
+        <v>1.28</v>
+      </c>
+      <c r="AI253">
+        <v>3.6</v>
+      </c>
+      <c r="AJ253">
+        <v>1.75</v>
+      </c>
+      <c r="AK253">
+        <v>2.05</v>
+      </c>
+      <c r="AL253">
+        <v>1.7</v>
+      </c>
+      <c r="AM253">
+        <v>2.1</v>
+      </c>
+      <c r="AN253">
+        <v>1.31</v>
+      </c>
+      <c r="AO253">
+        <v>1.28</v>
+      </c>
+      <c r="AP253">
+        <v>1.72</v>
+      </c>
+      <c r="AQ253">
+        <v>1.46</v>
+      </c>
+      <c r="AR253">
+        <v>1.14</v>
+      </c>
+      <c r="AS253">
+        <v>1.36</v>
+      </c>
+      <c r="AT253">
+        <v>1.27</v>
+      </c>
+      <c r="AU253">
+        <v>1.57</v>
+      </c>
+      <c r="AV253">
+        <v>1.44</v>
+      </c>
+      <c r="AW253">
+        <v>3.01</v>
+      </c>
+      <c r="AX253">
+        <v>1.71</v>
+      </c>
+      <c r="AY253">
+        <v>7.5</v>
+      </c>
+      <c r="AZ253">
+        <v>2.55</v>
+      </c>
+      <c r="BA253">
+        <v>1.19</v>
+      </c>
+      <c r="BB253">
+        <v>1.48</v>
+      </c>
+      <c r="BC253">
+        <v>1.73</v>
+      </c>
+      <c r="BD253">
+        <v>2.1</v>
+      </c>
+      <c r="BE253">
+        <v>2.7</v>
+      </c>
+      <c r="BF253">
+        <v>5</v>
+      </c>
+      <c r="BG253">
+        <v>3</v>
+      </c>
+      <c r="BH253">
+        <v>21</v>
+      </c>
+      <c r="BI253">
+        <v>8</v>
+      </c>
+      <c r="BJ253">
+        <v>26</v>
+      </c>
+      <c r="BK253">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -51202,10 +51202,10 @@
         <v>2.8</v>
       </c>
       <c r="BF260">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG260">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH260">
         <v>2</v>
@@ -51214,10 +51214,10 @@
         <v>6</v>
       </c>
       <c r="BJ260">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK260">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:63">
@@ -51270,13 +51270,13 @@
         <v>85</v>
       </c>
       <c r="Q261">
+        <v>5</v>
+      </c>
+      <c r="R261">
         <v>4</v>
       </c>
-      <c r="R261">
-        <v>1</v>
-      </c>
       <c r="S261">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T261">
         <v>2.75</v>
@@ -51393,22 +51393,22 @@
         <v>2.88</v>
       </c>
       <c r="BF261">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH261">
+        <v>7</v>
+      </c>
+      <c r="BI261">
         <v>3</v>
       </c>
-      <c r="BI261">
-        <v>2</v>
-      </c>
       <c r="BJ261">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK261">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK261"/>
+  <dimension ref="A1:BK266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT2" t="n">
         <v>1.4</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT4" t="n">
         <v>1.27</v>
@@ -1512,7 +1512,7 @@
         <v>0.87</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT12" t="n">
         <v>1.29</v>
@@ -3136,7 +3136,7 @@
         <v>1.43</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT14" t="n">
         <v>0.54</v>
@@ -3948,7 +3948,7 @@
         <v>1.07</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU20" t="n">
         <v>1.92</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT22" t="n">
         <v>1.33</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT25" t="n">
         <v>1.07</v>
@@ -5775,7 +5775,7 @@
         <v>1.93</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU26" t="n">
         <v>1.56</v>
@@ -5978,7 +5978,7 @@
         <v>1.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU27" t="n">
         <v>1.46</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT29" t="n">
         <v>1.4</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>0.54</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT34" t="n">
         <v>1.29</v>
@@ -7805,7 +7805,7 @@
         <v>1.43</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU36" t="n">
         <v>1.75</v>
@@ -8008,7 +8008,7 @@
         <v>0.87</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU37" t="n">
         <v>2.29</v>
@@ -8211,7 +8211,7 @@
         <v>1.07</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU38" t="n">
         <v>1.9</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT39" t="n">
         <v>1.33</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT43" t="n">
         <v>1.27</v>
@@ -9429,7 +9429,7 @@
         <v>1.73</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU44" t="n">
         <v>1.38</v>
@@ -9632,7 +9632,7 @@
         <v>1.36</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU45" t="n">
         <v>1.68</v>
@@ -9835,7 +9835,7 @@
         <v>0.4</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU46" t="n">
         <v>1.6</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU47" t="n">
         <v>1.7</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT49" t="n">
         <v>0.54</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT51" t="n">
         <v>1.27</v>
@@ -12474,7 +12474,7 @@
         <v>1.73</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT60" t="n">
         <v>0.53</v>
@@ -13083,7 +13083,7 @@
         <v>2.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU62" t="n">
         <v>1.87</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT65" t="n">
         <v>1.27</v>
@@ -13892,7 +13892,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT66" t="n">
         <v>0.54</v>
@@ -14098,7 +14098,7 @@
         <v>0.4</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT68" t="n">
         <v>0.79</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
         <v>1.67</v>
@@ -15113,7 +15113,7 @@
         <v>2.29</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15316,7 +15316,7 @@
         <v>1.93</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15519,7 +15519,7 @@
         <v>2.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0.53</v>
@@ -16331,7 +16331,7 @@
         <v>1.36</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU78" t="n">
         <v>1.89</v>
@@ -16937,10 +16937,10 @@
         <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU81" t="n">
         <v>1.72</v>
@@ -17343,10 +17343,10 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU83" t="n">
         <v>1.66</v>
@@ -17749,10 +17749,10 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -17955,7 +17955,7 @@
         <v>1.8</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -18764,7 +18764,7 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT90" t="n">
         <v>1.67</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT91" t="n">
         <v>0.79</v>
@@ -19985,7 +19985,7 @@
         <v>2</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU96" t="n">
         <v>2.23</v>
@@ -21000,7 +21000,7 @@
         <v>1.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU101" t="n">
         <v>1.71</v>
@@ -21200,10 +21200,10 @@
         <v>0.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>0.79</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT104" t="n">
         <v>1.36</v>
@@ -21812,7 +21812,7 @@
         <v>1.43</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU105" t="n">
         <v>1.47</v>
@@ -22012,7 +22012,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT106" t="n">
         <v>1.67</v>
@@ -22421,7 +22421,7 @@
         <v>1.4</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -22621,7 +22621,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT109" t="n">
         <v>2</v>
@@ -23233,7 +23233,7 @@
         <v>2.47</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -24651,7 +24651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT119" t="n">
         <v>1.36</v>
@@ -24854,10 +24854,10 @@
         <v>0.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU120" t="n">
         <v>1.4</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT122" t="n">
         <v>1.27</v>
@@ -25466,7 +25466,7 @@
         <v>2.29</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU123" t="n">
         <v>1.75</v>
@@ -25669,7 +25669,7 @@
         <v>2.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU124" t="n">
         <v>1.71</v>
@@ -25872,7 +25872,7 @@
         <v>1.93</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU125" t="n">
         <v>1.82</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT126" t="n">
         <v>1.29</v>
@@ -26275,10 +26275,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26884,7 +26884,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT130" t="n">
         <v>1.07</v>
@@ -28511,7 +28511,7 @@
         <v>1.73</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU138" t="n">
         <v>1.71</v>
@@ -28914,7 +28914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT140" t="n">
         <v>1.27</v>
@@ -29323,7 +29323,7 @@
         <v>1.93</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU142" t="n">
         <v>1.84</v>
@@ -29526,7 +29526,7 @@
         <v>2.29</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU143" t="n">
         <v>1.66</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT145" t="n">
         <v>0.93</v>
@@ -30135,7 +30135,7 @@
         <v>1.43</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU146" t="n">
         <v>1.61</v>
@@ -30538,7 +30538,7 @@
         <v>0.88</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT148" t="n">
         <v>1.07</v>
@@ -31147,7 +31147,7 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT151" t="n">
         <v>2</v>
@@ -31353,7 +31353,7 @@
         <v>1.4</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU152" t="n">
         <v>1.82</v>
@@ -31553,7 +31553,7 @@
         <v>1.38</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT153" t="n">
         <v>1.4</v>
@@ -32771,10 +32771,10 @@
         <v>2.63</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU159" t="n">
         <v>1.37</v>
@@ -33177,10 +33177,10 @@
         <v>0.75</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU161" t="n">
         <v>1.54</v>
@@ -33583,7 +33583,7 @@
         <v>1.67</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT163" t="n">
         <v>1.33</v>
@@ -33989,10 +33989,10 @@
         <v>1.11</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU165" t="n">
         <v>1.84</v>
@@ -34192,10 +34192,10 @@
         <v>1.11</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU166" t="n">
         <v>1.61</v>
@@ -34601,7 +34601,7 @@
         <v>2.47</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU168" t="n">
         <v>2.18</v>
@@ -36225,7 +36225,7 @@
         <v>2.47</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU176" t="n">
         <v>2.14</v>
@@ -37440,7 +37440,7 @@
         <v>0.5</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT182" t="n">
         <v>0.54</v>
@@ -37646,7 +37646,7 @@
         <v>1.8</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU183" t="n">
         <v>1.72</v>
@@ -37846,7 +37846,7 @@
         <v>2.2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT184" t="n">
         <v>2</v>
@@ -38049,7 +38049,7 @@
         <v>1.4</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT185" t="n">
         <v>1.67</v>
@@ -38252,10 +38252,10 @@
         <v>1.3</v>
       </c>
       <c r="AS186" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU186" t="n">
         <v>1.46</v>
@@ -38458,7 +38458,7 @@
         <v>1.4</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU187" t="n">
         <v>1.68</v>
@@ -38861,10 +38861,10 @@
         <v>1.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU189" t="n">
         <v>1.55</v>
@@ -39067,7 +39067,7 @@
         <v>0.87</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU190" t="n">
         <v>1.46</v>
@@ -39267,7 +39267,7 @@
         <v>1</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT191" t="n">
         <v>1.07</v>
@@ -40485,7 +40485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT197" t="n">
         <v>1.4</v>
@@ -40688,7 +40688,7 @@
         <v>1</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT198" t="n">
         <v>0.79</v>
@@ -41297,7 +41297,7 @@
         <v>0.45</v>
       </c>
       <c r="AS201" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT201" t="n">
         <v>0.53</v>
@@ -41906,7 +41906,7 @@
         <v>1.55</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT204" t="n">
         <v>1.4</v>
@@ -42112,7 +42112,7 @@
         <v>0.87</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU205" t="n">
         <v>1.47</v>
@@ -42315,7 +42315,7 @@
         <v>2.47</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU206" t="n">
         <v>2.06</v>
@@ -42518,7 +42518,7 @@
         <v>1.07</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU207" t="n">
         <v>1.67</v>
@@ -42718,7 +42718,7 @@
         <v>1.27</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT208" t="n">
         <v>1.29</v>
@@ -42921,7 +42921,7 @@
         <v>1.27</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT209" t="n">
         <v>1.27</v>
@@ -43127,7 +43127,7 @@
         <v>1.07</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU210" t="n">
         <v>1.65</v>
@@ -43530,7 +43530,7 @@
         <v>0.91</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT212" t="n">
         <v>0.93</v>
@@ -43736,7 +43736,7 @@
         <v>2.5</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU213" t="n">
         <v>1.73</v>
@@ -44142,7 +44142,7 @@
         <v>1.93</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU215" t="n">
         <v>1.85</v>
@@ -44345,7 +44345,7 @@
         <v>2.29</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU216" t="n">
         <v>1.84</v>
@@ -45360,7 +45360,7 @@
         <v>1.36</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU221" t="n">
         <v>1.47</v>
@@ -45966,7 +45966,7 @@
         <v>0.83</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT224" t="n">
         <v>0.93</v>
@@ -46375,7 +46375,7 @@
         <v>1.73</v>
       </c>
       <c r="AT226" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU226" t="n">
         <v>1.9</v>
@@ -46778,7 +46778,7 @@
         <v>1.25</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT228" t="n">
         <v>1.36</v>
@@ -46984,7 +46984,7 @@
         <v>0.4</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU229" t="n">
         <v>1.19</v>
@@ -47387,10 +47387,10 @@
         <v>1.5</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU231" t="n">
         <v>1.71</v>
@@ -47793,7 +47793,7 @@
         <v>1.42</v>
       </c>
       <c r="AS233" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT233" t="n">
         <v>1.29</v>
@@ -47996,10 +47996,10 @@
         <v>1.25</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU234" t="n">
         <v>1.41</v>
@@ -50026,10 +50026,10 @@
         <v>1.46</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU244" t="n">
         <v>1.62</v>
@@ -50229,7 +50229,7 @@
         <v>1.23</v>
       </c>
       <c r="AS245" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT245" t="n">
         <v>1.36</v>
@@ -50432,10 +50432,10 @@
         <v>1</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU246" t="n">
         <v>1.79</v>
@@ -50638,7 +50638,7 @@
         <v>1.43</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU247" t="n">
         <v>1.7</v>
@@ -50838,10 +50838,10 @@
         <v>1.38</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU248" t="n">
         <v>1.56</v>
@@ -51041,10 +51041,10 @@
         <v>2.23</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT249" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU249" t="n">
         <v>1.34</v>
@@ -53532,6 +53532,1021 @@
       </c>
       <c r="BK261" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2547462</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45002.69791666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>30</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>2</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>6</v>
+      </c>
+      <c r="R262" t="n">
+        <v>9</v>
+      </c>
+      <c r="S262" t="n">
+        <v>15</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V262" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X262" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2547461</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>30</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>1</v>
+      </c>
+      <c r="R263" t="n">
+        <v>6</v>
+      </c>
+      <c r="S263" t="n">
+        <v>7</v>
+      </c>
+      <c r="T263" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V263" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X263" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2547464</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45003.59375</v>
+      </c>
+      <c r="F264" t="n">
+        <v>30</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="n">
+        <v>3</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['24', '83']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>4</v>
+      </c>
+      <c r="R264" t="n">
+        <v>2</v>
+      </c>
+      <c r="S264" t="n">
+        <v>6</v>
+      </c>
+      <c r="T264" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V264" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X264" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2547465</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45003.59375</v>
+      </c>
+      <c r="F265" t="n">
+        <v>30</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="n">
+        <v>2</v>
+      </c>
+      <c r="N265" t="n">
+        <v>3</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['11', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>7</v>
+      </c>
+      <c r="R265" t="n">
+        <v>5</v>
+      </c>
+      <c r="S265" t="n">
+        <v>12</v>
+      </c>
+      <c r="T265" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V265" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X265" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2547457</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45003.69791666666</v>
+      </c>
+      <c r="F266" t="n">
+        <v>30</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>2</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>2</v>
+      </c>
+      <c r="L266" t="n">
+        <v>2</v>
+      </c>
+      <c r="M266" t="n">
+        <v>2</v>
+      </c>
+      <c r="N266" t="n">
+        <v>4</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['14', '39']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['76', '85']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>6</v>
+      </c>
+      <c r="R266" t="n">
+        <v>5</v>
+      </c>
+      <c r="S266" t="n">
+        <v>11</v>
+      </c>
+      <c r="T266" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V266" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X266" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK270"/>
+  <dimension ref="A1:BK279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.07</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT5" t="n">
         <v>0.87</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT10" t="n">
         <v>1.07</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>0.5</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT21" t="n">
         <v>0.73</v>
@@ -4963,7 +4963,7 @@
         <v>1.07</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU22" t="n">
         <v>1.47</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -6181,7 +6181,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU28" t="n">
         <v>1.96</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.58</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU30" t="n">
         <v>2.43</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU33" t="n">
         <v>2.11</v>
@@ -7399,7 +7399,7 @@
         <v>1.27</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.18</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU35" t="n">
         <v>1.92</v>
@@ -7805,7 +7805,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU36" t="n">
         <v>1.75</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT37" t="n">
         <v>2.07</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>0.87</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT40" t="n">
         <v>1.07</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU41" t="n">
         <v>2.06</v>
@@ -9020,10 +9020,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU42" t="n">
         <v>1.95</v>
@@ -9226,7 +9226,7 @@
         <v>1.8</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU43" t="n">
         <v>1.31</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT44" t="n">
         <v>1.4</v>
@@ -9632,7 +9632,7 @@
         <v>1.36</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU45" t="n">
         <v>1.68</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT46" t="n">
         <v>2.07</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
         <v>0.73</v>
@@ -10647,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU50" t="n">
         <v>1.72</v>
@@ -10850,7 +10850,7 @@
         <v>1.07</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU52" t="n">
         <v>2.24</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT53" t="n">
         <v>0.73</v>
@@ -11662,7 +11662,7 @@
         <v>1.4</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.58</v>
@@ -12065,10 +12065,10 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU57" t="n">
         <v>2.23</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU58" t="n">
         <v>1.88</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT59" t="n">
         <v>0.87</v>
@@ -12880,7 +12880,7 @@
         <v>1.4</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13286,7 +13286,7 @@
         <v>1.36</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.89</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT64" t="n">
         <v>2</v>
@@ -13692,7 +13692,7 @@
         <v>1.27</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU65" t="n">
         <v>1.42</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>0.73</v>
@@ -14504,7 +14504,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU69" t="n">
         <v>1.62</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.9</v>
@@ -14907,10 +14907,10 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT72" t="n">
         <v>2.07</v>
@@ -15719,10 +15719,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU75" t="n">
         <v>1.56</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT76" t="n">
         <v>0.53</v>
@@ -16125,10 +16125,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16531,10 +16531,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU79" t="n">
         <v>2.11</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
         <v>2</v>
@@ -16940,7 +16940,7 @@
         <v>1.8</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU81" t="n">
         <v>1.72</v>
@@ -17143,7 +17143,7 @@
         <v>1.4</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU82" t="n">
         <v>1.79</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>2.07</v>
@@ -17952,7 +17952,7 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT86" t="n">
         <v>0.73</v>
@@ -18361,7 +18361,7 @@
         <v>1.4</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -18767,7 +18767,7 @@
         <v>1.07</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU90" t="n">
         <v>1.38</v>
@@ -19173,7 +19173,7 @@
         <v>2.33</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU93" t="n">
         <v>2.06</v>
@@ -19576,10 +19576,10 @@
         <v>1.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT95" t="n">
         <v>0.53</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20388,10 +20388,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -20594,7 +20594,7 @@
         <v>1.36</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU99" t="n">
         <v>1.74</v>
@@ -20794,7 +20794,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT100" t="n">
         <v>1.07</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT101" t="n">
         <v>0.87</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT103" t="n">
         <v>0.73</v>
@@ -21609,7 +21609,7 @@
         <v>1.27</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU104" t="n">
         <v>1.71</v>
@@ -22015,7 +22015,7 @@
         <v>1.8</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU106" t="n">
         <v>1.67</v>
@@ -22421,7 +22421,7 @@
         <v>1.4</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -22621,7 +22621,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>2</v>
@@ -22824,10 +22824,10 @@
         <v>1.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -23030,7 +23030,7 @@
         <v>1.36</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU111" t="n">
         <v>1.64</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT112" t="n">
         <v>1.4</v>
@@ -23433,7 +23433,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT113" t="n">
         <v>1.07</v>
@@ -23636,10 +23636,10 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.74</v>
@@ -23839,10 +23839,10 @@
         <v>1.8</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU115" t="n">
         <v>1.61</v>
@@ -24045,7 +24045,7 @@
         <v>2</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU116" t="n">
         <v>2.28</v>
@@ -24448,10 +24448,10 @@
         <v>1.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -24651,10 +24651,10 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU119" t="n">
         <v>1.89</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT121" t="n">
         <v>0.73</v>
@@ -25263,7 +25263,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -25463,10 +25463,10 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU123" t="n">
         <v>1.75</v>
@@ -26075,7 +26075,7 @@
         <v>1.8</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
         <v>0.73</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT128" t="n">
         <v>0.5</v>
@@ -26681,10 +26681,10 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.37</v>
@@ -27087,10 +27087,10 @@
         <v>1.29</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU131" t="n">
         <v>1.68</v>
@@ -27696,7 +27696,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT134" t="n">
         <v>2</v>
@@ -27902,7 +27902,7 @@
         <v>1.33</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU135" t="n">
         <v>1.61</v>
@@ -28105,7 +28105,7 @@
         <v>1.36</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU136" t="n">
         <v>1.62</v>
@@ -28305,10 +28305,10 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU137" t="n">
         <v>2.22</v>
@@ -28508,7 +28508,7 @@
         <v>0.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT138" t="n">
         <v>0.73</v>
@@ -28711,10 +28711,10 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU139" t="n">
         <v>1.24</v>
@@ -28914,10 +28914,10 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU140" t="n">
         <v>1.92</v>
@@ -29117,10 +29117,10 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU141" t="n">
         <v>1.86</v>
@@ -29323,7 +29323,7 @@
         <v>2</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU142" t="n">
         <v>1.84</v>
@@ -29523,7 +29523,7 @@
         <v>1.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT143" t="n">
         <v>1.4</v>
@@ -29729,7 +29729,7 @@
         <v>2.33</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU144" t="n">
         <v>1.72</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU145" t="n">
         <v>1.48</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT147" t="n">
         <v>0.53</v>
@@ -30741,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT149" t="n">
         <v>0.73</v>
@@ -30947,7 +30947,7 @@
         <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU150" t="n">
         <v>2.16</v>
@@ -31556,7 +31556,7 @@
         <v>1.07</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.39</v>
@@ -31756,7 +31756,7 @@
         <v>0.78</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT154" t="n">
         <v>0.73</v>
@@ -31962,7 +31962,7 @@
         <v>2</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU155" t="n">
         <v>1.8</v>
@@ -32162,7 +32162,7 @@
         <v>1.11</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT156" t="n">
         <v>1.07</v>
@@ -32368,7 +32368,7 @@
         <v>2</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU157" t="n">
         <v>2.08</v>
@@ -32568,7 +32568,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT158" t="n">
         <v>0.53</v>
@@ -32977,7 +32977,7 @@
         <v>1.36</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.55</v>
@@ -33380,10 +33380,10 @@
         <v>1.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU162" t="n">
         <v>1.73</v>
@@ -33586,7 +33586,7 @@
         <v>1.8</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU163" t="n">
         <v>1.59</v>
@@ -33786,10 +33786,10 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU164" t="n">
         <v>1.83</v>
@@ -33989,7 +33989,7 @@
         <v>1.11</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT165" t="n">
         <v>1.4</v>
@@ -34192,7 +34192,7 @@
         <v>1.11</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT166" t="n">
         <v>0.87</v>
@@ -34398,7 +34398,7 @@
         <v>2.33</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU167" t="n">
         <v>1.72</v>
@@ -34598,10 +34598,10 @@
         <v>1.63</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU168" t="n">
         <v>2.18</v>
@@ -34801,7 +34801,7 @@
         <v>0.57</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT169" t="n">
         <v>0.5</v>
@@ -35210,7 +35210,7 @@
         <v>1.33</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU171" t="n">
         <v>1.83</v>
@@ -35410,10 +35410,10 @@
         <v>1.3</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU172" t="n">
         <v>1.7</v>
@@ -35613,10 +35613,10 @@
         <v>1.44</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU173" t="n">
         <v>1.17</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT174" t="n">
         <v>0.53</v>
@@ -36019,10 +36019,10 @@
         <v>1.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU175" t="n">
         <v>1.76</v>
@@ -36222,7 +36222,7 @@
         <v>0.67</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT176" t="n">
         <v>0.73</v>
@@ -36428,7 +36428,7 @@
         <v>2</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU177" t="n">
         <v>2.11</v>
@@ -36631,7 +36631,7 @@
         <v>2</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU178" t="n">
         <v>1.87</v>
@@ -36831,10 +36831,10 @@
         <v>1.56</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU179" t="n">
         <v>1.77</v>
@@ -37643,7 +37643,7 @@
         <v>2.33</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT183" t="n">
         <v>2.07</v>
@@ -37846,7 +37846,7 @@
         <v>2.2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT184" t="n">
         <v>2</v>
@@ -38049,10 +38049,10 @@
         <v>1.4</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU185" t="n">
         <v>1.64</v>
@@ -38661,7 +38661,7 @@
         <v>2</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU188" t="n">
         <v>1.87</v>
@@ -38864,7 +38864,7 @@
         <v>1.27</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU189" t="n">
         <v>1.55</v>
@@ -39064,7 +39064,7 @@
         <v>1.3</v>
       </c>
       <c r="AS190" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT190" t="n">
         <v>1.4</v>
@@ -39267,7 +39267,7 @@
         <v>1</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT191" t="n">
         <v>1.07</v>
@@ -39470,10 +39470,10 @@
         <v>1</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU192" t="n">
         <v>1.89</v>
@@ -39673,10 +39673,10 @@
         <v>1.45</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU193" t="n">
         <v>1.79</v>
@@ -39879,7 +39879,7 @@
         <v>2.33</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU194" t="n">
         <v>1.72</v>
@@ -40079,10 +40079,10 @@
         <v>1.1</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU195" t="n">
         <v>1.15</v>
@@ -40285,7 +40285,7 @@
         <v>2</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU196" t="n">
         <v>2.08</v>
@@ -40488,7 +40488,7 @@
         <v>1.27</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU197" t="n">
         <v>1.54</v>
@@ -40891,7 +40891,7 @@
         <v>0.44</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT199" t="n">
         <v>0.5</v>
@@ -41097,7 +41097,7 @@
         <v>1.33</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU200" t="n">
         <v>1.81</v>
@@ -41706,7 +41706,7 @@
         <v>1.4</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU203" t="n">
         <v>1.75</v>
@@ -41906,10 +41906,10 @@
         <v>1.55</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU204" t="n">
         <v>1.71</v>
@@ -42109,10 +42109,10 @@
         <v>1.4</v>
       </c>
       <c r="AS205" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU205" t="n">
         <v>1.47</v>
@@ -42312,7 +42312,7 @@
         <v>1.18</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT206" t="n">
         <v>0.87</v>
@@ -42515,7 +42515,7 @@
         <v>2.4</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT207" t="n">
         <v>2.07</v>
@@ -42718,10 +42718,10 @@
         <v>1.27</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU208" t="n">
         <v>1.63</v>
@@ -42921,10 +42921,10 @@
         <v>1.27</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU209" t="n">
         <v>1.69</v>
@@ -43124,7 +43124,7 @@
         <v>1.27</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT210" t="n">
         <v>1.4</v>
@@ -43327,10 +43327,10 @@
         <v>1.33</v>
       </c>
       <c r="AS211" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU211" t="n">
         <v>1.17</v>
@@ -43533,7 +43533,7 @@
         <v>1.27</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU212" t="n">
         <v>1.45</v>
@@ -43736,7 +43736,7 @@
         <v>2.33</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU213" t="n">
         <v>1.73</v>
@@ -43936,10 +43936,10 @@
         <v>1.27</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU214" t="n">
         <v>1.93</v>
@@ -44342,7 +44342,7 @@
         <v>0.82</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT216" t="n">
         <v>0.73</v>
@@ -44951,7 +44951,7 @@
         <v>0.4</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT219" t="n">
         <v>0.5</v>
@@ -45154,10 +45154,10 @@
         <v>1.42</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU220" t="n">
         <v>1.79</v>
@@ -45560,10 +45560,10 @@
         <v>1.5</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU222" t="n">
         <v>2.05</v>
@@ -45766,7 +45766,7 @@
         <v>1.4</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU223" t="n">
         <v>1.67</v>
@@ -45969,7 +45969,7 @@
         <v>1.8</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU224" t="n">
         <v>1.58</v>
@@ -46169,7 +46169,7 @@
         <v>0.5</v>
       </c>
       <c r="AS225" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT225" t="n">
         <v>0.53</v>
@@ -46372,7 +46372,7 @@
         <v>2.33</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT226" t="n">
         <v>2.07</v>
@@ -46778,10 +46778,10 @@
         <v>1.25</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU228" t="n">
         <v>1.61</v>
@@ -46981,7 +46981,7 @@
         <v>0.75</v>
       </c>
       <c r="AS229" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT229" t="n">
         <v>0.73</v>
@@ -47184,10 +47184,10 @@
         <v>1.25</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU230" t="n">
         <v>1.85</v>
@@ -47387,10 +47387,10 @@
         <v>1.5</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU231" t="n">
         <v>1.71</v>
@@ -47593,7 +47593,7 @@
         <v>2</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU232" t="n">
         <v>1.86</v>
@@ -47796,7 +47796,7 @@
         <v>1.07</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU233" t="n">
         <v>1.51</v>
@@ -48199,10 +48199,10 @@
         <v>1</v>
       </c>
       <c r="AS235" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU235" t="n">
         <v>1.45</v>
@@ -48402,7 +48402,7 @@
         <v>0.36</v>
       </c>
       <c r="AS236" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT236" t="n">
         <v>0.5</v>
@@ -48605,7 +48605,7 @@
         <v>0.54</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT237" t="n">
         <v>0.53</v>
@@ -48808,7 +48808,7 @@
         <v>1.15</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT238" t="n">
         <v>1.07</v>
@@ -49011,7 +49011,7 @@
         <v>2.08</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT239" t="n">
         <v>2</v>
@@ -49217,7 +49217,7 @@
         <v>2</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU240" t="n">
         <v>1.97</v>
@@ -49420,7 +49420,7 @@
         <v>1.33</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU241" t="n">
         <v>1.74</v>
@@ -49623,7 +49623,7 @@
         <v>1.4</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU242" t="n">
         <v>1.74</v>
@@ -49826,7 +49826,7 @@
         <v>1.36</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU243" t="n">
         <v>1.51</v>
@@ -50026,10 +50026,10 @@
         <v>1.46</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU244" t="n">
         <v>1.62</v>
@@ -50232,7 +50232,7 @@
         <v>1.07</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU245" t="n">
         <v>1.52</v>
@@ -50432,7 +50432,7 @@
         <v>1</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT246" t="n">
         <v>0.87</v>
@@ -51450,7 +51450,7 @@
         <v>2</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU251" t="n">
         <v>1.84</v>
@@ -51650,7 +51650,7 @@
         <v>0.85</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT252" t="n">
         <v>0.73</v>
@@ -51856,7 +51856,7 @@
         <v>1.36</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU253" t="n">
         <v>1.57</v>
@@ -52056,10 +52056,10 @@
         <v>1.43</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU254" t="n">
         <v>1.86</v>
@@ -52259,10 +52259,10 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU255" t="n">
         <v>1.74</v>
@@ -52462,7 +52462,7 @@
         <v>0.5</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT256" t="n">
         <v>0.53</v>
@@ -52665,10 +52665,10 @@
         <v>1.57</v>
       </c>
       <c r="AS257" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU257" t="n">
         <v>1.15</v>
@@ -52871,7 +52871,7 @@
         <v>2</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU258" t="n">
         <v>1.95</v>
@@ -53071,10 +53071,10 @@
         <v>1.29</v>
       </c>
       <c r="AS259" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU259" t="n">
         <v>1.5</v>
@@ -53274,7 +53274,7 @@
         <v>1.93</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT260" t="n">
         <v>2</v>
@@ -53680,7 +53680,7 @@
         <v>2.14</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT262" t="n">
         <v>2.07</v>
@@ -53886,7 +53886,7 @@
         <v>1.07</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU263" t="n">
         <v>1.51</v>
@@ -54289,7 +54289,7 @@
         <v>1.29</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT265" t="n">
         <v>1.4</v>
@@ -54698,7 +54698,7 @@
         <v>2.33</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AU267" t="n">
         <v>1.7</v>
@@ -54901,7 +54901,7 @@
         <v>1.33</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU268" t="n">
         <v>1.72</v>
@@ -55101,7 +55101,7 @@
         <v>0.54</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT269" t="n">
         <v>0.5</v>
@@ -55359,6 +55359,1833 @@
       </c>
       <c r="BK270" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2547470</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F271" t="n">
+        <v>31</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>2</v>
+      </c>
+      <c r="N271" t="n">
+        <v>2</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['85', '89']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>6</v>
+      </c>
+      <c r="R271" t="n">
+        <v>5</v>
+      </c>
+      <c r="S271" t="n">
+        <v>11</v>
+      </c>
+      <c r="T271" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V271" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X271" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2547468</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F272" t="n">
+        <v>31</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>2</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>2</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['16', '36']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>6</v>
+      </c>
+      <c r="R272" t="n">
+        <v>2</v>
+      </c>
+      <c r="S272" t="n">
+        <v>8</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V272" t="n">
+        <v>5</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2547467</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45017.55208333334</v>
+      </c>
+      <c r="F273" t="n">
+        <v>31</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>5</v>
+      </c>
+      <c r="N273" t="n">
+        <v>5</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['18', '52', '54', '62', '77']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>3</v>
+      </c>
+      <c r="R273" t="n">
+        <v>13</v>
+      </c>
+      <c r="S273" t="n">
+        <v>16</v>
+      </c>
+      <c r="T273" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V273" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X273" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2547472</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45017.55208333334</v>
+      </c>
+      <c r="F274" t="n">
+        <v>31</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>2</v>
+      </c>
+      <c r="K274" t="n">
+        <v>3</v>
+      </c>
+      <c r="L274" t="n">
+        <v>2</v>
+      </c>
+      <c r="M274" t="n">
+        <v>3</v>
+      </c>
+      <c r="N274" t="n">
+        <v>5</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['8', '89']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['35', '39', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>7</v>
+      </c>
+      <c r="R274" t="n">
+        <v>4</v>
+      </c>
+      <c r="S274" t="n">
+        <v>11</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2547474</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45017.65625</v>
+      </c>
+      <c r="F275" t="n">
+        <v>31</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>3</v>
+      </c>
+      <c r="K275" t="n">
+        <v>4</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>3</v>
+      </c>
+      <c r="N275" t="n">
+        <v>4</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['8', '11', '19']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>6</v>
+      </c>
+      <c r="R275" t="n">
+        <v>7</v>
+      </c>
+      <c r="S275" t="n">
+        <v>13</v>
+      </c>
+      <c r="T275" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V275" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2547466</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45018.35416666666</v>
+      </c>
+      <c r="F276" t="n">
+        <v>31</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="n">
+        <v>3</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['23', '87']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>11</v>
+      </c>
+      <c r="R276" t="n">
+        <v>5</v>
+      </c>
+      <c r="S276" t="n">
+        <v>16</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V276" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2547473</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F277" t="n">
+        <v>31</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>AS Eupen</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>2</v>
+      </c>
+      <c r="R277" t="n">
+        <v>6</v>
+      </c>
+      <c r="S277" t="n">
+        <v>8</v>
+      </c>
+      <c r="T277" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V277" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X277" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2547471</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45018.5625</v>
+      </c>
+      <c r="F278" t="n">
+        <v>31</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2</v>
+      </c>
+      <c r="K278" t="n">
+        <v>2</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>3</v>
+      </c>
+      <c r="N278" t="n">
+        <v>3</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['16', '20', '68']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>1</v>
+      </c>
+      <c r="R278" t="n">
+        <v>8</v>
+      </c>
+      <c r="S278" t="n">
+        <v>9</v>
+      </c>
+      <c r="T278" t="n">
+        <v>4</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X278" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2547469</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45018.59375</v>
+      </c>
+      <c r="F279" t="n">
+        <v>31</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>2</v>
+      </c>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="n">
+        <v>3</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['73', '89']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>13</v>
+      </c>
+      <c r="R279" t="n">
+        <v>1</v>
+      </c>
+      <c r="S279" t="n">
+        <v>14</v>
+      </c>
+      <c r="T279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V279" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X279" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK283"/>
+  <dimension ref="A1:BK288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.06</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.69</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.44</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT19" t="n">
         <v>0.6899999999999999</v>
@@ -5166,7 +5166,7 @@
         <v>1.47</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.49</v>
@@ -5369,7 +5369,7 @@
         <v>1.63</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU24" t="n">
         <v>1.52</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.02</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU26" t="n">
         <v>1.56</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT27" t="n">
         <v>0.8100000000000001</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT28" t="n">
         <v>1.19</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -8008,7 +8008,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU37" t="n">
         <v>2.29</v>
@@ -8617,7 +8617,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>2.52</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT43" t="n">
         <v>1.19</v>
@@ -9429,7 +9429,7 @@
         <v>1.63</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU44" t="n">
         <v>1.38</v>
@@ -9835,7 +9835,7 @@
         <v>0.38</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU46" t="n">
         <v>1.6</v>
@@ -10241,7 +10241,7 @@
         <v>1.44</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT49" t="n">
         <v>0.47</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT50" t="n">
         <v>1.75</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU54" t="n">
         <v>2</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT55" t="n">
         <v>1.5</v>
@@ -11865,7 +11865,7 @@
         <v>2.06</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>2.27</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT61" t="n">
         <v>1.19</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.87</v>
@@ -13489,7 +13489,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU64" t="n">
         <v>1.71</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT65" t="n">
         <v>1.38</v>
@@ -15113,7 +15113,7 @@
         <v>2.38</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT73" t="n">
         <v>0.6899999999999999</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT74" t="n">
         <v>0.8100000000000001</v>
@@ -15925,7 +15925,7 @@
         <v>1.75</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.85</v>
@@ -16331,7 +16331,7 @@
         <v>1.47</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU78" t="n">
         <v>1.89</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU80" t="n">
         <v>1.97</v>
@@ -16937,7 +16937,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT81" t="n">
         <v>1.38</v>
@@ -17140,7 +17140,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT82" t="n">
         <v>0.88</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT83" t="n">
         <v>0.8100000000000001</v>
@@ -17549,7 +17549,7 @@
         <v>1.44</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU84" t="n">
         <v>1.57</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU85" t="n">
         <v>1.48</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT88" t="n">
         <v>1.56</v>
@@ -18561,10 +18561,10 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>1.81</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT91" t="n">
         <v>0.75</v>
@@ -19170,7 +19170,7 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT92" t="n">
         <v>1.25</v>
@@ -19782,7 +19782,7 @@
         <v>0.38</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.22</v>
@@ -19985,7 +19985,7 @@
         <v>2.06</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU96" t="n">
         <v>2.23</v>
@@ -20797,7 +20797,7 @@
         <v>2.38</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT104" t="n">
         <v>1.56</v>
@@ -21812,7 +21812,7 @@
         <v>1.44</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU105" t="n">
         <v>1.47</v>
@@ -22012,7 +22012,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT106" t="n">
         <v>1.75</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT107" t="n">
         <v>0.47</v>
@@ -22418,7 +22418,7 @@
         <v>1.8</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT108" t="n">
         <v>1.38</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU109" t="n">
         <v>1.51</v>
@@ -23233,7 +23233,7 @@
         <v>2.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU112" t="n">
         <v>2.2</v>
@@ -23436,7 +23436,7 @@
         <v>0.38</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.28</v>
@@ -24245,10 +24245,10 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.67</v>
@@ -24857,7 +24857,7 @@
         <v>1.06</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU120" t="n">
         <v>1.4</v>
@@ -25260,7 +25260,7 @@
         <v>1.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT122" t="n">
         <v>1.19</v>
@@ -25666,10 +25666,10 @@
         <v>2.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU124" t="n">
         <v>1.71</v>
@@ -25869,7 +25869,7 @@
         <v>1.43</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT125" t="n">
         <v>0.8100000000000001</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT126" t="n">
         <v>1.5</v>
@@ -26887,7 +26887,7 @@
         <v>1.06</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.33</v>
@@ -27293,7 +27293,7 @@
         <v>2.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU132" t="n">
         <v>2.19</v>
@@ -27493,7 +27493,7 @@
         <v>0.86</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT133" t="n">
         <v>0.75</v>
@@ -27699,7 +27699,7 @@
         <v>0.38</v>
       </c>
       <c r="AT134" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU134" t="n">
         <v>1.23</v>
@@ -29320,7 +29320,7 @@
         <v>1.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT142" t="n">
         <v>1.38</v>
@@ -29526,7 +29526,7 @@
         <v>2.38</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU143" t="n">
         <v>1.66</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT144" t="n">
         <v>1.5</v>
@@ -30338,7 +30338,7 @@
         <v>1.69</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.7</v>
@@ -30538,10 +30538,10 @@
         <v>0.88</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.59</v>
@@ -31147,10 +31147,10 @@
         <v>2</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT151" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU151" t="n">
         <v>1.57</v>
@@ -31350,10 +31350,10 @@
         <v>2.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU152" t="n">
         <v>1.82</v>
@@ -31959,7 +31959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT155" t="n">
         <v>1.38</v>
@@ -32165,7 +32165,7 @@
         <v>1.63</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU156" t="n">
         <v>1.8</v>
@@ -32571,7 +32571,7 @@
         <v>2.38</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU158" t="n">
         <v>1.77</v>
@@ -32774,7 +32774,7 @@
         <v>1.06</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU159" t="n">
         <v>1.37</v>
@@ -33177,7 +33177,7 @@
         <v>0.75</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT161" t="n">
         <v>0.6899999999999999</v>
@@ -33583,7 +33583,7 @@
         <v>1.67</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT163" t="n">
         <v>1.25</v>
@@ -33992,7 +33992,7 @@
         <v>1.75</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU165" t="n">
         <v>1.84</v>
@@ -34395,7 +34395,7 @@
         <v>1.56</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT167" t="n">
         <v>1.5</v>
@@ -35004,10 +35004,10 @@
         <v>2.11</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT170" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU170" t="n">
         <v>1.79</v>
@@ -35819,7 +35819,7 @@
         <v>1.63</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU174" t="n">
         <v>1.89</v>
@@ -36628,7 +36628,7 @@
         <v>1.11</v>
       </c>
       <c r="AS178" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT178" t="n">
         <v>0.88</v>
@@ -37037,7 +37037,7 @@
         <v>1.47</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU180" t="n">
         <v>1.52</v>
@@ -37440,7 +37440,7 @@
         <v>0.5</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT182" t="n">
         <v>0.47</v>
@@ -37646,7 +37646,7 @@
         <v>1.69</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU183" t="n">
         <v>1.72</v>
@@ -37849,7 +37849,7 @@
         <v>1.75</v>
       </c>
       <c r="AT184" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU184" t="n">
         <v>1.79</v>
@@ -38455,7 +38455,7 @@
         <v>0.6</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT187" t="n">
         <v>0.6899999999999999</v>
@@ -38658,7 +38658,7 @@
         <v>1.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT188" t="n">
         <v>1.56</v>
@@ -38861,7 +38861,7 @@
         <v>1.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT189" t="n">
         <v>1.38</v>
@@ -39067,7 +39067,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU190" t="n">
         <v>1.46</v>
@@ -39270,7 +39270,7 @@
         <v>1</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU191" t="n">
         <v>1.67</v>
@@ -39876,7 +39876,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT194" t="n">
         <v>1.38</v>
@@ -40485,7 +40485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT197" t="n">
         <v>1.5</v>
@@ -40688,7 +40688,7 @@
         <v>1</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT198" t="n">
         <v>0.75</v>
@@ -41300,7 +41300,7 @@
         <v>1.06</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU201" t="n">
         <v>1.52</v>
@@ -41503,7 +41503,7 @@
         <v>1.47</v>
       </c>
       <c r="AT202" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU202" t="n">
         <v>1.53</v>
@@ -41703,7 +41703,7 @@
         <v>1.55</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT203" t="n">
         <v>1.75</v>
@@ -42518,7 +42518,7 @@
         <v>1</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU207" t="n">
         <v>1.67</v>
@@ -43127,7 +43127,7 @@
         <v>1</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU210" t="n">
         <v>1.65</v>
@@ -43530,7 +43530,7 @@
         <v>0.91</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT212" t="n">
         <v>0.88</v>
@@ -43733,7 +43733,7 @@
         <v>1.55</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT213" t="n">
         <v>1.38</v>
@@ -44139,10 +44139,10 @@
         <v>2.27</v>
       </c>
       <c r="AS215" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU215" t="n">
         <v>1.85</v>
@@ -44548,7 +44548,7 @@
         <v>1.44</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU217" t="n">
         <v>1.82</v>
@@ -44751,7 +44751,7 @@
         <v>2.06</v>
       </c>
       <c r="AT218" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU218" t="n">
         <v>2.04</v>
@@ -45763,7 +45763,7 @@
         <v>1.67</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT223" t="n">
         <v>1.25</v>
@@ -45966,7 +45966,7 @@
         <v>0.83</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT224" t="n">
         <v>0.88</v>
@@ -46172,7 +46172,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU225" t="n">
         <v>1.46</v>
@@ -46375,7 +46375,7 @@
         <v>1.63</v>
       </c>
       <c r="AT226" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU226" t="n">
         <v>1.9</v>
@@ -46575,7 +46575,7 @@
         <v>0.92</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT227" t="n">
         <v>0.75</v>
@@ -47590,7 +47590,7 @@
         <v>1.23</v>
       </c>
       <c r="AS232" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT232" t="n">
         <v>1.19</v>
@@ -47996,10 +47996,10 @@
         <v>1.25</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU234" t="n">
         <v>1.41</v>
@@ -48608,7 +48608,7 @@
         <v>2.5</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU237" t="n">
         <v>2.01</v>
@@ -48811,7 +48811,7 @@
         <v>1</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU238" t="n">
         <v>1.58</v>
@@ -49014,7 +49014,7 @@
         <v>1.69</v>
       </c>
       <c r="AT239" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU239" t="n">
         <v>1.76</v>
@@ -49620,7 +49620,7 @@
         <v>1.38</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT242" t="n">
         <v>1.38</v>
@@ -50838,10 +50838,10 @@
         <v>1.38</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU248" t="n">
         <v>1.56</v>
@@ -51041,10 +51041,10 @@
         <v>2.23</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT249" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU249" t="n">
         <v>1.34</v>
@@ -51244,7 +51244,7 @@
         <v>0.58</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT250" t="n">
         <v>0.47</v>
@@ -51447,7 +51447,7 @@
         <v>1.38</v>
       </c>
       <c r="AS251" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT251" t="n">
         <v>1.5</v>
@@ -52465,7 +52465,7 @@
         <v>1</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU256" t="n">
         <v>1.54</v>
@@ -53277,7 +53277,7 @@
         <v>2.5</v>
       </c>
       <c r="AT260" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU260" t="n">
         <v>1.98</v>
@@ -53477,10 +53477,10 @@
         <v>1.14</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU261" t="n">
         <v>1.77</v>
@@ -53683,7 +53683,7 @@
         <v>1.75</v>
       </c>
       <c r="AT262" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU262" t="n">
         <v>1.83</v>
@@ -54086,7 +54086,7 @@
         <v>0.93</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AT264" t="n">
         <v>0.8100000000000001</v>
@@ -54292,7 +54292,7 @@
         <v>1</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU265" t="n">
         <v>1.62</v>
@@ -54492,7 +54492,7 @@
         <v>0.71</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT266" t="n">
         <v>0.6899999999999999</v>
@@ -54695,7 +54695,7 @@
         <v>1.36</v>
       </c>
       <c r="AS267" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT267" t="n">
         <v>1.56</v>
@@ -55304,7 +55304,7 @@
         <v>0.79</v>
       </c>
       <c r="AS270" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT270" t="n">
         <v>0.75</v>
@@ -57998,6 +57998,1021 @@
       </c>
       <c r="BK283" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2547478</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45024.65625</v>
+      </c>
+      <c r="F284" t="n">
+        <v>32</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>4</v>
+      </c>
+      <c r="R284" t="n">
+        <v>3</v>
+      </c>
+      <c r="S284" t="n">
+        <v>7</v>
+      </c>
+      <c r="T284" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V284" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2547476</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45025.35416666666</v>
+      </c>
+      <c r="F285" t="n">
+        <v>32</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>10</v>
+      </c>
+      <c r="R285" t="n">
+        <v>1</v>
+      </c>
+      <c r="S285" t="n">
+        <v>11</v>
+      </c>
+      <c r="T285" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V285" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X285" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2547479</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F286" t="n">
+        <v>32</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1</v>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="n">
+        <v>2</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="N286" t="n">
+        <v>3</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['72', '85']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>6</v>
+      </c>
+      <c r="R286" t="n">
+        <v>1</v>
+      </c>
+      <c r="S286" t="n">
+        <v>7</v>
+      </c>
+      <c r="T286" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V286" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X286" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2547477</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45025.5625</v>
+      </c>
+      <c r="F287" t="n">
+        <v>32</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>2</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>2</v>
+      </c>
+      <c r="L287" t="n">
+        <v>2</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>2</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['33', '39']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>4</v>
+      </c>
+      <c r="R287" t="n">
+        <v>7</v>
+      </c>
+      <c r="S287" t="n">
+        <v>11</v>
+      </c>
+      <c r="T287" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V287" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X287" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2547482</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45025.59375</v>
+      </c>
+      <c r="F288" t="n">
+        <v>32</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>2</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>2</v>
+      </c>
+      <c r="L288" t="n">
+        <v>5</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>5</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['11', '43', '62', '78', '88']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>6</v>
+      </c>
+      <c r="R288" t="n">
+        <v>2</v>
+      </c>
+      <c r="S288" t="n">
+        <v>8</v>
+      </c>
+      <c r="T288" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V288" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK289"/>
+  <dimension ref="A1:BK290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -2730,7 +2730,7 @@
         <v>2.38</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>0.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU32" t="n">
         <v>1.83</v>
@@ -9023,7 +9023,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU42" t="n">
         <v>1.95</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT43" t="n">
         <v>1.19</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5</v>
@@ -14504,7 +14504,7 @@
         <v>1.44</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU69" t="n">
         <v>1.62</v>
@@ -16937,7 +16937,7 @@
         <v>2.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT81" t="n">
         <v>1.38</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT83" t="n">
         <v>0.8100000000000001</v>
@@ -18361,7 +18361,7 @@
         <v>1.38</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -21609,7 +21609,7 @@
         <v>1.38</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU104" t="n">
         <v>1.71</v>
@@ -22012,7 +22012,7 @@
         <v>2.4</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT106" t="n">
         <v>1.75</v>
@@ -24654,7 +24654,7 @@
         <v>1.75</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU119" t="n">
         <v>1.89</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT126" t="n">
         <v>1.5</v>
@@ -28308,7 +28308,7 @@
         <v>2.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU137" t="n">
         <v>2.22</v>
@@ -31350,7 +31350,7 @@
         <v>2</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT152" t="n">
         <v>1.94</v>
@@ -33786,7 +33786,7 @@
         <v>1.67</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT164" t="n">
         <v>1.25</v>
@@ -33992,7 +33992,7 @@
         <v>1</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU165" t="n">
         <v>1.83</v>
@@ -37643,7 +37643,7 @@
         <v>0.44</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT183" t="n">
         <v>0.44</v>
@@ -38864,7 +38864,7 @@
         <v>1.94</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU189" t="n">
         <v>1.87</v>
@@ -40488,7 +40488,7 @@
         <v>2.06</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU197" t="n">
         <v>2.08</v>
@@ -40891,7 +40891,7 @@
         <v>1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT199" t="n">
         <v>0.75</v>
@@ -44142,7 +44142,7 @@
         <v>1.63</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU215" t="n">
         <v>1.93</v>
@@ -46169,7 +46169,7 @@
         <v>0.83</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT225" t="n">
         <v>0.88</v>
@@ -46984,7 +46984,7 @@
         <v>1</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU229" t="n">
         <v>1.61</v>
@@ -50435,7 +50435,7 @@
         <v>1.06</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU246" t="n">
         <v>1.52</v>
@@ -51041,7 +51041,7 @@
         <v>1.38</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT249" t="n">
         <v>1.38</v>
@@ -54695,7 +54695,7 @@
         <v>0.71</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT267" t="n">
         <v>0.6899999999999999</v>
@@ -54901,7 +54901,7 @@
         <v>2.38</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU268" t="n">
         <v>1.7</v>
@@ -56322,7 +56322,7 @@
         <v>1.69</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU275" t="n">
         <v>1.72</v>
@@ -58958,7 +58958,7 @@
         <v>2.07</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT288" t="n">
         <v>1.94</v>
@@ -59216,6 +59216,209 @@
       </c>
       <c r="BK289" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2547484</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45030.65625</v>
+      </c>
+      <c r="F290" t="n">
+        <v>33</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Sporting Charleroi</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="n">
+        <v>3</v>
+      </c>
+      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+      <c r="N290" t="n">
+        <v>4</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['14', '82', '90+1']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>4</v>
+      </c>
+      <c r="R290" t="n">
+        <v>2</v>
+      </c>
+      <c r="S290" t="n">
+        <v>6</v>
+      </c>
+      <c r="T290" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V290" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X290" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium Pro League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK290"/>
+  <dimension ref="A1:BK298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.94</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.06</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT8" t="n">
         <v>1.75</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT11" t="n">
         <v>1.47</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT14" t="n">
         <v>0.44</v>
@@ -3542,7 +3542,7 @@
         <v>1.94</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT16" t="n">
         <v>1.38</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0.38</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.06</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU20" t="n">
         <v>1.92</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>1.06</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU22" t="n">
         <v>1.47</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT24" t="n">
         <v>1.94</v>
@@ -5978,7 +5978,7 @@
         <v>1.38</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU27" t="n">
         <v>1.46</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU28" t="n">
         <v>1.96</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU29" t="n">
         <v>1.58</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT30" t="n">
         <v>1.38</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT31" t="n">
         <v>0.44</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU33" t="n">
         <v>2.11</v>
@@ -7399,7 +7399,7 @@
         <v>1.38</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU34" t="n">
         <v>1.18</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT35" t="n">
         <v>1.75</v>
@@ -7805,7 +7805,7 @@
         <v>1.44</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU36" t="n">
         <v>1.75</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU38" t="n">
         <v>1.9</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU39" t="n">
         <v>1.41</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>2.06</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU41" t="n">
         <v>2.06</v>
@@ -9226,7 +9226,7 @@
         <v>1.94</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU43" t="n">
         <v>1.31</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT44" t="n">
         <v>1.38</v>
@@ -9632,7 +9632,7 @@
         <v>1.56</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU45" t="n">
         <v>1.68</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU47" t="n">
         <v>1.7</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU52" t="n">
         <v>2.24</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT53" t="n">
         <v>0.75</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT54" t="n">
         <v>1.94</v>
@@ -11662,7 +11662,7 @@
         <v>1.38</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU55" t="n">
         <v>1.58</v>
@@ -12065,10 +12065,10 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU57" t="n">
         <v>2.23</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU58" t="n">
         <v>1.88</v>
@@ -12471,10 +12471,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU59" t="n">
         <v>1.54</v>
@@ -12880,7 +12880,7 @@
         <v>1.38</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT62" t="n">
         <v>1.38</v>
@@ -13286,7 +13286,7 @@
         <v>1.56</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU63" t="n">
         <v>1.89</v>
@@ -14098,7 +14098,7 @@
         <v>0.38</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT68" t="n">
         <v>0.75</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU70" t="n">
         <v>1.9</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT71" t="n">
         <v>1.75</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT72" t="n">
         <v>1.94</v>
@@ -15316,7 +15316,7 @@
         <v>1.94</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15516,10 +15516,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -15719,10 +15719,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU75" t="n">
         <v>1.56</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16128,7 +16128,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16531,10 +16531,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU79" t="n">
         <v>2.11</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT80" t="n">
         <v>1.94</v>
@@ -16940,7 +16940,7 @@
         <v>1.94</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU81" t="n">
         <v>1.72</v>
@@ -17143,7 +17143,7 @@
         <v>1.38</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU82" t="n">
         <v>1.79</v>
@@ -17346,7 +17346,7 @@
         <v>1.94</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU83" t="n">
         <v>1.66</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT85" t="n">
         <v>1.94</v>
@@ -17952,10 +17952,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU86" t="n">
         <v>1.84</v>
@@ -19170,10 +19170,10 @@
         <v>1.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU93" t="n">
         <v>2.06</v>
@@ -19579,7 +19579,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU97" t="n">
         <v>1.53</v>
@@ -20388,10 +20388,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -20794,7 +20794,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT100" t="n">
         <v>1</v>
@@ -20997,10 +20997,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU101" t="n">
         <v>1.71</v>
@@ -21203,7 +21203,7 @@
         <v>1.06</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21403,7 +21403,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT103" t="n">
         <v>0.75</v>
@@ -22421,7 +22421,7 @@
         <v>1.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -22621,7 +22621,7 @@
         <v>1.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT109" t="n">
         <v>1.94</v>
@@ -22824,10 +22824,10 @@
         <v>1.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU110" t="n">
         <v>1.72</v>
@@ -23030,7 +23030,7 @@
         <v>1.56</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU111" t="n">
         <v>1.64</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT112" t="n">
         <v>1.38</v>
@@ -23636,10 +23636,10 @@
         <v>1.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU114" t="n">
         <v>1.74</v>
@@ -23839,7 +23839,7 @@
         <v>1.8</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT115" t="n">
         <v>1.38</v>
@@ -24045,7 +24045,7 @@
         <v>2.06</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU116" t="n">
         <v>2.28</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24451,7 +24451,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU118" t="n">
         <v>1.38</v>
@@ -24651,7 +24651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT119" t="n">
         <v>1.47</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT121" t="n">
         <v>0.75</v>
@@ -25263,7 +25263,7 @@
         <v>1.38</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -25463,10 +25463,10 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU123" t="n">
         <v>1.75</v>
@@ -25666,7 +25666,7 @@
         <v>2.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT124" t="n">
         <v>1.94</v>
@@ -25872,7 +25872,7 @@
         <v>1.94</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU125" t="n">
         <v>1.82</v>
@@ -26075,7 +26075,7 @@
         <v>1.94</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,10 +26275,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT128" t="n">
         <v>0.44</v>
@@ -27087,10 +27087,10 @@
         <v>1.29</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU131" t="n">
         <v>1.68</v>
@@ -27902,7 +27902,7 @@
         <v>1.44</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU135" t="n">
         <v>1.61</v>
@@ -28305,7 +28305,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT137" t="n">
         <v>1.47</v>
@@ -28508,10 +28508,10 @@
         <v>0.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU138" t="n">
         <v>1.71</v>
@@ -28714,7 +28714,7 @@
         <v>0.38</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU139" t="n">
         <v>1.24</v>
@@ -28914,10 +28914,10 @@
         <v>1.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU140" t="n">
         <v>1.92</v>
@@ -29117,7 +29117,7 @@
         <v>1.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT141" t="n">
         <v>1.38</v>
@@ -29323,7 +29323,7 @@
         <v>1.94</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU142" t="n">
         <v>1.84</v>
@@ -29523,7 +29523,7 @@
         <v>1.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT143" t="n">
         <v>1.38</v>
@@ -29726,10 +29726,10 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU144" t="n">
         <v>1.72</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU145" t="n">
         <v>1.48</v>
@@ -30135,7 +30135,7 @@
         <v>1.44</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU146" t="n">
         <v>1.61</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT147" t="n">
         <v>0.5</v>
@@ -31759,7 +31759,7 @@
         <v>1.06</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -32365,7 +32365,7 @@
         <v>1.11</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT157" t="n">
         <v>1</v>
@@ -32571,7 +32571,7 @@
         <v>2.06</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU158" t="n">
         <v>2.08</v>
@@ -32771,7 +32771,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT159" t="n">
         <v>0.5</v>
@@ -33180,7 +33180,7 @@
         <v>1.56</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU161" t="n">
         <v>1.55</v>
@@ -33383,7 +33383,7 @@
         <v>1.38</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU162" t="n">
         <v>1.54</v>
@@ -33583,7 +33583,7 @@
         <v>1.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT163" t="n">
         <v>1.75</v>
@@ -33789,7 +33789,7 @@
         <v>1.94</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU164" t="n">
         <v>1.59</v>
@@ -33989,7 +33989,7 @@
         <v>1.13</v>
       </c>
       <c r="AS165" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT165" t="n">
         <v>1.47</v>
@@ -34192,7 +34192,7 @@
         <v>1.11</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT166" t="n">
         <v>1.38</v>
@@ -34395,10 +34395,10 @@
         <v>1.11</v>
       </c>
       <c r="AS167" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU167" t="n">
         <v>1.61</v>
@@ -34598,10 +34598,10 @@
         <v>1.56</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU168" t="n">
         <v>1.72</v>
@@ -34801,10 +34801,10 @@
         <v>1.63</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU169" t="n">
         <v>2.18</v>
@@ -35413,7 +35413,7 @@
         <v>1.44</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU172" t="n">
         <v>1.83</v>
@@ -35613,10 +35613,10 @@
         <v>1.3</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -36019,7 +36019,7 @@
         <v>0.5</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT175" t="n">
         <v>0.5</v>
@@ -36222,10 +36222,10 @@
         <v>1.6</v>
       </c>
       <c r="AS176" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU176" t="n">
         <v>1.76</v>
@@ -36425,10 +36425,10 @@
         <v>0.67</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU177" t="n">
         <v>2.14</v>
@@ -36631,7 +36631,7 @@
         <v>2.06</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU178" t="n">
         <v>2.11</v>
@@ -36834,7 +36834,7 @@
         <v>1.94</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU179" t="n">
         <v>1.87</v>
@@ -37034,7 +37034,7 @@
         <v>1.56</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT180" t="n">
         <v>1.75</v>
@@ -37846,7 +37846,7 @@
         <v>2.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT184" t="n">
         <v>1.94</v>
@@ -38049,7 +38049,7 @@
         <v>2.2</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT185" t="n">
         <v>1.94</v>
@@ -38252,7 +38252,7 @@
         <v>1.4</v>
       </c>
       <c r="AS186" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT186" t="n">
         <v>1.75</v>
@@ -38458,7 +38458,7 @@
         <v>1.06</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU187" t="n">
         <v>1.46</v>
@@ -38661,7 +38661,7 @@
         <v>1.38</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU188" t="n">
         <v>1.68</v>
@@ -39067,7 +39067,7 @@
         <v>1.38</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU190" t="n">
         <v>1.55</v>
@@ -39470,7 +39470,7 @@
         <v>1</v>
       </c>
       <c r="AS192" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT192" t="n">
         <v>1</v>
@@ -39673,10 +39673,10 @@
         <v>1</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU193" t="n">
         <v>1.89</v>
@@ -39876,10 +39876,10 @@
         <v>1.45</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU194" t="n">
         <v>1.79</v>
@@ -40079,7 +40079,7 @@
         <v>1.4</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT195" t="n">
         <v>1.38</v>
@@ -40285,7 +40285,7 @@
         <v>0.38</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU196" t="n">
         <v>1.15</v>
@@ -40691,7 +40691,7 @@
         <v>1.38</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU198" t="n">
         <v>1.54</v>
@@ -41094,7 +41094,7 @@
         <v>0.4</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT200" t="n">
         <v>0.44</v>
@@ -41300,7 +41300,7 @@
         <v>1.44</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU201" t="n">
         <v>1.81</v>
@@ -42109,10 +42109,10 @@
         <v>1.55</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -42315,7 +42315,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU206" t="n">
         <v>1.47</v>
@@ -42515,10 +42515,10 @@
         <v>1.18</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU207" t="n">
         <v>2.06</v>
@@ -42718,7 +42718,7 @@
         <v>2.4</v>
       </c>
       <c r="AS208" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT208" t="n">
         <v>1.94</v>
@@ -42921,10 +42921,10 @@
         <v>1.27</v>
       </c>
       <c r="AS209" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU209" t="n">
         <v>1.63</v>
@@ -43124,7 +43124,7 @@
         <v>1.27</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT210" t="n">
         <v>1.38</v>
@@ -43327,7 +43327,7 @@
         <v>1.27</v>
       </c>
       <c r="AS211" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT211" t="n">
         <v>1.38</v>
@@ -43533,7 +43533,7 @@
         <v>0.38</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU212" t="n">
         <v>1.17</v>
@@ -43736,7 +43736,7 @@
         <v>1.38</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU213" t="n">
         <v>1.45</v>
@@ -43936,10 +43936,10 @@
         <v>1.55</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU214" t="n">
         <v>1.73</v>
@@ -44139,7 +44139,7 @@
         <v>1.27</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT215" t="n">
         <v>1.47</v>
@@ -44545,10 +44545,10 @@
         <v>0.82</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU217" t="n">
         <v>1.84</v>
@@ -45154,7 +45154,7 @@
         <v>0.36</v>
       </c>
       <c r="AS220" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT220" t="n">
         <v>0.44</v>
@@ -45357,10 +45357,10 @@
         <v>1.42</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU221" t="n">
         <v>1.79</v>
@@ -45563,7 +45563,7 @@
         <v>1.56</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU222" t="n">
         <v>1.47</v>
@@ -45763,7 +45763,7 @@
         <v>1.5</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT223" t="n">
         <v>1.75</v>
@@ -45969,7 +45969,7 @@
         <v>1.38</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU224" t="n">
         <v>1.67</v>
@@ -46172,7 +46172,7 @@
         <v>1.94</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU225" t="n">
         <v>1.58</v>
@@ -46575,7 +46575,7 @@
         <v>2.33</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT227" t="n">
         <v>1.94</v>
@@ -46778,7 +46778,7 @@
         <v>0.92</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT228" t="n">
         <v>0.75</v>
@@ -46981,7 +46981,7 @@
         <v>1.25</v>
       </c>
       <c r="AS229" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT229" t="n">
         <v>1.47</v>
@@ -47187,7 +47187,7 @@
         <v>0.38</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU230" t="n">
         <v>1.19</v>
@@ -47387,7 +47387,7 @@
         <v>1.25</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT231" t="n">
         <v>1.38</v>
@@ -47590,10 +47590,10 @@
         <v>1.5</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU232" t="n">
         <v>1.71</v>
@@ -47796,7 +47796,7 @@
         <v>1.94</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU233" t="n">
         <v>1.86</v>
@@ -47999,7 +47999,7 @@
         <v>1.06</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU234" t="n">
         <v>1.51</v>
@@ -48405,7 +48405,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU236" t="n">
         <v>1.45</v>
@@ -48808,7 +48808,7 @@
         <v>0.54</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT238" t="n">
         <v>0.5</v>
@@ -49011,7 +49011,7 @@
         <v>1.15</v>
       </c>
       <c r="AS239" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT239" t="n">
         <v>1</v>
@@ -49214,7 +49214,7 @@
         <v>2.08</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT240" t="n">
         <v>1.94</v>
@@ -49420,7 +49420,7 @@
         <v>2.06</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU241" t="n">
         <v>1.97</v>
@@ -50029,7 +50029,7 @@
         <v>1.56</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU244" t="n">
         <v>1.51</v>
@@ -50229,10 +50229,10 @@
         <v>1.46</v>
       </c>
       <c r="AS245" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU245" t="n">
         <v>1.62</v>
@@ -50635,10 +50635,10 @@
         <v>1</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU247" t="n">
         <v>1.79</v>
@@ -50841,7 +50841,7 @@
         <v>1.44</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU248" t="n">
         <v>1.7</v>
@@ -51447,7 +51447,7 @@
         <v>0.54</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT251" t="n">
         <v>0.44</v>
@@ -51653,7 +51653,7 @@
         <v>1.94</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU252" t="n">
         <v>1.84</v>
@@ -51853,7 +51853,7 @@
         <v>0.85</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT253" t="n">
         <v>0.75</v>
@@ -52059,7 +52059,7 @@
         <v>1.56</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU254" t="n">
         <v>1.57</v>
@@ -52259,10 +52259,10 @@
         <v>1.43</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU255" t="n">
         <v>1.86</v>
@@ -52462,10 +52462,10 @@
         <v>1</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU256" t="n">
         <v>1.74</v>
@@ -52665,7 +52665,7 @@
         <v>0.5</v>
       </c>
       <c r="AS257" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT257" t="n">
         <v>0.5</v>
@@ -53277,7 +53277,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU260" t="n">
         <v>1.5</v>
@@ -53477,7 +53477,7 @@
         <v>1.93</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT261" t="n">
         <v>1.94</v>
@@ -53883,7 +53883,7 @@
         <v>2.14</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT263" t="n">
         <v>1.94</v>
@@ -54089,7 +54089,7 @@
         <v>1.06</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU264" t="n">
         <v>1.51</v>
@@ -54292,7 +54292,7 @@
         <v>1.38</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU265" t="n">
         <v>1.34</v>
@@ -54492,7 +54492,7 @@
         <v>1.29</v>
       </c>
       <c r="AS266" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT266" t="n">
         <v>1.38</v>
@@ -54698,7 +54698,7 @@
         <v>1.94</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU267" t="n">
         <v>1.64</v>
@@ -54898,7 +54898,7 @@
         <v>1.36</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT268" t="n">
         <v>1.47</v>
@@ -55104,7 +55104,7 @@
         <v>1.44</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU269" t="n">
         <v>1.72</v>
@@ -55304,7 +55304,7 @@
         <v>0.5</v>
       </c>
       <c r="AS270" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT270" t="n">
         <v>0.44</v>
@@ -55913,10 +55913,10 @@
         <v>0.93</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU273" t="n">
         <v>1.85</v>
@@ -56119,7 +56119,7 @@
         <v>0.38</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU274" t="n">
         <v>1.14</v>
@@ -56319,7 +56319,7 @@
         <v>1.47</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT275" t="n">
         <v>1.47</v>
@@ -56522,7 +56522,7 @@
         <v>1.27</v>
       </c>
       <c r="AS276" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT276" t="n">
         <v>1.38</v>
@@ -56725,10 +56725,10 @@
         <v>1.27</v>
       </c>
       <c r="AS277" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU277" t="n">
         <v>1.96</v>
@@ -56928,10 +56928,10 @@
         <v>1.4</v>
       </c>
       <c r="AS278" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU278" t="n">
         <v>1.61</v>
@@ -57131,10 +57131,10 @@
         <v>1.27</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU279" t="n">
         <v>1.84</v>
@@ -57334,10 +57334,10 @@
         <v>1.33</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU280" t="n">
         <v>1.81</v>
@@ -57540,7 +57540,7 @@
         <v>2.06</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU281" t="n">
         <v>1.91</v>
@@ -58149,7 +58149,7 @@
         <v>1.56</v>
       </c>
       <c r="AT284" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU284" t="n">
         <v>1.64</v>
@@ -58755,7 +58755,7 @@
         <v>1.07</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT287" t="n">
         <v>1</v>
@@ -59280,13 +59280,13 @@
         </is>
       </c>
       <c r="Q290" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R290" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S290" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T290" t="n">
         <v>2.6</v>
@@ -59403,22 +59403,1646 @@
         <v>2.7</v>
       </c>
       <c r="BF290" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2547491</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45031.45833333334</v>
+      </c>
+      <c r="F291" t="n">
+        <v>33</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>AS Eupen</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>4</v>
+      </c>
+      <c r="K291" t="n">
+        <v>4</v>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="n">
         <v>5</v>
       </c>
-      <c r="BH290" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI290" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ290" t="n">
+      <c r="N291" t="n">
+        <v>6</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['5', '28', '39', '45+2', '79']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
         <v>4</v>
       </c>
-      <c r="BK290" t="n">
+      <c r="R291" t="n">
+        <v>3</v>
+      </c>
+      <c r="S291" t="n">
         <v>7</v>
+      </c>
+      <c r="T291" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V291" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X291" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2547487</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45031.55208333334</v>
+      </c>
+      <c r="F292" t="n">
+        <v>33</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>2</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>2</v>
+      </c>
+      <c r="L292" t="n">
+        <v>3</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="N292" t="n">
+        <v>4</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['41', '45+2', '84']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>4</v>
+      </c>
+      <c r="R292" t="n">
+        <v>1</v>
+      </c>
+      <c r="S292" t="n">
+        <v>5</v>
+      </c>
+      <c r="T292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V292" t="n">
+        <v>5</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2547492</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45031.55208333334</v>
+      </c>
+      <c r="F293" t="n">
+        <v>33</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>2</v>
+      </c>
+      <c r="K293" t="n">
+        <v>2</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>4</v>
+      </c>
+      <c r="N293" t="n">
+        <v>4</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['22', '44', '58', '88']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>7</v>
+      </c>
+      <c r="R293" t="n">
+        <v>6</v>
+      </c>
+      <c r="S293" t="n">
+        <v>13</v>
+      </c>
+      <c r="T293" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V293" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X293" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2547490</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45031.65625</v>
+      </c>
+      <c r="F294" t="n">
+        <v>33</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>4</v>
+      </c>
+      <c r="R294" t="n">
+        <v>13</v>
+      </c>
+      <c r="S294" t="n">
+        <v>17</v>
+      </c>
+      <c r="T294" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X294" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2547485</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45032.35416666666</v>
+      </c>
+      <c r="F295" t="n">
+        <v>33</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>KRC Genk</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>2</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K295" t="n">
+        <v>3</v>
+      </c>
+      <c r="L295" t="n">
+        <v>5</v>
+      </c>
+      <c r="M295" t="n">
+        <v>2</v>
+      </c>
+      <c r="N295" t="n">
+        <v>7</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>['36', '45+2', '49', '53', '87']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['43', '64']</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>7</v>
+      </c>
+      <c r="R295" t="n">
+        <v>2</v>
+      </c>
+      <c r="S295" t="n">
+        <v>9</v>
+      </c>
+      <c r="T295" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V295" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X295" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2547489</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45032.45833333334</v>
+      </c>
+      <c r="F296" t="n">
+        <v>33</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1</v>
+      </c>
+      <c r="K296" t="n">
+        <v>2</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" t="n">
+        <v>2</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>3</v>
+      </c>
+      <c r="R296" t="n">
+        <v>6</v>
+      </c>
+      <c r="S296" t="n">
+        <v>9</v>
+      </c>
+      <c r="T296" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V296" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X296" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2547486</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45032.5625</v>
+      </c>
+      <c r="F297" t="n">
+        <v>33</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>12</v>
+      </c>
+      <c r="R297" t="n">
+        <v>2</v>
+      </c>
+      <c r="S297" t="n">
+        <v>14</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V297" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X297" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2547488</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Belgium Pro League</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45032.59375</v>
+      </c>
+      <c r="F298" t="n">
+        <v>33</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>2</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>2</v>
+      </c>
+      <c r="L298" t="n">
+        <v>2</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+      <c r="N298" t="n">
+        <v>3</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['17', '34']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>11</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2</v>
+      </c>
+      <c r="S298" t="n">
+        <v>13</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U298" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V298" t="n">
+        <v>12</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X298" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
